--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E15D801-46DA-47EF-BD65-C85CAE9B301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435B4AB-AD48-4240-B858-8589981A3EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -1009,11 +1009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B68" si="1">B3</f>
+        <f t="shared" ref="B4:B69" si="1">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1175,7 +1175,7 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E68" si="2">E3</f>
+        <f t="shared" ref="E4:E69" si="2">E3</f>
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -1194,14 +1194,14 @@
         <v>2400</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K68" si="3">K3</f>
+        <f t="shared" ref="K4:K69" si="3">K3</f>
         <v>25</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M68" si="4">M3</f>
+        <f t="shared" ref="M4:M69" si="4">M3</f>
         <v>0</v>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J68" si="6">J52+200</f>
+        <f t="shared" ref="J53:J70" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3459,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L68" si="7">L52+200</f>
+        <f t="shared" ref="L53:L70" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4176,11 +4176,11 @@
         <v>1-1</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68" si="16">IF(MOD(A68,5)=0,9021,25)</f>
+        <f t="shared" ref="C68:C70" si="16">IF(MOD(A68,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68" si="17">IF(C68=9021,D63+1,IF(AND(C68=25,C67=25),D67+2000,D66+2000))</f>
+        <f t="shared" ref="D68:D70" si="17">IF(C68=9021,D63+1,IF(AND(C68=25,C67=25),D67+2000,D66+2000))</f>
         <v>74000</v>
       </c>
       <c r="E68">
@@ -4217,9 +4217,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="17"/>
+        <v>76000</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP(A69,Balance!E:G,3,FALSE)</f>
+        <v>5.0088000000000005E+128</v>
+      </c>
+      <c r="G69">
+        <v>1000</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>15400</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="7"/>
+        <v>13600</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" ref="B70" si="18">B69</f>
+        <v>1-1</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="17"/>
+        <v>78000</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70" si="19">E69</f>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP(A70,Balance!E:G,3,FALSE)</f>
+        <v>2.5544880000000002E+130</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>15600</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70" si="20">K69</f>
+        <v>25</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="7"/>
+        <v>13800</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70" si="21">M69</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M68 A3:C68 E4:E68 G62:K68">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M70 A3:C70 E4:E70 G62:K70">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4231,10 +4331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4479,7 +4579,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H75" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H79" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -7006,11 +7106,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F74" si="24">H73&amp;I73</f>
+        <f t="shared" ref="F73:F77" si="24">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G74" si="25">H73*J73</f>
+        <f t="shared" ref="G73:G77" si="25">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -7022,11 +7122,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J77" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K74" si="27">$B$14*E73</f>
+        <f t="shared" ref="K73:K77" si="27">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -7058,6 +7158,72 @@
         <f t="shared" si="27"/>
         <v>13200</v>
       </c>
+    </row>
+    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E75" s="16">
+        <v>67</v>
+      </c>
+      <c r="F75" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>5.0088위</v>
+      </c>
+      <c r="G75" s="17">
+        <f t="shared" si="25"/>
+        <v>5.0088000000000005E+128</v>
+      </c>
+      <c r="H75" s="17">
+        <f t="shared" si="6"/>
+        <v>5.0087999999999999</v>
+      </c>
+      <c r="I75" s="16" t="str" cm="1">
+        <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;100),INDEX(M:M,MATCH(I74,M:M,0)+1,0),I74)</f>
+        <v>위</v>
+      </c>
+      <c r="J75" s="16" t="str">
+        <f t="shared" si="26"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="27"/>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E76" s="16">
+        <v>68</v>
+      </c>
+      <c r="F76" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v>255.4488위</v>
+      </c>
+      <c r="G76" s="17">
+        <f t="shared" si="25"/>
+        <v>2.5544880000000002E+130</v>
+      </c>
+      <c r="H76" s="17">
+        <f t="shared" si="6"/>
+        <v>255.44880000000001</v>
+      </c>
+      <c r="I76" s="16" t="str" cm="1">
+        <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;100),INDEX(M:M,MATCH(I75,M:M,0)+1,0),I75)</f>
+        <v>위</v>
+      </c>
+      <c r="J76" s="16" t="str">
+        <f t="shared" si="26"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K76" s="11">
+        <f t="shared" si="27"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7435B4AB-AD48-4240-B858-8589981A3EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB00D7-E098-44A0-BC1B-045643409F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,14 @@
   </si>
   <si>
     <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1009,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M69" sqref="M69"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B69" si="1">B3</f>
+        <f t="shared" ref="B4:B71" si="1">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1175,7 +1183,7 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E69" si="2">E3</f>
+        <f t="shared" ref="E4:E71" si="2">E3</f>
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -1194,14 +1202,14 @@
         <v>2400</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K69" si="3">K3</f>
+        <f t="shared" ref="K4:K71" si="3">K3</f>
         <v>25</v>
       </c>
       <c r="L4">
         <v>600</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M69" si="4">M3</f>
+        <f t="shared" ref="M4:M71" si="4">M3</f>
         <v>0</v>
       </c>
     </row>
@@ -3451,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J70" si="6">J52+200</f>
+        <f t="shared" ref="J53:J73" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3459,7 +3467,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L70" si="7">L52+200</f>
+        <f t="shared" ref="L53:L73" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4317,9 +4325,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1-1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C73" si="22">IF(MOD(A71,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D73" si="23">IF(C71=9021,D66+1,IF(AND(C71=25,C70=25),D70+2000,D69+2000))</f>
+        <v>80000</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f>VLOOKUP(A71,Balance!E:G,3,FALSE)</f>
+        <v>1.3027999999999999E+132</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>15800</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" ref="B72:B73" si="24">B71</f>
+        <v>1-1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="22"/>
+        <v>9021</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:E73" si="25">E71</f>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP(A72,Balance!E:G,3,FALSE)</f>
+        <v>6.6442800000000007E+133</v>
+      </c>
+      <c r="G72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>16000</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K73" si="26">K71</f>
+        <v>25</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="7"/>
+        <v>14200</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ref="M72:M73" si="27">M71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="23"/>
+        <v>82000</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP(A73,Balance!E:G,3,FALSE)</f>
+        <v>3.3885828000000001E+135</v>
+      </c>
+      <c r="G73">
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>16200</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="7"/>
+        <v>14400</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M70 A3:C70 E4:E70 G62:K70">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M73 A3:C73 E4:E73 G62:K73">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4331,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="B57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4579,7 +4737,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H79" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H81" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -5843,11 +6001,11 @@
         <v>124</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" ref="O38:O39" si="12">POWER(10,N38)</f>
+        <f t="shared" ref="O38:O40" si="12">POWER(10,N38)</f>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="17" t="str">
-        <f t="shared" ref="P38:P39" si="13">RIGHT(O38,N38)</f>
+        <f t="shared" ref="P38:P40" si="13">RIGHT(O38,N38)</f>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="11"/>
@@ -5941,8 +6099,20 @@
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="M40" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="16">
+        <v>132</v>
+      </c>
+      <c r="O40" s="17">
+        <f t="shared" ref="O40" si="14">POWER(10,N40)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="P40" s="17" t="str">
+        <f t="shared" ref="P40" si="15">RIGHT(O40,N40)</f>
+        <v>1E+132</v>
+      </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -5974,15 +6144,27 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J72" si="14">VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f t="shared" ref="J41:J72" si="16">VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" ref="K41:K62" si="15">$B$14*E41</f>
+        <f t="shared" ref="K41:K62" si="17">$B$14*E41</f>
         <v>6600</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="M41" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" s="16">
+        <v>136</v>
+      </c>
+      <c r="O41" s="17">
+        <f t="shared" ref="O41" si="18">POWER(10,N41)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="P41" s="17" t="str">
+        <f t="shared" ref="P41" si="19">RIGHT(O41,N41)</f>
+        <v>1E+136</v>
+      </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
@@ -6014,11 +6196,11 @@
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6800</v>
       </c>
       <c r="O42" s="11"/>
@@ -6054,11 +6236,11 @@
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7000</v>
       </c>
       <c r="O43" s="11"/>
@@ -6094,11 +6276,11 @@
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7200</v>
       </c>
       <c r="O44" s="11"/>
@@ -6134,11 +6316,11 @@
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7400</v>
       </c>
       <c r="O45" s="11"/>
@@ -6174,11 +6356,11 @@
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7600</v>
       </c>
       <c r="O46" s="11"/>
@@ -6214,11 +6396,11 @@
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7800</v>
       </c>
       <c r="O47" s="11"/>
@@ -6254,11 +6436,11 @@
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
       <c r="O48" s="11"/>
@@ -6294,11 +6476,11 @@
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8200</v>
       </c>
       <c r="O49" s="11"/>
@@ -6334,11 +6516,11 @@
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8400</v>
       </c>
       <c r="O50" s="11"/>
@@ -6374,11 +6556,11 @@
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8600</v>
       </c>
       <c r="O51" s="11"/>
@@ -6414,11 +6596,11 @@
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8800</v>
       </c>
       <c r="O52" s="11"/>
@@ -6454,11 +6636,11 @@
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9000</v>
       </c>
       <c r="O53" s="11"/>
@@ -6494,11 +6676,11 @@
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9200</v>
       </c>
       <c r="O54" s="11"/>
@@ -6534,11 +6716,11 @@
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9400</v>
       </c>
       <c r="O55" s="11"/>
@@ -6574,11 +6756,11 @@
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9600</v>
       </c>
       <c r="O56" s="11"/>
@@ -6614,11 +6796,11 @@
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9800</v>
       </c>
       <c r="O57" s="11"/>
@@ -6654,11 +6836,11 @@
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="O58" s="11"/>
@@ -6694,11 +6876,11 @@
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10200</v>
       </c>
       <c r="O59" s="11"/>
@@ -6734,11 +6916,11 @@
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10400</v>
       </c>
       <c r="O60" s="11"/>
@@ -6758,11 +6940,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="16">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="20">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="17">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="21">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -6774,11 +6956,11 @@
         <v>승</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10600</v>
       </c>
     </row>
@@ -6787,11 +6969,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -6803,11 +6985,11 @@
         <v>승</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10800</v>
       </c>
     </row>
@@ -6816,11 +6998,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="18">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="22">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="19">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="23">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -6832,11 +7014,11 @@
         <v>마</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="20">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="24">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -6845,11 +7027,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -6861,11 +7043,11 @@
         <v>마</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>11200</v>
       </c>
     </row>
@@ -6874,11 +7056,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -6890,11 +7072,11 @@
         <v>마</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>11400</v>
       </c>
     </row>
@@ -6903,11 +7085,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="21">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="25">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="22">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="26">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -6919,11 +7101,11 @@
         <v>살</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="23">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="27">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -6932,11 +7114,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -6948,11 +7130,11 @@
         <v>살</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11800</v>
       </c>
     </row>
@@ -6961,11 +7143,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -6977,11 +7159,11 @@
         <v>섬</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12000</v>
       </c>
     </row>
@@ -6990,11 +7172,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -7006,11 +7188,11 @@
         <v>섬</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12200</v>
       </c>
     </row>
@@ -7019,11 +7201,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -7035,11 +7217,11 @@
         <v>찰</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12400</v>
       </c>
     </row>
@@ -7048,11 +7230,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -7064,11 +7246,11 @@
         <v>찰</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12600</v>
       </c>
     </row>
@@ -7077,11 +7259,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -7093,11 +7275,11 @@
         <v>찰</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12800</v>
       </c>
     </row>
@@ -7106,11 +7288,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F77" si="24">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="28">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G77" si="25">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="29">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -7122,11 +7304,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J77" si="26">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J76" si="30">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K77" si="27">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="31">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -7135,11 +7317,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -7151,11 +7333,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>13200</v>
       </c>
     </row>
@@ -7164,11 +7346,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -7180,11 +7362,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>13400</v>
       </c>
     </row>
@@ -7193,11 +7375,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -7209,21 +7391,158 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>13600</v>
       </c>
     </row>
     <row r="77" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E77" s="16"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
+      <c r="E77" s="16">
+        <v>69</v>
+      </c>
+      <c r="F77" s="17" t="str">
+        <f t="shared" ref="F77:F81" si="32">H77&amp;I77</f>
+        <v>1.3028설</v>
+      </c>
+      <c r="G77" s="17">
+        <f t="shared" ref="G77:G81" si="33">H77*J77</f>
+        <v>1.3027999999999999E+132</v>
+      </c>
+      <c r="H77" s="17">
+        <f t="shared" si="6"/>
+        <v>1.3028</v>
+      </c>
+      <c r="I77" s="16" t="str" cm="1">
+        <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;100),INDEX(M:M,MATCH(I76,M:M,0)+1,0),I76)</f>
+        <v>설</v>
+      </c>
+      <c r="J77" s="16" t="str">
+        <f t="shared" ref="J77:J81" si="34">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <v>1E+132</v>
+      </c>
+      <c r="K77" s="11">
+        <f t="shared" ref="K77:K81" si="35">$B$14*E77</f>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E78" s="16">
+        <v>70</v>
+      </c>
+      <c r="F78" s="17" t="str">
+        <f t="shared" si="32"/>
+        <v>66.4428설</v>
+      </c>
+      <c r="G78" s="17">
+        <f t="shared" si="33"/>
+        <v>6.6442800000000007E+133</v>
+      </c>
+      <c r="H78" s="17">
+        <f t="shared" si="6"/>
+        <v>66.442800000000005</v>
+      </c>
+      <c r="I78" s="16" t="str" cm="1">
+        <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;100),INDEX(M:M,MATCH(I77,M:M,0)+1,0),I77)</f>
+        <v>설</v>
+      </c>
+      <c r="J78" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="35"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E79" s="16">
+        <v>71</v>
+      </c>
+      <c r="F79" s="17" t="str">
+        <f t="shared" si="32"/>
+        <v>3388.5828설</v>
+      </c>
+      <c r="G79" s="17">
+        <f t="shared" si="33"/>
+        <v>3.3885828000000001E+135</v>
+      </c>
+      <c r="H79" s="17">
+        <f t="shared" si="6"/>
+        <v>3388.5828000000001</v>
+      </c>
+      <c r="I79" s="16" t="str" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;100,H79&lt;100),INDEX(M:M,MATCH(I78,M:M,0)+1,0),I78)</f>
+        <v>설</v>
+      </c>
+      <c r="J79" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+132</v>
+      </c>
+      <c r="K79" s="11">
+        <f t="shared" si="35"/>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E80" s="16">
+        <v>72</v>
+      </c>
+      <c r="F80" s="17" t="str">
+        <f t="shared" si="32"/>
+        <v>17.2818a</v>
+      </c>
+      <c r="G80" s="17">
+        <f t="shared" si="33"/>
+        <v>1.7281800000000001E+137</v>
+      </c>
+      <c r="H80" s="17">
+        <f t="shared" si="6"/>
+        <v>17.2818</v>
+      </c>
+      <c r="I80" s="16" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;100,H80&lt;100),INDEX(M:M,MATCH(I79,M:M,0)+1,0),I79)</f>
+        <v>a</v>
+      </c>
+      <c r="J80" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K80" s="11">
+        <f t="shared" si="35"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E81" s="16">
+        <v>73</v>
+      </c>
+      <c r="F81" s="17" t="str">
+        <f t="shared" si="32"/>
+        <v>881.3718a</v>
+      </c>
+      <c r="G81" s="17">
+        <f t="shared" si="33"/>
+        <v>8.8137180000000002E+138</v>
+      </c>
+      <c r="H81" s="17">
+        <f t="shared" si="6"/>
+        <v>881.37180000000001</v>
+      </c>
+      <c r="I81" s="16" t="str" cm="1">
+        <f t="array" ref="I81">IF(AND(H80&gt;100,H81&lt;100),INDEX(M:M,MATCH(I80,M:M,0)+1,0),I80)</f>
+        <v>a</v>
+      </c>
+      <c r="J81" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+136</v>
+      </c>
+      <c r="K81" s="11">
+        <f t="shared" si="35"/>
+        <v>14600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FB00D7-E098-44A0-BC1B-045643409F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3491D7-1640-4C74-B361-D6A85515EEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,7 +418,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J73" si="6">J52+200</f>
+        <f t="shared" ref="J53:J75" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3467,7 +3467,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L73" si="7">L52+200</f>
+        <f t="shared" ref="L53:L75" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4334,11 +4334,11 @@
         <v>1-1</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:C73" si="22">IF(MOD(A71,5)=0,9021,25)</f>
+        <f t="shared" ref="C71:C75" si="22">IF(MOD(A71,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:D73" si="23">IF(C71=9021,D66+1,IF(AND(C71=25,C70=25),D70+2000,D69+2000))</f>
+        <f t="shared" ref="D71:D75" si="23">IF(C71=9021,D66+1,IF(AND(C71=25,C70=25),D70+2000,D69+2000))</f>
         <v>80000</v>
       </c>
       <c r="E71">
@@ -4380,7 +4380,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B73" si="24">B71</f>
+        <f t="shared" ref="B72:B75" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4392,7 +4392,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E73" si="25">E71</f>
+        <f t="shared" ref="E72:E75" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4413,7 +4413,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K73" si="26">K71</f>
+        <f t="shared" ref="K72:K75" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4421,7 +4421,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M73" si="27">M71</f>
+        <f t="shared" ref="M72:M75" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -4475,9 +4475,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="23"/>
+        <v>84000</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP(A74,Balance!E:G,3,FALSE)</f>
+        <v>1.7281800000000001E+137</v>
+      </c>
+      <c r="G74">
+        <v>1000</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>16400</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="7"/>
+        <v>14600</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="23"/>
+        <v>86000</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP(A75,Balance!E:G,3,FALSE)</f>
+        <v>8.8137180000000002E+138</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>16600</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>14800</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M73 A3:C73 E4:E73 G62:K73">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M75 A3:C75 E4:E75 G62:K75">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4491,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:Y81"/>
   <sheetViews>
-    <sheetView topLeftCell="B57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6001,11 +6101,11 @@
         <v>124</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" ref="O38:O40" si="12">POWER(10,N38)</f>
+        <f t="shared" ref="O38:O39" si="12">POWER(10,N38)</f>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="17" t="str">
-        <f t="shared" ref="P38:P40" si="13">RIGHT(O38,N38)</f>
+        <f t="shared" ref="P38:P39" si="13">RIGHT(O38,N38)</f>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="11"/>
@@ -7492,19 +7592,18 @@
       </c>
       <c r="F80" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>17.2818a</v>
+        <v>17.2818적</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="33"/>
+        <f>H80*J80</f>
         <v>1.7281800000000001E+137</v>
       </c>
       <c r="H80" s="17">
         <f t="shared" si="6"/>
         <v>17.2818</v>
       </c>
-      <c r="I80" s="16" t="str" cm="1">
-        <f t="array" ref="I80">IF(AND(H79&gt;100,H80&lt;100),INDEX(M:M,MATCH(I79,M:M,0)+1,0),I79)</f>
-        <v>a</v>
+      <c r="I80" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="J80" s="16" t="str">
         <f t="shared" si="34"/>
@@ -7521,7 +7620,7 @@
       </c>
       <c r="F81" s="17" t="str">
         <f t="shared" si="32"/>
-        <v>881.3718a</v>
+        <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
         <f t="shared" si="33"/>
@@ -7531,9 +7630,8 @@
         <f t="shared" si="6"/>
         <v>881.37180000000001</v>
       </c>
-      <c r="I81" s="16" t="str" cm="1">
-        <f t="array" ref="I81">IF(AND(H80&gt;100,H81&lt;100),INDEX(M:M,MATCH(I80,M:M,0)+1,0),I80)</f>
-        <v>a</v>
+      <c r="I81" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="J81" s="16" t="str">
         <f t="shared" si="34"/>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3491D7-1640-4C74-B361-D6A85515EEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E102A42-1C91-4F98-AE8E-94B1831837BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +688,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1017,11 +1043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3459,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J75" si="6">J52+200</f>
+        <f t="shared" ref="J53:J78" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3467,7 +3493,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L75" si="7">L52+200</f>
+        <f t="shared" ref="L53:L78" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4380,7 +4406,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B75" si="24">B71</f>
+        <f t="shared" ref="B72:B78" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4392,7 +4418,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E75" si="25">E71</f>
+        <f t="shared" ref="E72:E78" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4413,7 +4439,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K75" si="26">K71</f>
+        <f t="shared" ref="K72:K78" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4421,7 +4447,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M75" si="27">M71</f>
+        <f t="shared" ref="M72:M78" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -4575,9 +4601,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:C78" si="28">IF(MOD(A76,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:D78" si="29">IF(C76=9021,D71+1,IF(AND(C76=25,C75=25),D75+2000,D74+2000))</f>
+        <v>88000</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <f>VLOOKUP(A76,Balance!E:G,3,FALSE)</f>
+        <v>4.4950000000000001E+140</v>
+      </c>
+      <c r="G76">
+        <v>1000</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>16800</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>15000</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="28"/>
+        <v>9021</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP(A77,Balance!E:G,3,FALSE)</f>
+        <v>2.2924500000000003E+142</v>
+      </c>
+      <c r="G77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>17000</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="7"/>
+        <v>15200</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M75 A3:C75 E4:E75 G62:K75">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M77 A3:C77 E4:E77 G62:K77">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4589,10 +4715,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4837,7 +4963,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H81" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H84" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -6303,8 +6429,20 @@
         <f t="shared" si="17"/>
         <v>6800</v>
       </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="M42" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="16">
+        <v>140</v>
+      </c>
+      <c r="O42" s="17">
+        <f t="shared" ref="O42" si="20">POWER(10,N42)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="P42" s="17" t="str">
+        <f t="shared" ref="P42" si="21">RIGHT(O42,N42)</f>
+        <v>1E+140</v>
+      </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
@@ -7040,11 +7178,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="20">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="22">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="21">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="23">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -7069,11 +7207,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -7098,11 +7236,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="22">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="24">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="23">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="25">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -7118,7 +7256,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="24">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="26">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -7127,11 +7265,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -7147,7 +7285,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11200</v>
       </c>
     </row>
@@ -7156,11 +7294,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -7176,7 +7314,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>11400</v>
       </c>
     </row>
@@ -7185,11 +7323,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="25">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="27">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="26">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="28">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -7205,7 +7343,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="27">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="29">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -7214,11 +7352,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -7234,7 +7372,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>11800</v>
       </c>
     </row>
@@ -7243,11 +7381,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -7263,7 +7401,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>12000</v>
       </c>
     </row>
@@ -7272,11 +7410,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -7292,7 +7430,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>12200</v>
       </c>
     </row>
@@ -7301,11 +7439,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -7321,7 +7459,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>12400</v>
       </c>
     </row>
@@ -7330,11 +7468,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -7350,7 +7488,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>12600</v>
       </c>
     </row>
@@ -7359,11 +7497,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -7379,7 +7517,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>12800</v>
       </c>
     </row>
@@ -7388,11 +7526,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="28">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="30">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="29">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="31">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -7404,11 +7542,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J76" si="30">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J76" si="32">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="31">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="33">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -7417,11 +7555,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -7433,11 +7571,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>13200</v>
       </c>
     </row>
@@ -7446,11 +7584,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -7462,11 +7600,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>13400</v>
       </c>
     </row>
@@ -7475,11 +7613,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -7491,11 +7629,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>13600</v>
       </c>
     </row>
@@ -7504,11 +7642,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F81" si="32">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="34">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="33">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="35">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -7520,11 +7658,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" ref="J77:J81" si="34">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f t="shared" ref="J77:J79" si="36">VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="35">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="37">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -7533,11 +7671,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -7549,11 +7687,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14000</v>
       </c>
     </row>
@@ -7562,11 +7700,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -7578,11 +7716,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14200</v>
       </c>
     </row>
@@ -7591,7 +7729,7 @@
         <v>72</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f>H80&amp;I80</f>
         <v>17.2818적</v>
       </c>
       <c r="G80" s="17">
@@ -7602,15 +7740,16 @@
         <f t="shared" si="6"/>
         <v>17.2818</v>
       </c>
-      <c r="I80" s="16" t="s">
-        <v>90</v>
+      <c r="I80" s="16" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;100,H80&lt;100),INDEX(M:M,MATCH(I79,M:M,0)+1,0),I79)</f>
+        <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f>VLOOKUP(I80,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14400</v>
       </c>
     </row>
@@ -7619,27 +7758,86 @@
         <v>73</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f>H81&amp;I81</f>
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
         <f t="shared" si="6"/>
         <v>881.37180000000001</v>
       </c>
-      <c r="I81" s="16" t="s">
-        <v>90</v>
+      <c r="I81" s="16" t="str" cm="1">
+        <f t="array" ref="I81">IF(AND(H80&gt;100,H81&lt;100),INDEX(M:M,MATCH(I80,M:M,0)+1,0),I80)</f>
+        <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f>VLOOKUP(I81,M:P,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>14600</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E82" s="16">
+        <v>74</v>
+      </c>
+      <c r="F82" s="17" t="str">
+        <f t="shared" ref="F82:F84" si="38">H82&amp;I82</f>
+        <v>4.495고</v>
+      </c>
+      <c r="G82" s="17">
+        <f t="shared" ref="G82:G84" si="39">H82*J82</f>
+        <v>4.4950000000000001E+140</v>
+      </c>
+      <c r="H82" s="17">
+        <f t="shared" si="6"/>
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="I82" s="16" t="str" cm="1">
+        <f t="array" ref="I82">IF(AND(H81&gt;100,H82&lt;100),INDEX(M:M,MATCH(I81,M:M,0)+1,0),I81)</f>
+        <v>고</v>
+      </c>
+      <c r="J82" s="16" t="str">
+        <f t="shared" ref="J82:J84" si="40">VLOOKUP(I82,M:P,4,FALSE)</f>
+        <v>1E+140</v>
+      </c>
+      <c r="K82" s="11">
+        <f t="shared" ref="K82:K84" si="41">$B$14*E82</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E83" s="16">
+        <v>75</v>
+      </c>
+      <c r="F83" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>229.245고</v>
+      </c>
+      <c r="G83" s="17">
+        <f t="shared" si="39"/>
+        <v>2.2924500000000003E+142</v>
+      </c>
+      <c r="H83" s="17">
+        <f t="shared" si="6"/>
+        <v>229.245</v>
+      </c>
+      <c r="I83" s="16" t="str" cm="1">
+        <f t="array" ref="I83">IF(AND(H82&gt;100,H83&lt;100),INDEX(M:M,MATCH(I82,M:M,0)+1,0),I82)</f>
+        <v>고</v>
+      </c>
+      <c r="J83" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="41"/>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E102A42-1C91-4F98-AE8E-94B1831837BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47449C-E94A-433C-B430-6A108018F864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,29 +692,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1043,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3485,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J78" si="6">J52+200</f>
+        <f t="shared" ref="J53:J81" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3493,7 +3475,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L78" si="7">L52+200</f>
+        <f t="shared" ref="L53:L81" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4406,7 +4388,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B78" si="24">B71</f>
+        <f t="shared" ref="B72:B81" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4418,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E78" si="25">E71</f>
+        <f t="shared" ref="E72:E81" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4439,7 +4421,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K78" si="26">K71</f>
+        <f t="shared" ref="K72:K81" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4447,7 +4429,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M78" si="27">M71</f>
+        <f t="shared" ref="M72:M81" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -4610,11 +4592,11 @@
         <v>1-1</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:C78" si="28">IF(MOD(A76,5)=0,9021,25)</f>
+        <f t="shared" ref="C76:C79" si="28">IF(MOD(A76,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76:D78" si="29">IF(C76=9021,D71+1,IF(AND(C76=25,C75=25),D75+2000,D74+2000))</f>
+        <f t="shared" ref="D76:D79" si="29">IF(C76=9021,D71+1,IF(AND(C76=25,C75=25),D75+2000,D74+2000))</f>
         <v>88000</v>
       </c>
       <c r="E76">
@@ -4701,9 +4683,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="28"/>
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="29"/>
+        <v>90000</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP(A78,Balance!E:G,3,FALSE)</f>
+        <v>1.1692000000000001E+144</v>
+      </c>
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>17200</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="7"/>
+        <v>15400</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="28"/>
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="29"/>
+        <v>92000</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP(A79,Balance!E:G,3,FALSE)</f>
+        <v>5.96292E+145</v>
+      </c>
+      <c r="G79">
+        <v>1000</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>17400</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="7"/>
+        <v>15600</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80" si="30">IF(MOD(A80,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80" si="31">IF(C80=9021,D75+1,IF(AND(C80=25,C79=25),D79+2000,D78+2000))</f>
+        <v>94000</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP(A80,Balance!E:G,3,FALSE)</f>
+        <v>3.0410892000000001E+147</v>
+      </c>
+      <c r="G80">
+        <v>1000</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>17600</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="7"/>
+        <v>15800</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M77 A3:C77 E4:E77 G62:K77">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M80 A3:C80 E4:E80 G62:K80">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4715,10 +4847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4963,7 +5095,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H84" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H87" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -6481,8 +6613,20 @@
         <f t="shared" si="17"/>
         <v>7000</v>
       </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="M43" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N43" s="16">
+        <v>144</v>
+      </c>
+      <c r="O43" s="17">
+        <f t="shared" ref="O43" si="22">POWER(10,N43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="P43" s="17" t="str">
+        <f t="shared" ref="P43" si="23">RIGHT(O43,N43)</f>
+        <v>1E+144</v>
+      </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
@@ -7178,11 +7322,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="22">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="24">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="23">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="25">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -7207,11 +7351,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -7236,11 +7380,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="24">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="26">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="25">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="27">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -7256,7 +7400,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="26">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="28">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -7265,11 +7409,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -7285,7 +7429,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>11200</v>
       </c>
     </row>
@@ -7294,11 +7438,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -7314,7 +7458,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>11400</v>
       </c>
     </row>
@@ -7323,11 +7467,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="27">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="29">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="28">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="30">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -7343,7 +7487,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="29">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="31">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -7352,11 +7496,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -7372,7 +7516,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11800</v>
       </c>
     </row>
@@ -7381,11 +7525,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -7401,7 +7545,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12000</v>
       </c>
     </row>
@@ -7410,11 +7554,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -7430,7 +7574,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12200</v>
       </c>
     </row>
@@ -7439,11 +7583,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -7459,7 +7603,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12400</v>
       </c>
     </row>
@@ -7468,11 +7612,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -7488,7 +7632,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12600</v>
       </c>
     </row>
@@ -7497,11 +7641,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -7517,7 +7661,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>12800</v>
       </c>
     </row>
@@ -7526,11 +7670,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="30">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="32">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="31">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="33">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -7542,11 +7686,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J76" si="32">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J76" si="34">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="33">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="35">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -7555,11 +7699,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -7571,11 +7715,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>13200</v>
       </c>
     </row>
@@ -7584,11 +7728,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -7600,11 +7744,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>13400</v>
       </c>
     </row>
@@ -7613,11 +7757,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -7629,11 +7773,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>13600</v>
       </c>
     </row>
@@ -7642,11 +7786,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="34">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="36">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="35">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="37">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -7658,11 +7802,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" ref="J77:J79" si="36">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f t="shared" ref="J77:J79" si="38">VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="37">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="39">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -7671,11 +7815,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -7687,11 +7831,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>14000</v>
       </c>
     </row>
@@ -7700,11 +7844,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -7716,11 +7860,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>14200</v>
       </c>
     </row>
@@ -7749,7 +7893,7 @@
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>14400</v>
       </c>
     </row>
@@ -7762,7 +7906,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -7778,7 +7922,7 @@
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>14600</v>
       </c>
     </row>
@@ -7787,11 +7931,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F84" si="38">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="40">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G84" si="39">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="41">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -7803,11 +7947,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" ref="J82:J84" si="40">VLOOKUP(I82,M:P,4,FALSE)</f>
+        <f t="shared" ref="J82:J85" si="42">VLOOKUP(I82,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K84" si="41">$B$14*E82</f>
+        <f t="shared" ref="K82:K87" si="43">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -7816,11 +7960,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -7832,12 +7976,99 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K83" s="11">
+        <f t="shared" si="43"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E84" s="16">
+        <v>76</v>
+      </c>
+      <c r="F84" s="17" t="str">
         <f t="shared" si="40"/>
-        <v>1E+140</v>
-      </c>
-      <c r="K83" s="11">
+        <v>1.1692화</v>
+      </c>
+      <c r="G84" s="17">
         <f t="shared" si="41"/>
-        <v>15000</v>
+        <v>1.1692000000000001E+144</v>
+      </c>
+      <c r="H84" s="17">
+        <f t="shared" si="6"/>
+        <v>1.1692</v>
+      </c>
+      <c r="I84" s="16" t="str" cm="1">
+        <f t="array" ref="I84">IF(AND(H83&gt;100,H84&lt;100),INDEX(M:M,MATCH(I83,M:M,0)+1,0),I83)</f>
+        <v>화</v>
+      </c>
+      <c r="J84" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K84" s="11">
+        <f t="shared" si="43"/>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E85" s="16">
+        <v>77</v>
+      </c>
+      <c r="F85" s="17" t="str">
+        <f t="shared" si="40"/>
+        <v>59.6292화</v>
+      </c>
+      <c r="G85" s="17">
+        <f t="shared" si="41"/>
+        <v>5.96292E+145</v>
+      </c>
+      <c r="H85" s="17">
+        <f t="shared" si="6"/>
+        <v>59.629199999999997</v>
+      </c>
+      <c r="I85" s="16" t="str" cm="1">
+        <f t="array" ref="I85">IF(AND(H84&gt;100,H85&lt;100),INDEX(M:M,MATCH(I84,M:M,0)+1,0),I84)</f>
+        <v>화</v>
+      </c>
+      <c r="J85" s="16" t="str">
+        <f t="shared" si="42"/>
+        <v>1E+144</v>
+      </c>
+      <c r="K85" s="11">
+        <f t="shared" si="43"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E86" s="16">
+        <v>78</v>
+      </c>
+      <c r="F86" s="17" t="str">
+        <f>H86&amp;I86</f>
+        <v>3041.0892화</v>
+      </c>
+      <c r="G86" s="17">
+        <f>H86*J86</f>
+        <v>3.0410892000000001E+147</v>
+      </c>
+      <c r="H86" s="17">
+        <f t="shared" si="6"/>
+        <v>3041.0891999999999</v>
+      </c>
+      <c r="I86" s="16" t="str" cm="1">
+        <f t="array" ref="I86">IF(AND(H85&gt;100,H86&lt;100),INDEX(M:M,MATCH(I85,M:M,0)+1,0),I85)</f>
+        <v>화</v>
+      </c>
+      <c r="J86" s="16" t="str">
+        <f>VLOOKUP(I86,M:P,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="K86" s="11">
+        <f t="shared" si="43"/>
+        <v>15600</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF47449C-E94A-433C-B430-6A108018F864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB95CC-815A-4EB5-971A-2AA30E6BB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1025,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3467,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J81" si="6">J52+200</f>
+        <f t="shared" ref="J53:J82" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3475,7 +3487,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L81" si="7">L52+200</f>
+        <f t="shared" ref="L53:L82" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4388,7 +4400,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B81" si="24">B71</f>
+        <f t="shared" ref="B72:B82" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4400,7 +4412,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E81" si="25">E71</f>
+        <f t="shared" ref="E72:E82" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4421,7 +4433,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K81" si="26">K71</f>
+        <f t="shared" ref="K72:K82" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4429,7 +4441,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M81" si="27">M71</f>
+        <f t="shared" ref="M72:M82" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -4792,11 +4804,11 @@
         <v>1-1</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80" si="30">IF(MOD(A80,5)=0,9021,25)</f>
+        <f t="shared" ref="C80:C82" si="30">IF(MOD(A80,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80" si="31">IF(C80=9021,D75+1,IF(AND(C80=25,C79=25),D79+2000,D78+2000))</f>
+        <f t="shared" ref="D80:D82" si="31">IF(C80=9021,D75+1,IF(AND(C80=25,C79=25),D79+2000,D78+2000))</f>
         <v>94000</v>
       </c>
       <c r="E80">
@@ -4833,9 +4845,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="31"/>
+        <v>96000</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f>VLOOKUP(A81,Balance!E:G,3,FALSE)</f>
+        <v>1.5509599999999999E+149</v>
+      </c>
+      <c r="G81">
+        <v>1000</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>17800</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82" si="32">IF(MOD(A82,5)=0,9021,25)</f>
+        <v>9021</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82" si="33">IF(C82=9021,D77+1,IF(AND(C82=25,C81=25),D81+2000,D80+2000))</f>
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <f>VLOOKUP(A82,Balance!E:G,3,FALSE)</f>
+        <v>7.9098960000000005E+150</v>
+      </c>
+      <c r="G82">
+        <v>1000</v>
+      </c>
+      <c r="H82">
+        <v>8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>18000</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="7"/>
+        <v>16200</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M80 A3:C80 E4:E80 G62:K80">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M82 A3:C82 E4:E82 G62:K82">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4847,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5095,7 +5207,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H87" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H89" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -6665,8 +6777,20 @@
         <f t="shared" si="17"/>
         <v>7200</v>
       </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="M44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N44" s="16">
+        <v>148</v>
+      </c>
+      <c r="O44" s="17">
+        <f t="shared" ref="O44:O46" si="24">POWER(10,N44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="P44" s="17" t="str">
+        <f t="shared" ref="P44:P46" si="25">RIGHT(O44,N44)</f>
+        <v>1E+148</v>
+      </c>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
@@ -6705,8 +6829,20 @@
         <f t="shared" si="17"/>
         <v>7400</v>
       </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="M45" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" s="16">
+        <v>152</v>
+      </c>
+      <c r="O45" s="17">
+        <f t="shared" si="24"/>
+        <v>1E+152</v>
+      </c>
+      <c r="P45" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+152</v>
+      </c>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
@@ -6745,8 +6881,20 @@
         <f t="shared" si="17"/>
         <v>7600</v>
       </c>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="M46" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="16">
+        <v>156</v>
+      </c>
+      <c r="O46" s="17">
+        <f t="shared" si="24"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="P46" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v>1E+156</v>
+      </c>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
@@ -7322,11 +7470,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="24">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="26">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="25">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="27">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -7351,11 +7499,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -7380,11 +7528,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="26">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="28">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="27">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="29">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -7400,7 +7548,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="28">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="30">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -7409,11 +7557,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -7429,7 +7577,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11200</v>
       </c>
     </row>
@@ -7438,11 +7586,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -7458,7 +7606,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>11400</v>
       </c>
     </row>
@@ -7467,11 +7615,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="29">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="31">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="30">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="32">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -7487,7 +7635,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="31">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="33">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -7496,11 +7644,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -7516,7 +7664,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>11800</v>
       </c>
     </row>
@@ -7525,11 +7673,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -7545,7 +7693,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>12000</v>
       </c>
     </row>
@@ -7554,11 +7702,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -7574,7 +7722,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>12200</v>
       </c>
     </row>
@@ -7583,11 +7731,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -7603,7 +7751,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>12400</v>
       </c>
     </row>
@@ -7612,11 +7760,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -7632,7 +7780,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>12600</v>
       </c>
     </row>
@@ -7641,11 +7789,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -7661,7 +7809,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>12800</v>
       </c>
     </row>
@@ -7670,11 +7818,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="32">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="34">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="33">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="35">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -7686,11 +7834,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J76" si="34">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J76" si="36">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="35">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="37">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -7699,11 +7847,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -7715,11 +7863,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>13200</v>
       </c>
     </row>
@@ -7728,11 +7876,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -7744,11 +7892,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>13400</v>
       </c>
     </row>
@@ -7757,11 +7905,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -7773,11 +7921,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>13600</v>
       </c>
     </row>
@@ -7786,11 +7934,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="36">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="38">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="37">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="39">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -7802,11 +7950,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" ref="J77:J79" si="38">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f t="shared" ref="J77:J79" si="40">VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="39">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="41">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -7815,11 +7963,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -7831,11 +7979,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14000</v>
       </c>
     </row>
@@ -7844,11 +7992,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -7860,11 +8008,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14200</v>
       </c>
     </row>
@@ -7893,7 +8041,7 @@
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14400</v>
       </c>
     </row>
@@ -7906,7 +8054,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -7922,7 +8070,7 @@
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>14600</v>
       </c>
     </row>
@@ -7931,11 +8079,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="40">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="42">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="41">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="43">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -7947,11 +8095,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" ref="J82:J85" si="42">VLOOKUP(I82,M:P,4,FALSE)</f>
+        <f t="shared" ref="J82:J85" si="44">VLOOKUP(I82,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K87" si="43">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="45">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -7960,11 +8108,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -7976,11 +8124,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>15000</v>
       </c>
     </row>
@@ -7989,11 +8137,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -8005,11 +8153,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>15200</v>
       </c>
     </row>
@@ -8018,11 +8166,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -8034,11 +8182,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>15400</v>
       </c>
     </row>
@@ -8067,8 +8215,66 @@
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>15600</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E87" s="16">
+        <v>79</v>
+      </c>
+      <c r="F87" s="17" t="str">
+        <f t="shared" ref="F87:F88" si="46">H87&amp;I87</f>
+        <v>15.5096명</v>
+      </c>
+      <c r="G87" s="17">
+        <f t="shared" ref="G87:G88" si="47">H87*J87</f>
+        <v>1.5509599999999999E+149</v>
+      </c>
+      <c r="H87" s="17">
+        <f t="shared" si="6"/>
+        <v>15.509599999999999</v>
+      </c>
+      <c r="I87" s="16" t="str" cm="1">
+        <f t="array" ref="I87">IF(AND(H86&gt;100,H87&lt;100),INDEX(M:M,MATCH(I86,M:M,0)+1,0),I86)</f>
+        <v>명</v>
+      </c>
+      <c r="J87" s="16" t="str">
+        <f t="shared" ref="J87:J88" si="48">VLOOKUP(I87,M:P,4,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="K87" s="11">
+        <f t="shared" ref="K87:K88" si="49">$B$14*E87</f>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E88" s="16">
+        <v>80</v>
+      </c>
+      <c r="F88" s="17" t="str">
+        <f t="shared" si="46"/>
+        <v>790.9896명</v>
+      </c>
+      <c r="G88" s="17">
+        <f t="shared" si="47"/>
+        <v>7.9098960000000005E+150</v>
+      </c>
+      <c r="H88" s="17">
+        <f t="shared" si="6"/>
+        <v>790.9896</v>
+      </c>
+      <c r="I88" s="16" t="str" cm="1">
+        <f t="array" ref="I88">IF(AND(H87&gt;100,H88&lt;100),INDEX(M:M,MATCH(I87,M:M,0)+1,0),I87)</f>
+        <v>명</v>
+      </c>
+      <c r="J88" s="16" t="str">
+        <f t="shared" si="48"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K88" s="11">
+        <f t="shared" si="49"/>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB95CC-815A-4EB5-971A-2AA30E6BB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894B409-8BC3-4310-B823-82EB9308CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -434,11 +434,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J82" si="6">J52+200</f>
+        <f t="shared" ref="J53:J84" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3487,7 +3487,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L82" si="7">L52+200</f>
+        <f t="shared" ref="L53:L84" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4400,7 +4400,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B82" si="24">B71</f>
+        <f t="shared" ref="B72:B84" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4412,7 +4412,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E82" si="25">E71</f>
+        <f t="shared" ref="E72:E84" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4433,7 +4433,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K82" si="26">K71</f>
+        <f t="shared" ref="K72:K84" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4441,7 +4441,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M82" si="27">M71</f>
+        <f t="shared" ref="M72:M84" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -4804,11 +4804,11 @@
         <v>1-1</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:C82" si="30">IF(MOD(A80,5)=0,9021,25)</f>
+        <f t="shared" ref="C80:C81" si="30">IF(MOD(A80,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:D82" si="31">IF(C80=9021,D75+1,IF(AND(C80=25,C79=25),D79+2000,D78+2000))</f>
+        <f t="shared" ref="D80:D81" si="31">IF(C80=9021,D75+1,IF(AND(C80=25,C79=25),D79+2000,D78+2000))</f>
         <v>94000</v>
       </c>
       <c r="E80">
@@ -4904,11 +4904,11 @@
         <v>1-1</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82" si="32">IF(MOD(A82,5)=0,9021,25)</f>
+        <f t="shared" ref="C82:C83" si="32">IF(MOD(A82,5)=0,9021,25)</f>
         <v>9021</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="33">IF(C82=9021,D77+1,IF(AND(C82=25,C81=25),D81+2000,D80+2000))</f>
+        <f t="shared" ref="D82:D83" si="33">IF(C82=9021,D77+1,IF(AND(C82=25,C81=25),D81+2000,D80+2000))</f>
         <v>17</v>
       </c>
       <c r="E82">
@@ -4945,9 +4945,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="32"/>
+        <v>25</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="33"/>
+        <v>98000</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP(A83,Balance!E:G,3,FALSE)</f>
+        <v>4.0340999999999997E+152</v>
+      </c>
+      <c r="G83">
+        <v>1000</v>
+      </c>
+      <c r="H83">
+        <v>8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>18200</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="7"/>
+        <v>16400</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84" si="34">IF(MOD(A84,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ref="D84" si="35">IF(C84=9021,D79+1,IF(AND(C84=25,C83=25),D83+2000,D82+2000))</f>
+        <v>100000</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f>VLOOKUP(A84,Balance!E:G,3,FALSE)</f>
+        <v>2.0573910000000003E+154</v>
+      </c>
+      <c r="G84">
+        <v>1000</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>18400</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="7"/>
+        <v>16600</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M82 A3:C82 E4:E82 G62:K82">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M84 A3:C84 E4:E84 G62:K84">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4959,10 +5059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5207,7 +5307,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H89" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H91" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -6830,7 +6930,7 @@
         <v>7400</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N45" s="16">
         <v>152</v>
@@ -6882,7 +6982,7 @@
         <v>7600</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N46" s="16">
         <v>156</v>
@@ -8224,11 +8324,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F88" si="46">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="46">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G88" si="47">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="47">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -8240,11 +8340,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J88" si="48">VLOOKUP(I87,M:P,4,FALSE)</f>
+        <f t="shared" ref="J87:J89" si="48">VLOOKUP(I87,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K88" si="49">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="49">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -8276,6 +8376,72 @@
         <f t="shared" si="49"/>
         <v>16000</v>
       </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E89" s="16">
+        <v>81</v>
+      </c>
+      <c r="F89" s="17" t="str">
+        <f t="shared" si="46"/>
+        <v>4.0341월</v>
+      </c>
+      <c r="G89" s="17">
+        <f t="shared" si="47"/>
+        <v>4.0340999999999997E+152</v>
+      </c>
+      <c r="H89" s="17">
+        <f t="shared" si="6"/>
+        <v>4.0340999999999996</v>
+      </c>
+      <c r="I89" s="16" t="str" cm="1">
+        <f t="array" ref="I89">IF(AND(H88&gt;100,H89&lt;100),INDEX(M:M,MATCH(I88,M:M,0)+1,0),I88)</f>
+        <v>월</v>
+      </c>
+      <c r="J89" s="16" t="str">
+        <f t="shared" si="48"/>
+        <v>1E+152</v>
+      </c>
+      <c r="K89" s="11">
+        <f t="shared" si="49"/>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E90" s="16">
+        <v>82</v>
+      </c>
+      <c r="F90" s="17" t="str">
+        <f>H90&amp;I90</f>
+        <v>205.7391월</v>
+      </c>
+      <c r="G90" s="17">
+        <f>H90*J90</f>
+        <v>2.0573910000000003E+154</v>
+      </c>
+      <c r="H90" s="17">
+        <f t="shared" si="6"/>
+        <v>205.73910000000001</v>
+      </c>
+      <c r="I90" s="16" t="str" cm="1">
+        <f t="array" ref="I90">IF(AND(H89&gt;100,H90&lt;100),INDEX(M:M,MATCH(I89,M:M,0)+1,0),I89)</f>
+        <v>월</v>
+      </c>
+      <c r="J90" s="16" t="str">
+        <f>VLOOKUP(I90,M:P,4,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="K90" s="11">
+        <f t="shared" si="49"/>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E91" s="16"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894B409-8BC3-4310-B823-82EB9308CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A37728A-A26B-4801-ADFD-83954BF8832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,11 +434,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,11 +1041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3479,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J84" si="6">J52+200</f>
+        <f t="shared" ref="J53:J87" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3487,7 +3491,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L84" si="7">L52+200</f>
+        <f t="shared" ref="L53:L87" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4400,7 +4404,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B84" si="24">B71</f>
+        <f t="shared" ref="B72:B87" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4412,7 +4416,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E84" si="25">E71</f>
+        <f t="shared" ref="E72:E87" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4433,7 +4437,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K84" si="26">K71</f>
+        <f t="shared" ref="K72:K87" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4441,7 +4445,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M84" si="27">M71</f>
+        <f t="shared" ref="M72:M87" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5004,11 +5008,11 @@
         <v>1-1</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84" si="34">IF(MOD(A84,5)=0,9021,25)</f>
+        <f t="shared" ref="C84:C85" si="34">IF(MOD(A84,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D84">
-        <f t="shared" ref="D84" si="35">IF(C84=9021,D79+1,IF(AND(C84=25,C83=25),D83+2000,D82+2000))</f>
+        <f t="shared" ref="D84:D85" si="35">IF(C84=9021,D79+1,IF(AND(C84=25,C83=25),D83+2000,D82+2000))</f>
         <v>100000</v>
       </c>
       <c r="E84">
@@ -5045,9 +5049,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="34"/>
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="35"/>
+        <v>102000</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP(A85,Balance!E:G,3,FALSE)</f>
+        <v>1.0492999999999999E+156</v>
+      </c>
+      <c r="G85">
+        <v>1000</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>18600</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="7"/>
+        <v>16800</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:C87" si="36">IF(MOD(A86,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ref="D86:D87" si="37">IF(C86=9021,D81+1,IF(AND(C86=25,C85=25),D85+2000,D84+2000))</f>
+        <v>104000</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <f>VLOOKUP(A86,Balance!E:G,3,FALSE)</f>
+        <v>5.3514300000000001E+157</v>
+      </c>
+      <c r="G86">
+        <v>1000</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>18800</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="7"/>
+        <v>17000</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="36"/>
+        <v>9021</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP(A87,Balance!E:G,3,FALSE)</f>
+        <v>2.7292293E+159</v>
+      </c>
+      <c r="G87">
+        <v>1000</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>19000</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="7"/>
+        <v>17200</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M84 A3:C84 E4:E84 G62:K84">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M87 A3:C87 E4:E87 G62:K87">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5059,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:K91"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5307,7 +5461,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H91" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H94" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -6930,7 +7084,7 @@
         <v>7400</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N45" s="16">
         <v>152</v>
@@ -6982,7 +7136,7 @@
         <v>7600</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N46" s="16">
         <v>156</v>
@@ -7033,8 +7187,20 @@
         <f t="shared" si="17"/>
         <v>7800</v>
       </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="M47" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N47" s="16">
+        <v>160</v>
+      </c>
+      <c r="O47" s="17">
+        <f t="shared" ref="O47" si="26">POWER(10,N47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="P47" s="17" t="str">
+        <f t="shared" ref="P47" si="27">RIGHT(O47,N47)</f>
+        <v>1E+160</v>
+      </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -7570,11 +7736,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="26">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="28">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="27">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="29">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -7599,11 +7765,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -7628,11 +7794,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="28">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="30">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="29">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="31">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -7648,7 +7814,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="30">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="32">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -7657,11 +7823,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -7677,7 +7843,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>11200</v>
       </c>
     </row>
@@ -7686,11 +7852,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -7706,7 +7872,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>11400</v>
       </c>
     </row>
@@ -7715,11 +7881,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="31">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="33">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="32">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="34">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -7735,7 +7901,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="33">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="35">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -7744,11 +7910,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -7764,7 +7930,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>11800</v>
       </c>
     </row>
@@ -7773,11 +7939,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -7793,7 +7959,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>12000</v>
       </c>
     </row>
@@ -7802,11 +7968,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -7822,7 +7988,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>12200</v>
       </c>
     </row>
@@ -7831,11 +7997,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -7851,7 +8017,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>12400</v>
       </c>
     </row>
@@ -7860,11 +8026,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -7880,7 +8046,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>12600</v>
       </c>
     </row>
@@ -7889,11 +8055,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -7909,7 +8075,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>12800</v>
       </c>
     </row>
@@ -7918,11 +8084,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="34">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="36">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="35">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="37">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -7934,11 +8100,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J76" si="36">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J76" si="38">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="37">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="39">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -7947,11 +8113,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -7963,11 +8129,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13200</v>
       </c>
     </row>
@@ -7976,11 +8142,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -7992,11 +8158,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13400</v>
       </c>
     </row>
@@ -8005,11 +8171,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -8021,11 +8187,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13600</v>
       </c>
     </row>
@@ -8034,11 +8200,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="38">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="40">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="39">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="41">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -8050,11 +8216,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" ref="J77:J79" si="40">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f t="shared" ref="J77:J79" si="42">VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="41">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="43">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -8063,11 +8229,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -8079,11 +8245,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>14000</v>
       </c>
     </row>
@@ -8092,11 +8258,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -8108,11 +8274,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>14200</v>
       </c>
     </row>
@@ -8141,7 +8307,7 @@
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>14400</v>
       </c>
     </row>
@@ -8154,7 +8320,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -8170,7 +8336,7 @@
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>14600</v>
       </c>
     </row>
@@ -8179,11 +8345,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="42">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="44">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="43">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="45">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -8195,11 +8361,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" ref="J82:J85" si="44">VLOOKUP(I82,M:P,4,FALSE)</f>
+        <f t="shared" ref="J82:J85" si="46">VLOOKUP(I82,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="45">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="47">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -8208,11 +8374,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -8224,11 +8390,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>15000</v>
       </c>
     </row>
@@ -8237,11 +8403,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -8253,11 +8419,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>15200</v>
       </c>
     </row>
@@ -8266,11 +8432,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -8282,11 +8448,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>15400</v>
       </c>
     </row>
@@ -8315,7 +8481,7 @@
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>15600</v>
       </c>
     </row>
@@ -8324,11 +8490,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="46">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="48">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="47">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="49">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -8340,11 +8506,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J89" si="48">VLOOKUP(I87,M:P,4,FALSE)</f>
+        <f t="shared" ref="J87:J89" si="50">VLOOKUP(I87,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="49">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="51">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -8353,11 +8519,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -8369,11 +8535,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16000</v>
       </c>
     </row>
@@ -8382,11 +8548,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -8398,11 +8564,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16200</v>
       </c>
     </row>
@@ -8431,17 +8597,96 @@
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>16400</v>
       </c>
     </row>
     <row r="91" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E91" s="16"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
+      <c r="E91" s="16">
+        <v>83</v>
+      </c>
+      <c r="F91" s="17" t="str">
+        <f t="shared" ref="F91:F92" si="52">H91&amp;I91</f>
+        <v>1.0493후</v>
+      </c>
+      <c r="G91" s="17">
+        <f t="shared" ref="G91:G92" si="53">H91*J91</f>
+        <v>1.0492999999999999E+156</v>
+      </c>
+      <c r="H91" s="17">
+        <f t="shared" si="6"/>
+        <v>1.0492999999999999</v>
+      </c>
+      <c r="I91" s="16" t="str" cm="1">
+        <f t="array" ref="I91">IF(AND(H90&gt;100,H91&lt;100),INDEX(M:M,MATCH(I90,M:M,0)+1,0),I90)</f>
+        <v>후</v>
+      </c>
+      <c r="J91" s="16" t="str">
+        <f t="shared" ref="J91:J92" si="54">VLOOKUP(I91,M:P,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="K91" s="11">
+        <f t="shared" ref="K91:K94" si="55">$B$14*E91</f>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E92" s="16">
+        <v>84</v>
+      </c>
+      <c r="F92" s="17" t="str">
+        <f>H92&amp;I92</f>
+        <v>53.5143후</v>
+      </c>
+      <c r="G92" s="17">
+        <f>H92*J92</f>
+        <v>5.3514300000000001E+157</v>
+      </c>
+      <c r="H92" s="17">
+        <f t="shared" si="6"/>
+        <v>53.514299999999999</v>
+      </c>
+      <c r="I92" s="16" t="str" cm="1">
+        <f t="array" ref="I92">IF(AND(H91&gt;100,H92&lt;100),INDEX(M:M,MATCH(I91,M:M,0)+1,0),I91)</f>
+        <v>후</v>
+      </c>
+      <c r="J92" s="16" t="str">
+        <f>VLOOKUP(I92,M:P,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="K92" s="11">
+        <f t="shared" si="55"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="93" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E93" s="16">
+        <v>85</v>
+      </c>
+      <c r="F93" s="17" t="str">
+        <f t="shared" ref="F93" si="56">H93&amp;I93</f>
+        <v>2729.2293후</v>
+      </c>
+      <c r="G93" s="17">
+        <f t="shared" ref="G93" si="57">H93*J93</f>
+        <v>2.7292293E+159</v>
+      </c>
+      <c r="H93" s="17">
+        <f t="shared" si="6"/>
+        <v>2729.2293</v>
+      </c>
+      <c r="I93" s="16" t="str" cm="1">
+        <f t="array" ref="I93">IF(AND(H92&gt;100,H93&lt;100),INDEX(M:M,MATCH(I92,M:M,0)+1,0),I92)</f>
+        <v>후</v>
+      </c>
+      <c r="J93" s="16" t="str">
+        <f t="shared" ref="J93" si="58">VLOOKUP(I93,M:P,4,FALSE)</f>
+        <v>1E+156</v>
+      </c>
+      <c r="K93" s="11">
+        <f t="shared" si="55"/>
+        <v>17000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A37728A-A26B-4801-ADFD-83954BF8832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410E506-5FA1-4E64-9529-292077E1736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,14 @@
   </si>
   <si>
     <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3483,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J87" si="6">J52+200</f>
+        <f t="shared" ref="J53:J90" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3491,7 +3499,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L87" si="7">L52+200</f>
+        <f t="shared" ref="L53:L90" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4404,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B87" si="24">B71</f>
+        <f t="shared" ref="B72:B90" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4416,7 +4424,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E87" si="25">E71</f>
+        <f t="shared" ref="E72:E90" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4437,7 +4445,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K87" si="26">K71</f>
+        <f t="shared" ref="K72:K90" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4445,7 +4453,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M87" si="27">M71</f>
+        <f t="shared" ref="M72:M90" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5108,11 +5116,11 @@
         <v>1-1</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:C87" si="36">IF(MOD(A86,5)=0,9021,25)</f>
+        <f t="shared" ref="C86:C89" si="36">IF(MOD(A86,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86:D87" si="37">IF(C86=9021,D81+1,IF(AND(C86=25,C85=25),D85+2000,D84+2000))</f>
+        <f t="shared" ref="D86:D89" si="37">IF(C86=9021,D81+1,IF(AND(C86=25,C85=25),D85+2000,D84+2000))</f>
         <v>104000</v>
       </c>
       <c r="E86">
@@ -5199,9 +5207,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="36"/>
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="37"/>
+        <v>106000</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <f>VLOOKUP(A88,Balance!E:G,3,FALSE)</f>
+        <v>1.39191E+161</v>
+      </c>
+      <c r="G88">
+        <v>1000</v>
+      </c>
+      <c r="H88">
+        <v>8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>19200</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="7"/>
+        <v>17400</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89" si="38">IF(MOD(A89,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ref="D89" si="39">IF(C89=9021,D84+1,IF(AND(C89=25,C88=25),D88+2000,D87+2000))</f>
+        <v>108000</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP(A89,Balance!E:G,3,FALSE)</f>
+        <v>7.0987409999999999E+162</v>
+      </c>
+      <c r="G89">
+        <v>1000</v>
+      </c>
+      <c r="H89">
+        <v>8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>19400</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="7"/>
+        <v>17600</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M87 A3:C87 E4:E87 G62:K87">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M89 A3:C89 E4:E89 G62:K89">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5213,10 +5321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89:K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5461,7 +5569,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H94" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H96" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -7239,8 +7347,20 @@
         <f t="shared" si="17"/>
         <v>8000</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="M48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="16">
+        <v>164</v>
+      </c>
+      <c r="O48" s="17">
+        <f t="shared" ref="O48:O49" si="28">POWER(10,N48)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="P48" s="17" t="str">
+        <f t="shared" ref="P48:P49" si="29">RIGHT(O48,N48)</f>
+        <v>1E+164</v>
+      </c>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
@@ -7279,8 +7399,20 @@
         <f t="shared" si="17"/>
         <v>8200</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+      <c r="M49" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N49" s="16">
+        <v>168</v>
+      </c>
+      <c r="O49" s="17">
+        <f t="shared" si="28"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="P49" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+168</v>
+      </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -7736,11 +7868,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="28">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="30">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="29">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="31">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -7765,11 +7897,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -7794,11 +7926,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="30">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="32">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="31">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="33">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -7814,7 +7946,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="32">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="34">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -7823,11 +7955,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -7843,7 +7975,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11200</v>
       </c>
     </row>
@@ -7852,11 +7984,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -7872,7 +8004,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11400</v>
       </c>
     </row>
@@ -7881,11 +8013,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="33">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="35">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="34">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="36">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -7901,7 +8033,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="35">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="37">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -7910,11 +8042,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -7930,7 +8062,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>11800</v>
       </c>
     </row>
@@ -7939,11 +8071,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -7959,7 +8091,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12000</v>
       </c>
     </row>
@@ -7968,11 +8100,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -7988,7 +8120,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12200</v>
       </c>
     </row>
@@ -7997,11 +8129,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -8017,7 +8149,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12400</v>
       </c>
     </row>
@@ -8026,11 +8158,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -8046,7 +8178,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12600</v>
       </c>
     </row>
@@ -8055,11 +8187,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -8075,7 +8207,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>12800</v>
       </c>
     </row>
@@ -8084,11 +8216,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="36">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="38">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="37">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="39">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -8100,11 +8232,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J76" si="38">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J76" si="40">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="39">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="41">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -8113,11 +8245,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -8129,11 +8261,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13200</v>
       </c>
     </row>
@@ -8142,11 +8274,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -8158,11 +8290,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13400</v>
       </c>
     </row>
@@ -8171,11 +8303,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -8187,11 +8319,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>13600</v>
       </c>
     </row>
@@ -8200,11 +8332,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="40">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="42">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="41">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="43">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -8216,11 +8348,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" ref="J77:J79" si="42">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f t="shared" ref="J77:J79" si="44">VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="43">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="45">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -8229,11 +8361,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -8245,11 +8377,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>14000</v>
       </c>
     </row>
@@ -8258,11 +8390,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -8274,11 +8406,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>14200</v>
       </c>
     </row>
@@ -8307,7 +8439,7 @@
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>14400</v>
       </c>
     </row>
@@ -8320,7 +8452,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -8336,7 +8468,7 @@
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>14600</v>
       </c>
     </row>
@@ -8345,11 +8477,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="44">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="46">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="45">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="47">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -8361,11 +8493,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" ref="J82:J85" si="46">VLOOKUP(I82,M:P,4,FALSE)</f>
+        <f t="shared" ref="J82:J85" si="48">VLOOKUP(I82,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="47">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="49">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -8374,11 +8506,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -8390,11 +8522,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>15000</v>
       </c>
     </row>
@@ -8403,11 +8535,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -8419,11 +8551,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>15200</v>
       </c>
     </row>
@@ -8432,11 +8564,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -8448,11 +8580,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>15400</v>
       </c>
     </row>
@@ -8481,7 +8613,7 @@
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>15600</v>
       </c>
     </row>
@@ -8490,11 +8622,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="48">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="50">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="49">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="51">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -8506,11 +8638,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J89" si="50">VLOOKUP(I87,M:P,4,FALSE)</f>
+        <f t="shared" ref="J87:J89" si="52">VLOOKUP(I87,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="51">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="53">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -8519,11 +8651,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -8535,11 +8667,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>16000</v>
       </c>
     </row>
@@ -8548,11 +8680,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -8564,11 +8696,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>16200</v>
       </c>
     </row>
@@ -8597,7 +8729,7 @@
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>16400</v>
       </c>
     </row>
@@ -8606,11 +8738,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91:F92" si="52">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="54">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91:G92" si="53">H91*J91</f>
+        <f t="shared" ref="G91" si="55">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -8622,11 +8754,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91:J92" si="54">VLOOKUP(I91,M:P,4,FALSE)</f>
+        <f t="shared" ref="J91" si="56">VLOOKUP(I91,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K94" si="55">$B$14*E91</f>
+        <f t="shared" ref="K91:K96" si="57">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -8655,7 +8787,7 @@
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>16800</v>
       </c>
     </row>
@@ -8664,11 +8796,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93" si="56">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="58">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93" si="57">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="59">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -8680,12 +8812,70 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" ref="J93" si="58">VLOOKUP(I93,M:P,4,FALSE)</f>
+        <f t="shared" ref="J93:J94" si="60">VLOOKUP(I93,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>17000</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E94" s="16">
+        <v>86</v>
+      </c>
+      <c r="F94" s="17" t="str">
+        <f t="shared" si="58"/>
+        <v>13.9191단</v>
+      </c>
+      <c r="G94" s="17">
+        <f t="shared" si="59"/>
+        <v>1.39191E+161</v>
+      </c>
+      <c r="H94" s="17">
+        <f t="shared" si="6"/>
+        <v>13.9191</v>
+      </c>
+      <c r="I94" s="16" t="str" cm="1">
+        <f t="array" ref="I94">IF(AND(H93&gt;100,H94&lt;100),INDEX(M:M,MATCH(I93,M:M,0)+1,0),I93)</f>
+        <v>단</v>
+      </c>
+      <c r="J94" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K94" s="11">
+        <f t="shared" si="57"/>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E95" s="16">
+        <v>87</v>
+      </c>
+      <c r="F95" s="17" t="str">
+        <f>H95&amp;I95</f>
+        <v>709.8741단</v>
+      </c>
+      <c r="G95" s="17">
+        <f>H95*J95</f>
+        <v>7.0987409999999999E+162</v>
+      </c>
+      <c r="H95" s="17">
+        <f t="shared" si="6"/>
+        <v>709.8741</v>
+      </c>
+      <c r="I95" s="16" t="str" cm="1">
+        <f t="array" ref="I95">IF(AND(H94&gt;100,H95&lt;100),INDEX(M:M,MATCH(I94,M:M,0)+1,0),I94)</f>
+        <v>단</v>
+      </c>
+      <c r="J95" s="16" t="str">
+        <f>VLOOKUP(I95,M:P,4,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="K95" s="11">
+        <f t="shared" si="57"/>
+        <v>17400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410E506-5FA1-4E64-9529-292077E1736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02B939-9E4E-4D06-96DA-36D7609DD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -446,11 +446,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J90" si="6">J52+200</f>
+        <f t="shared" ref="J53:J92" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3499,7 +3499,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L90" si="7">L52+200</f>
+        <f t="shared" ref="L53:L92" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4412,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B90" si="24">B71</f>
+        <f t="shared" ref="B72:B92" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4424,7 +4424,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E90" si="25">E71</f>
+        <f t="shared" ref="E72:E92" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4445,7 +4445,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K90" si="26">K71</f>
+        <f t="shared" ref="K72:K92" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4453,7 +4453,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M90" si="27">M71</f>
+        <f t="shared" ref="M72:M92" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5116,11 +5116,11 @@
         <v>1-1</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:C89" si="36">IF(MOD(A86,5)=0,9021,25)</f>
+        <f t="shared" ref="C86:C88" si="36">IF(MOD(A86,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86:D89" si="37">IF(C86=9021,D81+1,IF(AND(C86=25,C85=25),D85+2000,D84+2000))</f>
+        <f t="shared" ref="D86:D88" si="37">IF(C86=9021,D81+1,IF(AND(C86=25,C85=25),D85+2000,D84+2000))</f>
         <v>104000</v>
       </c>
       <c r="E86">
@@ -5266,11 +5266,11 @@
         <v>1-1</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89" si="38">IF(MOD(A89,5)=0,9021,25)</f>
+        <f t="shared" ref="C89:C92" si="38">IF(MOD(A89,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89" si="39">IF(C89=9021,D84+1,IF(AND(C89=25,C88=25),D88+2000,D87+2000))</f>
+        <f t="shared" ref="D89:D92" si="39">IF(C89=9021,D84+1,IF(AND(C89=25,C88=25),D88+2000,D87+2000))</f>
         <v>108000</v>
       </c>
       <c r="E89">
@@ -5307,9 +5307,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="39"/>
+        <v>110000</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP(A90,Balance!E:G,3,FALSE)</f>
+        <v>3.6204E+164</v>
+      </c>
+      <c r="G90">
+        <v>1000</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>19600</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="7"/>
+        <v>17800</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="39"/>
+        <v>112000</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP(A91,Balance!E:G,3,FALSE)</f>
+        <v>1.846404E+166</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>19800</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="7"/>
+        <v>18000</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="38"/>
+        <v>9021</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="39"/>
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP(A92,Balance!E:G,3,FALSE)</f>
+        <v>9.416660400000001E+167</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="7"/>
+        <v>18200</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M89 A3:C89 E4:E89 G62:K89">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M92 A3:C92 E4:E92 G62:K92">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5321,10 +5471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89:K95"/>
+    <sheetView topLeftCell="B72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5569,7 +5719,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H96" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H98" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -7348,7 +7498,7 @@
         <v>8000</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N48" s="16">
         <v>164</v>
@@ -7400,7 +7550,7 @@
         <v>8200</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N49" s="16">
         <v>168</v>
@@ -8758,7 +8908,7 @@
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K96" si="57">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="57">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -8876,6 +9026,93 @@
       <c r="K95" s="11">
         <f t="shared" si="57"/>
         <v>17400</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E96" s="16">
+        <v>88</v>
+      </c>
+      <c r="F96" s="17" t="str">
+        <f t="shared" ref="F96" si="61">H96&amp;I96</f>
+        <v>3.6204절</v>
+      </c>
+      <c r="G96" s="17">
+        <f t="shared" ref="G96" si="62">H96*J96</f>
+        <v>3.6204E+164</v>
+      </c>
+      <c r="H96" s="17">
+        <f t="shared" si="6"/>
+        <v>3.6204000000000001</v>
+      </c>
+      <c r="I96" s="16" t="str" cm="1">
+        <f t="array" ref="I96">IF(AND(H95&gt;100,H96&lt;100),INDEX(M:M,MATCH(I95,M:M,0)+1,0),I95)</f>
+        <v>절</v>
+      </c>
+      <c r="J96" s="16" t="str">
+        <f t="shared" ref="J96" si="63">VLOOKUP(I96,M:P,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="K96" s="11">
+        <f t="shared" ref="K96:K98" si="64">$B$14*E96</f>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E97" s="16">
+        <v>89</v>
+      </c>
+      <c r="F97" s="17" t="str">
+        <f>H97&amp;I97</f>
+        <v>184.6404절</v>
+      </c>
+      <c r="G97" s="17">
+        <f>H97*J97</f>
+        <v>1.846404E+166</v>
+      </c>
+      <c r="H97" s="17">
+        <f t="shared" si="6"/>
+        <v>184.6404</v>
+      </c>
+      <c r="I97" s="16" t="str" cm="1">
+        <f t="array" ref="I97">IF(AND(H96&gt;100,H97&lt;100),INDEX(M:M,MATCH(I96,M:M,0)+1,0),I96)</f>
+        <v>절</v>
+      </c>
+      <c r="J97" s="16" t="str">
+        <f>VLOOKUP(I97,M:P,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="K97" s="11">
+        <f t="shared" si="64"/>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E98" s="16">
+        <v>90</v>
+      </c>
+      <c r="F98" s="17" t="str">
+        <f t="shared" ref="F98" si="65">H98&amp;I98</f>
+        <v>9416.6604절</v>
+      </c>
+      <c r="G98" s="17">
+        <f t="shared" ref="G98" si="66">H98*J98</f>
+        <v>9.416660400000001E+167</v>
+      </c>
+      <c r="H98" s="17">
+        <f t="shared" si="6"/>
+        <v>9416.6604000000007</v>
+      </c>
+      <c r="I98" s="16" t="str" cm="1">
+        <f t="array" ref="I98">IF(AND(H97&gt;100,H98&lt;100),INDEX(M:M,MATCH(I97,M:M,0)+1,0),I97)</f>
+        <v>절</v>
+      </c>
+      <c r="J98" s="16" t="str">
+        <f t="shared" ref="J98" si="67">VLOOKUP(I98,M:P,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="K98" s="11">
+        <f t="shared" si="64"/>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02B939-9E4E-4D06-96DA-36D7609DD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E13C1-F4EE-4012-9BF5-69980A386306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -446,11 +446,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>절</t>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J92" si="6">J52+200</f>
+        <f t="shared" ref="J53:J97" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3499,7 +3499,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L92" si="7">L52+200</f>
+        <f t="shared" ref="L53:L97" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4412,7 +4412,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B92" si="24">B71</f>
+        <f t="shared" ref="B72:B97" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4424,7 +4424,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E92" si="25">E71</f>
+        <f t="shared" ref="E72:E97" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4445,7 +4445,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K92" si="26">K71</f>
+        <f t="shared" ref="K72:K97" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4453,7 +4453,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M92" si="27">M71</f>
+        <f t="shared" ref="M72:M97" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5457,9 +5457,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:C94" si="40">IF(MOD(A93,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ref="D93:D94" si="41">IF(C93=9021,D88+1,IF(AND(C93=25,C92=25),D92+2000,D91+2000))</f>
+        <v>114000</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <f>VLOOKUP(A93,Balance!E:G,3,FALSE)</f>
+        <v>4.8025000000000003E+169</v>
+      </c>
+      <c r="G93">
+        <v>1000</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>20200</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="7"/>
+        <v>18400</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="41"/>
+        <v>116000</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP(A94,Balance!E:G,3,FALSE)</f>
+        <v>2.4492750000000001E+171</v>
+      </c>
+      <c r="G94">
+        <v>1000</v>
+      </c>
+      <c r="H94">
+        <v>8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>20400</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="7"/>
+        <v>18600</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M92 A3:C92 E4:E92 G62:K92">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M94 A3:C94 E4:E94 G62:K94">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5471,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView topLeftCell="B72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5633,11 +5733,11 @@
         <v>28</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" ref="K9:K40" si="1">$B$14*E9</f>
+        <f t="shared" ref="K9:K40" si="0">$B$14*E9</f>
         <v>200</v>
       </c>
       <c r="M9" s="16" t="s">
@@ -5647,11 +5747,11 @@
         <v>8</v>
       </c>
       <c r="O9" s="17">
-        <f t="shared" ref="O9:O32" si="2">POWER(10,N9)</f>
+        <f t="shared" ref="O9:O32" si="1">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
       <c r="P9" s="17" t="str">
-        <f t="shared" ref="P9:P11" si="3">1&amp;RIGHT(O9,N9)</f>
+        <f t="shared" ref="P9:P11" si="2">1&amp;RIGHT(O9,N9)</f>
         <v>100000000</v>
       </c>
     </row>
@@ -5667,11 +5767,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="str">
-        <f t="shared" ref="F10:F60" si="4">H10&amp;I10</f>
+        <f t="shared" ref="F10:F60" si="3">H10&amp;I10</f>
         <v>51경</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" ref="G10:G60" si="5">H10*J10</f>
+        <f t="shared" ref="G10:G60" si="4">H10*J10</f>
         <v>5.1E+17</v>
       </c>
       <c r="H10" s="17">
@@ -5683,11 +5783,11 @@
         <v>경</v>
       </c>
       <c r="J10" s="16" t="str">
+        <f>VLOOKUP(I10,M:P,4,FALSE)</f>
+        <v>10000000000000000</v>
+      </c>
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
-        <v>10000000000000000</v>
-      </c>
-      <c r="K10" s="11">
-        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="M10" s="16" t="s">
@@ -5697,11 +5797,11 @@
         <v>12</v>
       </c>
       <c r="O10" s="17">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="P10" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="P10" s="17" t="str">
-        <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -5711,15 +5811,15 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2601경</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H98" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H100" si="5">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -5727,11 +5827,11 @@
         <v>경</v>
       </c>
       <c r="J11" s="16" t="str">
+        <f>VLOOKUP(I11,M:P,4,FALSE)</f>
+        <v>10000000000000000</v>
+      </c>
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
-        <v>10000000000000000</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="M11" s="16" t="s">
@@ -5741,11 +5841,11 @@
         <v>16</v>
       </c>
       <c r="O11" s="17">
+        <f t="shared" si="1"/>
+        <v>1E+16</v>
+      </c>
+      <c r="P11" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>1E+16</v>
-      </c>
-      <c r="P11" s="17" t="str">
-        <f t="shared" si="3"/>
         <v>10000000000000000</v>
       </c>
     </row>
@@ -5759,15 +5859,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13.2651해</v>
       </c>
       <c r="G12" s="17">
+        <f t="shared" si="4"/>
+        <v>1.3265100000000001E+21</v>
+      </c>
+      <c r="H12" s="17">
         <f t="shared" si="5"/>
-        <v>1.3265100000000001E+21</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="6"/>
         <v>13.2651</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -5775,11 +5875,11 @@
         <v>해</v>
       </c>
       <c r="J12" s="16" t="str">
+        <f>VLOOKUP(I12,M:P,4,FALSE)</f>
+        <v>1E+20</v>
+      </c>
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
-        <v>1E+20</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -5789,11 +5889,11 @@
         <v>20</v>
       </c>
       <c r="O12" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+20</v>
       </c>
       <c r="P12" s="17" t="str">
-        <f t="shared" ref="P12:P32" si="7">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P32" si="6">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -5809,15 +5909,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>676.5201해</v>
       </c>
       <c r="G13" s="17">
+        <f t="shared" si="4"/>
+        <v>6.7652009999999995E+22</v>
+      </c>
+      <c r="H13" s="17">
         <f t="shared" si="5"/>
-        <v>6.7652009999999995E+22</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="6"/>
         <v>676.52009999999996</v>
       </c>
       <c r="I13" s="16" t="str" cm="1">
@@ -5825,11 +5925,11 @@
         <v>해</v>
       </c>
       <c r="J13" s="16" t="str">
+        <f>VLOOKUP(I13,M:P,4,FALSE)</f>
+        <v>1E+20</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
-        <v>1E+20</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -5839,11 +5939,11 @@
         <v>24</v>
       </c>
       <c r="O13" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -5859,15 +5959,15 @@
         <v>6</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4503자</v>
       </c>
       <c r="G14" s="17">
+        <f t="shared" si="4"/>
+        <v>3.4503000000000005E+24</v>
+      </c>
+      <c r="H14" s="17">
         <f t="shared" si="5"/>
-        <v>3.4503000000000005E+24</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="6"/>
         <v>3.4503000000000004</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -5875,11 +5975,11 @@
         <v>자</v>
       </c>
       <c r="J14" s="16" t="str">
+        <f>VLOOKUP(I14,M:P,4,FALSE)</f>
+        <v>1E+24</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
-        <v>1E+24</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="M14" s="16" t="s">
@@ -5889,11 +5989,11 @@
         <v>28</v>
       </c>
       <c r="O14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -5903,15 +6003,15 @@
         <v>7</v>
       </c>
       <c r="F15" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>175.9653자</v>
       </c>
       <c r="G15" s="17">
+        <f t="shared" si="4"/>
+        <v>1.7596529999999999E+26</v>
+      </c>
+      <c r="H15" s="17">
         <f t="shared" si="5"/>
-        <v>1.7596529999999999E+26</v>
-      </c>
-      <c r="H15" s="17">
-        <f t="shared" si="6"/>
         <v>175.96530000000001</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -5919,11 +6019,11 @@
         <v>자</v>
       </c>
       <c r="J15" s="16" t="str">
+        <f>VLOOKUP(I15,M:P,4,FALSE)</f>
+        <v>1E+24</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
-        <v>1E+24</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="M15" s="16" t="s">
@@ -5933,11 +6033,11 @@
         <v>32</v>
       </c>
       <c r="O15" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -5949,15 +6049,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8974.2303자</v>
       </c>
       <c r="G16" s="17">
+        <f t="shared" si="4"/>
+        <v>8.9742302999999997E+27</v>
+      </c>
+      <c r="H16" s="17">
         <f t="shared" si="5"/>
-        <v>8.9742302999999997E+27</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="6"/>
         <v>8974.2302999999993</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -5965,11 +6065,11 @@
         <v>자</v>
       </c>
       <c r="J16" s="16" t="str">
+        <f>VLOOKUP(I16,M:P,4,FALSE)</f>
+        <v>1E+24</v>
+      </c>
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
-        <v>1E+24</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="M16" s="16" t="s">
@@ -5979,11 +6079,11 @@
         <v>36</v>
       </c>
       <c r="O16" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+36</v>
       </c>
       <c r="P16" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -5993,15 +6093,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>45.7686양</v>
       </c>
       <c r="G17" s="17">
+        <f t="shared" si="4"/>
+        <v>4.5768600000000005E+29</v>
+      </c>
+      <c r="H17" s="17">
         <f t="shared" si="5"/>
-        <v>4.5768600000000005E+29</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="6"/>
         <v>45.768600000000006</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -6009,11 +6109,11 @@
         <v>양</v>
       </c>
       <c r="J17" s="16" t="str">
+        <f>VLOOKUP(I17,M:P,4,FALSE)</f>
+        <v>1E+28</v>
+      </c>
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
-        <v>1E+28</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -6023,11 +6123,11 @@
         <v>40</v>
       </c>
       <c r="O17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+40</v>
       </c>
       <c r="P17" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -6037,15 +6137,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2334.1986양</v>
       </c>
       <c r="G18" s="17">
+        <f t="shared" si="4"/>
+        <v>2.3341986000000001E+31</v>
+      </c>
+      <c r="H18" s="17">
         <f t="shared" si="5"/>
-        <v>2.3341986000000001E+31</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" si="6"/>
         <v>2334.1986000000002</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -6053,11 +6153,11 @@
         <v>양</v>
       </c>
       <c r="J18" s="16" t="str">
+        <f>VLOOKUP(I18,M:P,4,FALSE)</f>
+        <v>1E+28</v>
+      </c>
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
-        <v>1E+28</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -6067,11 +6167,11 @@
         <v>44</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -6081,15 +6181,15 @@
         <v>11</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11.9045구</v>
       </c>
       <c r="G19" s="17">
+        <f t="shared" si="4"/>
+        <v>1.1904500000000001E+33</v>
+      </c>
+      <c r="H19" s="17">
         <f t="shared" si="5"/>
-        <v>1.1904500000000001E+33</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="6"/>
         <v>11.904500000000001</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -6097,11 +6197,11 @@
         <v>구</v>
       </c>
       <c r="J19" s="16" t="str">
+        <f>VLOOKUP(I19,M:P,4,FALSE)</f>
+        <v>1E+32</v>
+      </c>
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
-        <v>1E+32</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="M19" s="16" t="s">
@@ -6111,11 +6211,11 @@
         <v>48</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+48</v>
       </c>
       <c r="P19" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -6125,15 +6225,15 @@
         <v>12</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>607.1295구</v>
       </c>
       <c r="G20" s="17">
+        <f t="shared" si="4"/>
+        <v>6.0712950000000003E+34</v>
+      </c>
+      <c r="H20" s="17">
         <f t="shared" si="5"/>
-        <v>6.0712950000000003E+34</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="6"/>
         <v>607.12950000000001</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -6141,11 +6241,11 @@
         <v>구</v>
       </c>
       <c r="J20" s="16" t="str">
+        <f>VLOOKUP(I20,M:P,4,FALSE)</f>
+        <v>1E+32</v>
+      </c>
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
-        <v>1E+32</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="M20" s="16" t="s">
@@ -6155,11 +6255,11 @@
         <v>52</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -6169,15 +6269,15 @@
         <v>13</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.0964간</v>
       </c>
       <c r="G21" s="17">
+        <f t="shared" si="4"/>
+        <v>3.0963999999999999E+36</v>
+      </c>
+      <c r="H21" s="17">
         <f t="shared" si="5"/>
-        <v>3.0963999999999999E+36</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="6"/>
         <v>3.0964</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -6185,11 +6285,11 @@
         <v>간</v>
       </c>
       <c r="J21" s="16" t="str">
+        <f>VLOOKUP(I21,M:P,4,FALSE)</f>
+        <v>1E+36</v>
+      </c>
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
-        <v>1E+36</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="1"/>
         <v>2600</v>
       </c>
       <c r="M21" s="16" t="s">
@@ -6199,11 +6299,11 @@
         <v>56</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -6213,15 +6313,15 @@
         <v>14</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>157.9164간</v>
       </c>
       <c r="G22" s="17">
+        <f t="shared" si="4"/>
+        <v>1.5791640000000002E+38</v>
+      </c>
+      <c r="H22" s="17">
         <f t="shared" si="5"/>
-        <v>1.5791640000000002E+38</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="6"/>
         <v>157.91640000000001</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -6229,11 +6329,11 @@
         <v>간</v>
       </c>
       <c r="J22" s="16" t="str">
+        <f>VLOOKUP(I22,M:P,4,FALSE)</f>
+        <v>1E+36</v>
+      </c>
+      <c r="K22" s="11">
         <f t="shared" si="0"/>
-        <v>1E+36</v>
-      </c>
-      <c r="K22" s="11">
-        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="M22" s="16" t="s">
@@ -6243,11 +6343,11 @@
         <v>60</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -6256,15 +6356,15 @@
         <v>15</v>
       </c>
       <c r="F23" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8053.7364간</v>
       </c>
       <c r="G23" s="17">
+        <f t="shared" si="4"/>
+        <v>8.0537364000000001E+39</v>
+      </c>
+      <c r="H23" s="17">
         <f t="shared" si="5"/>
-        <v>8.0537364000000001E+39</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="6"/>
         <v>8053.7363999999998</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -6272,11 +6372,11 @@
         <v>간</v>
       </c>
       <c r="J23" s="16" t="str">
+        <f>VLOOKUP(I23,M:P,4,FALSE)</f>
+        <v>1E+36</v>
+      </c>
+      <c r="K23" s="11">
         <f t="shared" si="0"/>
-        <v>1E+36</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="M23" s="16" t="s">
@@ -6286,11 +6386,11 @@
         <v>64</v>
       </c>
       <c r="O23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+64</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -6299,15 +6399,15 @@
         <v>16</v>
       </c>
       <c r="F24" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41.0741정</v>
       </c>
       <c r="G24" s="17">
+        <f t="shared" si="4"/>
+        <v>4.1074099999999999E+41</v>
+      </c>
+      <c r="H24" s="17">
         <f t="shared" si="5"/>
-        <v>4.1074099999999999E+41</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="6"/>
         <v>41.074100000000001</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -6315,11 +6415,11 @@
         <v>정</v>
       </c>
       <c r="J24" s="16" t="str">
+        <f>VLOOKUP(I24,M:P,4,FALSE)</f>
+        <v>1E+40</v>
+      </c>
+      <c r="K24" s="11">
         <f t="shared" si="0"/>
-        <v>1E+40</v>
-      </c>
-      <c r="K24" s="11">
-        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
       <c r="M24" s="16" t="s">
@@ -6329,11 +6429,11 @@
         <v>68</v>
       </c>
       <c r="O24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -6342,15 +6442,15 @@
         <v>17</v>
       </c>
       <c r="F25" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2094.7791정</v>
       </c>
       <c r="G25" s="17">
+        <f t="shared" si="4"/>
+        <v>2.0947791000000003E+43</v>
+      </c>
+      <c r="H25" s="17">
         <f t="shared" si="5"/>
-        <v>2.0947791000000003E+43</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="6"/>
         <v>2094.7791000000002</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -6358,11 +6458,11 @@
         <v>정</v>
       </c>
       <c r="J25" s="16" t="str">
+        <f>VLOOKUP(I25,M:P,4,FALSE)</f>
+        <v>1E+40</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="0"/>
-        <v>1E+40</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
       <c r="M25" s="16" t="s">
@@ -6372,11 +6472,11 @@
         <v>72</v>
       </c>
       <c r="O25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -6385,15 +6485,15 @@
         <v>18</v>
       </c>
       <c r="F26" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10.6834재</v>
       </c>
       <c r="G26" s="17">
+        <f t="shared" si="4"/>
+        <v>1.06834E+45</v>
+      </c>
+      <c r="H26" s="17">
         <f t="shared" si="5"/>
-        <v>1.06834E+45</v>
-      </c>
-      <c r="H26" s="17">
-        <f t="shared" si="6"/>
         <v>10.683399999999999</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -6401,11 +6501,11 @@
         <v>재</v>
       </c>
       <c r="J26" s="16" t="str">
+        <f>VLOOKUP(I26,M:P,4,FALSE)</f>
+        <v>1E+44</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="0"/>
-        <v>1E+44</v>
-      </c>
-      <c r="K26" s="11">
-        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="M26" s="16" t="s">
@@ -6415,11 +6515,11 @@
         <v>76</v>
       </c>
       <c r="O26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+76</v>
       </c>
       <c r="P26" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -6428,15 +6528,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>544.8534재</v>
       </c>
       <c r="G27" s="17">
+        <f t="shared" si="4"/>
+        <v>5.4485340000000006E+46</v>
+      </c>
+      <c r="H27" s="17">
         <f t="shared" si="5"/>
-        <v>5.4485340000000006E+46</v>
-      </c>
-      <c r="H27" s="17">
-        <f t="shared" si="6"/>
         <v>544.85339999999997</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -6444,11 +6544,11 @@
         <v>재</v>
       </c>
       <c r="J27" s="16" t="str">
+        <f>VLOOKUP(I27,M:P,4,FALSE)</f>
+        <v>1E+44</v>
+      </c>
+      <c r="K27" s="11">
         <f t="shared" si="0"/>
-        <v>1E+44</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" si="1"/>
         <v>3800</v>
       </c>
       <c r="M27" s="16" t="s">
@@ -6458,11 +6558,11 @@
         <v>80</v>
       </c>
       <c r="O27" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+80</v>
       </c>
       <c r="P27" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -6471,15 +6571,15 @@
         <v>20</v>
       </c>
       <c r="F28" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.7788극</v>
       </c>
       <c r="G28" s="17">
+        <f t="shared" si="4"/>
+        <v>2.7788000000000005E+48</v>
+      </c>
+      <c r="H28" s="17">
         <f t="shared" si="5"/>
-        <v>2.7788000000000005E+48</v>
-      </c>
-      <c r="H28" s="17">
-        <f t="shared" si="6"/>
         <v>2.7788000000000004</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -6487,11 +6587,11 @@
         <v>극</v>
       </c>
       <c r="J28" s="16" t="str">
+        <f>VLOOKUP(I28,M:P,4,FALSE)</f>
+        <v>1E+48</v>
+      </c>
+      <c r="K28" s="11">
         <f t="shared" si="0"/>
-        <v>1E+48</v>
-      </c>
-      <c r="K28" s="11">
-        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="M28" s="16" t="s">
@@ -6501,11 +6601,11 @@
         <v>84</v>
       </c>
       <c r="O28" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -6514,15 +6614,15 @@
         <v>21</v>
       </c>
       <c r="F29" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>141.7188극</v>
       </c>
       <c r="G29" s="17">
+        <f t="shared" si="4"/>
+        <v>1.417188E+50</v>
+      </c>
+      <c r="H29" s="17">
         <f t="shared" si="5"/>
-        <v>1.417188E+50</v>
-      </c>
-      <c r="H29" s="17">
-        <f t="shared" si="6"/>
         <v>141.71879999999999</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -6530,11 +6630,11 @@
         <v>극</v>
       </c>
       <c r="J29" s="16" t="str">
+        <f>VLOOKUP(I29,M:P,4,FALSE)</f>
+        <v>1E+48</v>
+      </c>
+      <c r="K29" s="11">
         <f t="shared" si="0"/>
-        <v>1E+48</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="1"/>
         <v>4200</v>
       </c>
       <c r="M29" s="16" t="s">
@@ -6544,11 +6644,11 @@
         <v>88</v>
       </c>
       <c r="O29" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -6557,15 +6657,15 @@
         <v>22</v>
       </c>
       <c r="F30" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7227.6588극</v>
       </c>
       <c r="G30" s="17">
+        <f t="shared" si="4"/>
+        <v>7.2276588000000002E+51</v>
+      </c>
+      <c r="H30" s="17">
         <f t="shared" si="5"/>
-        <v>7.2276588000000002E+51</v>
-      </c>
-      <c r="H30" s="17">
-        <f t="shared" si="6"/>
         <v>7227.6588000000002</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -6573,11 +6673,11 @@
         <v>극</v>
       </c>
       <c r="J30" s="16" t="str">
+        <f>VLOOKUP(I30,M:P,4,FALSE)</f>
+        <v>1E+48</v>
+      </c>
+      <c r="K30" s="11">
         <f t="shared" si="0"/>
-        <v>1E+48</v>
-      </c>
-      <c r="K30" s="11">
-        <f t="shared" si="1"/>
         <v>4400</v>
       </c>
       <c r="M30" s="16" t="s">
@@ -6587,11 +6687,11 @@
         <v>92</v>
       </c>
       <c r="O30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+92</v>
       </c>
       <c r="P30" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -6600,15 +6700,15 @@
         <v>23</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36.8611항</v>
       </c>
       <c r="G31" s="17">
+        <f t="shared" si="4"/>
+        <v>3.6861099999999998E+53</v>
+      </c>
+      <c r="H31" s="17">
         <f t="shared" si="5"/>
-        <v>3.6861099999999998E+53</v>
-      </c>
-      <c r="H31" s="17">
-        <f t="shared" si="6"/>
         <v>36.8611</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -6616,11 +6716,11 @@
         <v>항</v>
       </c>
       <c r="J31" s="16" t="str">
+        <f>VLOOKUP(I31,M:P,4,FALSE)</f>
+        <v>1E+52</v>
+      </c>
+      <c r="K31" s="11">
         <f t="shared" si="0"/>
-        <v>1E+52</v>
-      </c>
-      <c r="K31" s="11">
-        <f t="shared" si="1"/>
         <v>4600</v>
       </c>
       <c r="M31" s="16" t="s">
@@ -6630,11 +6730,11 @@
         <v>96</v>
       </c>
       <c r="O31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+96</v>
       </c>
       <c r="P31" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -6643,15 +6743,15 @@
         <v>24</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1879.9161항</v>
       </c>
       <c r="G32" s="17">
+        <f t="shared" si="4"/>
+        <v>1.8799161E+55</v>
+      </c>
+      <c r="H32" s="17">
         <f t="shared" si="5"/>
-        <v>1.8799161E+55</v>
-      </c>
-      <c r="H32" s="17">
-        <f t="shared" si="6"/>
         <v>1879.9160999999999</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -6659,11 +6759,11 @@
         <v>항</v>
       </c>
       <c r="J32" s="16" t="str">
+        <f>VLOOKUP(I32,M:P,4,FALSE)</f>
+        <v>1E+52</v>
+      </c>
+      <c r="K32" s="11">
         <f t="shared" si="0"/>
-        <v>1E+52</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="1"/>
         <v>4800</v>
       </c>
       <c r="L32" s="16"/>
@@ -6674,11 +6774,11 @@
         <v>100</v>
       </c>
       <c r="O32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1E+100</v>
       </c>
       <c r="P32" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -6687,15 +6787,15 @@
         <v>25</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.5876아</v>
       </c>
       <c r="G33" s="17">
+        <f t="shared" si="4"/>
+        <v>9.5876000000000011E+56</v>
+      </c>
+      <c r="H33" s="17">
         <f t="shared" si="5"/>
-        <v>9.5876000000000011E+56</v>
-      </c>
-      <c r="H33" s="17">
-        <f t="shared" si="6"/>
         <v>9.5876000000000001</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -6703,11 +6803,11 @@
         <v>아</v>
       </c>
       <c r="J33" s="16" t="str">
+        <f>VLOOKUP(I33,M:P,4,FALSE)</f>
+        <v>1E+56</v>
+      </c>
+      <c r="K33" s="11">
         <f t="shared" si="0"/>
-        <v>1E+56</v>
-      </c>
-      <c r="K33" s="11">
-        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="L33" s="13"/>
@@ -6718,11 +6818,11 @@
         <v>104</v>
       </c>
       <c r="O33" s="17">
-        <f t="shared" ref="O33:O34" si="8">POWER(10,N33)</f>
+        <f t="shared" ref="O33:O34" si="7">POWER(10,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="P33" s="17" t="str">
-        <f t="shared" ref="P33:P34" si="9">RIGHT(O33,N33)</f>
+        <f t="shared" ref="P33:P34" si="8">RIGHT(O33,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="11"/>
@@ -6740,15 +6840,15 @@
         <v>26</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>488.9676아</v>
       </c>
       <c r="G34" s="17">
+        <f t="shared" si="4"/>
+        <v>4.8896760000000004E+58</v>
+      </c>
+      <c r="H34" s="17">
         <f t="shared" si="5"/>
-        <v>4.8896760000000004E+58</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="6"/>
         <v>488.9676</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -6756,11 +6856,11 @@
         <v>아</v>
       </c>
       <c r="J34" s="16" t="str">
+        <f>VLOOKUP(I34,M:P,4,FALSE)</f>
+        <v>1E+56</v>
+      </c>
+      <c r="K34" s="11">
         <f t="shared" si="0"/>
-        <v>1E+56</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" si="1"/>
         <v>5200</v>
       </c>
       <c r="L34" s="13"/>
@@ -6771,11 +6871,11 @@
         <v>108</v>
       </c>
       <c r="O34" s="17">
+        <f t="shared" si="7"/>
+        <v>1E+108</v>
+      </c>
+      <c r="P34" s="17" t="str">
         <f t="shared" si="8"/>
-        <v>1E+108</v>
-      </c>
-      <c r="P34" s="17" t="str">
-        <f t="shared" si="9"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="11"/>
@@ -6793,15 +6893,15 @@
         <v>27</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.4938나</v>
       </c>
       <c r="G35" s="17">
+        <f t="shared" si="4"/>
+        <v>2.4938000000000001E+60</v>
+      </c>
+      <c r="H35" s="17">
         <f t="shared" si="5"/>
-        <v>2.4938000000000001E+60</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" si="6"/>
         <v>2.4938000000000002</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -6809,11 +6909,11 @@
         <v>나</v>
       </c>
       <c r="J35" s="16" t="str">
+        <f>VLOOKUP(I35,M:P,4,FALSE)</f>
+        <v>1E+60</v>
+      </c>
+      <c r="K35" s="11">
         <f t="shared" si="0"/>
-        <v>1E+60</v>
-      </c>
-      <c r="K35" s="11">
-        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
       <c r="L35" s="13"/>
@@ -6824,11 +6924,11 @@
         <v>112</v>
       </c>
       <c r="O35" s="17">
-        <f t="shared" ref="O35:O37" si="10">POWER(10,N35)</f>
+        <f t="shared" ref="O35:O37" si="9">POWER(10,N35)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="P35" s="17" t="str">
-        <f t="shared" ref="P35:P37" si="11">RIGHT(O35,N35)</f>
+        <f t="shared" ref="P35:P37" si="10">RIGHT(O35,N35)</f>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="11"/>
@@ -6846,15 +6946,15 @@
         <v>28</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>127.1838나</v>
       </c>
       <c r="G36" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2718379999999999E+62</v>
+      </c>
+      <c r="H36" s="17">
         <f t="shared" si="5"/>
-        <v>1.2718379999999999E+62</v>
-      </c>
-      <c r="H36" s="17">
-        <f t="shared" si="6"/>
         <v>127.18380000000001</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -6862,11 +6962,11 @@
         <v>나</v>
       </c>
       <c r="J36" s="16" t="str">
+        <f>VLOOKUP(I36,M:P,4,FALSE)</f>
+        <v>1E+60</v>
+      </c>
+      <c r="K36" s="11">
         <f t="shared" si="0"/>
-        <v>1E+60</v>
-      </c>
-      <c r="K36" s="11">
-        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="L36" s="13"/>
@@ -6877,11 +6977,11 @@
         <v>116</v>
       </c>
       <c r="O36" s="17">
+        <f t="shared" si="9"/>
+        <v>1E+116</v>
+      </c>
+      <c r="P36" s="17" t="str">
         <f t="shared" si="10"/>
-        <v>1E+116</v>
-      </c>
-      <c r="P36" s="17" t="str">
-        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="11"/>
@@ -6899,15 +6999,15 @@
         <v>29</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6486.3738나</v>
       </c>
       <c r="G37" s="17">
+        <f t="shared" si="4"/>
+        <v>6.4863737999999999E+63</v>
+      </c>
+      <c r="H37" s="17">
         <f t="shared" si="5"/>
-        <v>6.4863737999999999E+63</v>
-      </c>
-      <c r="H37" s="17">
-        <f t="shared" si="6"/>
         <v>6486.3738000000003</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -6915,11 +7015,11 @@
         <v>나</v>
       </c>
       <c r="J37" s="16" t="str">
+        <f>VLOOKUP(I37,M:P,4,FALSE)</f>
+        <v>1E+60</v>
+      </c>
+      <c r="K37" s="11">
         <f t="shared" si="0"/>
-        <v>1E+60</v>
-      </c>
-      <c r="K37" s="11">
-        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="L37" s="13"/>
@@ -6930,11 +7030,11 @@
         <v>120</v>
       </c>
       <c r="O37" s="17">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="P37" s="17" t="str">
         <f t="shared" si="10"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="P37" s="17" t="str">
-        <f t="shared" si="11"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="11"/>
@@ -6952,15 +7052,15 @@
         <v>30</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33.0806불</v>
       </c>
       <c r="G38" s="17">
+        <f t="shared" si="4"/>
+        <v>3.3080600000000005E+65</v>
+      </c>
+      <c r="H38" s="17">
         <f t="shared" si="5"/>
-        <v>3.3080600000000005E+65</v>
-      </c>
-      <c r="H38" s="17">
-        <f t="shared" si="6"/>
         <v>33.080600000000004</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -6968,11 +7068,11 @@
         <v>불</v>
       </c>
       <c r="J38" s="16" t="str">
+        <f>VLOOKUP(I38,M:P,4,FALSE)</f>
+        <v>1E+64</v>
+      </c>
+      <c r="K38" s="11">
         <f t="shared" si="0"/>
-        <v>1E+64</v>
-      </c>
-      <c r="K38" s="11">
-        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="L38" s="13"/>
@@ -6983,11 +7083,11 @@
         <v>124</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" ref="O38:O39" si="12">POWER(10,N38)</f>
+        <f t="shared" ref="O38:O39" si="11">POWER(10,N38)</f>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="17" t="str">
-        <f t="shared" ref="P38:P39" si="13">RIGHT(O38,N38)</f>
+        <f t="shared" ref="P38:P39" si="12">RIGHT(O38,N38)</f>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="11"/>
@@ -7005,15 +7105,15 @@
         <v>31</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1687.1106불</v>
       </c>
       <c r="G39" s="17">
+        <f t="shared" si="4"/>
+        <v>1.6871106000000001E+67</v>
+      </c>
+      <c r="H39" s="17">
         <f t="shared" si="5"/>
-        <v>1.6871106000000001E+67</v>
-      </c>
-      <c r="H39" s="17">
-        <f t="shared" si="6"/>
         <v>1687.1106</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -7021,11 +7121,11 @@
         <v>불</v>
       </c>
       <c r="J39" s="16" t="str">
+        <f>VLOOKUP(I39,M:P,4,FALSE)</f>
+        <v>1E+64</v>
+      </c>
+      <c r="K39" s="11">
         <f t="shared" si="0"/>
-        <v>1E+64</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="1"/>
         <v>6200</v>
       </c>
       <c r="L39" s="13"/>
@@ -7036,11 +7136,11 @@
         <v>128</v>
       </c>
       <c r="O39" s="17">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="P39" s="17" t="str">
         <f t="shared" si="12"/>
-        <v>1.0000000000000001E+128</v>
-      </c>
-      <c r="P39" s="17" t="str">
-        <f t="shared" si="13"/>
         <v>1E+128</v>
       </c>
       <c r="Q39" s="11"/>
@@ -7058,15 +7158,15 @@
         <v>32</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.6043무</v>
       </c>
       <c r="G40" s="17">
+        <f t="shared" si="4"/>
+        <v>8.6043000000000003E+68</v>
+      </c>
+      <c r="H40" s="17">
         <f t="shared" si="5"/>
-        <v>8.6043000000000003E+68</v>
-      </c>
-      <c r="H40" s="17">
-        <f t="shared" si="6"/>
         <v>8.6043000000000003</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -7074,11 +7174,11 @@
         <v>무</v>
       </c>
       <c r="J40" s="16" t="str">
+        <f>VLOOKUP(I40,M:P,4,FALSE)</f>
+        <v>1E+68</v>
+      </c>
+      <c r="K40" s="11">
         <f t="shared" si="0"/>
-        <v>1E+68</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="1"/>
         <v>6400</v>
       </c>
       <c r="M40" s="16" t="s">
@@ -7088,11 +7188,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="17">
-        <f t="shared" ref="O40" si="14">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="13">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="17" t="str">
-        <f t="shared" ref="P40" si="15">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="14">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="11"/>
@@ -7110,15 +7210,15 @@
         <v>33</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>438.8193무</v>
       </c>
       <c r="G41" s="17">
+        <f t="shared" si="4"/>
+        <v>4.3881929999999998E+70</v>
+      </c>
+      <c r="H41" s="17">
         <f t="shared" si="5"/>
-        <v>4.3881929999999998E+70</v>
-      </c>
-      <c r="H41" s="17">
-        <f t="shared" si="6"/>
         <v>438.8193</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -7126,11 +7226,11 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J72" si="16">VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" ref="K41:K62" si="17">$B$14*E41</f>
+        <f t="shared" ref="K41:K62" si="15">$B$14*E41</f>
         <v>6600</v>
       </c>
       <c r="M41" s="16" t="s">
@@ -7140,11 +7240,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41" si="18">POWER(10,N41)</f>
+        <f t="shared" ref="O41" si="16">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="17" t="str">
-        <f t="shared" ref="P41" si="19">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41" si="17">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="11"/>
@@ -7162,15 +7262,15 @@
         <v>34</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.238대</v>
       </c>
       <c r="G42" s="17">
+        <f t="shared" si="4"/>
+        <v>2.238E+72</v>
+      </c>
+      <c r="H42" s="17">
         <f t="shared" si="5"/>
-        <v>2.238E+72</v>
-      </c>
-      <c r="H42" s="17">
-        <f t="shared" si="6"/>
         <v>2.238</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -7178,11 +7278,11 @@
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I42,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>6800</v>
       </c>
       <c r="M42" s="16" t="s">
@@ -7192,11 +7292,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" ref="O42" si="20">POWER(10,N42)</f>
+        <f t="shared" ref="O42" si="18">POWER(10,N42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="17" t="str">
-        <f t="shared" ref="P42" si="21">RIGHT(O42,N42)</f>
+        <f t="shared" ref="P42" si="19">RIGHT(O42,N42)</f>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="11"/>
@@ -7214,15 +7314,15 @@
         <v>35</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>114.138대</v>
       </c>
       <c r="G43" s="17">
+        <f t="shared" si="4"/>
+        <v>1.14138E+74</v>
+      </c>
+      <c r="H43" s="17">
         <f t="shared" si="5"/>
-        <v>1.14138E+74</v>
-      </c>
-      <c r="H43" s="17">
-        <f t="shared" si="6"/>
         <v>114.13800000000001</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -7230,11 +7330,11 @@
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I43,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7000</v>
       </c>
       <c r="M43" s="16" t="s">
@@ -7244,11 +7344,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" ref="O43" si="22">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="20">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="17" t="str">
-        <f t="shared" ref="P43" si="23">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="21">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="11"/>
@@ -7266,15 +7366,15 @@
         <v>36</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5821.038대</v>
       </c>
       <c r="G44" s="17">
+        <f t="shared" si="4"/>
+        <v>5.8210379999999993E+75</v>
+      </c>
+      <c r="H44" s="17">
         <f t="shared" si="5"/>
-        <v>5.8210379999999993E+75</v>
-      </c>
-      <c r="H44" s="17">
-        <f t="shared" si="6"/>
         <v>5821.0379999999996</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -7282,11 +7382,11 @@
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I44,M:P,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7200</v>
       </c>
       <c r="M44" s="16" t="s">
@@ -7296,11 +7396,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" ref="O44:O46" si="24">POWER(10,N44)</f>
+        <f t="shared" ref="O44:O46" si="22">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="17" t="str">
-        <f t="shared" ref="P44:P46" si="25">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44:P46" si="23">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="11"/>
@@ -7318,15 +7418,15 @@
         <v>37</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29.6873겁</v>
       </c>
       <c r="G45" s="17">
+        <f t="shared" si="4"/>
+        <v>2.96873E+77</v>
+      </c>
+      <c r="H45" s="17">
         <f t="shared" si="5"/>
-        <v>2.96873E+77</v>
-      </c>
-      <c r="H45" s="17">
-        <f t="shared" si="6"/>
         <v>29.6873</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -7334,11 +7434,11 @@
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I45,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7400</v>
       </c>
       <c r="M45" s="16" t="s">
@@ -7348,11 +7448,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1E+152</v>
       </c>
       <c r="P45" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="11"/>
@@ -7370,15 +7470,15 @@
         <v>38</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1514.0523겁</v>
       </c>
       <c r="G46" s="17">
+        <f t="shared" si="4"/>
+        <v>1.5140523000000002E+79</v>
+      </c>
+      <c r="H46" s="17">
         <f t="shared" si="5"/>
-        <v>1.5140523000000002E+79</v>
-      </c>
-      <c r="H46" s="17">
-        <f t="shared" si="6"/>
         <v>1514.0523000000001</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -7386,11 +7486,11 @@
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I46,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7600</v>
       </c>
       <c r="M46" s="16" t="s">
@@ -7400,11 +7500,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="11"/>
@@ -7422,15 +7522,15 @@
         <v>39</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.7217업</v>
       </c>
       <c r="G47" s="17">
+        <f t="shared" si="4"/>
+        <v>7.7216999999999992E+80</v>
+      </c>
+      <c r="H47" s="17">
         <f t="shared" si="5"/>
-        <v>7.7216999999999992E+80</v>
-      </c>
-      <c r="H47" s="17">
-        <f t="shared" si="6"/>
         <v>7.7216999999999993</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -7438,11 +7538,11 @@
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I47,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7800</v>
       </c>
       <c r="M47" s="16" t="s">
@@ -7452,11 +7552,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="17">
-        <f t="shared" ref="O47" si="26">POWER(10,N47)</f>
+        <f t="shared" ref="O47" si="24">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="17" t="str">
-        <f t="shared" ref="P47" si="27">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47" si="25">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="11"/>
@@ -7474,15 +7574,15 @@
         <v>40</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>393.8067업</v>
       </c>
       <c r="G48" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9380669999999996E+82</v>
+      </c>
+      <c r="H48" s="17">
         <f t="shared" si="5"/>
-        <v>3.9380669999999996E+82</v>
-      </c>
-      <c r="H48" s="17">
-        <f t="shared" si="6"/>
         <v>393.80669999999998</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -7490,25 +7590,25 @@
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I48,M:P,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8000</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N48" s="16">
         <v>164</v>
       </c>
       <c r="O48" s="17">
-        <f t="shared" ref="O48:O49" si="28">POWER(10,N48)</f>
+        <f t="shared" ref="O48:O49" si="26">POWER(10,N48)</f>
         <v>1E+164</v>
       </c>
       <c r="P48" s="17" t="str">
-        <f t="shared" ref="P48:P49" si="29">RIGHT(O48,N48)</f>
+        <f t="shared" ref="P48:P49" si="27">RIGHT(O48,N48)</f>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="11"/>
@@ -7526,15 +7626,15 @@
         <v>41</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.0085긍</v>
       </c>
       <c r="G49" s="17">
+        <f t="shared" si="4"/>
+        <v>2.0085000000000001E+84</v>
+      </c>
+      <c r="H49" s="17">
         <f t="shared" si="5"/>
-        <v>2.0085000000000001E+84</v>
-      </c>
-      <c r="H49" s="17">
-        <f t="shared" si="6"/>
         <v>2.0085000000000002</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -7542,25 +7642,25 @@
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I49,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8200</v>
       </c>
       <c r="M49" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N49" s="16">
         <v>168</v>
       </c>
       <c r="O49" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="11"/>
@@ -7578,15 +7678,15 @@
         <v>42</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102.4335긍</v>
       </c>
       <c r="G50" s="17">
+        <f t="shared" si="4"/>
+        <v>1.024335E+86</v>
+      </c>
+      <c r="H50" s="17">
         <f t="shared" si="5"/>
-        <v>1.024335E+86</v>
-      </c>
-      <c r="H50" s="17">
-        <f t="shared" si="6"/>
         <v>102.4335</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -7594,11 +7694,11 @@
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I50,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8400</v>
       </c>
       <c r="O50" s="11"/>
@@ -7618,15 +7718,15 @@
         <v>43</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5224.1085긍</v>
       </c>
       <c r="G51" s="17">
+        <f t="shared" si="4"/>
+        <v>5.2241085000000002E+87</v>
+      </c>
+      <c r="H51" s="17">
         <f t="shared" si="5"/>
-        <v>5.2241085000000002E+87</v>
-      </c>
-      <c r="H51" s="17">
-        <f t="shared" si="6"/>
         <v>5224.1085000000003</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -7634,11 +7734,11 @@
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I51,M:P,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8600</v>
       </c>
       <c r="O51" s="11"/>
@@ -7658,15 +7758,15 @@
         <v>44</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26.643갈</v>
       </c>
       <c r="G52" s="17">
+        <f t="shared" si="4"/>
+        <v>2.6643000000000001E+89</v>
+      </c>
+      <c r="H52" s="17">
         <f t="shared" si="5"/>
-        <v>2.6643000000000001E+89</v>
-      </c>
-      <c r="H52" s="17">
-        <f t="shared" si="6"/>
         <v>26.643000000000001</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -7674,11 +7774,11 @@
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I52,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8800</v>
       </c>
       <c r="O52" s="11"/>
@@ -7698,15 +7798,15 @@
         <v>45</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1358.793갈</v>
       </c>
       <c r="G53" s="17">
+        <f t="shared" si="4"/>
+        <v>1.3587929999999998E+91</v>
+      </c>
+      <c r="H53" s="17">
         <f t="shared" si="5"/>
-        <v>1.3587929999999998E+91</v>
-      </c>
-      <c r="H53" s="17">
-        <f t="shared" si="6"/>
         <v>1358.7929999999999</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -7714,11 +7814,11 @@
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I53,M:P,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9000</v>
       </c>
       <c r="O53" s="11"/>
@@ -7738,15 +7838,15 @@
         <v>46</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.9299라</v>
       </c>
       <c r="G54" s="17">
+        <f t="shared" si="4"/>
+        <v>6.9298999999999998E+92</v>
+      </c>
+      <c r="H54" s="17">
         <f t="shared" si="5"/>
-        <v>6.9298999999999998E+92</v>
-      </c>
-      <c r="H54" s="17">
-        <f t="shared" si="6"/>
         <v>6.9298999999999999</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -7754,11 +7854,11 @@
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I54,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9200</v>
       </c>
       <c r="O54" s="11"/>
@@ -7778,15 +7878,15 @@
         <v>47</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>353.4249라</v>
       </c>
       <c r="G55" s="17">
+        <f t="shared" si="4"/>
+        <v>3.5342489999999998E+94</v>
+      </c>
+      <c r="H55" s="17">
         <f t="shared" si="5"/>
-        <v>3.5342489999999998E+94</v>
-      </c>
-      <c r="H55" s="17">
-        <f t="shared" si="6"/>
         <v>353.42489999999998</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -7794,11 +7894,11 @@
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I55,M:P,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9400</v>
       </c>
       <c r="O55" s="11"/>
@@ -7818,15 +7918,15 @@
         <v>48</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.8025가</v>
       </c>
       <c r="G56" s="17">
+        <f t="shared" si="4"/>
+        <v>1.8025000000000002E+96</v>
+      </c>
+      <c r="H56" s="17">
         <f t="shared" si="5"/>
-        <v>1.8025000000000002E+96</v>
-      </c>
-      <c r="H56" s="17">
-        <f t="shared" si="6"/>
         <v>1.8025</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -7834,11 +7934,11 @@
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I56,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9600</v>
       </c>
       <c r="O56" s="11"/>
@@ -7858,15 +7958,15 @@
         <v>49</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>91.9275가</v>
       </c>
       <c r="G57" s="17">
+        <f t="shared" si="4"/>
+        <v>9.1927499999999992E+97</v>
+      </c>
+      <c r="H57" s="17">
         <f t="shared" si="5"/>
-        <v>9.1927499999999992E+97</v>
-      </c>
-      <c r="H57" s="17">
-        <f t="shared" si="6"/>
         <v>91.927499999999995</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -7874,11 +7974,11 @@
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I57,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>9800</v>
       </c>
       <c r="O57" s="11"/>
@@ -7898,15 +7998,15 @@
         <v>50</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4688.3025가</v>
       </c>
       <c r="G58" s="17">
+        <f t="shared" si="4"/>
+        <v>4.6883025000000003E+99</v>
+      </c>
+      <c r="H58" s="17">
         <f t="shared" si="5"/>
-        <v>4.6883025000000003E+99</v>
-      </c>
-      <c r="H58" s="17">
-        <f t="shared" si="6"/>
         <v>4688.3024999999998</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -7914,11 +8014,11 @@
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I58,M:P,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>10000</v>
       </c>
       <c r="O58" s="11"/>
@@ -7938,15 +8038,15 @@
         <v>51</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.9104언</v>
       </c>
       <c r="G59" s="17">
+        <f t="shared" si="4"/>
+        <v>2.3910399999999999E+101</v>
+      </c>
+      <c r="H59" s="17">
         <f t="shared" si="5"/>
-        <v>2.3910399999999999E+101</v>
-      </c>
-      <c r="H59" s="17">
-        <f t="shared" si="6"/>
         <v>23.910399999999999</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -7954,11 +8054,11 @@
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I59,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>10200</v>
       </c>
       <c r="O59" s="11"/>
@@ -7978,15 +8078,15 @@
         <v>52</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1219.4304언</v>
       </c>
       <c r="G60" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2194304E+103</v>
+      </c>
+      <c r="H60" s="17">
         <f t="shared" si="5"/>
-        <v>1.2194304E+103</v>
-      </c>
-      <c r="H60" s="17">
-        <f t="shared" si="6"/>
         <v>1219.4304</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -7994,11 +8094,11 @@
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I60,M:P,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>10400</v>
       </c>
       <c r="O60" s="11"/>
@@ -8018,15 +8118,15 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="30">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="28">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="31">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="29">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6.2191000000000001</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -8034,11 +8134,11 @@
         <v>승</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I61,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>10600</v>
       </c>
     </row>
@@ -8047,15 +8147,15 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>317.17410000000001</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -8063,11 +8163,11 @@
         <v>승</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I62,M:P,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>10800</v>
       </c>
     </row>
@@ -8076,15 +8176,15 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="32">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="30">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="33">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="31">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.6175999999999999</v>
       </c>
       <c r="I63" s="16" t="str" cm="1">
@@ -8092,11 +8192,11 @@
         <v>마</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I63,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="34">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="32">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -8105,15 +8205,15 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>82.497600000000006</v>
       </c>
       <c r="I64" s="16" t="str" cm="1">
@@ -8121,11 +8221,11 @@
         <v>마</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I64,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>11200</v>
       </c>
     </row>
@@ -8134,15 +8234,15 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4207.3775999999998</v>
       </c>
       <c r="I65" s="16" t="str" cm="1">
@@ -8150,11 +8250,11 @@
         <v>마</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I65,M:P,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>11400</v>
       </c>
     </row>
@@ -8163,15 +8263,15 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="35">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="33">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="36">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="34">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21.457699999999999</v>
       </c>
       <c r="I66" s="16" t="str" cm="1">
@@ -8179,11 +8279,11 @@
         <v>살</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I66,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="37">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="35">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -8192,15 +8292,15 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1094.3426999999999</v>
       </c>
       <c r="I67" s="16" t="str" cm="1">
@@ -8208,11 +8308,11 @@
         <v>살</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I67,M:P,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>11800</v>
       </c>
     </row>
@@ -8221,15 +8321,15 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.5811999999999999</v>
       </c>
       <c r="I68" s="16" t="str" cm="1">
@@ -8237,11 +8337,11 @@
         <v>섬</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I68,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>12000</v>
       </c>
     </row>
@@ -8250,15 +8350,15 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>284.64120000000003</v>
       </c>
       <c r="I69" s="16" t="str" cm="1">
@@ -8266,11 +8366,11 @@
         <v>섬</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I69,M:P,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>12200</v>
       </c>
     </row>
@@ -8279,15 +8379,15 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.4517</v>
       </c>
       <c r="I70" s="16" t="str" cm="1">
@@ -8295,11 +8395,11 @@
         <v>찰</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I70,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>12400</v>
       </c>
     </row>
@@ -8308,15 +8408,15 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74.036699999999996</v>
       </c>
       <c r="I71" s="16" t="str" cm="1">
@@ -8324,11 +8424,11 @@
         <v>찰</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I71,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>12600</v>
       </c>
     </row>
@@ -8337,15 +8437,15 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3775.8717000000001</v>
       </c>
       <c r="I72" s="16" t="str" cm="1">
@@ -8353,11 +8453,11 @@
         <v>찰</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(I72,M:P,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>12800</v>
       </c>
     </row>
@@ -8366,15 +8466,15 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="38">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="36">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="39">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="37">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19.257000000000001</v>
       </c>
       <c r="I73" s="16" t="str" cm="1">
@@ -8382,11 +8482,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J76" si="40">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="41">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="38">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -8395,15 +8495,15 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>982.10699999999997</v>
       </c>
       <c r="I74" s="16" t="str" cm="1">
@@ -8411,11 +8511,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f>VLOOKUP(I74,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>13200</v>
       </c>
     </row>
@@ -8424,15 +8524,15 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5.0087999999999999</v>
       </c>
       <c r="I75" s="16" t="str" cm="1">
@@ -8440,11 +8540,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f>VLOOKUP(I75,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>13400</v>
       </c>
     </row>
@@ -8453,15 +8553,15 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>255.44880000000001</v>
       </c>
       <c r="I76" s="16" t="str" cm="1">
@@ -8469,11 +8569,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f>VLOOKUP(I76,M:P,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>13600</v>
       </c>
     </row>
@@ -8482,15 +8582,15 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="42">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="39">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="43">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="40">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.3028</v>
       </c>
       <c r="I77" s="16" t="str" cm="1">
@@ -8498,11 +8598,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" ref="J77:J79" si="44">VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I77,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="45">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="41">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -8511,15 +8611,15 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.442800000000005</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -8527,11 +8627,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f>VLOOKUP(I78,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>14000</v>
       </c>
     </row>
@@ -8540,15 +8640,15 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3388.5828000000001</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -8556,11 +8656,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f>VLOOKUP(I79,M:P,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>14200</v>
       </c>
     </row>
@@ -8577,7 +8677,7 @@
         <v>1.7281800000000001E+137</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.2818</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -8589,7 +8689,7 @@
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>14400</v>
       </c>
     </row>
@@ -8602,11 +8702,11 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>881.37180000000001</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -8618,7 +8718,7 @@
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>14600</v>
       </c>
     </row>
@@ -8627,15 +8727,15 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="46">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="42">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="47">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="43">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.4950000000000001</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -8643,11 +8743,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" ref="J82:J85" si="48">VLOOKUP(I82,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I82,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="49">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="44">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -8656,15 +8756,15 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>229.245</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -8672,11 +8772,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f>VLOOKUP(I83,M:P,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>15000</v>
       </c>
     </row>
@@ -8685,15 +8785,15 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.1692</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -8701,11 +8801,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f>VLOOKUP(I84,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>15200</v>
       </c>
     </row>
@@ -8714,15 +8814,15 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.629199999999997</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -8730,11 +8830,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f>VLOOKUP(I85,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>15400</v>
       </c>
     </row>
@@ -8751,7 +8851,7 @@
         <v>3.0410892000000001E+147</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3041.0891999999999</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -8763,7 +8863,7 @@
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>15600</v>
       </c>
     </row>
@@ -8772,15 +8872,15 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="50">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="45">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="51">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="46">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15.509599999999999</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -8788,11 +8888,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" ref="J87:J89" si="52">VLOOKUP(I87,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I87,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="53">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="47">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -8801,15 +8901,15 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>790.9896</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -8817,11 +8917,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f>VLOOKUP(I88,M:P,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>16000</v>
       </c>
     </row>
@@ -8830,15 +8930,15 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.0340999999999996</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -8846,11 +8946,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f>VLOOKUP(I89,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>16200</v>
       </c>
     </row>
@@ -8867,7 +8967,7 @@
         <v>2.0573910000000003E+154</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>205.73910000000001</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -8879,7 +8979,7 @@
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="47"/>
         <v>16400</v>
       </c>
     </row>
@@ -8888,15 +8988,15 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="54">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="48">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="55">H91*J91</f>
+        <f t="shared" ref="G91" si="49">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.0492999999999999</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -8904,11 +9004,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" ref="J91" si="56">VLOOKUP(I91,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I91,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="57">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="50">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -8925,7 +9025,7 @@
         <v>5.3514300000000001E+157</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.514299999999999</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -8937,7 +9037,7 @@
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>16800</v>
       </c>
     </row>
@@ -8946,15 +9046,15 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="58">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="51">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="59">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="52">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2729.2293</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -8962,11 +9062,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" ref="J93:J94" si="60">VLOOKUP(I93,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I93,M:P,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>17000</v>
       </c>
     </row>
@@ -8975,15 +9075,15 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="51"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="52"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13.9191</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -8991,11 +9091,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f>VLOOKUP(I94,M:P,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>17200</v>
       </c>
     </row>
@@ -9012,7 +9112,7 @@
         <v>7.0987409999999999E+162</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>709.8741</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -9024,7 +9124,7 @@
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="50"/>
         <v>17400</v>
       </c>
     </row>
@@ -9033,15 +9133,15 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="61">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="53">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="62">H96*J96</f>
+        <f t="shared" ref="G96" si="54">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.6204000000000001</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -9049,11 +9149,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" ref="J96" si="63">VLOOKUP(I96,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I96,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="64">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="55">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -9070,7 +9170,7 @@
         <v>1.846404E+166</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>184.6404</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -9082,7 +9182,7 @@
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="55"/>
         <v>17800</v>
       </c>
     </row>
@@ -9091,15 +9191,15 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98" si="65">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="56">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98" si="66">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="57">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9416.6604000000007</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -9107,12 +9207,70 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" ref="J98" si="67">VLOOKUP(I98,M:P,4,FALSE)</f>
+        <f>VLOOKUP(I98,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="55"/>
         <v>18000</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E99" s="16">
+        <v>91</v>
+      </c>
+      <c r="F99" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>48.025격</v>
+      </c>
+      <c r="G99" s="17">
+        <f t="shared" si="57"/>
+        <v>4.8025000000000003E+169</v>
+      </c>
+      <c r="H99" s="17">
+        <f t="shared" si="5"/>
+        <v>48.025000000000006</v>
+      </c>
+      <c r="I99" s="16" t="str" cm="1">
+        <f t="array" ref="I99">IF(AND(H98&gt;100,H99&lt;100),INDEX(M:M,MATCH(I98,M:M,0)+1,0),I98)</f>
+        <v>격</v>
+      </c>
+      <c r="J99" s="16" t="str">
+        <f>VLOOKUP(I99,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K99" s="11">
+        <f t="shared" ref="K99:K100" si="58">$B$14*E99</f>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E100" s="16">
+        <v>92</v>
+      </c>
+      <c r="F100" s="17" t="str">
+        <f t="shared" ref="F100" si="59">H100&amp;I100</f>
+        <v>2449.275격</v>
+      </c>
+      <c r="G100" s="17">
+        <f t="shared" ref="G100" si="60">H100*J100</f>
+        <v>2.4492750000000001E+171</v>
+      </c>
+      <c r="H100" s="17">
+        <f t="shared" si="5"/>
+        <v>2449.2750000000001</v>
+      </c>
+      <c r="I100" s="16" t="str" cm="1">
+        <f t="array" ref="I100">IF(AND(H99&gt;100,H100&lt;100),INDEX(M:M,MATCH(I99,M:M,0)+1,0),I99)</f>
+        <v>격</v>
+      </c>
+      <c r="J100" s="16" t="str">
+        <f>VLOOKUP(I100,M:P,4,FALSE)</f>
+        <v>1E+168</v>
+      </c>
+      <c r="K100" s="11">
+        <f t="shared" si="58"/>
+        <v>18400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E13C1-F4EE-4012-9BF5-69980A386306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52E4DF1-526F-4AC0-819C-AC9EEB001578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,14 @@
   </si>
   <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1049,11 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3491,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J97" si="6">J52+200</f>
+        <f t="shared" ref="J53:J98" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3499,7 +3507,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L97" si="7">L52+200</f>
+        <f t="shared" ref="L53:L98" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4412,7 +4420,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B97" si="24">B71</f>
+        <f t="shared" ref="B72:B98" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4424,7 +4432,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E97" si="25">E71</f>
+        <f t="shared" ref="E72:E98" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4445,7 +4453,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K97" si="26">K71</f>
+        <f t="shared" ref="K72:K98" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4453,7 +4461,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M97" si="27">M71</f>
+        <f t="shared" ref="M72:M98" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5466,11 +5474,11 @@
         <v>1-1</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C94" si="40">IF(MOD(A93,5)=0,9021,25)</f>
+        <f t="shared" ref="C93:C96" si="40">IF(MOD(A93,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93:D94" si="41">IF(C93=9021,D88+1,IF(AND(C93=25,C92=25),D92+2000,D91+2000))</f>
+        <f t="shared" ref="D93:D96" si="41">IF(C93=9021,D88+1,IF(AND(C93=25,C92=25),D92+2000,D91+2000))</f>
         <v>114000</v>
       </c>
       <c r="E93">
@@ -5557,9 +5565,209 @@
         <v>0</v>
       </c>
     </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="41"/>
+        <v>118000</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <f>VLOOKUP(A95,Balance!E:G,3,FALSE)</f>
+        <v>1.2491400000000002E+173</v>
+      </c>
+      <c r="G95">
+        <v>1000</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>20600</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="7"/>
+        <v>18800</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="41"/>
+        <v>120000</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP(A96,Balance!E:G,3,FALSE)</f>
+        <v>6.3706140000000007E+174</v>
+      </c>
+      <c r="G96">
+        <v>1000</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>20800</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="7"/>
+        <v>19000</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:C98" si="42">IF(MOD(A97,5)=0,9021,25)</f>
+        <v>9021</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:D98" si="43">IF(C97=9021,D92+1,IF(AND(C97=25,C96=25),D96+2000,D95+2000))</f>
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <f>VLOOKUP(A97,Balance!E:G,3,FALSE)</f>
+        <v>3.2491000000000004E+176</v>
+      </c>
+      <c r="G97">
+        <v>1000</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>21000</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="7"/>
+        <v>19200</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="43"/>
+        <v>122000</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <f>VLOOKUP(A98,Balance!E:G,3,FALSE)</f>
+        <v>1.6570410000000001E+178</v>
+      </c>
+      <c r="G98">
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <v>8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>21200</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="7"/>
+        <v>19400</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M94 A3:C94 E4:E94 G62:K94">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M98 A3:C98 E4:E98 G62:K98">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5571,10 +5779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="B83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5733,11 +5941,11 @@
         <v>28</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f>VLOOKUP(I9,M:P,4,FALSE)</f>
+        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>10000000000000000</v>
       </c>
       <c r="K9" s="11">
-        <f t="shared" ref="K9:K40" si="0">$B$14*E9</f>
+        <f t="shared" ref="K9:K40" si="1">$B$14*E9</f>
         <v>200</v>
       </c>
       <c r="M9" s="16" t="s">
@@ -5747,11 +5955,11 @@
         <v>8</v>
       </c>
       <c r="O9" s="17">
-        <f t="shared" ref="O9:O32" si="1">POWER(10,N9)</f>
+        <f t="shared" ref="O9:O32" si="2">POWER(10,N9)</f>
         <v>100000000</v>
       </c>
       <c r="P9" s="17" t="str">
-        <f t="shared" ref="P9:P11" si="2">1&amp;RIGHT(O9,N9)</f>
+        <f t="shared" ref="P9:P11" si="3">1&amp;RIGHT(O9,N9)</f>
         <v>100000000</v>
       </c>
     </row>
@@ -5767,11 +5975,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17" t="str">
-        <f t="shared" ref="F10:F60" si="3">H10&amp;I10</f>
+        <f t="shared" ref="F10:F60" si="4">H10&amp;I10</f>
         <v>51경</v>
       </c>
       <c r="G10" s="17">
-        <f t="shared" ref="G10:G60" si="4">H10*J10</f>
+        <f t="shared" ref="G10:G60" si="5">H10*J10</f>
         <v>5.1E+17</v>
       </c>
       <c r="H10" s="17">
@@ -5783,11 +5991,11 @@
         <v>경</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f>VLOOKUP(I10,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10000000000000000</v>
       </c>
       <c r="K10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="M10" s="16" t="s">
@@ -5797,11 +6005,11 @@
         <v>12</v>
       </c>
       <c r="O10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
       <c r="P10" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -5811,15 +6019,15 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2601경</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H100" si="5">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H104" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -5827,11 +6035,11 @@
         <v>경</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f>VLOOKUP(I11,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>10000000000000000</v>
       </c>
       <c r="K11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
       <c r="M11" s="16" t="s">
@@ -5841,11 +6049,11 @@
         <v>16</v>
       </c>
       <c r="O11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+16</v>
       </c>
       <c r="P11" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10000000000000000</v>
       </c>
     </row>
@@ -5859,15 +6067,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.2651해</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3265100000000001E+21</v>
       </c>
       <c r="H12" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.2651</v>
       </c>
       <c r="I12" s="16" t="str" cm="1">
@@ -5875,11 +6083,11 @@
         <v>해</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f>VLOOKUP(I12,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="K12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -5889,11 +6097,11 @@
         <v>20</v>
       </c>
       <c r="O12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+20</v>
       </c>
       <c r="P12" s="17" t="str">
-        <f t="shared" ref="P12:P32" si="6">RIGHT(O12,N12)</f>
+        <f t="shared" ref="P12:P32" si="7">RIGHT(O12,N12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -5909,15 +6117,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>676.5201해</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7652009999999995E+22</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>676.52009999999996</v>
       </c>
       <c r="I13" s="16" t="str" cm="1">
@@ -5925,11 +6133,11 @@
         <v>해</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f>VLOOKUP(I13,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -5939,11 +6147,11 @@
         <v>24</v>
       </c>
       <c r="O13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="P13" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -5959,15 +6167,15 @@
         <v>6</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4503자</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4503000000000005E+24</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4503000000000004</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -5975,11 +6183,11 @@
         <v>자</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f>VLOOKUP(I14,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+24</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="M14" s="16" t="s">
@@ -5989,11 +6197,11 @@
         <v>28</v>
       </c>
       <c r="O14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="P14" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -6003,15 +6211,15 @@
         <v>7</v>
       </c>
       <c r="F15" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175.9653자</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7596529999999999E+26</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>175.96530000000001</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -6019,11 +6227,11 @@
         <v>자</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>VLOOKUP(I15,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+24</v>
       </c>
       <c r="K15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
       <c r="M15" s="16" t="s">
@@ -6033,11 +6241,11 @@
         <v>32</v>
       </c>
       <c r="O15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="P15" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -6049,15 +6257,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8974.2303자</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9742302999999997E+27</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8974.2302999999993</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -6065,11 +6273,11 @@
         <v>자</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f>VLOOKUP(I16,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+24</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="M16" s="16" t="s">
@@ -6079,11 +6287,11 @@
         <v>36</v>
       </c>
       <c r="O16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
       <c r="P16" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -6093,15 +6301,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.7686양</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5768600000000005E+29</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45.768600000000006</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -6109,11 +6317,11 @@
         <v>양</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f>VLOOKUP(I17,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+28</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -6123,11 +6331,11 @@
         <v>40</v>
       </c>
       <c r="O17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
       <c r="P17" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -6137,15 +6345,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2334.1986양</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3341986000000001E+31</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2334.1986000000002</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -6153,11 +6361,11 @@
         <v>양</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f>VLOOKUP(I18,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+28</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -6167,11 +6375,11 @@
         <v>44</v>
       </c>
       <c r="O18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="P18" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -6181,15 +6389,15 @@
         <v>11</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.9045구</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1904500000000001E+33</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.904500000000001</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -6197,11 +6405,11 @@
         <v>구</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f>VLOOKUP(I19,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+32</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="M19" s="16" t="s">
@@ -6211,11 +6419,11 @@
         <v>48</v>
       </c>
       <c r="O19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
       <c r="P19" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -6225,15 +6433,15 @@
         <v>12</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>607.1295구</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0712950000000003E+34</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>607.12950000000001</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -6241,11 +6449,11 @@
         <v>구</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f>VLOOKUP(I20,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+32</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="M20" s="16" t="s">
@@ -6255,11 +6463,11 @@
         <v>52</v>
       </c>
       <c r="O20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="P20" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -6269,15 +6477,15 @@
         <v>13</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0964간</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0963999999999999E+36</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0964</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -6285,11 +6493,11 @@
         <v>간</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f>VLOOKUP(I21,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2600</v>
       </c>
       <c r="M21" s="16" t="s">
@@ -6299,11 +6507,11 @@
         <v>56</v>
       </c>
       <c r="O21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="P21" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -6313,15 +6521,15 @@
         <v>14</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157.9164간</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5791640000000002E+38</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>157.91640000000001</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -6329,11 +6537,11 @@
         <v>간</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f>VLOOKUP(I22,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="M22" s="16" t="s">
@@ -6343,11 +6551,11 @@
         <v>60</v>
       </c>
       <c r="O22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="P22" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -6356,15 +6564,15 @@
         <v>15</v>
       </c>
       <c r="F23" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8053.7364간</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0537364000000001E+39</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8053.7363999999998</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -6372,11 +6580,11 @@
         <v>간</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>VLOOKUP(I23,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="K23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="M23" s="16" t="s">
@@ -6386,11 +6594,11 @@
         <v>64</v>
       </c>
       <c r="O23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+64</v>
       </c>
       <c r="P23" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -6399,15 +6607,15 @@
         <v>16</v>
       </c>
       <c r="F24" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.0741정</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1074099999999999E+41</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.074100000000001</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -6415,11 +6623,11 @@
         <v>정</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f>VLOOKUP(I24,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
       <c r="M24" s="16" t="s">
@@ -6429,11 +6637,11 @@
         <v>68</v>
       </c>
       <c r="O24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="P24" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -6442,15 +6650,15 @@
         <v>17</v>
       </c>
       <c r="F25" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2094.7791정</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0947791000000003E+43</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2094.7791000000002</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -6458,11 +6666,11 @@
         <v>정</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f>VLOOKUP(I25,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
       <c r="M25" s="16" t="s">
@@ -6472,11 +6680,11 @@
         <v>72</v>
       </c>
       <c r="O25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="P25" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -6485,15 +6693,15 @@
         <v>18</v>
       </c>
       <c r="F26" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.6834재</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.06834E+45</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.683399999999999</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -6501,11 +6709,11 @@
         <v>재</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f>VLOOKUP(I26,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+44</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="M26" s="16" t="s">
@@ -6515,11 +6723,11 @@
         <v>76</v>
       </c>
       <c r="O26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+76</v>
       </c>
       <c r="P26" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -6528,15 +6736,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>544.8534재</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4485340000000006E+46</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>544.85339999999997</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -6544,11 +6752,11 @@
         <v>재</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f>VLOOKUP(I27,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+44</v>
       </c>
       <c r="K27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3800</v>
       </c>
       <c r="M27" s="16" t="s">
@@ -6558,11 +6766,11 @@
         <v>80</v>
       </c>
       <c r="O27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+80</v>
       </c>
       <c r="P27" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -6571,15 +6779,15 @@
         <v>20</v>
       </c>
       <c r="F28" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7788극</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7788000000000005E+48</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7788000000000004</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -6587,11 +6795,11 @@
         <v>극</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f>VLOOKUP(I28,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="M28" s="16" t="s">
@@ -6601,11 +6809,11 @@
         <v>84</v>
       </c>
       <c r="O28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="P28" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -6614,15 +6822,15 @@
         <v>21</v>
       </c>
       <c r="F29" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141.7188극</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.417188E+50</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>141.71879999999999</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -6630,11 +6838,11 @@
         <v>극</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f>VLOOKUP(I29,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4200</v>
       </c>
       <c r="M29" s="16" t="s">
@@ -6644,11 +6852,11 @@
         <v>88</v>
       </c>
       <c r="O29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="P29" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -6657,15 +6865,15 @@
         <v>22</v>
       </c>
       <c r="F30" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7227.6588극</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2276588000000002E+51</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7227.6588000000002</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -6673,11 +6881,11 @@
         <v>극</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f>VLOOKUP(I30,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4400</v>
       </c>
       <c r="M30" s="16" t="s">
@@ -6687,11 +6895,11 @@
         <v>92</v>
       </c>
       <c r="O30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+92</v>
       </c>
       <c r="P30" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -6700,15 +6908,15 @@
         <v>23</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.8611항</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6861099999999998E+53</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.8611</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -6716,11 +6924,11 @@
         <v>항</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f>VLOOKUP(I31,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+52</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4600</v>
       </c>
       <c r="M31" s="16" t="s">
@@ -6730,11 +6938,11 @@
         <v>96</v>
       </c>
       <c r="O31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="P31" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -6743,15 +6951,15 @@
         <v>24</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1879.9161항</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8799161E+55</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1879.9160999999999</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -6759,11 +6967,11 @@
         <v>항</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f>VLOOKUP(I32,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+52</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4800</v>
       </c>
       <c r="L32" s="16"/>
@@ -6774,11 +6982,11 @@
         <v>100</v>
       </c>
       <c r="O32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="P32" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -6787,15 +6995,15 @@
         <v>25</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5876아</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5876000000000011E+56</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5876000000000001</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -6803,11 +7011,11 @@
         <v>아</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f>VLOOKUP(I33,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+56</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="L33" s="13"/>
@@ -6818,11 +7026,11 @@
         <v>104</v>
       </c>
       <c r="O33" s="17">
-        <f t="shared" ref="O33:O34" si="7">POWER(10,N33)</f>
+        <f t="shared" ref="O33:O34" si="8">POWER(10,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="P33" s="17" t="str">
-        <f t="shared" ref="P33:P34" si="8">RIGHT(O33,N33)</f>
+        <f t="shared" ref="P33:P34" si="9">RIGHT(O33,N33)</f>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="11"/>
@@ -6840,15 +7048,15 @@
         <v>26</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>488.9676아</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8896760000000004E+58</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>488.9676</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -6856,11 +7064,11 @@
         <v>아</v>
       </c>
       <c r="J34" s="16" t="str">
-        <f>VLOOKUP(I34,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+56</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5200</v>
       </c>
       <c r="L34" s="13"/>
@@ -6871,11 +7079,11 @@
         <v>108</v>
       </c>
       <c r="O34" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+108</v>
       </c>
       <c r="P34" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="11"/>
@@ -6893,15 +7101,15 @@
         <v>27</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4938나</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4938000000000001E+60</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4938000000000002</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -6909,11 +7117,11 @@
         <v>나</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f>VLOOKUP(I35,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+60</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
       <c r="L35" s="13"/>
@@ -6924,11 +7132,11 @@
         <v>112</v>
       </c>
       <c r="O35" s="17">
-        <f t="shared" ref="O35:O37" si="9">POWER(10,N35)</f>
+        <f t="shared" ref="O35:O37" si="10">POWER(10,N35)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="P35" s="17" t="str">
-        <f t="shared" ref="P35:P37" si="10">RIGHT(O35,N35)</f>
+        <f t="shared" ref="P35:P37" si="11">RIGHT(O35,N35)</f>
         <v>1E+112</v>
       </c>
       <c r="Q35" s="11"/>
@@ -6946,15 +7154,15 @@
         <v>28</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127.1838나</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2718379999999999E+62</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>127.18380000000001</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -6962,11 +7170,11 @@
         <v>나</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f>VLOOKUP(I36,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+60</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="L36" s="13"/>
@@ -6977,11 +7185,11 @@
         <v>116</v>
       </c>
       <c r="O36" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+116</v>
       </c>
       <c r="P36" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="11"/>
@@ -6999,15 +7207,15 @@
         <v>29</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6486.3738나</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4863737999999999E+63</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6486.3738000000003</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -7015,11 +7223,11 @@
         <v>나</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f>VLOOKUP(I37,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+60</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="L37" s="13"/>
@@ -7030,11 +7238,11 @@
         <v>120</v>
       </c>
       <c r="O37" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="P37" s="17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1E+120</v>
       </c>
       <c r="Q37" s="11"/>
@@ -7052,15 +7260,15 @@
         <v>30</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.0806불</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3080600000000005E+65</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33.080600000000004</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -7068,11 +7276,11 @@
         <v>불</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f>VLOOKUP(I38,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="L38" s="13"/>
@@ -7083,11 +7291,11 @@
         <v>124</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" ref="O38:O39" si="11">POWER(10,N38)</f>
+        <f t="shared" ref="O38:O39" si="12">POWER(10,N38)</f>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="P38" s="17" t="str">
-        <f t="shared" ref="P38:P39" si="12">RIGHT(O38,N38)</f>
+        <f t="shared" ref="P38:P39" si="13">RIGHT(O38,N38)</f>
         <v>1E+124</v>
       </c>
       <c r="Q38" s="11"/>
@@ -7105,15 +7313,15 @@
         <v>31</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1687.1106불</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6871106000000001E+67</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1687.1106</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -7121,11 +7329,11 @@
         <v>불</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f>VLOOKUP(I39,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6200</v>
       </c>
       <c r="L39" s="13"/>
@@ -7136,11 +7344,11 @@
         <v>128</v>
       </c>
       <c r="O39" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="P39" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+128</v>
       </c>
       <c r="Q39" s="11"/>
@@ -7158,15 +7366,15 @@
         <v>32</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6043무</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6043000000000003E+68</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6043000000000003</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -7174,11 +7382,11 @@
         <v>무</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f>VLOOKUP(I40,M:P,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+68</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6400</v>
       </c>
       <c r="M40" s="16" t="s">
@@ -7188,11 +7396,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="17">
-        <f t="shared" ref="O40" si="13">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="14">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="17" t="str">
-        <f t="shared" ref="P40" si="14">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="15">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="11"/>
@@ -7210,15 +7418,15 @@
         <v>33</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>438.8193무</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.3881929999999998E+70</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>438.8193</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -7226,11 +7434,11 @@
         <v>무</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f>VLOOKUP(I41,M:P,4,FALSE)</f>
+        <f t="shared" ref="J41:J72" si="16">VLOOKUP(I41,M:P,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" ref="K41:K62" si="15">$B$14*E41</f>
+        <f t="shared" ref="K41:K62" si="17">$B$14*E41</f>
         <v>6600</v>
       </c>
       <c r="M41" s="16" t="s">
@@ -7240,11 +7448,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" ref="O41" si="16">POWER(10,N41)</f>
+        <f t="shared" ref="O41" si="18">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="17" t="str">
-        <f t="shared" ref="P41" si="17">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41" si="19">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="11"/>
@@ -7262,15 +7470,15 @@
         <v>34</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.238대</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.238E+72</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.238</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -7278,11 +7486,11 @@
         <v>대</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f>VLOOKUP(I42,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6800</v>
       </c>
       <c r="M42" s="16" t="s">
@@ -7292,11 +7500,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="17">
-        <f t="shared" ref="O42" si="18">POWER(10,N42)</f>
+        <f t="shared" ref="O42" si="20">POWER(10,N42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="17" t="str">
-        <f t="shared" ref="P42" si="19">RIGHT(O42,N42)</f>
+        <f t="shared" ref="P42" si="21">RIGHT(O42,N42)</f>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="11"/>
@@ -7314,15 +7522,15 @@
         <v>35</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114.138대</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.14138E+74</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114.13800000000001</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -7330,11 +7538,11 @@
         <v>대</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f>VLOOKUP(I43,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7000</v>
       </c>
       <c r="M43" s="16" t="s">
@@ -7344,11 +7552,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" ref="O43" si="20">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="22">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="17" t="str">
-        <f t="shared" ref="P43" si="21">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="23">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="11"/>
@@ -7366,15 +7574,15 @@
         <v>36</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5821.038대</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8210379999999993E+75</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5821.0379999999996</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -7382,11 +7590,11 @@
         <v>대</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f>VLOOKUP(I44,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+72</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7200</v>
       </c>
       <c r="M44" s="16" t="s">
@@ -7396,11 +7604,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" ref="O44:O46" si="22">POWER(10,N44)</f>
+        <f t="shared" ref="O44:O46" si="24">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="17" t="str">
-        <f t="shared" ref="P44:P46" si="23">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44:P46" si="25">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="11"/>
@@ -7418,15 +7626,15 @@
         <v>37</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.6873겁</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.96873E+77</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.6873</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -7434,11 +7642,11 @@
         <v>겁</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f>VLOOKUP(I45,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7400</v>
       </c>
       <c r="M45" s="16" t="s">
@@ -7448,11 +7656,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+152</v>
       </c>
       <c r="P45" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="11"/>
@@ -7470,15 +7678,15 @@
         <v>38</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1514.0523겁</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5140523000000002E+79</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1514.0523000000001</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -7486,11 +7694,11 @@
         <v>겁</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f>VLOOKUP(I46,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+76</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7600</v>
       </c>
       <c r="M46" s="16" t="s">
@@ -7500,11 +7708,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="11"/>
@@ -7522,15 +7730,15 @@
         <v>39</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.7217업</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7216999999999992E+80</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7216999999999993</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -7538,11 +7746,11 @@
         <v>업</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f>VLOOKUP(I47,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7800</v>
       </c>
       <c r="M47" s="16" t="s">
@@ -7552,11 +7760,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="17">
-        <f t="shared" ref="O47" si="24">POWER(10,N47)</f>
+        <f t="shared" ref="O47" si="26">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="17" t="str">
-        <f t="shared" ref="P47" si="25">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47" si="27">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="11"/>
@@ -7574,15 +7782,15 @@
         <v>40</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>393.8067업</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9380669999999996E+82</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>393.80669999999998</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -7590,11 +7798,11 @@
         <v>업</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f>VLOOKUP(I48,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+80</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8000</v>
       </c>
       <c r="M48" s="16" t="s">
@@ -7604,11 +7812,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="17">
-        <f t="shared" ref="O48:O49" si="26">POWER(10,N48)</f>
+        <f t="shared" ref="O48:O50" si="28">POWER(10,N48)</f>
         <v>1E+164</v>
       </c>
       <c r="P48" s="17" t="str">
-        <f t="shared" ref="P48:P49" si="27">RIGHT(O48,N48)</f>
+        <f t="shared" ref="P48:P50" si="29">RIGHT(O48,N48)</f>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="11"/>
@@ -7626,15 +7834,15 @@
         <v>41</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0085긍</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0085000000000001E+84</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0085000000000002</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -7642,11 +7850,11 @@
         <v>긍</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f>VLOOKUP(I49,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8200</v>
       </c>
       <c r="M49" s="16" t="s">
@@ -7656,11 +7864,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="17" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="11"/>
@@ -7678,15 +7886,15 @@
         <v>42</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102.4335긍</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.024335E+86</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.4335</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -7694,15 +7902,27 @@
         <v>긍</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f>VLOOKUP(I50,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8400</v>
       </c>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
+      <c r="M50" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N50" s="16">
+        <v>172</v>
+      </c>
+      <c r="O50" s="17">
+        <f t="shared" ref="O50:O51" si="30">POWER(10,N50)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="P50" s="17" t="str">
+        <f t="shared" ref="P50:P51" si="31">RIGHT(O50,N50)</f>
+        <v>1E+172</v>
+      </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
@@ -7718,15 +7938,15 @@
         <v>43</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5224.1085긍</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2241085000000002E+87</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5224.1085000000003</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -7734,15 +7954,27 @@
         <v>긍</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f>VLOOKUP(I51,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+84</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8600</v>
       </c>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+      <c r="M51" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N51" s="16">
+        <v>176</v>
+      </c>
+      <c r="O51" s="17">
+        <f t="shared" si="30"/>
+        <v>1E+176</v>
+      </c>
+      <c r="P51" s="17" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+176</v>
+      </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -7758,15 +7990,15 @@
         <v>44</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.643갈</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6643000000000001E+89</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.643000000000001</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -7774,11 +8006,11 @@
         <v>갈</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f>VLOOKUP(I52,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8800</v>
       </c>
       <c r="O52" s="11"/>
@@ -7798,15 +8030,15 @@
         <v>45</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1358.793갈</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3587929999999998E+91</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1358.7929999999999</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -7814,11 +8046,11 @@
         <v>갈</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f>VLOOKUP(I53,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+88</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9000</v>
       </c>
       <c r="O53" s="11"/>
@@ -7838,15 +8070,15 @@
         <v>46</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9299라</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9298999999999998E+92</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9298999999999999</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -7854,11 +8086,11 @@
         <v>라</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f>VLOOKUP(I54,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9200</v>
       </c>
       <c r="O54" s="11"/>
@@ -7878,15 +8110,15 @@
         <v>47</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.4249라</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5342489999999998E+94</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>353.42489999999998</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -7894,11 +8126,11 @@
         <v>라</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f>VLOOKUP(I55,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+92</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9400</v>
       </c>
       <c r="O55" s="11"/>
@@ -7918,15 +8150,15 @@
         <v>48</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8025가</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8025000000000002E+96</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8025</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -7934,11 +8166,11 @@
         <v>가</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f>VLOOKUP(I56,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9600</v>
       </c>
       <c r="O56" s="11"/>
@@ -7958,15 +8190,15 @@
         <v>49</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.9275가</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1927499999999992E+97</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91.927499999999995</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -7974,11 +8206,11 @@
         <v>가</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f>VLOOKUP(I57,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9800</v>
       </c>
       <c r="O57" s="11"/>
@@ -7998,15 +8230,15 @@
         <v>50</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4688.3025가</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6883025000000003E+99</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4688.3024999999998</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -8014,11 +8246,11 @@
         <v>가</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f>VLOOKUP(I58,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+96</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10000</v>
       </c>
       <c r="O58" s="11"/>
@@ -8038,15 +8270,15 @@
         <v>51</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.9104언</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3910399999999999E+101</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23.910399999999999</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -8054,11 +8286,11 @@
         <v>언</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f>VLOOKUP(I59,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10200</v>
       </c>
       <c r="O59" s="11"/>
@@ -8078,15 +8310,15 @@
         <v>52</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1219.4304언</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2194304E+103</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1219.4304</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -8094,11 +8326,11 @@
         <v>언</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f>VLOOKUP(I60,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+100</v>
       </c>
       <c r="K60" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10400</v>
       </c>
       <c r="O60" s="11"/>
@@ -8118,15 +8350,15 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="28">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="32">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="29">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="33">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2191000000000001</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -8134,11 +8366,11 @@
         <v>승</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f>VLOOKUP(I61,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10600</v>
       </c>
     </row>
@@ -8147,15 +8379,15 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>317.17410000000001</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -8163,11 +8395,11 @@
         <v>승</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f>VLOOKUP(I62,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+104</v>
       </c>
       <c r="K62" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>10800</v>
       </c>
     </row>
@@ -8176,15 +8408,15 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="30">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="34">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="31">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="35">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6175999999999999</v>
       </c>
       <c r="I63" s="16" t="str" cm="1">
@@ -8192,11 +8424,11 @@
         <v>마</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f>VLOOKUP(I63,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="32">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="36">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -8205,15 +8437,15 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82.497600000000006</v>
       </c>
       <c r="I64" s="16" t="str" cm="1">
@@ -8221,11 +8453,11 @@
         <v>마</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f>VLOOKUP(I64,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>11200</v>
       </c>
     </row>
@@ -8234,15 +8466,15 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4207.3775999999998</v>
       </c>
       <c r="I65" s="16" t="str" cm="1">
@@ -8250,11 +8482,11 @@
         <v>마</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f>VLOOKUP(I65,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>11400</v>
       </c>
     </row>
@@ -8263,15 +8495,15 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="33">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="37">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="34">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="38">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.457699999999999</v>
       </c>
       <c r="I66" s="16" t="str" cm="1">
@@ -8279,11 +8511,11 @@
         <v>살</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f>VLOOKUP(I66,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="35">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="39">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -8292,15 +8524,15 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1094.3426999999999</v>
       </c>
       <c r="I67" s="16" t="str" cm="1">
@@ -8308,11 +8540,11 @@
         <v>살</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f>VLOOKUP(I67,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>11800</v>
       </c>
     </row>
@@ -8321,15 +8553,15 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5811999999999999</v>
       </c>
       <c r="I68" s="16" t="str" cm="1">
@@ -8337,11 +8569,11 @@
         <v>섬</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f>VLOOKUP(I68,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12000</v>
       </c>
     </row>
@@ -8350,15 +8582,15 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>284.64120000000003</v>
       </c>
       <c r="I69" s="16" t="str" cm="1">
@@ -8366,11 +8598,11 @@
         <v>섬</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f>VLOOKUP(I69,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12200</v>
       </c>
     </row>
@@ -8379,15 +8611,15 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4517</v>
       </c>
       <c r="I70" s="16" t="str" cm="1">
@@ -8395,11 +8627,11 @@
         <v>찰</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f>VLOOKUP(I70,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12400</v>
       </c>
     </row>
@@ -8408,15 +8640,15 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74.036699999999996</v>
       </c>
       <c r="I71" s="16" t="str" cm="1">
@@ -8424,11 +8656,11 @@
         <v>찰</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f>VLOOKUP(I71,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12600</v>
       </c>
     </row>
@@ -8437,15 +8669,15 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3775.8717000000001</v>
       </c>
       <c r="I72" s="16" t="str" cm="1">
@@ -8453,11 +8685,11 @@
         <v>찰</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f>VLOOKUP(I72,M:P,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12800</v>
       </c>
     </row>
@@ -8466,15 +8698,15 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="36">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="40">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="37">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="41">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.257000000000001</v>
       </c>
       <c r="I73" s="16" t="str" cm="1">
@@ -8482,11 +8714,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f>VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="42">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="38">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="43">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -8495,15 +8727,15 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>982.10699999999997</v>
       </c>
       <c r="I74" s="16" t="str" cm="1">
@@ -8511,11 +8743,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f>VLOOKUP(I74,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>13200</v>
       </c>
     </row>
@@ -8524,15 +8756,15 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0087999999999999</v>
       </c>
       <c r="I75" s="16" t="str" cm="1">
@@ -8540,11 +8772,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f>VLOOKUP(I75,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>13400</v>
       </c>
     </row>
@@ -8553,15 +8785,15 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>255.44880000000001</v>
       </c>
       <c r="I76" s="16" t="str" cm="1">
@@ -8569,11 +8801,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f>VLOOKUP(I76,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>13600</v>
       </c>
     </row>
@@ -8582,15 +8814,15 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="39">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="44">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="40">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="45">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3028</v>
       </c>
       <c r="I77" s="16" t="str" cm="1">
@@ -8598,11 +8830,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f>VLOOKUP(I77,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="41">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="46">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -8611,15 +8843,15 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.442800000000005</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -8627,11 +8859,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f>VLOOKUP(I78,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14000</v>
       </c>
     </row>
@@ -8640,15 +8872,15 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3388.5828000000001</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -8656,11 +8888,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f>VLOOKUP(I79,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14200</v>
       </c>
     </row>
@@ -8677,7 +8909,7 @@
         <v>1.7281800000000001E+137</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.2818</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -8685,11 +8917,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f>VLOOKUP(I80,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14400</v>
       </c>
     </row>
@@ -8702,11 +8934,11 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>881.37180000000001</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -8714,11 +8946,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f>VLOOKUP(I81,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14600</v>
       </c>
     </row>
@@ -8727,15 +8959,15 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="42">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="47">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="43">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="48">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4950000000000001</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -8743,11 +8975,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f>VLOOKUP(I82,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="44">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="49">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -8756,15 +8988,15 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>229.245</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -8772,11 +9004,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f>VLOOKUP(I83,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15000</v>
       </c>
     </row>
@@ -8785,15 +9017,15 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1692</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -8801,11 +9033,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f>VLOOKUP(I84,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15200</v>
       </c>
     </row>
@@ -8814,15 +9046,15 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.629199999999997</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -8830,11 +9062,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f>VLOOKUP(I85,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15400</v>
       </c>
     </row>
@@ -8851,7 +9083,7 @@
         <v>3.0410892000000001E+147</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3041.0891999999999</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -8859,11 +9091,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f>VLOOKUP(I86,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>15600</v>
       </c>
     </row>
@@ -8872,15 +9104,15 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="45">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="50">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="46">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="51">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.509599999999999</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -8888,11 +9120,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f>VLOOKUP(I87,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="47">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="52">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -8901,15 +9133,15 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>790.9896</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -8917,11 +9149,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f>VLOOKUP(I88,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>16000</v>
       </c>
     </row>
@@ -8930,15 +9162,15 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0340999999999996</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -8946,11 +9178,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f>VLOOKUP(I89,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>16200</v>
       </c>
     </row>
@@ -8967,7 +9199,7 @@
         <v>2.0573910000000003E+154</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>205.73910000000001</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -8975,11 +9207,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f>VLOOKUP(I90,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>16400</v>
       </c>
     </row>
@@ -8988,15 +9220,15 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="48">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="53">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="49">H91*J91</f>
+        <f t="shared" ref="G91" si="54">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0492999999999999</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -9004,11 +9236,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f>VLOOKUP(I91,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="50">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="55">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -9025,7 +9257,7 @@
         <v>5.3514300000000001E+157</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.514299999999999</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -9033,11 +9265,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f>VLOOKUP(I92,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>16800</v>
       </c>
     </row>
@@ -9046,15 +9278,15 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="51">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="56">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="52">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="57">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2729.2293</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -9062,11 +9294,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f>VLOOKUP(I93,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>17000</v>
       </c>
     </row>
@@ -9075,15 +9307,15 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.9191</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -9091,11 +9323,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f>VLOOKUP(I94,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>17200</v>
       </c>
     </row>
@@ -9112,7 +9344,7 @@
         <v>7.0987409999999999E+162</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>709.8741</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -9120,11 +9352,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f>VLOOKUP(I95,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>17400</v>
       </c>
     </row>
@@ -9133,15 +9365,15 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="53">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="58">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="54">H96*J96</f>
+        <f t="shared" ref="G96" si="59">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6204000000000001</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -9149,11 +9381,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f>VLOOKUP(I96,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="55">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="60">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -9170,7 +9402,7 @@
         <v>1.846404E+166</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>184.6404</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -9178,11 +9410,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f>VLOOKUP(I97,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>17800</v>
       </c>
     </row>
@@ -9191,15 +9423,15 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="56">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="61">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="57">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="62">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9416.6604000000007</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -9207,11 +9439,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f>VLOOKUP(I98,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>18000</v>
       </c>
     </row>
@@ -9220,15 +9452,15 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.025000000000006</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -9236,11 +9468,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f>VLOOKUP(I99,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K100" si="58">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="63">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -9249,15 +9481,15 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="59">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="64">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="60">H100*J100</f>
+        <f t="shared" ref="G100" si="65">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2449.2750000000001</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -9265,12 +9497,128 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f>VLOOKUP(I100,M:P,4,FALSE)</f>
+        <f t="shared" si="42"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>18400</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E101" s="16">
+        <v>93</v>
+      </c>
+      <c r="F101" s="17" t="str">
+        <f>H101&amp;I101</f>
+        <v>12.4914창</v>
+      </c>
+      <c r="G101" s="17">
+        <f>H101*J101</f>
+        <v>1.2491400000000002E+173</v>
+      </c>
+      <c r="H101" s="17">
+        <f t="shared" si="6"/>
+        <v>12.491400000000001</v>
+      </c>
+      <c r="I101" s="16" t="str" cm="1">
+        <f t="array" ref="I101">IF(AND(H100&gt;100,H101&lt;100),INDEX(M:M,MATCH(I100,M:M,0)+1,0),I100)</f>
+        <v>창</v>
+      </c>
+      <c r="J101" s="16" t="str">
+        <f t="shared" ref="J101:J104" si="66">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K101" s="11">
+        <f t="shared" si="63"/>
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E102" s="16">
+        <v>94</v>
+      </c>
+      <c r="F102" s="17" t="str">
+        <f t="shared" ref="F102:F104" si="67">H102&amp;I102</f>
+        <v>637.0614창</v>
+      </c>
+      <c r="G102" s="17">
+        <f t="shared" ref="G102:G104" si="68">H102*J102</f>
+        <v>6.3706140000000007E+174</v>
+      </c>
+      <c r="H102" s="17">
+        <f t="shared" si="6"/>
+        <v>637.06140000000005</v>
+      </c>
+      <c r="I102" s="16" t="str" cm="1">
+        <f t="array" ref="I102">IF(AND(H101&gt;100,H102&lt;100),INDEX(M:M,MATCH(I101,M:M,0)+1,0),I101)</f>
+        <v>창</v>
+      </c>
+      <c r="J102" s="16" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+172</v>
+      </c>
+      <c r="K102" s="11">
+        <f t="shared" si="63"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E103" s="16">
+        <v>95</v>
+      </c>
+      <c r="F103" s="17" t="str">
+        <f t="shared" si="67"/>
+        <v>3.2491공</v>
+      </c>
+      <c r="G103" s="17">
+        <f t="shared" si="68"/>
+        <v>3.2491000000000004E+176</v>
+      </c>
+      <c r="H103" s="17">
+        <f t="shared" si="6"/>
+        <v>3.2491000000000003</v>
+      </c>
+      <c r="I103" s="16" t="str" cm="1">
+        <f t="array" ref="I103">IF(AND(H102&gt;100,H103&lt;100),INDEX(M:M,MATCH(I102,M:M,0)+1,0),I102)</f>
+        <v>공</v>
+      </c>
+      <c r="J103" s="16" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K103" s="11">
+        <f t="shared" ref="K103:K104" si="69">$B$14*E103</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E104" s="16">
+        <v>96</v>
+      </c>
+      <c r="F104" s="17" t="str">
+        <f t="shared" si="67"/>
+        <v>165.7041공</v>
+      </c>
+      <c r="G104" s="17">
+        <f t="shared" si="68"/>
+        <v>1.6570410000000001E+178</v>
+      </c>
+      <c r="H104" s="17">
+        <f t="shared" si="6"/>
+        <v>165.70410000000001</v>
+      </c>
+      <c r="I104" s="16" t="str" cm="1">
+        <f t="array" ref="I104">IF(AND(H103&gt;100,H104&lt;100),INDEX(M:M,MATCH(I103,M:M,0)+1,0),I103)</f>
+        <v>공</v>
+      </c>
+      <c r="J104" s="16" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K104" s="11">
+        <f t="shared" si="69"/>
+        <v>19200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52E4DF1-526F-4AC0-819C-AC9EEB001578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF395D-9902-407F-B9EB-C45BE255D1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,14 @@
   </si>
   <si>
     <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,11 +1065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3499,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J98" si="6">J52+200</f>
+        <f t="shared" ref="J53:J103" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3507,7 +3515,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L98" si="7">L52+200</f>
+        <f t="shared" ref="L53:L103" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4420,7 +4428,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B98" si="24">B71</f>
+        <f t="shared" ref="B72:B103" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4432,7 +4440,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E98" si="25">E71</f>
+        <f t="shared" ref="E72:E103" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4453,7 +4461,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K98" si="26">K71</f>
+        <f t="shared" ref="K72:K103" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4461,7 +4469,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M98" si="27">M71</f>
+        <f t="shared" ref="M72:M103" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5674,11 +5682,11 @@
         <v>1-1</v>
       </c>
       <c r="C97">
-        <f t="shared" ref="C97:C98" si="42">IF(MOD(A97,5)=0,9021,25)</f>
+        <f t="shared" ref="C97:C100" si="42">IF(MOD(A97,5)=0,9021,25)</f>
         <v>9021</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D98" si="43">IF(C97=9021,D92+1,IF(AND(C97=25,C96=25),D96+2000,D95+2000))</f>
+        <f t="shared" ref="D97:D101" si="43">IF(C97=9021,D92+1,IF(AND(C97=25,C96=25),D96+2000,D95+2000))</f>
         <v>20</v>
       </c>
       <c r="E97">
@@ -5765,9 +5773,259 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="43"/>
+        <v>124000</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <f>VLOOKUP(A99,Balance!E:G,3,FALSE)</f>
+        <v>8.4509091000000011E+179</v>
+      </c>
+      <c r="G99">
+        <v>1000</v>
+      </c>
+      <c r="H99">
+        <v>8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>21400</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="7"/>
+        <v>19600</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="42"/>
+        <v>25</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="43"/>
+        <v>126000</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <f>VLOOKUP(A100,Balance!E:G,3,FALSE)</f>
+        <v>4.3099700000000009E+181</v>
+      </c>
+      <c r="G100">
+        <v>1000</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>21600</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="7"/>
+        <v>19800</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ref="C101:C103" si="44">IF(MOD(A101,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ref="D101:D103" si="45">IF(C101=9021,D96+1,IF(AND(C101=25,C100=25),D100+2000,D99+2000))</f>
+        <v>128000</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f>VLOOKUP(A101,Balance!E:G,3,FALSE)</f>
+        <v>2.1980846999999998E+183</v>
+      </c>
+      <c r="G101">
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>21800</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="7"/>
+        <v>20000</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="44"/>
+        <v>9021</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="45"/>
+        <v>21</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP(A102,Balance!E:G,3,FALSE)</f>
+        <v>1.1210300000000001E+185</v>
+      </c>
+      <c r="G102">
+        <v>1000</v>
+      </c>
+      <c r="H102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>22000</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="7"/>
+        <v>20200</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="44"/>
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="45"/>
+        <v>130000</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <f>VLOOKUP(A103,Balance!E:G,3,FALSE)</f>
+        <v>5.7172529999999993E+186</v>
+      </c>
+      <c r="G103">
+        <v>1000</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>22200</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="7"/>
+        <v>20400</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M98 A3:C98 E4:E98 G62:K98">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M103 A3:C103 E4:E103 G62:K103">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5779,10 +6037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y104"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="B83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6027,7 +6285,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H104" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H110" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -7812,11 +8070,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="17">
-        <f t="shared" ref="O48:O50" si="28">POWER(10,N48)</f>
+        <f t="shared" ref="O48:O49" si="28">POWER(10,N48)</f>
         <v>1E+164</v>
       </c>
       <c r="P48" s="17" t="str">
-        <f t="shared" ref="P48:P50" si="29">RIGHT(O48,N48)</f>
+        <f t="shared" ref="P48:P49" si="29">RIGHT(O48,N48)</f>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="11"/>
@@ -7916,11 +8174,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="17">
-        <f t="shared" ref="O50:O51" si="30">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O53" si="30">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="17" t="str">
-        <f t="shared" ref="P50:P51" si="31">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P53" si="31">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="11"/>
@@ -8013,8 +8271,20 @@
         <f t="shared" si="17"/>
         <v>8800</v>
       </c>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
+      <c r="M52" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="N52" s="16">
+        <v>180</v>
+      </c>
+      <c r="O52" s="11">
+        <f t="shared" si="30"/>
+        <v>1E+180</v>
+      </c>
+      <c r="P52" s="11" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+180</v>
+      </c>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
@@ -8053,8 +8323,20 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="M53" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N53" s="16">
+        <v>184</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="30"/>
+        <v>1E+184</v>
+      </c>
+      <c r="P53" s="11" t="str">
+        <f t="shared" si="31"/>
+        <v>1E+184</v>
+      </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
@@ -8714,7 +8996,7 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="42">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="42">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
@@ -9588,7 +9870,7 @@
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K104" si="69">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="69">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -9619,6 +9901,151 @@
       <c r="K104" s="11">
         <f t="shared" si="69"/>
         <v>19200</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E105" s="16">
+        <v>97</v>
+      </c>
+      <c r="F105" s="17" t="str">
+        <f>H105&amp;I105</f>
+        <v>8450.9091공</v>
+      </c>
+      <c r="G105" s="17">
+        <f>H105*J105</f>
+        <v>8.4509091000000011E+179</v>
+      </c>
+      <c r="H105" s="17">
+        <f t="shared" si="6"/>
+        <v>8450.9091000000008</v>
+      </c>
+      <c r="I105" s="16" t="str" cm="1">
+        <f t="array" ref="I105">IF(AND(H104&gt;100,H105&lt;100),INDEX(M:M,MATCH(I104,M:M,0)+1,0),I104)</f>
+        <v>공</v>
+      </c>
+      <c r="J105" s="16" t="str">
+        <f t="shared" ref="J105:J110" si="70">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="K105" s="11">
+        <f t="shared" si="69"/>
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="106" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E106" s="16">
+        <v>98</v>
+      </c>
+      <c r="F106" s="17" t="str">
+        <f t="shared" ref="F106:F108" si="71">H106&amp;I106</f>
+        <v>43.0997채</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" ref="G106:G108" si="72">H106*J106</f>
+        <v>4.3099700000000009E+181</v>
+      </c>
+      <c r="H106" s="17">
+        <f t="shared" si="6"/>
+        <v>43.099700000000006</v>
+      </c>
+      <c r="I106" s="16" t="str" cm="1">
+        <f t="array" ref="I106">IF(AND(H105&gt;100,H106&lt;100),INDEX(M:M,MATCH(I105,M:M,0)+1,0),I105)</f>
+        <v>채</v>
+      </c>
+      <c r="J106" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K106" s="11">
+        <f t="shared" si="69"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E107" s="16">
+        <v>99</v>
+      </c>
+      <c r="F107" s="17" t="str">
+        <f t="shared" si="71"/>
+        <v>2198.0847채</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="72"/>
+        <v>2.1980846999999998E+183</v>
+      </c>
+      <c r="H107" s="17">
+        <f t="shared" si="6"/>
+        <v>2198.0846999999999</v>
+      </c>
+      <c r="I107" s="16" t="str" cm="1">
+        <f t="array" ref="I107">IF(AND(H106&gt;100,H107&lt;100),INDEX(M:M,MATCH(I106,M:M,0)+1,0),I106)</f>
+        <v>채</v>
+      </c>
+      <c r="J107" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K107" s="11">
+        <f t="shared" ref="K107:K110" si="73">$B$14*E107</f>
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E108" s="16">
+        <v>100</v>
+      </c>
+      <c r="F108" s="17" t="str">
+        <f t="shared" si="71"/>
+        <v>11.2103연</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="72"/>
+        <v>1.1210300000000001E+185</v>
+      </c>
+      <c r="H108" s="17">
+        <f t="shared" si="6"/>
+        <v>11.2103</v>
+      </c>
+      <c r="I108" s="16" t="str" cm="1">
+        <f t="array" ref="I108">IF(AND(H107&gt;100,H108&lt;100),INDEX(M:M,MATCH(I107,M:M,0)+1,0),I107)</f>
+        <v>연</v>
+      </c>
+      <c r="J108" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K108" s="11">
+        <f t="shared" si="73"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E109" s="16">
+        <v>101</v>
+      </c>
+      <c r="F109" s="17" t="str">
+        <f>H109&amp;I109</f>
+        <v>571.7253연</v>
+      </c>
+      <c r="G109" s="17">
+        <f>H109*J109</f>
+        <v>5.7172529999999993E+186</v>
+      </c>
+      <c r="H109" s="17">
+        <f t="shared" si="6"/>
+        <v>571.72529999999995</v>
+      </c>
+      <c r="I109" s="16" t="str" cm="1">
+        <f t="array" ref="I109">IF(AND(H108&gt;100,H109&lt;100),INDEX(M:M,MATCH(I108,M:M,0)+1,0),I108)</f>
+        <v>연</v>
+      </c>
+      <c r="J109" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K109" s="11">
+        <f t="shared" si="73"/>
+        <v>20200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AF395D-9902-407F-B9EB-C45BE255D1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7841A8-5E01-434D-9450-A92A8DD92184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,7 +466,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
+    <t>피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3507,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J103" si="6">J52+200</f>
+        <f t="shared" ref="J53:J106" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3515,7 +3519,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L103" si="7">L52+200</f>
+        <f t="shared" ref="L53:L106" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4428,7 +4432,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B103" si="24">B71</f>
+        <f t="shared" ref="B72:B106" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4440,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E103" si="25">E71</f>
+        <f t="shared" ref="E72:E106" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4461,7 +4465,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K103" si="26">K71</f>
+        <f t="shared" ref="K72:K106" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4469,7 +4473,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M103" si="27">M71</f>
+        <f t="shared" ref="M72:M106" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -5686,7 +5690,7 @@
         <v>9021</v>
       </c>
       <c r="D97">
-        <f t="shared" ref="D97:D101" si="43">IF(C97=9021,D92+1,IF(AND(C97=25,C96=25),D96+2000,D95+2000))</f>
+        <f t="shared" ref="D97:D100" si="43">IF(C97=9021,D92+1,IF(AND(C97=25,C96=25),D96+2000,D95+2000))</f>
         <v>20</v>
       </c>
       <c r="E97">
@@ -6023,9 +6027,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ref="C104:C106" si="46">IF(MOD(A104,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ref="D104:D106" si="47">IF(C104=9021,D99+1,IF(AND(C104=25,C103=25),D103+2000,D102+2000))</f>
+        <v>132000</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <f>VLOOKUP(A104,Balance!E:G,3,FALSE)</f>
+        <v>2.9158000000000006E+188</v>
+      </c>
+      <c r="G104">
+        <v>1000</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>22400</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="7"/>
+        <v>20600</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="47"/>
+        <v>134000</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <f>VLOOKUP(A105,Balance!E:G,3,FALSE)</f>
+        <v>1.4870580000000002E+190</v>
+      </c>
+      <c r="G105">
+        <v>1000</v>
+      </c>
+      <c r="H105">
+        <v>8</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>22600</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="7"/>
+        <v>20800</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="47"/>
+        <v>136000</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <f>VLOOKUP(A106,Balance!E:G,3,FALSE)</f>
+        <v>7.5839958000000002E+191</v>
+      </c>
+      <c r="G106">
+        <v>1000</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>22800</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="7"/>
+        <v>21000</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M103 A3:C103 E4:E103 G62:K103">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M106 A3:C106 E4:E106 G62:K106">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6037,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y109"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6285,7 +6439,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H110" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H112" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -8277,12 +8431,12 @@
       <c r="N52" s="16">
         <v>180</v>
       </c>
-      <c r="O52" s="11">
-        <f t="shared" si="30"/>
+      <c r="O52" s="17">
+        <f t="shared" ref="O52:O54" si="32">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
-      <c r="P52" s="11" t="str">
-        <f t="shared" si="31"/>
+      <c r="P52" s="17" t="str">
+        <f t="shared" ref="P52:P54" si="33">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="11"/>
@@ -8329,12 +8483,12 @@
       <c r="N53" s="16">
         <v>184</v>
       </c>
-      <c r="O53" s="11">
-        <f t="shared" si="30"/>
+      <c r="O53" s="17">
+        <f t="shared" si="32"/>
         <v>1E+184</v>
       </c>
-      <c r="P53" s="11" t="str">
-        <f t="shared" si="31"/>
+      <c r="P53" s="17" t="str">
+        <f t="shared" si="33"/>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="11"/>
@@ -8375,8 +8529,20 @@
         <f t="shared" si="17"/>
         <v>9200</v>
       </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
+      <c r="M54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N54" s="16">
+        <v>188</v>
+      </c>
+      <c r="O54" s="17">
+        <f t="shared" si="32"/>
+        <v>1E+188</v>
+      </c>
+      <c r="P54" s="17" t="str">
+        <f t="shared" si="33"/>
+        <v>1E+188</v>
+      </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -8632,11 +8798,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="32">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="34">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="33">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="35">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -8661,11 +8827,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -8690,11 +8856,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="34">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="36">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="35">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="37">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -8710,7 +8876,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="36">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="38">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -8719,11 +8885,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -8739,7 +8905,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11200</v>
       </c>
     </row>
@@ -8748,11 +8914,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -8768,7 +8934,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>11400</v>
       </c>
     </row>
@@ -8777,11 +8943,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="37">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="39">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="38">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="40">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -8797,7 +8963,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="39">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="41">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -8806,11 +8972,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -8826,7 +8992,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>11800</v>
       </c>
     </row>
@@ -8835,11 +9001,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -8855,7 +9021,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12000</v>
       </c>
     </row>
@@ -8864,11 +9030,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -8884,7 +9050,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12200</v>
       </c>
     </row>
@@ -8893,11 +9059,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -8913,7 +9079,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12400</v>
       </c>
     </row>
@@ -8922,11 +9088,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -8942,7 +9108,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12600</v>
       </c>
     </row>
@@ -8951,11 +9117,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -8971,7 +9137,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>12800</v>
       </c>
     </row>
@@ -8980,11 +9146,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="40">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="42">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="41">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="43">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -8996,11 +9162,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="42">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="44">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="43">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="45">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -9009,11 +9175,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -9025,11 +9191,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13200</v>
       </c>
     </row>
@@ -9038,11 +9204,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -9054,11 +9220,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13400</v>
       </c>
     </row>
@@ -9067,11 +9233,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -9083,11 +9249,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>13600</v>
       </c>
     </row>
@@ -9096,11 +9262,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="44">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="46">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="45">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="47">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -9112,11 +9278,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="46">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="48">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -9125,11 +9291,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -9141,11 +9307,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14000</v>
       </c>
     </row>
@@ -9154,11 +9320,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -9170,11 +9336,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14200</v>
       </c>
     </row>
@@ -9199,11 +9365,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14400</v>
       </c>
     </row>
@@ -9216,7 +9382,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -9228,11 +9394,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14600</v>
       </c>
     </row>
@@ -9241,11 +9407,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="47">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="49">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="48">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="50">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -9257,11 +9423,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="49">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="51">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -9270,11 +9436,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -9286,11 +9452,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>15000</v>
       </c>
     </row>
@@ -9299,11 +9465,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -9315,11 +9481,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>15200</v>
       </c>
     </row>
@@ -9328,11 +9494,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -9344,11 +9510,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>15400</v>
       </c>
     </row>
@@ -9373,11 +9539,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>15600</v>
       </c>
     </row>
@@ -9386,11 +9552,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="50">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="52">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="51">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="53">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -9402,11 +9568,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="52">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="54">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -9415,11 +9581,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -9431,11 +9597,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>16000</v>
       </c>
     </row>
@@ -9444,11 +9610,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -9460,11 +9626,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>16200</v>
       </c>
     </row>
@@ -9489,11 +9655,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>16400</v>
       </c>
     </row>
@@ -9502,11 +9668,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="53">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="55">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="54">H91*J91</f>
+        <f t="shared" ref="G91" si="56">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -9518,11 +9684,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="55">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="57">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -9547,11 +9713,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>16800</v>
       </c>
     </row>
@@ -9560,11 +9726,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="56">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="58">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="57">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="59">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -9576,11 +9742,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>17000</v>
       </c>
     </row>
@@ -9589,11 +9755,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -9605,11 +9771,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>17200</v>
       </c>
     </row>
@@ -9634,11 +9800,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>17400</v>
       </c>
     </row>
@@ -9647,11 +9813,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="58">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="60">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="59">H96*J96</f>
+        <f t="shared" ref="G96" si="61">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -9663,11 +9829,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="60">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="62">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -9692,11 +9858,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>17800</v>
       </c>
     </row>
@@ -9705,11 +9871,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="61">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="63">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="62">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="64">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -9721,11 +9887,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>18000</v>
       </c>
     </row>
@@ -9734,11 +9900,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -9750,11 +9916,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="63">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="65">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -9763,11 +9929,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="64">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="66">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="65">H100*J100</f>
+        <f t="shared" ref="G100" si="67">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -9779,11 +9945,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>18400</v>
       </c>
     </row>
@@ -9808,11 +9974,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="66">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="68">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>18600</v>
       </c>
     </row>
@@ -9821,11 +9987,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="67">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="69">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="68">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="70">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -9837,11 +10003,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>18800</v>
       </c>
     </row>
@@ -9850,11 +10016,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -9866,11 +10032,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="69">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="71">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -9879,11 +10045,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -9895,11 +10061,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>19200</v>
       </c>
     </row>
@@ -9924,11 +10090,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J110" si="70">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="72">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>19400</v>
       </c>
     </row>
@@ -9937,11 +10103,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="71">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="73">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="72">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="74">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -9953,11 +10119,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>19600</v>
       </c>
     </row>
@@ -9966,11 +10132,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -9982,11 +10148,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="73">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="75">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -9995,11 +10161,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="71"/>
-        <v>11.2103연</v>
+        <f t="shared" si="73"/>
+        <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -10008,14 +10174,14 @@
       </c>
       <c r="I108" s="16" t="str" cm="1">
         <f t="array" ref="I108">IF(AND(H107&gt;100,H108&lt;100),INDEX(M:M,MATCH(I107,M:M,0)+1,0),I107)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>20000</v>
       </c>
     </row>
@@ -10025,7 +10191,7 @@
       </c>
       <c r="F109" s="17" t="str">
         <f>H109&amp;I109</f>
-        <v>571.7253연</v>
+        <v>571.7253피</v>
       </c>
       <c r="G109" s="17">
         <f>H109*J109</f>
@@ -10037,15 +10203,102 @@
       </c>
       <c r="I109" s="16" t="str" cm="1">
         <f t="array" ref="I109">IF(AND(H108&gt;100,H109&lt;100),INDEX(M:M,MATCH(I108,M:M,0)+1,0),I108)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>20200</v>
+      </c>
+    </row>
+    <row r="110" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E110" s="16">
+        <v>102</v>
+      </c>
+      <c r="F110" s="17" t="str">
+        <f t="shared" ref="F110:F112" si="76">H110&amp;I110</f>
+        <v>2.9158동</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" ref="G110:G112" si="77">H110*J110</f>
+        <v>2.9158000000000006E+188</v>
+      </c>
+      <c r="H110" s="17">
+        <f t="shared" si="6"/>
+        <v>2.9158000000000004</v>
+      </c>
+      <c r="I110" s="16" t="str" cm="1">
+        <f t="array" ref="I110">IF(AND(H109&gt;100,H110&lt;100),INDEX(M:M,MATCH(I109,M:M,0)+1,0),I109)</f>
+        <v>동</v>
+      </c>
+      <c r="J110" s="16" t="str">
+        <f t="shared" ref="J110:J112" si="78">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="K110" s="11">
+        <f t="shared" si="75"/>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="111" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E111" s="16">
+        <v>103</v>
+      </c>
+      <c r="F111" s="17" t="str">
+        <f t="shared" si="76"/>
+        <v>148.7058동</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="77"/>
+        <v>1.4870580000000002E+190</v>
+      </c>
+      <c r="H111" s="17">
+        <f t="shared" si="6"/>
+        <v>148.70580000000001</v>
+      </c>
+      <c r="I111" s="16" t="str" cm="1">
+        <f t="array" ref="I111">IF(AND(H110&gt;100,H111&lt;100),INDEX(M:M,MATCH(I110,M:M,0)+1,0),I110)</f>
+        <v>동</v>
+      </c>
+      <c r="J111" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K111" s="11">
+        <f t="shared" ref="K111:K112" si="79">$B$14*E111</f>
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="112" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E112" s="16">
+        <v>104</v>
+      </c>
+      <c r="F112" s="17" t="str">
+        <f t="shared" si="76"/>
+        <v>7583.9958동</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="77"/>
+        <v>7.5839958000000002E+191</v>
+      </c>
+      <c r="H112" s="17">
+        <f t="shared" si="6"/>
+        <v>7583.9957999999997</v>
+      </c>
+      <c r="I112" s="16" t="str" cm="1">
+        <f t="array" ref="I112">IF(AND(H111&gt;100,H112&lt;100),INDEX(M:M,MATCH(I111,M:M,0)+1,0),I111)</f>
+        <v>동</v>
+      </c>
+      <c r="J112" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K112" s="11">
+        <f t="shared" si="79"/>
+        <v>20800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7841A8-5E01-434D-9450-A92A8DD92184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204C94F-EBCA-478C-B544-9D9A559D1A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,11 +1073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3511,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J106" si="6">J52+200</f>
+        <f t="shared" ref="J53:J108" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3519,7 +3523,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L106" si="7">L52+200</f>
+        <f t="shared" ref="L53:L108" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4432,7 +4436,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B106" si="24">B71</f>
+        <f t="shared" ref="B72:B108" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4444,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E106" si="25">E71</f>
+        <f t="shared" ref="E72:E108" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4465,7 +4469,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K106" si="26">K71</f>
+        <f t="shared" ref="K72:K108" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4473,7 +4477,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M106" si="27">M71</f>
+        <f t="shared" ref="M72:M108" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6036,11 +6040,11 @@
         <v>1-1</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:C106" si="46">IF(MOD(A104,5)=0,9021,25)</f>
+        <f t="shared" ref="C104:C107" si="46">IF(MOD(A104,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D104">
-        <f t="shared" ref="D104:D106" si="47">IF(C104=9021,D99+1,IF(AND(C104=25,C103=25),D103+2000,D102+2000))</f>
+        <f t="shared" ref="D104:D107" si="47">IF(C104=9021,D99+1,IF(AND(C104=25,C103=25),D103+2000,D102+2000))</f>
         <v>132000</v>
       </c>
       <c r="E104">
@@ -6177,9 +6181,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="46"/>
+        <v>9021</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="47"/>
+        <v>22</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f>VLOOKUP(A107,Balance!E:G,3,FALSE)</f>
+        <v>3.8678400000000007E+193</v>
+      </c>
+      <c r="G107">
+        <v>1000</v>
+      </c>
+      <c r="H107">
+        <v>8</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>23000</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="7"/>
+        <v>21200</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108" si="48">IF(MOD(A108,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ref="D108" si="49">IF(C108=9021,D103+1,IF(AND(C108=25,C107=25),D107+2000,D106+2000))</f>
+        <v>138000</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <f>VLOOKUP(A108,Balance!E:G,3,FALSE)</f>
+        <v>1.9725984000000002E+195</v>
+      </c>
+      <c r="G108">
+        <v>1000</v>
+      </c>
+      <c r="H108">
+        <v>8</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>23200</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="7"/>
+        <v>21400</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M106 A3:C106 E4:E106 G62:K106">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M108 A3:C108 E4:E108 G62:K108">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6191,10 +6295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6439,7 +6543,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H112" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H114" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -8328,11 +8432,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="17">
-        <f t="shared" ref="O50:O53" si="30">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="30">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="17" t="str">
-        <f t="shared" ref="P50:P53" si="31">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="31">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="11"/>
@@ -8581,8 +8685,20 @@
         <f t="shared" si="17"/>
         <v>9400</v>
       </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
+      <c r="M55" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N55" s="16">
+        <v>192</v>
+      </c>
+      <c r="O55" s="17">
+        <f t="shared" ref="O55" si="34">POWER(10,N55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="P55" s="17" t="str">
+        <f t="shared" ref="P55" si="35">RIGHT(O55,N55)</f>
+        <v>1E+192</v>
+      </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
@@ -8798,11 +8914,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="34">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="36">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="35">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="37">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -8827,11 +8943,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -8856,11 +8972,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="36">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="38">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="37">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="39">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -8876,7 +8992,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="38">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="40">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -8885,11 +9001,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -8905,7 +9021,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>11200</v>
       </c>
     </row>
@@ -8914,11 +9030,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -8934,7 +9050,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>11400</v>
       </c>
     </row>
@@ -8943,11 +9059,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="39">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="41">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="40">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="42">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -8963,7 +9079,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="41">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="43">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -8972,11 +9088,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -8992,7 +9108,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>11800</v>
       </c>
     </row>
@@ -9001,11 +9117,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -9021,7 +9137,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12000</v>
       </c>
     </row>
@@ -9030,11 +9146,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -9050,7 +9166,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12200</v>
       </c>
     </row>
@@ -9059,11 +9175,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -9079,7 +9195,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12400</v>
       </c>
     </row>
@@ -9088,11 +9204,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -9108,7 +9224,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12600</v>
       </c>
     </row>
@@ -9117,11 +9233,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -9137,7 +9253,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>12800</v>
       </c>
     </row>
@@ -9146,11 +9262,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="42">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="44">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="43">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="45">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -9162,11 +9278,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="44">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="46">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="45">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="47">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -9175,11 +9291,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -9191,11 +9307,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>13200</v>
       </c>
     </row>
@@ -9204,11 +9320,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -9220,11 +9336,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>13400</v>
       </c>
     </row>
@@ -9233,11 +9349,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -9249,11 +9365,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>13600</v>
       </c>
     </row>
@@ -9262,11 +9378,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="46">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="48">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="47">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="49">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -9278,11 +9394,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="48">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="50">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -9291,11 +9407,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -9307,11 +9423,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>14000</v>
       </c>
     </row>
@@ -9320,11 +9436,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -9336,11 +9452,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>14200</v>
       </c>
     </row>
@@ -9365,11 +9481,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>14400</v>
       </c>
     </row>
@@ -9382,7 +9498,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -9394,11 +9510,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>14600</v>
       </c>
     </row>
@@ -9407,11 +9523,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="49">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="51">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="50">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="52">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -9423,11 +9539,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="51">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="53">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -9436,11 +9552,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -9452,11 +9568,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>15000</v>
       </c>
     </row>
@@ -9465,11 +9581,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -9481,11 +9597,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>15200</v>
       </c>
     </row>
@@ -9494,11 +9610,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -9510,11 +9626,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>15400</v>
       </c>
     </row>
@@ -9539,11 +9655,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>15600</v>
       </c>
     </row>
@@ -9552,11 +9668,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="52">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="54">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="53">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="55">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -9568,11 +9684,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="54">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="56">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -9581,11 +9697,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -9597,11 +9713,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>16000</v>
       </c>
     </row>
@@ -9610,11 +9726,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -9626,11 +9742,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>16200</v>
       </c>
     </row>
@@ -9655,11 +9771,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>16400</v>
       </c>
     </row>
@@ -9668,11 +9784,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="55">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="57">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="56">H91*J91</f>
+        <f t="shared" ref="G91" si="58">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -9684,11 +9800,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="57">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="59">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -9713,11 +9829,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>16800</v>
       </c>
     </row>
@@ -9726,11 +9842,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="58">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="60">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="59">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="61">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -9742,11 +9858,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>17000</v>
       </c>
     </row>
@@ -9755,11 +9871,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -9771,11 +9887,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>17200</v>
       </c>
     </row>
@@ -9800,11 +9916,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>17400</v>
       </c>
     </row>
@@ -9813,11 +9929,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="60">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="62">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="61">H96*J96</f>
+        <f t="shared" ref="G96" si="63">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -9829,11 +9945,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="62">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="64">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -9858,11 +9974,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>17800</v>
       </c>
     </row>
@@ -9871,11 +9987,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="63">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="65">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="64">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="66">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -9887,11 +10003,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>18000</v>
       </c>
     </row>
@@ -9900,11 +10016,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -9916,11 +10032,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="65">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="67">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -9929,11 +10045,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="66">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="68">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="67">H100*J100</f>
+        <f t="shared" ref="G100" si="69">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -9945,11 +10061,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>18400</v>
       </c>
     </row>
@@ -9974,11 +10090,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="68">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="70">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>18600</v>
       </c>
     </row>
@@ -9987,11 +10103,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="69">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="71">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="70">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="72">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -10003,11 +10119,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>18800</v>
       </c>
     </row>
@@ -10016,11 +10132,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -10032,11 +10148,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="71">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="73">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -10045,11 +10161,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -10061,11 +10177,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>19200</v>
       </c>
     </row>
@@ -10090,11 +10206,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="72">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="74">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>19400</v>
       </c>
     </row>
@@ -10103,11 +10219,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="73">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="75">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="74">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="76">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -10119,11 +10235,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>19600</v>
       </c>
     </row>
@@ -10132,11 +10248,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -10148,11 +10264,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="75">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="77">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -10161,11 +10277,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -10177,11 +10293,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>20000</v>
       </c>
     </row>
@@ -10206,11 +10322,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>20200</v>
       </c>
     </row>
@@ -10219,11 +10335,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F112" si="76">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="78">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G112" si="77">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="79">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -10235,11 +10351,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J112" si="78">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="80">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>20400</v>
       </c>
     </row>
@@ -10248,11 +10364,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -10264,11 +10380,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K112" si="79">$B$14*E111</f>
+        <f t="shared" ref="K111:K114" si="81">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -10277,11 +10393,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -10293,12 +10409,70 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
+        <f t="shared" si="80"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K112" s="11">
+        <f t="shared" si="81"/>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="113" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E113" s="16">
+        <v>105</v>
+      </c>
+      <c r="F113" s="17" t="str">
         <f t="shared" si="78"/>
-        <v>1E+188</v>
-      </c>
-      <c r="K112" s="11">
+        <v>38.6784멸</v>
+      </c>
+      <c r="G113" s="17">
         <f t="shared" si="79"/>
-        <v>20800</v>
+        <v>3.8678400000000007E+193</v>
+      </c>
+      <c r="H113" s="17">
+        <f t="shared" si="6"/>
+        <v>38.678400000000003</v>
+      </c>
+      <c r="I113" s="16" t="str" cm="1">
+        <f t="array" ref="I113">IF(AND(H112&gt;100,H113&lt;100),INDEX(M:M,MATCH(I112,M:M,0)+1,0),I112)</f>
+        <v>멸</v>
+      </c>
+      <c r="J113" s="16" t="str">
+        <f t="shared" si="80"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K113" s="11">
+        <f t="shared" si="81"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="114" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E114" s="16">
+        <v>106</v>
+      </c>
+      <c r="F114" s="17" t="str">
+        <f>H114&amp;I114</f>
+        <v>1972.5984멸</v>
+      </c>
+      <c r="G114" s="17">
+        <f>H114*J114</f>
+        <v>1.9725984000000002E+195</v>
+      </c>
+      <c r="H114" s="17">
+        <f t="shared" si="6"/>
+        <v>1972.5984000000001</v>
+      </c>
+      <c r="I114" s="16" t="str" cm="1">
+        <f t="array" ref="I114">IF(AND(H113&gt;100,H114&lt;100),INDEX(M:M,MATCH(I113,M:M,0)+1,0),I113)</f>
+        <v>멸</v>
+      </c>
+      <c r="J114" s="16" t="str">
+        <f t="shared" si="80"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K114" s="11">
+        <f t="shared" si="81"/>
+        <v>21200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204C94F-EBCA-478C-B544-9D9A559D1A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147D278-761E-4653-AD61-DFD1917BED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,14 @@
     <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -740,7 +748,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1073,11 +1103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3515,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J108" si="6">J52+200</f>
+        <f t="shared" ref="J53:J114" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3523,7 +3553,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L108" si="7">L52+200</f>
+        <f t="shared" ref="L53:L114" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4436,7 +4466,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B108" si="24">B71</f>
+        <f t="shared" ref="B72:B114" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4448,7 +4478,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E108" si="25">E71</f>
+        <f t="shared" ref="E72:E114" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4469,7 +4499,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K108" si="26">K71</f>
+        <f t="shared" ref="K72:K114" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4477,7 +4507,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M108" si="27">M71</f>
+        <f t="shared" ref="M72:M114" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6240,11 +6270,11 @@
         <v>1-1</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108" si="48">IF(MOD(A108,5)=0,9021,25)</f>
+        <f t="shared" ref="C108:C114" si="48">IF(MOD(A108,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108" si="49">IF(C108=9021,D103+1,IF(AND(C108=25,C107=25),D107+2000,D106+2000))</f>
+        <f t="shared" ref="D108:D114" si="49">IF(C108=9021,D103+1,IF(AND(C108=25,C107=25),D107+2000,D106+2000))</f>
         <v>138000</v>
       </c>
       <c r="E108">
@@ -6281,9 +6311,259 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="48"/>
+        <v>25</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="49"/>
+        <v>140000</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <f>VLOOKUP(A109,Balance!E:G,3,FALSE)</f>
+        <v>1.00603E+197</v>
+      </c>
+      <c r="G109">
+        <v>1000</v>
+      </c>
+      <c r="H109">
+        <v>8</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="6"/>
+        <v>23400</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="7"/>
+        <v>21600</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="48"/>
+        <v>25</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="49"/>
+        <v>142000</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <f>VLOOKUP(A110,Balance!E:G,3,FALSE)</f>
+        <v>5.1307529999999993E+198</v>
+      </c>
+      <c r="G110">
+        <v>1000</v>
+      </c>
+      <c r="H110">
+        <v>8</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="6"/>
+        <v>23600</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="7"/>
+        <v>21800</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="48"/>
+        <v>25</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="49"/>
+        <v>144000</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f>VLOOKUP(A111,Balance!E:G,3,FALSE)</f>
+        <v>2.6167000000000001E+200</v>
+      </c>
+      <c r="G111">
+        <v>1000</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="6"/>
+        <v>23800</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="7"/>
+        <v>22000</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="48"/>
+        <v>9021</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="49"/>
+        <v>23</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP(A112,Balance!E:G,3,FALSE)</f>
+        <v>1.3345169999999999E+202</v>
+      </c>
+      <c r="G112">
+        <v>1000</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="6"/>
+        <v>24000</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="7"/>
+        <v>22200</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="48"/>
+        <v>25</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="49"/>
+        <v>146000</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <f>VLOOKUP(A113,Balance!E:G,3,FALSE)</f>
+        <v>6.8060367000000001E+203</v>
+      </c>
+      <c r="G113">
+        <v>1000</v>
+      </c>
+      <c r="H113">
+        <v>8</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="6"/>
+        <v>24200</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="7"/>
+        <v>22400</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M108 A3:C108 E4:E108 G62:K108">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M113 A3:C113 E4:E113 G62:K113">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6295,10 +6575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6543,7 +6823,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H114" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H119" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -8737,8 +9017,20 @@
         <f t="shared" si="17"/>
         <v>9600</v>
       </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
+      <c r="M56" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N56" s="16">
+        <v>196</v>
+      </c>
+      <c r="O56" s="17">
+        <f t="shared" ref="O56:O57" si="36">POWER(10,N56)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="P56" s="17" t="str">
+        <f t="shared" ref="P56:P57" si="37">RIGHT(O56,N56)</f>
+        <v>1E+196</v>
+      </c>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
@@ -8777,8 +9069,20 @@
         <f t="shared" si="17"/>
         <v>9800</v>
       </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+      <c r="M57" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" s="16">
+        <v>200</v>
+      </c>
+      <c r="O57" s="17">
+        <f t="shared" si="36"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="P57" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+200</v>
+      </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
@@ -8914,11 +9218,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="36">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="38">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="37">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="39">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -8943,11 +9247,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -8972,11 +9276,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="38">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="40">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="39">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="41">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -8992,7 +9296,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="40">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="42">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -9001,11 +9305,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -9021,7 +9325,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>11200</v>
       </c>
     </row>
@@ -9030,11 +9334,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -9050,7 +9354,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>11400</v>
       </c>
     </row>
@@ -9059,11 +9363,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="41">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="43">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="42">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="44">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -9079,7 +9383,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="43">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="45">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -9088,11 +9392,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -9108,7 +9412,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>11800</v>
       </c>
     </row>
@@ -9117,11 +9421,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -9137,7 +9441,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12000</v>
       </c>
     </row>
@@ -9146,11 +9450,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -9166,7 +9470,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12200</v>
       </c>
     </row>
@@ -9175,11 +9479,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -9195,7 +9499,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12400</v>
       </c>
     </row>
@@ -9204,11 +9508,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -9224,7 +9528,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12600</v>
       </c>
     </row>
@@ -9233,11 +9537,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -9253,7 +9557,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>12800</v>
       </c>
     </row>
@@ -9262,11 +9566,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="44">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="46">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="45">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="47">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -9278,11 +9582,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="46">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="48">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="47">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="49">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -9291,11 +9595,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -9307,11 +9611,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>13200</v>
       </c>
     </row>
@@ -9320,11 +9624,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -9336,11 +9640,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>13400</v>
       </c>
     </row>
@@ -9349,11 +9653,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -9365,11 +9669,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>13600</v>
       </c>
     </row>
@@ -9378,11 +9682,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="48">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="50">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="49">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="51">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -9394,11 +9698,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="50">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="52">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -9407,11 +9711,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -9423,11 +9727,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>14000</v>
       </c>
     </row>
@@ -9436,11 +9740,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -9452,11 +9756,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>14200</v>
       </c>
     </row>
@@ -9481,11 +9785,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>14400</v>
       </c>
     </row>
@@ -9498,7 +9802,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -9510,11 +9814,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>14600</v>
       </c>
     </row>
@@ -9523,11 +9827,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="51">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="53">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="52">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="54">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -9539,11 +9843,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="53">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="55">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -9552,11 +9856,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -9568,11 +9872,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>15000</v>
       </c>
     </row>
@@ -9581,11 +9885,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -9597,11 +9901,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>15200</v>
       </c>
     </row>
@@ -9610,11 +9914,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -9626,11 +9930,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>15400</v>
       </c>
     </row>
@@ -9655,11 +9959,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>15600</v>
       </c>
     </row>
@@ -9668,11 +9972,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="54">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="56">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="55">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="57">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -9684,11 +9988,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="56">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="58">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -9697,11 +10001,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -9713,11 +10017,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16000</v>
       </c>
     </row>
@@ -9726,11 +10030,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -9742,11 +10046,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16200</v>
       </c>
     </row>
@@ -9771,11 +10075,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16400</v>
       </c>
     </row>
@@ -9784,11 +10088,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="57">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="59">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="58">H91*J91</f>
+        <f t="shared" ref="G91" si="60">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -9800,11 +10104,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="59">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="61">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -9829,11 +10133,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>16800</v>
       </c>
     </row>
@@ -9842,11 +10146,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="60">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="62">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="61">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="63">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -9858,11 +10162,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>17000</v>
       </c>
     </row>
@@ -9871,11 +10175,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -9887,11 +10191,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>17200</v>
       </c>
     </row>
@@ -9916,11 +10220,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>17400</v>
       </c>
     </row>
@@ -9929,11 +10233,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="62">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="64">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="63">H96*J96</f>
+        <f t="shared" ref="G96" si="65">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -9945,11 +10249,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="64">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="66">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -9974,11 +10278,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>17800</v>
       </c>
     </row>
@@ -9987,11 +10291,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="65">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="67">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="66">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="68">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -10003,11 +10307,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>18000</v>
       </c>
     </row>
@@ -10016,11 +10320,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -10032,11 +10336,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="67">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="69">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -10045,11 +10349,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="68">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="70">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="69">H100*J100</f>
+        <f t="shared" ref="G100" si="71">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -10061,11 +10365,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>18400</v>
       </c>
     </row>
@@ -10090,11 +10394,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="70">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="72">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>18600</v>
       </c>
     </row>
@@ -10103,11 +10407,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="71">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="73">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="72">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="74">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -10119,11 +10423,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>18800</v>
       </c>
     </row>
@@ -10132,11 +10436,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -10148,11 +10452,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="73">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="75">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -10161,11 +10465,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -10177,11 +10481,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>19200</v>
       </c>
     </row>
@@ -10206,11 +10510,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="74">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="76">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>19400</v>
       </c>
     </row>
@@ -10219,11 +10523,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="75">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="77">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="76">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="78">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -10235,11 +10539,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>19600</v>
       </c>
     </row>
@@ -10248,11 +10552,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -10264,11 +10568,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="77">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="79">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -10277,11 +10581,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -10293,11 +10597,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>20000</v>
       </c>
     </row>
@@ -10322,11 +10626,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>20200</v>
       </c>
     </row>
@@ -10335,11 +10639,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="78">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="80">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="79">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="81">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -10351,11 +10655,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="80">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="82">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>20400</v>
       </c>
     </row>
@@ -10364,11 +10668,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -10380,11 +10684,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K114" si="81">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="83">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -10393,11 +10697,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -10409,11 +10713,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>20800</v>
       </c>
     </row>
@@ -10422,11 +10726,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -10438,11 +10742,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>21000</v>
       </c>
     </row>
@@ -10467,12 +10771,157 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>21200</v>
+      </c>
+    </row>
+    <row r="115" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E115" s="16">
+        <v>107</v>
+      </c>
+      <c r="F115" s="17" t="str">
+        <f t="shared" ref="F115:F119" si="84">H115&amp;I115</f>
+        <v>10.0603향</v>
+      </c>
+      <c r="G115" s="17">
+        <f t="shared" ref="G115:G119" si="85">H115*J115</f>
+        <v>1.00603E+197</v>
+      </c>
+      <c r="H115" s="17">
+        <f t="shared" si="6"/>
+        <v>10.0603</v>
+      </c>
+      <c r="I115" s="16" t="str" cm="1">
+        <f t="array" ref="I115">IF(AND(H114&gt;100,H115&lt;100),INDEX(M:M,MATCH(I114,M:M,0)+1,0),I114)</f>
+        <v>향</v>
+      </c>
+      <c r="J115" s="16" t="str">
+        <f t="shared" ref="J115:J119" si="86">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <v>1E+196</v>
+      </c>
+      <c r="K115" s="11">
+        <f t="shared" si="83"/>
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="116" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E116" s="16">
+        <v>108</v>
+      </c>
+      <c r="F116" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>513.0753향</v>
+      </c>
+      <c r="G116" s="17">
+        <f t="shared" si="85"/>
+        <v>5.1307529999999993E+198</v>
+      </c>
+      <c r="H116" s="17">
+        <f t="shared" si="6"/>
+        <v>513.07529999999997</v>
+      </c>
+      <c r="I116" s="16" t="str" cm="1">
+        <f t="array" ref="I116">IF(AND(H115&gt;100,H116&lt;100),INDEX(M:M,MATCH(I115,M:M,0)+1,0),I115)</f>
+        <v>향</v>
+      </c>
+      <c r="J116" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K116" s="11">
+        <f t="shared" ref="K116:K119" si="87">$B$14*E116</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="117" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E117" s="16">
+        <v>109</v>
+      </c>
+      <c r="F117" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>2.6167증</v>
+      </c>
+      <c r="G117" s="17">
+        <f t="shared" si="85"/>
+        <v>2.6167000000000001E+200</v>
+      </c>
+      <c r="H117" s="17">
+        <f t="shared" si="6"/>
+        <v>2.6167000000000002</v>
+      </c>
+      <c r="I117" s="16" t="str" cm="1">
+        <f t="array" ref="I117">IF(AND(H116&gt;100,H117&lt;100),INDEX(M:M,MATCH(I116,M:M,0)+1,0),I116)</f>
+        <v>증</v>
+      </c>
+      <c r="J117" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K117" s="11">
+        <f t="shared" si="87"/>
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="118" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E118" s="16">
+        <v>110</v>
+      </c>
+      <c r="F118" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>133.4517증</v>
+      </c>
+      <c r="G118" s="17">
+        <f t="shared" si="85"/>
+        <v>1.3345169999999999E+202</v>
+      </c>
+      <c r="H118" s="17">
+        <f t="shared" si="6"/>
+        <v>133.45169999999999</v>
+      </c>
+      <c r="I118" s="16" t="str" cm="1">
+        <f t="array" ref="I118">IF(AND(H117&gt;100,H118&lt;100),INDEX(M:M,MATCH(I117,M:M,0)+1,0),I117)</f>
+        <v>증</v>
+      </c>
+      <c r="J118" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K118" s="11">
+        <f t="shared" si="87"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="119" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E119" s="16">
+        <v>111</v>
+      </c>
+      <c r="F119" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>6806.0367증</v>
+      </c>
+      <c r="G119" s="17">
+        <f t="shared" si="85"/>
+        <v>6.8060367000000001E+203</v>
+      </c>
+      <c r="H119" s="17">
+        <f t="shared" si="6"/>
+        <v>6806.0366999999997</v>
+      </c>
+      <c r="I119" s="16" t="str" cm="1">
+        <f t="array" ref="I119">IF(AND(H118&gt;100,H119&lt;100),INDEX(M:M,MATCH(I118,M:M,0)+1,0),I118)</f>
+        <v>증</v>
+      </c>
+      <c r="J119" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K119" s="11">
+        <f t="shared" si="87"/>
+        <v>22200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F147D278-761E-4653-AD61-DFD1917BED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1559B209-E941-41C7-BD8F-434048C9A05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,14 @@
     <t>증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -748,29 +756,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1103,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3545,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J114" si="6">J52+200</f>
+        <f t="shared" ref="J53:J115" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3553,7 +3539,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L114" si="7">L52+200</f>
+        <f t="shared" ref="L53:L115" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4466,7 +4452,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B114" si="24">B71</f>
+        <f t="shared" ref="B72:B115" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4478,7 +4464,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E114" si="25">E71</f>
+        <f t="shared" ref="E72:E115" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4499,7 +4485,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K114" si="26">K71</f>
+        <f t="shared" ref="K72:K115" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4507,7 +4493,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M114" si="27">M71</f>
+        <f t="shared" ref="M72:M115" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6270,11 +6256,11 @@
         <v>1-1</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108:C114" si="48">IF(MOD(A108,5)=0,9021,25)</f>
+        <f t="shared" ref="C108:C113" si="48">IF(MOD(A108,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108:D114" si="49">IF(C108=9021,D103+1,IF(AND(C108=25,C107=25),D107+2000,D106+2000))</f>
+        <f t="shared" ref="D108:D113" si="49">IF(C108=9021,D103+1,IF(AND(C108=25,C107=25),D107+2000,D106+2000))</f>
         <v>138000</v>
       </c>
       <c r="E108">
@@ -6561,9 +6547,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ref="C114:C115" si="50">IF(MOD(A114,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ref="D114:D115" si="51">IF(C114=9021,D109+1,IF(AND(C114=25,C113=25),D113+2000,D112+2000))</f>
+        <v>148000</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f>VLOOKUP(A114,Balance!E:G,3,FALSE)</f>
+        <v>3.4710800000000006E+205</v>
+      </c>
+      <c r="G114">
+        <v>1000</v>
+      </c>
+      <c r="H114">
+        <v>8</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="6"/>
+        <v>24400</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="7"/>
+        <v>22600</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="51"/>
+        <v>150000</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <f>VLOOKUP(A115,Balance!E:G,3,FALSE)</f>
+        <v>1.7702508000000001E+207</v>
+      </c>
+      <c r="G115">
+        <v>1000</v>
+      </c>
+      <c r="H115">
+        <v>8</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="6"/>
+        <v>24600</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="7"/>
+        <v>22800</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M113 A3:C113 E4:E113 G62:K113">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M115 A3:C115 E4:E115 G62:K115">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6575,10 +6661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y119"/>
+  <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6823,7 +6909,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H119" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H122" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -9121,8 +9207,20 @@
         <f t="shared" si="17"/>
         <v>10000</v>
       </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
+      <c r="M58" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N58" s="16">
+        <v>204</v>
+      </c>
+      <c r="O58" s="17">
+        <f t="shared" ref="O58:O59" si="38">POWER(10,N58)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="P58" s="17" t="str">
+        <f t="shared" ref="P58:P59" si="39">RIGHT(O58,N58)</f>
+        <v>1E+204</v>
+      </c>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
@@ -9161,8 +9259,20 @@
         <f t="shared" si="17"/>
         <v>10200</v>
       </c>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
+      <c r="M59" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N59" s="16">
+        <v>208</v>
+      </c>
+      <c r="O59" s="17">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="P59" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+208</v>
+      </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
@@ -9218,11 +9328,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="38">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="40">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="39">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="41">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -9247,11 +9357,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -9276,11 +9386,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="40">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="42">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="41">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="43">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -9296,7 +9406,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="42">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="44">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -9305,11 +9415,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -9325,7 +9435,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>11200</v>
       </c>
     </row>
@@ -9334,11 +9444,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -9354,7 +9464,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>11400</v>
       </c>
     </row>
@@ -9363,11 +9473,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="43">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="45">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="44">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="46">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -9383,7 +9493,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="45">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="47">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -9392,11 +9502,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -9412,7 +9522,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>11800</v>
       </c>
     </row>
@@ -9421,11 +9531,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -9441,7 +9551,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12000</v>
       </c>
     </row>
@@ -9450,11 +9560,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -9470,7 +9580,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12200</v>
       </c>
     </row>
@@ -9479,11 +9589,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -9499,7 +9609,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12400</v>
       </c>
     </row>
@@ -9508,11 +9618,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -9528,7 +9638,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12600</v>
       </c>
     </row>
@@ -9537,11 +9647,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -9557,7 +9667,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>12800</v>
       </c>
     </row>
@@ -9566,11 +9676,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="46">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="48">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="47">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="49">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -9582,11 +9692,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="48">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="50">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="49">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="51">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -9595,11 +9705,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -9611,11 +9721,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>13200</v>
       </c>
     </row>
@@ -9624,11 +9734,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -9640,11 +9750,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>13400</v>
       </c>
     </row>
@@ -9653,11 +9763,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -9669,11 +9779,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>13600</v>
       </c>
     </row>
@@ -9682,11 +9792,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="50">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="52">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="51">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="53">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -9698,11 +9808,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="52">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="54">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -9711,11 +9821,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -9727,11 +9837,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>14000</v>
       </c>
     </row>
@@ -9740,11 +9850,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -9756,11 +9866,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>14200</v>
       </c>
     </row>
@@ -9785,11 +9895,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>14400</v>
       </c>
     </row>
@@ -9802,7 +9912,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -9814,11 +9924,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>14600</v>
       </c>
     </row>
@@ -9827,11 +9937,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="53">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="55">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="54">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="56">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -9843,11 +9953,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="55">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="57">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -9856,11 +9966,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -9872,11 +9982,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>15000</v>
       </c>
     </row>
@@ -9885,11 +9995,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -9901,11 +10011,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>15200</v>
       </c>
     </row>
@@ -9914,11 +10024,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -9930,11 +10040,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>15400</v>
       </c>
     </row>
@@ -9959,11 +10069,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>15600</v>
       </c>
     </row>
@@ -9972,11 +10082,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="56">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="58">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="57">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="59">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -9988,11 +10098,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="58">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="60">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -10001,11 +10111,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -10017,11 +10127,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>16000</v>
       </c>
     </row>
@@ -10030,11 +10140,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -10046,11 +10156,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>16200</v>
       </c>
     </row>
@@ -10075,11 +10185,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>16400</v>
       </c>
     </row>
@@ -10088,11 +10198,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="59">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="61">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="60">H91*J91</f>
+        <f t="shared" ref="G91" si="62">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -10104,11 +10214,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="61">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="63">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -10133,11 +10243,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>16800</v>
       </c>
     </row>
@@ -10146,11 +10256,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="62">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="64">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="63">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="65">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -10162,11 +10272,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>17000</v>
       </c>
     </row>
@@ -10175,11 +10285,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -10191,11 +10301,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>17200</v>
       </c>
     </row>
@@ -10220,11 +10330,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>17400</v>
       </c>
     </row>
@@ -10233,11 +10343,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="64">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="66">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="65">H96*J96</f>
+        <f t="shared" ref="G96" si="67">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -10249,11 +10359,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="66">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="68">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -10278,11 +10388,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>17800</v>
       </c>
     </row>
@@ -10291,11 +10401,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="67">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="69">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="68">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="70">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -10307,11 +10417,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>18000</v>
       </c>
     </row>
@@ -10320,11 +10430,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -10336,11 +10446,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="69">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="71">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -10349,11 +10459,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="70">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="72">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="71">H100*J100</f>
+        <f t="shared" ref="G100" si="73">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -10365,11 +10475,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>18400</v>
       </c>
     </row>
@@ -10394,11 +10504,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="72">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="74">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>18600</v>
       </c>
     </row>
@@ -10407,11 +10517,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="73">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="75">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="74">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="76">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -10423,11 +10533,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>18800</v>
       </c>
     </row>
@@ -10436,11 +10546,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -10452,11 +10562,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="75">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="77">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -10465,11 +10575,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -10481,11 +10591,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>19200</v>
       </c>
     </row>
@@ -10510,11 +10620,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="76">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="78">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>19400</v>
       </c>
     </row>
@@ -10523,11 +10633,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="77">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="79">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="78">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="80">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -10539,11 +10649,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>19600</v>
       </c>
     </row>
@@ -10552,11 +10662,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -10568,11 +10678,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="79">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="81">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -10581,11 +10691,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -10597,11 +10707,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>20000</v>
       </c>
     </row>
@@ -10626,11 +10736,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>20200</v>
       </c>
     </row>
@@ -10639,11 +10749,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="80">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="82">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="81">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="83">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -10655,11 +10765,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="82">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="84">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>20400</v>
       </c>
     </row>
@@ -10668,11 +10778,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -10684,11 +10794,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="83">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="85">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -10697,11 +10807,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -10713,11 +10823,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>20800</v>
       </c>
     </row>
@@ -10726,11 +10836,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -10742,11 +10852,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>21000</v>
       </c>
     </row>
@@ -10771,11 +10881,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>21200</v>
       </c>
     </row>
@@ -10784,11 +10894,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="84">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="86">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="85">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="87">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -10800,11 +10910,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="86">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="88">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>21400</v>
       </c>
     </row>
@@ -10813,11 +10923,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -10829,11 +10939,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="87">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="89">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -10842,11 +10952,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -10858,11 +10968,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>21800</v>
       </c>
     </row>
@@ -10871,11 +10981,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -10887,11 +10997,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>22000</v>
       </c>
     </row>
@@ -10900,11 +11010,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -10916,12 +11026,99 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>22200</v>
+      </c>
+    </row>
+    <row r="120" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E120" s="16">
+        <v>112</v>
+      </c>
+      <c r="F120" s="17" t="str">
+        <f t="shared" ref="F120:F122" si="90">H120&amp;I120</f>
+        <v>34.7108쾌</v>
+      </c>
+      <c r="G120" s="17">
+        <f t="shared" ref="G120:G122" si="91">H120*J120</f>
+        <v>3.4710800000000006E+205</v>
+      </c>
+      <c r="H120" s="17">
+        <f t="shared" si="6"/>
+        <v>34.710800000000006</v>
+      </c>
+      <c r="I120" s="16" t="str" cm="1">
+        <f t="array" ref="I120">IF(AND(H119&gt;100,H120&lt;100),INDEX(M:M,MATCH(I119,M:M,0)+1,0),I119)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J120" s="16" t="str">
+        <f t="shared" ref="J120:J122" si="92">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <v>1E+204</v>
+      </c>
+      <c r="K120" s="11">
+        <f t="shared" ref="K120:K122" si="93">$B$14*E120</f>
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="121" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E121" s="16">
+        <v>113</v>
+      </c>
+      <c r="F121" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>1770.2508쾌</v>
+      </c>
+      <c r="G121" s="17">
+        <f t="shared" si="91"/>
+        <v>1.7702508000000001E+207</v>
+      </c>
+      <c r="H121" s="17">
+        <f t="shared" si="6"/>
+        <v>1770.2508</v>
+      </c>
+      <c r="I121" s="16" t="str" cm="1">
+        <f t="array" ref="I121">IF(AND(H120&gt;100,H121&lt;100),INDEX(M:M,MATCH(I120,M:M,0)+1,0),I120)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J121" s="16" t="str">
+        <f t="shared" si="92"/>
+        <v>1E+204</v>
+      </c>
+      <c r="K121" s="11">
+        <f t="shared" si="93"/>
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="122" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E122" s="16">
+        <v>114</v>
+      </c>
+      <c r="F122" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>9.0283우</v>
+      </c>
+      <c r="G122" s="17">
+        <f t="shared" si="91"/>
+        <v>9.0282999999999995E+208</v>
+      </c>
+      <c r="H122" s="17">
+        <f t="shared" si="6"/>
+        <v>9.0282999999999998</v>
+      </c>
+      <c r="I122" s="16" t="str" cm="1">
+        <f t="array" ref="I122">IF(AND(H121&gt;100,H122&lt;100),INDEX(M:M,MATCH(I121,M:M,0)+1,0),I121)</f>
+        <v>우</v>
+      </c>
+      <c r="J122" s="16" t="str">
+        <f t="shared" si="92"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K122" s="11">
+        <f t="shared" si="93"/>
+        <v>22800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1559B209-E941-41C7-BD8F-434048C9A05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EED678B-C3D1-40DA-8D98-34952E205D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3531,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J115" si="6">J52+200</f>
+        <f t="shared" ref="J53:J116" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3539,7 +3543,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L115" si="7">L52+200</f>
+        <f t="shared" ref="L53:L116" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4452,7 +4456,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B115" si="24">B71</f>
+        <f t="shared" ref="B72:B117" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4464,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E115" si="25">E71</f>
+        <f t="shared" ref="E72:E117" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4485,7 +4489,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K115" si="26">K71</f>
+        <f t="shared" ref="K72:K117" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4493,7 +4497,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M115" si="27">M71</f>
+        <f t="shared" ref="M72:M117" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6556,11 +6560,11 @@
         <v>1-1</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:C115" si="50">IF(MOD(A114,5)=0,9021,25)</f>
+        <f t="shared" ref="C114:C117" si="50">IF(MOD(A114,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:D115" si="51">IF(C114=9021,D109+1,IF(AND(C114=25,C113=25),D113+2000,D112+2000))</f>
+        <f t="shared" ref="D114:D117" si="51">IF(C114=9021,D109+1,IF(AND(C114=25,C113=25),D113+2000,D112+2000))</f>
         <v>148000</v>
       </c>
       <c r="E114">
@@ -6647,9 +6651,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="51"/>
+        <v>152000</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <f>VLOOKUP(A116,Balance!E:G,3,FALSE)</f>
+        <v>9.0282999999999995E+208</v>
+      </c>
+      <c r="G116">
+        <v>1000</v>
+      </c>
+      <c r="H116">
+        <v>8</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="6"/>
+        <v>24800</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="7"/>
+        <v>23000</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="50"/>
+        <v>9021</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <f>VLOOKUP(A117,Balance!E:G,3,FALSE)</f>
+        <v>4.604433E+210</v>
+      </c>
+      <c r="G117">
+        <v>1000</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <f t="shared" ref="J117" si="52">J116+200</f>
+        <v>25000</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L117">
+        <f t="shared" ref="L117" si="53">L116+200</f>
+        <v>23200</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M115 A3:C115 E4:E115 G62:K115">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M117 A3:C117 E4:E117 G62:K117">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6661,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y122"/>
+  <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124:K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6909,7 +7013,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H122" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H125" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -9311,8 +9415,20 @@
         <f t="shared" si="17"/>
         <v>10400</v>
       </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+      <c r="M60" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N60" s="16">
+        <v>212</v>
+      </c>
+      <c r="O60" s="17">
+        <f t="shared" ref="O60" si="40">POWER(10,N60)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="P60" s="17" t="str">
+        <f t="shared" ref="P60" si="41">RIGHT(O60,N60)</f>
+        <v>1E+212</v>
+      </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
@@ -9328,11 +9444,11 @@
         <v>53</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" ref="F61:F62" si="40">H61&amp;I61</f>
+        <f t="shared" ref="F61:F62" si="42">H61&amp;I61</f>
         <v>6.2191승</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" ref="G61:G62" si="41">H61*J61</f>
+        <f t="shared" ref="G61:G62" si="43">H61*J61</f>
         <v>6.2191000000000005E+104</v>
       </c>
       <c r="H61" s="17">
@@ -9357,11 +9473,11 @@
         <v>54</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>317.1741승</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.1717410000000003E+106</v>
       </c>
       <c r="H62" s="17">
@@ -9386,11 +9502,11 @@
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="42">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="44">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="43">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="45">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -9406,7 +9522,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="44">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="46">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -9415,11 +9531,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -9435,7 +9551,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>11200</v>
       </c>
     </row>
@@ -9444,11 +9560,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -9464,7 +9580,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>11400</v>
       </c>
     </row>
@@ -9473,11 +9589,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="45">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="47">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="46">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="48">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -9493,7 +9609,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="47">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="49">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -9502,11 +9618,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -9522,7 +9638,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>11800</v>
       </c>
     </row>
@@ -9531,11 +9647,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -9551,7 +9667,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>12000</v>
       </c>
     </row>
@@ -9560,11 +9676,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -9580,7 +9696,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>12200</v>
       </c>
     </row>
@@ -9589,11 +9705,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -9609,7 +9725,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>12400</v>
       </c>
     </row>
@@ -9618,11 +9734,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -9638,7 +9754,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>12600</v>
       </c>
     </row>
@@ -9647,11 +9763,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -9667,7 +9783,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>12800</v>
       </c>
     </row>
@@ -9676,11 +9792,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="48">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="50">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="49">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="51">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -9692,11 +9808,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="50">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="52">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="51">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="53">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -9705,11 +9821,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -9721,11 +9837,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>13200</v>
       </c>
     </row>
@@ -9734,11 +9850,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -9750,11 +9866,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>13400</v>
       </c>
     </row>
@@ -9763,11 +9879,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -9779,11 +9895,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>13600</v>
       </c>
     </row>
@@ -9792,11 +9908,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="52">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="54">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="53">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="55">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -9808,11 +9924,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="54">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="56">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -9821,11 +9937,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -9837,11 +9953,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>14000</v>
       </c>
     </row>
@@ -9850,11 +9966,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -9866,11 +9982,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>14200</v>
       </c>
     </row>
@@ -9895,11 +10011,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>14400</v>
       </c>
     </row>
@@ -9912,7 +10028,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -9924,11 +10040,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>14600</v>
       </c>
     </row>
@@ -9937,11 +10053,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="55">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="57">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="56">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="58">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -9953,11 +10069,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="57">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="59">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -9966,11 +10082,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -9982,11 +10098,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15000</v>
       </c>
     </row>
@@ -9995,11 +10111,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -10011,11 +10127,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15200</v>
       </c>
     </row>
@@ -10024,11 +10140,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -10040,11 +10156,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15400</v>
       </c>
     </row>
@@ -10069,11 +10185,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15600</v>
       </c>
     </row>
@@ -10082,11 +10198,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="58">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="60">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="59">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="61">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -10098,11 +10214,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="60">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="62">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -10111,11 +10227,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -10127,11 +10243,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>16000</v>
       </c>
     </row>
@@ -10140,11 +10256,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -10156,11 +10272,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>16200</v>
       </c>
     </row>
@@ -10185,11 +10301,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>16400</v>
       </c>
     </row>
@@ -10198,11 +10314,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="61">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="63">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="62">H91*J91</f>
+        <f t="shared" ref="G91" si="64">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -10214,11 +10330,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="63">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="65">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -10243,11 +10359,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>16800</v>
       </c>
     </row>
@@ -10256,11 +10372,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="64">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="66">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="65">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="67">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -10272,11 +10388,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>17000</v>
       </c>
     </row>
@@ -10285,11 +10401,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -10301,11 +10417,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>17200</v>
       </c>
     </row>
@@ -10330,11 +10446,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>17400</v>
       </c>
     </row>
@@ -10343,11 +10459,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="66">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="68">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="67">H96*J96</f>
+        <f t="shared" ref="G96" si="69">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -10359,11 +10475,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="68">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="70">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -10388,11 +10504,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>17800</v>
       </c>
     </row>
@@ -10401,11 +10517,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="69">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="71">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="70">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="72">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -10417,11 +10533,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>18000</v>
       </c>
     </row>
@@ -10430,11 +10546,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -10446,11 +10562,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="71">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="73">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -10459,11 +10575,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="72">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="74">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="73">H100*J100</f>
+        <f t="shared" ref="G100" si="75">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -10475,11 +10591,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>18400</v>
       </c>
     </row>
@@ -10504,11 +10620,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="74">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="76">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>18600</v>
       </c>
     </row>
@@ -10517,11 +10633,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="75">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="77">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="76">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="78">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -10533,11 +10649,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>18800</v>
       </c>
     </row>
@@ -10546,11 +10662,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -10562,11 +10678,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="77">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="79">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -10575,11 +10691,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -10591,11 +10707,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>19200</v>
       </c>
     </row>
@@ -10620,11 +10736,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="78">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="80">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>19400</v>
       </c>
     </row>
@@ -10633,11 +10749,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="79">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="81">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="80">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="82">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -10649,11 +10765,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>19600</v>
       </c>
     </row>
@@ -10662,11 +10778,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -10678,11 +10794,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="81">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="83">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -10691,11 +10807,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -10707,11 +10823,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>20000</v>
       </c>
     </row>
@@ -10736,11 +10852,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>20200</v>
       </c>
     </row>
@@ -10749,11 +10865,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="82">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="84">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="83">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="85">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -10765,11 +10881,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="84">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="86">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>20400</v>
       </c>
     </row>
@@ -10778,11 +10894,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -10794,11 +10910,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="85">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="87">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -10807,11 +10923,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -10823,11 +10939,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20800</v>
       </c>
     </row>
@@ -10836,11 +10952,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -10852,11 +10968,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>21000</v>
       </c>
     </row>
@@ -10881,11 +10997,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>21200</v>
       </c>
     </row>
@@ -10894,11 +11010,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="86">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="88">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="87">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="89">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -10910,11 +11026,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="88">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="90">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>21400</v>
       </c>
     </row>
@@ -10923,11 +11039,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -10939,11 +11055,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="89">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="91">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -10952,11 +11068,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -10968,11 +11084,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>21800</v>
       </c>
     </row>
@@ -10981,11 +11097,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -10997,11 +11113,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>22000</v>
       </c>
     </row>
@@ -11010,11 +11126,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -11026,11 +11142,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>22200</v>
       </c>
     </row>
@@ -11039,11 +11155,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F122" si="90">H120&amp;I120</f>
+        <f t="shared" ref="F120:F124" si="92">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G122" si="91">H120*J120</f>
+        <f t="shared" ref="G120:G124" si="93">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -11055,11 +11171,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J122" si="92">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J124" si="94">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K122" si="93">$B$14*E120</f>
+        <f t="shared" ref="K120:K124" si="95">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -11068,11 +11184,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -11084,11 +11200,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>22600</v>
       </c>
     </row>
@@ -11097,11 +11213,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -11113,13 +11229,58 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
+        <f t="shared" si="94"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K122" s="11">
+        <f t="shared" si="95"/>
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="123" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E123" s="16">
+        <v>115</v>
+      </c>
+      <c r="F123" s="17" t="str">
         <f t="shared" si="92"/>
+        <v>460.4433우</v>
+      </c>
+      <c r="G123" s="17">
+        <f t="shared" si="93"/>
+        <v>4.604433E+210</v>
+      </c>
+      <c r="H123" s="17">
+        <f t="shared" si="6"/>
+        <v>460.44330000000002</v>
+      </c>
+      <c r="I123" s="16" t="str" cm="1">
+        <f t="array" ref="I123">IF(AND(H122&gt;100,H123&lt;100),INDEX(M:M,MATCH(I122,M:M,0)+1,0),I122)</f>
+        <v>우</v>
+      </c>
+      <c r="J123" s="16" t="str">
+        <f t="shared" si="94"/>
         <v>1E+208</v>
       </c>
-      <c r="K122" s="11">
-        <f t="shared" si="93"/>
-        <v>22800</v>
-      </c>
+      <c r="K123" s="11">
+        <f t="shared" si="95"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="124" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E124" s="16"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+    </row>
+    <row r="125" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EED678B-C3D1-40DA-8D98-34952E205D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924213BC-1BA0-4DCA-9ACF-6469A2FADE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,14 @@
     <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -797,9 +805,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -837,7 +845,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -943,7 +951,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1085,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1093,11 +1101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3535,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J116" si="6">J52+200</f>
+        <f t="shared" ref="J53:J118" si="6">J52+200</f>
         <v>12200</v>
       </c>
       <c r="K53">
@@ -3543,7 +3551,7 @@
         <v>25</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L116" si="7">L52+200</f>
+        <f t="shared" ref="L53:L118" si="7">L52+200</f>
         <v>10400</v>
       </c>
       <c r="M53">
@@ -4456,7 +4464,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B117" si="24">B71</f>
+        <f t="shared" ref="B72:B120" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4468,7 +4476,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E117" si="25">E71</f>
+        <f t="shared" ref="E72:E120" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4489,7 +4497,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K117" si="26">K71</f>
+        <f t="shared" ref="K72:K120" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4497,7 +4505,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M117" si="27">M71</f>
+        <f t="shared" ref="M72:M120" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6560,11 +6568,11 @@
         <v>1-1</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:C117" si="50">IF(MOD(A114,5)=0,9021,25)</f>
+        <f t="shared" ref="C114:C118" si="50">IF(MOD(A114,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:D117" si="51">IF(C114=9021,D109+1,IF(AND(C114=25,C113=25),D113+2000,D112+2000))</f>
+        <f t="shared" ref="D114:D118" si="51">IF(C114=9021,D109+1,IF(AND(C114=25,C113=25),D113+2000,D112+2000))</f>
         <v>148000</v>
       </c>
       <c r="E114">
@@ -6751,9 +6759,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="51"/>
+        <v>154000</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <f>VLOOKUP(A118,Balance!E:G,3,FALSE)</f>
+        <v>2.3482999999999999E+212</v>
+      </c>
+      <c r="G118">
+        <v>1000</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="6"/>
+        <v>25200</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="7"/>
+        <v>23400</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ref="C119:C120" si="54">IF(MOD(A119,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ref="D119:D120" si="55">IF(C119=9021,D114+1,IF(AND(C119=25,C118=25),D118+2000,D117+2000))</f>
+        <v>156000</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP(A119,Balance!E:G,3,FALSE)</f>
+        <v>1.1976329999999999E+214</v>
+      </c>
+      <c r="G119">
+        <v>1000</v>
+      </c>
+      <c r="H119">
+        <v>8</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ref="J119:J120" si="56">J118+200</f>
+        <v>25400</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L119">
+        <f t="shared" ref="L119:L120" si="57">L118+200</f>
+        <v>23600</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="55"/>
+        <v>158000</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <f>VLOOKUP(A120,Balance!E:G,3,FALSE)</f>
+        <v>6.1079282999999993E+215</v>
+      </c>
+      <c r="G120">
+        <v>1000</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="56"/>
+        <v>25600</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="57"/>
+        <v>23800</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M117 A3:C117 E4:E117 G62:K117">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M120 A3:C120 E4:E120 G62:K120">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6765,10 +6923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y125"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124:K125"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122:K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7013,7 +7171,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H125" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H126" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -9467,6 +9625,20 @@
         <f t="shared" si="17"/>
         <v>10600</v>
       </c>
+      <c r="M61" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N61" s="16">
+        <v>216</v>
+      </c>
+      <c r="O61" s="17">
+        <f t="shared" ref="O61:O62" si="44">POWER(10,N61)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="P61" s="17" t="str">
+        <f t="shared" ref="P61:P62" si="45">RIGHT(O61,N61)</f>
+        <v>1E+216</v>
+      </c>
     </row>
     <row r="62" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E62" s="16">
@@ -9496,17 +9668,31 @@
         <f t="shared" si="17"/>
         <v>10800</v>
       </c>
+      <c r="M62" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="N62" s="16">
+        <v>220</v>
+      </c>
+      <c r="O62" s="17">
+        <f t="shared" si="44"/>
+        <v>1E+220</v>
+      </c>
+      <c r="P62" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+220</v>
+      </c>
     </row>
     <row r="63" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E63" s="16">
         <v>55</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" ref="F63:F65" si="44">H63&amp;I63</f>
+        <f t="shared" ref="F63:F65" si="46">H63&amp;I63</f>
         <v>1.6176마</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" ref="G63:G65" si="45">H63*J63</f>
+        <f t="shared" ref="G63:G65" si="47">H63*J63</f>
         <v>1.6176E+108</v>
       </c>
       <c r="H63" s="17">
@@ -9522,7 +9708,7 @@
         <v>1E+108</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" ref="K63:K65" si="46">$B$14*E63</f>
+        <f t="shared" ref="K63:K65" si="48">$B$14*E63</f>
         <v>11000</v>
       </c>
     </row>
@@ -9531,11 +9717,11 @@
         <v>56</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>82.4976마</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8.2497600000000012E+109</v>
       </c>
       <c r="H64" s="17">
@@ -9551,7 +9737,7 @@
         <v>1E+108</v>
       </c>
       <c r="K64" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>11200</v>
       </c>
     </row>
@@ -9560,11 +9746,11 @@
         <v>57</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4207.3776마</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>4.2073776E+111</v>
       </c>
       <c r="H65" s="17">
@@ -9580,7 +9766,7 @@
         <v>1E+108</v>
       </c>
       <c r="K65" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>11400</v>
       </c>
     </row>
@@ -9589,11 +9775,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="47">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="49">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="48">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="50">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -9609,7 +9795,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="49">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="51">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -9618,11 +9804,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -9638,7 +9824,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>11800</v>
       </c>
     </row>
@@ -9647,11 +9833,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -9667,7 +9853,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>12000</v>
       </c>
     </row>
@@ -9676,11 +9862,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -9696,7 +9882,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>12200</v>
       </c>
     </row>
@@ -9705,11 +9891,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -9725,7 +9911,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>12400</v>
       </c>
     </row>
@@ -9734,11 +9920,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -9754,7 +9940,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>12600</v>
       </c>
     </row>
@@ -9763,11 +9949,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -9783,7 +9969,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>12800</v>
       </c>
     </row>
@@ -9792,11 +9978,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="50">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="52">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="51">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="53">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -9808,11 +9994,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="52">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="54">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="53">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="55">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -9821,11 +10007,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -9837,11 +10023,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>13200</v>
       </c>
     </row>
@@ -9850,11 +10036,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -9866,11 +10052,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>13400</v>
       </c>
     </row>
@@ -9879,11 +10065,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -9895,11 +10081,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>13600</v>
       </c>
     </row>
@@ -9908,11 +10094,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="54">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="56">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="55">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="57">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -9924,11 +10110,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="56">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="58">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -9937,11 +10123,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -9953,11 +10139,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14000</v>
       </c>
     </row>
@@ -9966,11 +10152,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -9982,11 +10168,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14200</v>
       </c>
     </row>
@@ -10011,11 +10197,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14400</v>
       </c>
     </row>
@@ -10028,7 +10214,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -10040,11 +10226,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14600</v>
       </c>
     </row>
@@ -10053,11 +10239,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="57">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="59">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="58">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="60">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -10069,11 +10255,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="59">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="61">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -10082,11 +10268,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -10098,11 +10284,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>15000</v>
       </c>
     </row>
@@ -10111,11 +10297,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -10127,11 +10313,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>15200</v>
       </c>
     </row>
@@ -10140,11 +10326,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -10156,11 +10342,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>15400</v>
       </c>
     </row>
@@ -10185,11 +10371,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>15600</v>
       </c>
     </row>
@@ -10198,11 +10384,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="60">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="62">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="61">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="63">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -10214,11 +10400,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="62">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="64">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -10227,11 +10413,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -10243,11 +10429,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>16000</v>
       </c>
     </row>
@@ -10256,11 +10442,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -10272,11 +10458,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>16200</v>
       </c>
     </row>
@@ -10301,11 +10487,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>16400</v>
       </c>
     </row>
@@ -10314,11 +10500,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="63">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="65">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="64">H91*J91</f>
+        <f t="shared" ref="G91" si="66">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -10330,11 +10516,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="65">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="67">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -10359,11 +10545,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>16800</v>
       </c>
     </row>
@@ -10372,11 +10558,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="66">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="68">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="67">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="69">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -10388,11 +10574,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>17000</v>
       </c>
     </row>
@@ -10401,11 +10587,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -10417,11 +10603,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>17200</v>
       </c>
     </row>
@@ -10446,11 +10632,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>17400</v>
       </c>
     </row>
@@ -10459,11 +10645,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="68">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="70">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="69">H96*J96</f>
+        <f t="shared" ref="G96" si="71">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -10475,11 +10661,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="70">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="72">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -10504,11 +10690,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>17800</v>
       </c>
     </row>
@@ -10517,11 +10703,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="71">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="73">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="72">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="74">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -10533,11 +10719,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>18000</v>
       </c>
     </row>
@@ -10546,11 +10732,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -10562,11 +10748,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="73">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="75">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -10575,11 +10761,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="74">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="76">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="75">H100*J100</f>
+        <f t="shared" ref="G100" si="77">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -10591,11 +10777,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>18400</v>
       </c>
     </row>
@@ -10620,11 +10806,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="76">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="78">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>18600</v>
       </c>
     </row>
@@ -10633,11 +10819,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="77">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="79">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="78">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="80">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -10649,11 +10835,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>18800</v>
       </c>
     </row>
@@ -10662,11 +10848,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -10678,11 +10864,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="79">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="81">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -10691,11 +10877,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -10707,11 +10893,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>19200</v>
       </c>
     </row>
@@ -10736,11 +10922,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="80">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="82">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>19400</v>
       </c>
     </row>
@@ -10749,11 +10935,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="81">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="83">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="82">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="84">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -10765,11 +10951,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>19600</v>
       </c>
     </row>
@@ -10778,11 +10964,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -10794,11 +10980,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="83">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="85">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -10807,11 +10993,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -10823,11 +11009,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>20000</v>
       </c>
     </row>
@@ -10852,11 +11038,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>20200</v>
       </c>
     </row>
@@ -10865,11 +11051,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="84">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="86">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="85">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="87">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -10881,11 +11067,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="86">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="88">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>20400</v>
       </c>
     </row>
@@ -10894,11 +11080,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -10910,11 +11096,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="87">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="89">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -10923,11 +11109,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -10939,11 +11125,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>20800</v>
       </c>
     </row>
@@ -10952,11 +11138,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -10968,11 +11154,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>21000</v>
       </c>
     </row>
@@ -10997,11 +11183,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>21200</v>
       </c>
     </row>
@@ -11010,11 +11196,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="88">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="90">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="89">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="91">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -11026,11 +11212,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="90">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="92">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>21400</v>
       </c>
     </row>
@@ -11039,11 +11225,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -11055,11 +11241,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="91">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="93">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -11068,11 +11254,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -11084,11 +11270,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>21800</v>
       </c>
     </row>
@@ -11097,11 +11283,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -11113,11 +11299,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>22000</v>
       </c>
     </row>
@@ -11126,11 +11312,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -11142,11 +11328,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>22200</v>
       </c>
     </row>
@@ -11155,11 +11341,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F124" si="92">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="94">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G124" si="93">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="95">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -11171,11 +11357,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J124" si="94">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="96">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K124" si="95">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="97">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -11184,11 +11370,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -11200,11 +11386,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>22600</v>
       </c>
     </row>
@@ -11213,11 +11399,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -11229,11 +11415,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>22800</v>
       </c>
     </row>
@@ -11242,11 +11428,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -11258,29 +11444,100 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>23000</v>
       </c>
     </row>
     <row r="124" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E124" s="16"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
+      <c r="E124" s="16">
+        <v>116</v>
+      </c>
+      <c r="F124" s="17" t="str">
+        <f t="shared" ref="F124:F126" si="98">H124&amp;I124</f>
+        <v>2.3483팽</v>
+      </c>
+      <c r="G124" s="17">
+        <f t="shared" ref="G124:G126" si="99">H124*J124</f>
+        <v>2.3482999999999999E+212</v>
+      </c>
+      <c r="H124" s="17">
+        <f t="shared" si="6"/>
+        <v>2.3483000000000001</v>
+      </c>
+      <c r="I124" s="16" t="str" cm="1">
+        <f t="array" ref="I124">IF(AND(H123&gt;100,H124&lt;100),INDEX(M:M,MATCH(I123,M:M,0)+1,0),I123)</f>
+        <v>팽</v>
+      </c>
+      <c r="J124" s="16" t="str">
+        <f t="shared" ref="J124:J126" si="100">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <v>1E+212</v>
+      </c>
+      <c r="K124" s="11">
+        <f t="shared" ref="K124:K126" si="101">$B$14*E124</f>
+        <v>23200</v>
+      </c>
     </row>
     <row r="125" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E125" s="16"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
+      <c r="E125" s="16">
+        <v>117</v>
+      </c>
+      <c r="F125" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>119.7633팽</v>
+      </c>
+      <c r="G125" s="17">
+        <f t="shared" si="99"/>
+        <v>1.1976329999999999E+214</v>
+      </c>
+      <c r="H125" s="17">
+        <f t="shared" si="6"/>
+        <v>119.7633</v>
+      </c>
+      <c r="I125" s="16" t="str" cm="1">
+        <f t="array" ref="I125">IF(AND(H124&gt;100,H125&lt;100),INDEX(M:M,MATCH(I124,M:M,0)+1,0),I124)</f>
+        <v>팽</v>
+      </c>
+      <c r="J125" s="16" t="str">
+        <f t="shared" si="100"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K125" s="11">
+        <f t="shared" si="101"/>
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="126" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E126" s="16">
+        <v>118</v>
+      </c>
+      <c r="F126" s="17" t="str">
+        <f t="shared" si="98"/>
+        <v>6107.9283팽</v>
+      </c>
+      <c r="G126" s="17">
+        <f t="shared" si="99"/>
+        <v>6.1079282999999993E+215</v>
+      </c>
+      <c r="H126" s="17">
+        <f t="shared" si="6"/>
+        <v>6107.9282999999996</v>
+      </c>
+      <c r="I126" s="16" t="str" cm="1">
+        <f t="array" ref="I126">IF(AND(H125&gt;100,H126&lt;100),INDEX(M:M,MATCH(I125,M:M,0)+1,0),I125)</f>
+        <v>팽</v>
+      </c>
+      <c r="J126" s="16" t="str">
+        <f t="shared" si="100"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K126" s="11">
+        <f t="shared" si="101"/>
+        <v>23600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924213BC-1BA0-4DCA-9ACF-6469A2FADE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5702BD-F1D9-438B-9B17-3A1A79010707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,6 +503,14 @@
   </si>
   <si>
     <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4464,7 +4472,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B120" si="24">B71</f>
+        <f t="shared" ref="B72:B124" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4476,7 +4484,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E120" si="25">E71</f>
+        <f t="shared" ref="E72:E124" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4497,7 +4505,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K120" si="26">K71</f>
+        <f t="shared" ref="K72:K124" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4505,7 +4513,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M120" si="27">M71</f>
+        <f t="shared" ref="M72:M124" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6818,11 +6826,11 @@
         <v>1-1</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:C120" si="54">IF(MOD(A119,5)=0,9021,25)</f>
+        <f t="shared" ref="C119:C122" si="54">IF(MOD(A119,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D119">
-        <f t="shared" ref="D119:D120" si="55">IF(C119=9021,D114+1,IF(AND(C119=25,C118=25),D118+2000,D117+2000))</f>
+        <f t="shared" ref="D119:D122" si="55">IF(C119=9021,D114+1,IF(AND(C119=25,C118=25),D118+2000,D117+2000))</f>
         <v>156000</v>
       </c>
       <c r="E119">
@@ -6843,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J120" si="56">J118+200</f>
+        <f t="shared" ref="J119:J124" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6851,7 +6859,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L120" si="57">L118+200</f>
+        <f t="shared" ref="L119:L124" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -6909,9 +6917,209 @@
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="55"/>
+        <v>160000</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <f>VLOOKUP(A121,Balance!E:G,3,FALSE)</f>
+        <v>3.1150500000000002E+217</v>
+      </c>
+      <c r="G121">
+        <v>1000</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="56"/>
+        <v>25800</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="57"/>
+        <v>24000</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="54"/>
+        <v>9021</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="55"/>
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <f>VLOOKUP(A122,Balance!E:G,3,FALSE)</f>
+        <v>1.5886754999999999E+219</v>
+      </c>
+      <c r="G122">
+        <v>1000</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="56"/>
+        <v>26000</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="57"/>
+        <v>24200</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ref="C123:C124" si="58">IF(MOD(A123,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123:D124" si="59">IF(C123=9021,D118+1,IF(AND(C123=25,C122=25),D122+2000,D121+2000))</f>
+        <v>162000</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <f>VLOOKUP(A123,Balance!E:G,3,FALSE)</f>
+        <v>8.1022999999999999E+220</v>
+      </c>
+      <c r="G123">
+        <v>1000</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="56"/>
+        <v>26200</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="57"/>
+        <v>24400</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="59"/>
+        <v>164000</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <f>VLOOKUP(A124,Balance!E:G,3,FALSE)</f>
+        <v>4.1321730000000001E+222</v>
+      </c>
+      <c r="G124">
+        <v>1000</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="56"/>
+        <v>26400</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="57"/>
+        <v>24600</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M120 A3:C120 E4:E120 G62:K120">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M124 A3:C124 E4:E124 G62:K124">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6923,10 +7131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y126"/>
+  <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122:K123"/>
+    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127:I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7171,7 +7379,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H126" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H131" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -9711,6 +9919,20 @@
         <f t="shared" ref="K63:K65" si="48">$B$14*E63</f>
         <v>11000</v>
       </c>
+      <c r="M63" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N63" s="16">
+        <v>224</v>
+      </c>
+      <c r="O63" s="17">
+        <f t="shared" ref="O63:O64" si="49">POWER(10,N63)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="P63" s="17" t="str">
+        <f t="shared" ref="P63:P64" si="50">RIGHT(O63,N63)</f>
+        <v>1E+224</v>
+      </c>
     </row>
     <row r="64" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E64" s="16">
@@ -9740,6 +9962,20 @@
         <f t="shared" si="48"/>
         <v>11200</v>
       </c>
+      <c r="M64" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N64" s="16">
+        <v>228</v>
+      </c>
+      <c r="O64" s="17">
+        <f t="shared" si="49"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="P64" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+228</v>
+      </c>
     </row>
     <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" s="16">
@@ -9775,11 +10011,11 @@
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="49">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="51">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="50">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="52">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -9795,7 +10031,7 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="51">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="53">$B$14*E66</f>
         <v>11600</v>
       </c>
     </row>
@@ -9804,11 +10040,11 @@
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -9824,7 +10060,7 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>11800</v>
       </c>
     </row>
@@ -9833,11 +10069,11 @@
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -9853,7 +10089,7 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>12000</v>
       </c>
     </row>
@@ -9862,11 +10098,11 @@
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -9882,7 +10118,7 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>12200</v>
       </c>
     </row>
@@ -9891,11 +10127,11 @@
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -9911,7 +10147,7 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>12400</v>
       </c>
     </row>
@@ -9920,11 +10156,11 @@
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -9940,7 +10176,7 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>12600</v>
       </c>
     </row>
@@ -9949,11 +10185,11 @@
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -9969,7 +10205,7 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>12800</v>
       </c>
     </row>
@@ -9978,11 +10214,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="52">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="54">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="53">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="55">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -9994,11 +10230,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="54">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="56">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="55">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="57">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -10007,11 +10243,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -10023,11 +10259,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>13200</v>
       </c>
     </row>
@@ -10036,11 +10272,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -10052,11 +10288,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>13400</v>
       </c>
     </row>
@@ -10065,11 +10301,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -10081,11 +10317,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>13600</v>
       </c>
     </row>
@@ -10094,11 +10330,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="56">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="58">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="57">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="59">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -10110,11 +10346,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="58">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="60">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -10123,11 +10359,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -10139,11 +10375,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>14000</v>
       </c>
     </row>
@@ -10152,11 +10388,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -10168,11 +10404,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>14200</v>
       </c>
     </row>
@@ -10197,11 +10433,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>14400</v>
       </c>
     </row>
@@ -10214,7 +10450,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -10226,11 +10462,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>14600</v>
       </c>
     </row>
@@ -10239,11 +10475,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="59">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="61">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="60">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="62">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -10255,11 +10491,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="61">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="63">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -10268,11 +10504,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -10284,11 +10520,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>15000</v>
       </c>
     </row>
@@ -10297,11 +10533,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -10313,11 +10549,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>15200</v>
       </c>
     </row>
@@ -10326,11 +10562,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -10342,11 +10578,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>15400</v>
       </c>
     </row>
@@ -10371,11 +10607,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>15600</v>
       </c>
     </row>
@@ -10384,11 +10620,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="62">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="64">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="63">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="65">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -10400,11 +10636,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="64">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="66">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -10413,11 +10649,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -10429,11 +10665,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>16000</v>
       </c>
     </row>
@@ -10442,11 +10678,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -10458,11 +10694,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>16200</v>
       </c>
     </row>
@@ -10487,11 +10723,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>16400</v>
       </c>
     </row>
@@ -10500,11 +10736,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="65">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="67">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="66">H91*J91</f>
+        <f t="shared" ref="G91" si="68">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -10516,11 +10752,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="67">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="69">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -10545,11 +10781,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>16800</v>
       </c>
     </row>
@@ -10558,11 +10794,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="68">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="70">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="69">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="71">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -10574,11 +10810,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>17000</v>
       </c>
     </row>
@@ -10587,11 +10823,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -10603,11 +10839,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>17200</v>
       </c>
     </row>
@@ -10632,11 +10868,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>17400</v>
       </c>
     </row>
@@ -10645,11 +10881,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="70">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="72">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="71">H96*J96</f>
+        <f t="shared" ref="G96" si="73">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -10661,11 +10897,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="72">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="74">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -10690,11 +10926,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>17800</v>
       </c>
     </row>
@@ -10703,11 +10939,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="73">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="75">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="74">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="76">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -10719,11 +10955,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>18000</v>
       </c>
     </row>
@@ -10732,11 +10968,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -10748,11 +10984,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="75">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="77">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -10761,11 +10997,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="76">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="78">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="77">H100*J100</f>
+        <f t="shared" ref="G100" si="79">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -10777,11 +11013,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>18400</v>
       </c>
     </row>
@@ -10806,11 +11042,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="78">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="80">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>18600</v>
       </c>
     </row>
@@ -10819,11 +11055,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="79">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="81">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="80">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="82">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -10835,11 +11071,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>18800</v>
       </c>
     </row>
@@ -10848,11 +11084,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -10864,11 +11100,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="81">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="83">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -10877,11 +11113,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -10893,11 +11129,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19200</v>
       </c>
     </row>
@@ -10922,11 +11158,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="82">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="84">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19400</v>
       </c>
     </row>
@@ -10935,11 +11171,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="83">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="85">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="84">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="86">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -10951,11 +11187,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19600</v>
       </c>
     </row>
@@ -10964,11 +11200,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -10980,11 +11216,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="85">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="87">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -10993,11 +11229,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -11009,11 +11245,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20000</v>
       </c>
     </row>
@@ -11038,11 +11274,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20200</v>
       </c>
     </row>
@@ -11051,11 +11287,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="86">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="88">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="87">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="89">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -11067,11 +11303,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="88">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="90">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20400</v>
       </c>
     </row>
@@ -11080,11 +11316,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -11096,11 +11332,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="89">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="91">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -11109,11 +11345,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -11125,11 +11361,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>20800</v>
       </c>
     </row>
@@ -11138,11 +11374,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -11154,11 +11390,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>21000</v>
       </c>
     </row>
@@ -11183,11 +11419,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>21200</v>
       </c>
     </row>
@@ -11196,11 +11432,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="90">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="92">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="91">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="93">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -11212,11 +11448,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="92">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="94">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>21400</v>
       </c>
     </row>
@@ -11225,11 +11461,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -11241,11 +11477,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="93">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="95">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -11254,11 +11490,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -11270,11 +11506,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>21800</v>
       </c>
     </row>
@@ -11283,11 +11519,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -11299,11 +11535,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>22000</v>
       </c>
     </row>
@@ -11312,11 +11548,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -11328,11 +11564,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>22200</v>
       </c>
     </row>
@@ -11341,11 +11577,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F123" si="94">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="96">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G123" si="95">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="97">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -11357,11 +11593,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J123" si="96">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="98">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K123" si="97">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="99">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -11370,11 +11606,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -11386,11 +11622,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22600</v>
       </c>
     </row>
@@ -11399,11 +11635,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -11415,11 +11651,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22800</v>
       </c>
     </row>
@@ -11428,11 +11664,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -11444,11 +11680,11 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>23000</v>
       </c>
     </row>
@@ -11457,11 +11693,11 @@
         <v>116</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" ref="F124:F126" si="98">H124&amp;I124</f>
+        <f t="shared" ref="F124:F126" si="100">H124&amp;I124</f>
         <v>2.3483팽</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" ref="G124:G126" si="99">H124*J124</f>
+        <f t="shared" ref="G124:G126" si="101">H124*J124</f>
         <v>2.3482999999999999E+212</v>
       </c>
       <c r="H124" s="17">
@@ -11473,11 +11709,11 @@
         <v>팽</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" ref="J124:J126" si="100">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <f t="shared" ref="J124:J126" si="102">VLOOKUP(I124,M:P,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" ref="K124:K126" si="101">$B$14*E124</f>
+        <f t="shared" ref="K124:K126" si="103">$B$14*E124</f>
         <v>23200</v>
       </c>
     </row>
@@ -11486,11 +11722,11 @@
         <v>117</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>119.7633팽</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1.1976329999999999E+214</v>
       </c>
       <c r="H125" s="17">
@@ -11502,11 +11738,11 @@
         <v>팽</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+212</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>23400</v>
       </c>
     </row>
@@ -11515,11 +11751,11 @@
         <v>118</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>6107.9283팽</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>6.1079282999999993E+215</v>
       </c>
       <c r="H126" s="17">
@@ -11531,13 +11767,137 @@
         <v>팽</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+212</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>23600</v>
       </c>
+    </row>
+    <row r="127" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E127" s="16">
+        <v>119</v>
+      </c>
+      <c r="F127" s="17" t="str">
+        <f t="shared" ref="F127:F131" si="104">H127&amp;I127</f>
+        <v>31.1505관</v>
+      </c>
+      <c r="G127" s="17">
+        <f t="shared" ref="G127:G131" si="105">H127*J127</f>
+        <v>3.1150500000000002E+217</v>
+      </c>
+      <c r="H127" s="17">
+        <f t="shared" si="6"/>
+        <v>31.150500000000001</v>
+      </c>
+      <c r="I127" s="16" t="str" cm="1">
+        <f t="array" ref="I127">IF(AND(H126&gt;100,H127&lt;100),INDEX(M:M,MATCH(I126,M:M,0)+1,0),I126)</f>
+        <v>관</v>
+      </c>
+      <c r="J127" s="16" t="str">
+        <f t="shared" ref="J127:J131" si="106">VLOOKUP(I127,M:P,4,FALSE)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="K127" s="11">
+        <f t="shared" ref="K127:K131" si="107">$B$14*E127</f>
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="128" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E128" s="16">
+        <v>120</v>
+      </c>
+      <c r="F128" s="17" t="str">
+        <f t="shared" si="104"/>
+        <v>1588.6755관</v>
+      </c>
+      <c r="G128" s="17">
+        <f t="shared" si="105"/>
+        <v>1.5886754999999999E+219</v>
+      </c>
+      <c r="H128" s="17">
+        <f t="shared" si="6"/>
+        <v>1588.6755000000001</v>
+      </c>
+      <c r="I128" s="16" t="str" cm="1">
+        <f t="array" ref="I128">IF(AND(H127&gt;100,H128&lt;100),INDEX(M:M,MATCH(I127,M:M,0)+1,0),I127)</f>
+        <v>관</v>
+      </c>
+      <c r="J128" s="16" t="str">
+        <f t="shared" si="106"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K128" s="11">
+        <f t="shared" si="107"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="129" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E129" s="16">
+        <v>121</v>
+      </c>
+      <c r="F129" s="17" t="str">
+        <f t="shared" si="104"/>
+        <v>8.1023한</v>
+      </c>
+      <c r="G129" s="17">
+        <f t="shared" si="105"/>
+        <v>8.1022999999999999E+220</v>
+      </c>
+      <c r="H129" s="17">
+        <f t="shared" si="6"/>
+        <v>8.1022999999999996</v>
+      </c>
+      <c r="I129" s="16" t="str" cm="1">
+        <f t="array" ref="I129">IF(AND(H128&gt;100,H129&lt;100),INDEX(M:M,MATCH(I128,M:M,0)+1,0),I128)</f>
+        <v>한</v>
+      </c>
+      <c r="J129" s="16" t="str">
+        <f t="shared" si="106"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K129" s="11">
+        <f t="shared" si="107"/>
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="130" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E130" s="16">
+        <v>122</v>
+      </c>
+      <c r="F130" s="17" t="str">
+        <f t="shared" si="104"/>
+        <v>413.2173한</v>
+      </c>
+      <c r="G130" s="17">
+        <f t="shared" si="105"/>
+        <v>4.1321730000000001E+222</v>
+      </c>
+      <c r="H130" s="17">
+        <f t="shared" si="6"/>
+        <v>413.21730000000002</v>
+      </c>
+      <c r="I130" s="16" t="str" cm="1">
+        <f t="array" ref="I130">IF(AND(H129&gt;100,H130&lt;100),INDEX(M:M,MATCH(I129,M:M,0)+1,0),I129)</f>
+        <v>한</v>
+      </c>
+      <c r="J130" s="16" t="str">
+        <f t="shared" si="106"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K130" s="11">
+        <f t="shared" si="107"/>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="131" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E131" s="16"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5702BD-F1D9-438B-9B17-3A1A79010707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A87E09-4122-43CA-A83F-15368C610328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1109,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4472,7 +4472,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B124" si="24">B71</f>
+        <f t="shared" ref="B72:B127" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4484,7 +4484,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E124" si="25">E71</f>
+        <f t="shared" ref="E72:E127" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4505,7 +4505,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K124" si="26">K71</f>
+        <f t="shared" ref="K72:K127" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4513,7 +4513,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M124" si="27">M71</f>
+        <f t="shared" ref="M72:M127" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J124" si="56">J118+200</f>
+        <f t="shared" ref="J119:J127" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6859,7 +6859,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L124" si="57">L118+200</f>
+        <f t="shared" ref="L119:L127" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7026,11 +7026,11 @@
         <v>1-1</v>
       </c>
       <c r="C123">
-        <f t="shared" ref="C123:C124" si="58">IF(MOD(A123,5)=0,9021,25)</f>
+        <f t="shared" ref="C123:C127" si="58">IF(MOD(A123,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123:D124" si="59">IF(C123=9021,D118+1,IF(AND(C123=25,C122=25),D122+2000,D121+2000))</f>
+        <f t="shared" ref="D123:D127" si="59">IF(C123=9021,D118+1,IF(AND(C123=25,C122=25),D122+2000,D121+2000))</f>
         <v>162000</v>
       </c>
       <c r="E123">
@@ -7117,9 +7117,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="59"/>
+        <v>166000</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <f>VLOOKUP(A125,Balance!E:G,3,FALSE)</f>
+        <v>2.1075000000000004E+224</v>
+      </c>
+      <c r="G125">
+        <v>1000</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="56"/>
+        <v>26600</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="57"/>
+        <v>24800</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="58"/>
+        <v>25</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="59"/>
+        <v>168000</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <f>VLOOKUP(A126,Balance!E:G,3,FALSE)</f>
+        <v>1.074825E+226</v>
+      </c>
+      <c r="G126">
+        <v>1000</v>
+      </c>
+      <c r="H126">
+        <v>8</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="56"/>
+        <v>26800</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="57"/>
+        <v>25000</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="58"/>
+        <v>9021</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="59"/>
+        <v>26</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <f>VLOOKUP(A127,Balance!E:G,3,FALSE)</f>
+        <v>5.4816074999999995E+227</v>
+      </c>
+      <c r="G127">
+        <v>1000</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="56"/>
+        <v>27000</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="57"/>
+        <v>25200</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M124 A3:C124 E4:E124 G62:K124">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M127 A3:C127 E4:E127 G62:K127">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7131,10 +7281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y131"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127:I130"/>
+    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7379,7 +7529,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H131" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H133" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -11892,12 +12042,91 @@
       </c>
     </row>
     <row r="131" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E131" s="16"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
+      <c r="E131" s="16">
+        <v>123</v>
+      </c>
+      <c r="F131" s="17" t="str">
+        <f t="shared" si="104"/>
+        <v>2.1075혈</v>
+      </c>
+      <c r="G131" s="17">
+        <f t="shared" si="105"/>
+        <v>2.1075000000000004E+224</v>
+      </c>
+      <c r="H131" s="17">
+        <f t="shared" si="6"/>
+        <v>2.1075000000000004</v>
+      </c>
+      <c r="I131" s="16" t="str" cm="1">
+        <f t="array" ref="I131">IF(AND(H130&gt;100,H131&lt;100),INDEX(M:M,MATCH(I130,M:M,0)+1,0),I130)</f>
+        <v>혈</v>
+      </c>
+      <c r="J131" s="16" t="str">
+        <f t="shared" si="106"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K131" s="11">
+        <f t="shared" si="107"/>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="132" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E132" s="16">
+        <v>124</v>
+      </c>
+      <c r="F132" s="17" t="str">
+        <f t="shared" ref="F132:F133" si="108">H132&amp;I132</f>
+        <v>107.4825혈</v>
+      </c>
+      <c r="G132" s="17">
+        <f t="shared" ref="G132:G133" si="109">H132*J132</f>
+        <v>1.074825E+226</v>
+      </c>
+      <c r="H132" s="17">
+        <f t="shared" si="6"/>
+        <v>107.4825</v>
+      </c>
+      <c r="I132" s="16" t="str" cm="1">
+        <f t="array" ref="I132">IF(AND(H131&gt;100,H132&lt;100),INDEX(M:M,MATCH(I131,M:M,0)+1,0),I131)</f>
+        <v>혈</v>
+      </c>
+      <c r="J132" s="16" t="str">
+        <f t="shared" ref="J132:J133" si="110">VLOOKUP(I132,M:P,4,FALSE)</f>
+        <v>1E+224</v>
+      </c>
+      <c r="K132" s="11">
+        <f t="shared" ref="K132:K133" si="111">$B$14*E132</f>
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="133" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E133" s="16">
+        <v>125</v>
+      </c>
+      <c r="F133" s="17" t="str">
+        <f t="shared" si="108"/>
+        <v>5481.6075혈</v>
+      </c>
+      <c r="G133" s="17">
+        <f t="shared" si="109"/>
+        <v>5.4816074999999995E+227</v>
+      </c>
+      <c r="H133" s="17">
+        <f t="shared" si="6"/>
+        <v>5481.6075000000001</v>
+      </c>
+      <c r="I133" s="16" t="str" cm="1">
+        <f t="array" ref="I133">IF(AND(H132&gt;100,H133&lt;100),INDEX(M:M,MATCH(I132,M:M,0)+1,0),I132)</f>
+        <v>혈</v>
+      </c>
+      <c r="J133" s="16" t="str">
+        <f t="shared" si="110"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K133" s="11">
+        <f t="shared" si="111"/>
+        <v>25000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A87E09-4122-43CA-A83F-15368C610328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741679A-8B69-4E8A-9A11-E340FE5B8568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,6 +511,14 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4472,7 +4480,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B127" si="24">B71</f>
+        <f t="shared" ref="B72:B129" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4484,7 +4492,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E127" si="25">E71</f>
+        <f t="shared" ref="E72:E129" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4505,7 +4513,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K127" si="26">K71</f>
+        <f t="shared" ref="K72:K129" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4513,7 +4521,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M127" si="27">M71</f>
+        <f t="shared" ref="M72:M129" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6851,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J127" si="56">J118+200</f>
+        <f t="shared" ref="J119:J129" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6859,7 +6867,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L127" si="57">L118+200</f>
+        <f t="shared" ref="L119:L129" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7267,9 +7275,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128:C129" si="60">IF(MOD(A128,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D128">
+        <f t="shared" ref="D128:D129" si="61">IF(C128=9021,D123+1,IF(AND(C128=25,C127=25),D127+2000,D126+2000))</f>
+        <v>170000</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <f>VLOOKUP(A128,Balance!E:G,3,FALSE)</f>
+        <v>2.7956199999999998E+229</v>
+      </c>
+      <c r="G128">
+        <v>1000</v>
+      </c>
+      <c r="H128">
+        <v>8</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="56"/>
+        <v>27200</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="57"/>
+        <v>25400</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="60"/>
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="61"/>
+        <v>172000</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f>VLOOKUP(A129,Balance!E:G,3,FALSE)</f>
+        <v>1.4257661999999999E+231</v>
+      </c>
+      <c r="G129">
+        <v>1000</v>
+      </c>
+      <c r="H129">
+        <v>8</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="56"/>
+        <v>27400</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="57"/>
+        <v>25600</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M127 A3:C127 E4:E127 G62:K127">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M129 A3:C129 E4:E129 G62:K129">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7281,10 +7389,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7529,7 +7637,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H133" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H135" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -10127,7 +10235,7 @@
         <v>1E+228</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E65" s="16">
         <v>57</v>
       </c>
@@ -10155,17 +10263,31 @@
         <f t="shared" si="48"/>
         <v>11400</v>
       </c>
-    </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M65" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N65" s="16">
+        <v>232</v>
+      </c>
+      <c r="O65" s="17">
+        <f t="shared" ref="O65:O66" si="51">POWER(10,N65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="P65" s="17" t="str">
+        <f t="shared" ref="P65:P66" si="52">RIGHT(O65,N65)</f>
+        <v>1E+232</v>
+      </c>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E66" s="16">
         <v>58</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" ref="F66:F72" si="51">H66&amp;I66</f>
+        <f t="shared" ref="F66:F72" si="53">H66&amp;I66</f>
         <v>21.4577살</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" ref="G66:G72" si="52">H66*J66</f>
+        <f t="shared" ref="G66:G72" si="54">H66*J66</f>
         <v>2.1457699999999997E+113</v>
       </c>
       <c r="H66" s="17">
@@ -10181,20 +10303,34 @@
         <v>1E+112</v>
       </c>
       <c r="K66" s="11">
-        <f t="shared" ref="K66:K72" si="53">$B$14*E66</f>
+        <f t="shared" ref="K66:K72" si="55">$B$14*E66</f>
         <v>11600</v>
       </c>
-    </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M66" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N66" s="16">
+        <v>236</v>
+      </c>
+      <c r="O66" s="17">
+        <f t="shared" si="51"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="P66" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+236</v>
+      </c>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E67" s="16">
         <v>59</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1094.3427살</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.0943426999999998E+115</v>
       </c>
       <c r="H67" s="17">
@@ -10210,20 +10346,20 @@
         <v>1E+112</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>11800</v>
       </c>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E68" s="16">
         <v>60</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>5.5812섬</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>5.5811999999999997E+116</v>
       </c>
       <c r="H68" s="17">
@@ -10239,20 +10375,20 @@
         <v>1E+116</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E69" s="16">
         <v>61</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>284.6412섬</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>2.8464120000000002E+118</v>
       </c>
       <c r="H69" s="17">
@@ -10268,20 +10404,20 @@
         <v>1E+116</v>
       </c>
       <c r="K69" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12200</v>
       </c>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
         <v>62</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.4517찰</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.4517000000000001E+120</v>
       </c>
       <c r="H70" s="17">
@@ -10297,20 +10433,20 @@
         <v>1E+120</v>
       </c>
       <c r="K70" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12400</v>
       </c>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E71" s="16">
         <v>63</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>74.0367찰</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>7.4036699999999998E+121</v>
       </c>
       <c r="H71" s="17">
@@ -10326,20 +10462,20 @@
         <v>1E+120</v>
       </c>
       <c r="K71" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12600</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E72" s="16">
         <v>64</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3775.8717찰</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>3.7758717000000002E+123</v>
       </c>
       <c r="H72" s="17">
@@ -10355,20 +10491,20 @@
         <v>1E+120</v>
       </c>
       <c r="K72" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>12800</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E73" s="16">
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="54">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="56">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="55">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="57">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -10380,24 +10516,24 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="56">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="58">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="57">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="59">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E74" s="16">
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -10409,24 +10545,24 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>13200</v>
       </c>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E75" s="16">
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -10438,24 +10574,24 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>13400</v>
       </c>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E76" s="16">
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -10467,24 +10603,24 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>13600</v>
       </c>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E77" s="16">
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="58">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="60">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="59">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="61">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -10496,24 +10632,24 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="60">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="62">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E78" s="16">
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -10525,24 +10661,24 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E79" s="16">
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -10554,15 +10690,15 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14200</v>
       </c>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E80" s="16">
         <v>72</v>
       </c>
@@ -10583,11 +10719,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14400</v>
       </c>
     </row>
@@ -10600,7 +10736,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -10612,11 +10748,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>14600</v>
       </c>
     </row>
@@ -10625,11 +10761,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="61">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="63">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="62">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="64">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -10641,11 +10777,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="63">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="65">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -10654,11 +10790,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -10670,11 +10806,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>15000</v>
       </c>
     </row>
@@ -10683,11 +10819,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -10699,11 +10835,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>15200</v>
       </c>
     </row>
@@ -10712,11 +10848,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -10728,11 +10864,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>15400</v>
       </c>
     </row>
@@ -10757,11 +10893,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>15600</v>
       </c>
     </row>
@@ -10770,11 +10906,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="64">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="66">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="65">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="67">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -10786,11 +10922,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="66">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="68">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -10799,11 +10935,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -10815,11 +10951,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>16000</v>
       </c>
     </row>
@@ -10828,11 +10964,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -10844,11 +10980,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>16200</v>
       </c>
     </row>
@@ -10873,11 +11009,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>16400</v>
       </c>
     </row>
@@ -10886,11 +11022,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="67">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="69">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="68">H91*J91</f>
+        <f t="shared" ref="G91" si="70">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -10902,11 +11038,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="69">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="71">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -10931,11 +11067,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>16800</v>
       </c>
     </row>
@@ -10944,11 +11080,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="70">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="72">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="71">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="73">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -10960,11 +11096,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>17000</v>
       </c>
     </row>
@@ -10973,11 +11109,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -10989,11 +11125,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>17200</v>
       </c>
     </row>
@@ -11018,11 +11154,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>17400</v>
       </c>
     </row>
@@ -11031,11 +11167,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="72">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="74">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="73">H96*J96</f>
+        <f t="shared" ref="G96" si="75">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -11047,11 +11183,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="74">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="76">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -11076,11 +11212,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>17800</v>
       </c>
     </row>
@@ -11089,11 +11225,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="75">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="77">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="76">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="78">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -11105,11 +11241,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>18000</v>
       </c>
     </row>
@@ -11118,11 +11254,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -11134,11 +11270,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="77">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="79">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -11147,11 +11283,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="78">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="80">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="79">H100*J100</f>
+        <f t="shared" ref="G100" si="81">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -11163,11 +11299,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>18400</v>
       </c>
     </row>
@@ -11192,11 +11328,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="80">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="82">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>18600</v>
       </c>
     </row>
@@ -11205,11 +11341,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="81">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="83">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="82">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="84">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -11221,11 +11357,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>18800</v>
       </c>
     </row>
@@ -11234,11 +11370,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -11250,11 +11386,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="83">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="85">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -11263,11 +11399,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -11279,11 +11415,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>19200</v>
       </c>
     </row>
@@ -11308,11 +11444,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="84">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="86">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>19400</v>
       </c>
     </row>
@@ -11321,11 +11457,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="85">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="87">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="86">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="88">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -11337,11 +11473,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>19600</v>
       </c>
     </row>
@@ -11350,11 +11486,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -11366,11 +11502,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="87">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="89">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -11379,11 +11515,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -11395,11 +11531,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>20000</v>
       </c>
     </row>
@@ -11424,11 +11560,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>20200</v>
       </c>
     </row>
@@ -11437,11 +11573,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="88">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="90">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="89">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="91">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -11453,11 +11589,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="90">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="92">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>20400</v>
       </c>
     </row>
@@ -11466,11 +11602,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -11482,11 +11618,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="91">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="93">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -11495,11 +11631,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -11511,11 +11647,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>20800</v>
       </c>
     </row>
@@ -11524,11 +11660,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -11540,11 +11676,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>21000</v>
       </c>
     </row>
@@ -11569,11 +11705,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>21200</v>
       </c>
     </row>
@@ -11582,11 +11718,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="92">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="94">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="93">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="95">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -11598,11 +11734,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="94">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="96">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>21400</v>
       </c>
     </row>
@@ -11611,11 +11747,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -11627,11 +11763,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="95">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="97">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -11640,11 +11776,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -11656,11 +11792,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>21800</v>
       </c>
     </row>
@@ -11669,11 +11805,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -11685,11 +11821,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>22000</v>
       </c>
     </row>
@@ -11698,11 +11834,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -11714,11 +11850,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>22200</v>
       </c>
     </row>
@@ -11727,11 +11863,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F123" si="96">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="98">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G123" si="97">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="99">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -11743,11 +11879,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J123" si="98">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="100">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K123" si="99">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="101">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -11756,11 +11892,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -11772,11 +11908,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>22600</v>
       </c>
     </row>
@@ -11785,11 +11921,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -11801,11 +11937,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>22800</v>
       </c>
     </row>
@@ -11814,11 +11950,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -11830,11 +11966,11 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>23000</v>
       </c>
     </row>
@@ -11843,11 +11979,11 @@
         <v>116</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" ref="F124:F126" si="100">H124&amp;I124</f>
+        <f t="shared" ref="F124:F126" si="102">H124&amp;I124</f>
         <v>2.3483팽</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" ref="G124:G126" si="101">H124*J124</f>
+        <f t="shared" ref="G124:G126" si="103">H124*J124</f>
         <v>2.3482999999999999E+212</v>
       </c>
       <c r="H124" s="17">
@@ -11859,11 +11995,11 @@
         <v>팽</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" ref="J124:J126" si="102">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <f t="shared" ref="J124:J126" si="104">VLOOKUP(I124,M:P,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" ref="K124:K126" si="103">$B$14*E124</f>
+        <f t="shared" ref="K124:K126" si="105">$B$14*E124</f>
         <v>23200</v>
       </c>
     </row>
@@ -11872,11 +12008,11 @@
         <v>117</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>119.7633팽</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1.1976329999999999E+214</v>
       </c>
       <c r="H125" s="17">
@@ -11888,11 +12024,11 @@
         <v>팽</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+212</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>23400</v>
       </c>
     </row>
@@ -11901,11 +12037,11 @@
         <v>118</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>6107.9283팽</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>6.1079282999999993E+215</v>
       </c>
       <c r="H126" s="17">
@@ -11917,11 +12053,11 @@
         <v>팽</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+212</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>23600</v>
       </c>
     </row>
@@ -11930,11 +12066,11 @@
         <v>119</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" ref="F127:F131" si="104">H127&amp;I127</f>
+        <f t="shared" ref="F127:F131" si="106">H127&amp;I127</f>
         <v>31.1505관</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" ref="G127:G131" si="105">H127*J127</f>
+        <f t="shared" ref="G127:G131" si="107">H127*J127</f>
         <v>3.1150500000000002E+217</v>
       </c>
       <c r="H127" s="17">
@@ -11946,11 +12082,11 @@
         <v>관</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" ref="J127:J131" si="106">VLOOKUP(I127,M:P,4,FALSE)</f>
+        <f t="shared" ref="J127:J131" si="108">VLOOKUP(I127,M:P,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K127" s="11">
-        <f t="shared" ref="K127:K131" si="107">$B$14*E127</f>
+        <f t="shared" ref="K127:K131" si="109">$B$14*E127</f>
         <v>23800</v>
       </c>
     </row>
@@ -11959,11 +12095,11 @@
         <v>120</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1588.6755관</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1.5886754999999999E+219</v>
       </c>
       <c r="H128" s="17">
@@ -11975,11 +12111,11 @@
         <v>관</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+216</v>
       </c>
       <c r="K128" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>24000</v>
       </c>
     </row>
@@ -11988,11 +12124,11 @@
         <v>121</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>8.1023한</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>8.1022999999999999E+220</v>
       </c>
       <c r="H129" s="17">
@@ -12004,11 +12140,11 @@
         <v>한</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+220</v>
       </c>
       <c r="K129" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>24200</v>
       </c>
     </row>
@@ -12017,11 +12153,11 @@
         <v>122</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>413.2173한</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>4.1321730000000001E+222</v>
       </c>
       <c r="H130" s="17">
@@ -12033,11 +12169,11 @@
         <v>한</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+220</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>24400</v>
       </c>
     </row>
@@ -12046,11 +12182,11 @@
         <v>123</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2.1075혈</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>2.1075000000000004E+224</v>
       </c>
       <c r="H131" s="17">
@@ -12062,11 +12198,11 @@
         <v>혈</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+224</v>
       </c>
       <c r="K131" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>24600</v>
       </c>
     </row>
@@ -12075,11 +12211,11 @@
         <v>124</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" ref="F132:F133" si="108">H132&amp;I132</f>
+        <f t="shared" ref="F132:F134" si="110">H132&amp;I132</f>
         <v>107.4825혈</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" ref="G132:G133" si="109">H132*J132</f>
+        <f t="shared" ref="G132:G134" si="111">H132*J132</f>
         <v>1.074825E+226</v>
       </c>
       <c r="H132" s="17">
@@ -12091,11 +12227,11 @@
         <v>혈</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" ref="J132:J133" si="110">VLOOKUP(I132,M:P,4,FALSE)</f>
+        <f t="shared" ref="J132:J134" si="112">VLOOKUP(I132,M:P,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" ref="K132:K133" si="111">$B$14*E132</f>
+        <f t="shared" ref="K132:K134" si="113">$B$14*E132</f>
         <v>24800</v>
       </c>
     </row>
@@ -12104,11 +12240,11 @@
         <v>125</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5481.6075혈</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>5.4816074999999995E+227</v>
       </c>
       <c r="H133" s="17">
@@ -12120,12 +12256,70 @@
         <v>혈</v>
       </c>
       <c r="J133" s="16" t="str">
+        <f t="shared" si="112"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K133" s="11">
+        <f t="shared" si="113"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="134" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E134" s="16">
+        <v>126</v>
+      </c>
+      <c r="F134" s="17" t="str">
         <f t="shared" si="110"/>
-        <v>1E+224</v>
-      </c>
-      <c r="K133" s="11">
+        <v>27.9562연</v>
+      </c>
+      <c r="G134" s="17">
         <f t="shared" si="111"/>
-        <v>25000</v>
+        <v>2.7956199999999998E+229</v>
+      </c>
+      <c r="H134" s="17">
+        <f t="shared" si="6"/>
+        <v>27.956199999999999</v>
+      </c>
+      <c r="I134" s="16" t="str" cm="1">
+        <f t="array" ref="I134">IF(AND(H133&gt;100,H134&lt;100),INDEX(M:M,MATCH(I133,M:M,0)+1,0),I133)</f>
+        <v>연</v>
+      </c>
+      <c r="J134" s="16" t="str">
+        <f t="shared" si="112"/>
+        <v>1E+228</v>
+      </c>
+      <c r="K134" s="11">
+        <f t="shared" si="113"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="135" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E135" s="16">
+        <v>127</v>
+      </c>
+      <c r="F135" s="17" t="str">
+        <f t="shared" ref="F135" si="114">H135&amp;I135</f>
+        <v>1425.7662연</v>
+      </c>
+      <c r="G135" s="17">
+        <f t="shared" ref="G135" si="115">H135*J135</f>
+        <v>1.4257661999999999E+231</v>
+      </c>
+      <c r="H135" s="17">
+        <f t="shared" si="6"/>
+        <v>1425.7662</v>
+      </c>
+      <c r="I135" s="16" t="str" cm="1">
+        <f t="array" ref="I135">IF(AND(H134&gt;100,H135&lt;100),INDEX(M:M,MATCH(I134,M:M,0)+1,0),I134)</f>
+        <v>연</v>
+      </c>
+      <c r="J135" s="16" t="str">
+        <f t="shared" ref="J135" si="116">VLOOKUP(I135,M:P,4,FALSE)</f>
+        <v>1E+228</v>
+      </c>
+      <c r="K135" s="11">
+        <f t="shared" ref="K135" si="117">$B$14*E135</f>
+        <v>25400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A741679A-8B69-4E8A-9A11-E340FE5B8568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99972C80-A565-4DD4-BC5C-478F618FAFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -1117,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4480,7 +4480,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B129" si="24">B71</f>
+        <f t="shared" ref="B72:B131" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4492,7 +4492,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E129" si="25">E71</f>
+        <f t="shared" ref="E72:E131" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4513,7 +4513,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K129" si="26">K71</f>
+        <f t="shared" ref="K72:K131" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4521,7 +4521,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M129" si="27">M71</f>
+        <f t="shared" ref="M72:M131" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J129" si="56">J118+200</f>
+        <f t="shared" ref="J119:J131" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6867,7 +6867,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L129" si="57">L118+200</f>
+        <f t="shared" ref="L119:L131" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7284,11 +7284,11 @@
         <v>1-1</v>
       </c>
       <c r="C128">
-        <f t="shared" ref="C128:C129" si="60">IF(MOD(A128,5)=0,9021,25)</f>
+        <f t="shared" ref="C128:C130" si="60">IF(MOD(A128,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D128">
-        <f t="shared" ref="D128:D129" si="61">IF(C128=9021,D123+1,IF(AND(C128=25,C127=25),D127+2000,D126+2000))</f>
+        <f t="shared" ref="D128:D130" si="61">IF(C128=9021,D123+1,IF(AND(C128=25,C127=25),D127+2000,D126+2000))</f>
         <v>170000</v>
       </c>
       <c r="E128">
@@ -7375,9 +7375,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="60"/>
+        <v>25</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="61"/>
+        <v>174000</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <f>VLOOKUP(A130,Balance!E:G,3,FALSE)</f>
+        <v>7.2714999999999999E+232</v>
+      </c>
+      <c r="G130">
+        <v>1000</v>
+      </c>
+      <c r="H130">
+        <v>8</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="56"/>
+        <v>27600</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="57"/>
+        <v>25800</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131" si="62">IF(MOD(A131,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131" si="63">IF(C131=9021,D126+1,IF(AND(C131=25,C130=25),D130+2000,D129+2000))</f>
+        <v>176000</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <f>VLOOKUP(A131,Balance!E:G,3,FALSE)</f>
+        <v>3.7084650000000002E+234</v>
+      </c>
+      <c r="G131">
+        <v>1000</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="56"/>
+        <v>27800</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="57"/>
+        <v>26000</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M129 A3:C129 E4:E129 G62:K129">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M131 A3:C131 E4:E131 G62:K131">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7389,10 +7489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y135"/>
+  <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7637,7 +7737,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H135" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H137" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -12298,11 +12398,11 @@
         <v>127</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" ref="F135" si="114">H135&amp;I135</f>
+        <f t="shared" ref="F135:F137" si="114">H135&amp;I135</f>
         <v>1425.7662연</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" ref="G135" si="115">H135*J135</f>
+        <f t="shared" ref="G135:G137" si="115">H135*J135</f>
         <v>1.4257661999999999E+231</v>
       </c>
       <c r="H135" s="17">
@@ -12314,13 +12414,79 @@
         <v>연</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" ref="J135" si="116">VLOOKUP(I135,M:P,4,FALSE)</f>
+        <f t="shared" ref="J135:J137" si="116">VLOOKUP(I135,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K135" s="11">
-        <f t="shared" ref="K135" si="117">$B$14*E135</f>
+        <f t="shared" ref="K135:K137" si="117">$B$14*E135</f>
         <v>25400</v>
       </c>
+    </row>
+    <row r="136" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E136" s="16">
+        <v>128</v>
+      </c>
+      <c r="F136" s="17" t="str">
+        <f t="shared" si="114"/>
+        <v>7.2715난</v>
+      </c>
+      <c r="G136" s="17">
+        <f t="shared" si="115"/>
+        <v>7.2714999999999999E+232</v>
+      </c>
+      <c r="H136" s="17">
+        <f t="shared" si="6"/>
+        <v>7.2714999999999996</v>
+      </c>
+      <c r="I136" s="16" t="str" cm="1">
+        <f t="array" ref="I136">IF(AND(H135&gt;100,H136&lt;100),INDEX(M:M,MATCH(I135,M:M,0)+1,0),I135)</f>
+        <v>난</v>
+      </c>
+      <c r="J136" s="16" t="str">
+        <f t="shared" si="116"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K136" s="11">
+        <f t="shared" si="117"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="137" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E137" s="16">
+        <v>129</v>
+      </c>
+      <c r="F137" s="17" t="str">
+        <f t="shared" si="114"/>
+        <v>370.8465난</v>
+      </c>
+      <c r="G137" s="17">
+        <f t="shared" si="115"/>
+        <v>3.7084650000000002E+234</v>
+      </c>
+      <c r="H137" s="17">
+        <f t="shared" si="6"/>
+        <v>370.84649999999999</v>
+      </c>
+      <c r="I137" s="16" t="str" cm="1">
+        <f t="array" ref="I137">IF(AND(H136&gt;100,H137&lt;100),INDEX(M:M,MATCH(I136,M:M,0)+1,0),I136)</f>
+        <v>난</v>
+      </c>
+      <c r="J137" s="16" t="str">
+        <f t="shared" si="116"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K137" s="11">
+        <f t="shared" si="117"/>
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E138" s="16"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99972C80-A565-4DD4-BC5C-478F618FAFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C6DA1F-EC6A-43D3-BF16-4BE3A0D9C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildTowerTable" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,11 +1125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4480,7 +4488,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B131" si="24">B71</f>
+        <f t="shared" ref="B72:B134" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4492,7 +4500,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E131" si="25">E71</f>
+        <f t="shared" ref="E72:E134" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4513,7 +4521,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K131" si="26">K71</f>
+        <f t="shared" ref="K72:K134" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4521,7 +4529,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M131" si="27">M71</f>
+        <f t="shared" ref="M72:M134" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6859,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J131" si="56">J118+200</f>
+        <f t="shared" ref="J119:J134" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6867,7 +6875,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L131" si="57">L118+200</f>
+        <f t="shared" ref="L119:L134" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7434,11 +7442,11 @@
         <v>1-1</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131" si="62">IF(MOD(A131,5)=0,9021,25)</f>
+        <f t="shared" ref="C131:C134" si="62">IF(MOD(A131,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131" si="63">IF(C131=9021,D126+1,IF(AND(C131=25,C130=25),D130+2000,D129+2000))</f>
+        <f t="shared" ref="D131:D134" si="63">IF(C131=9021,D126+1,IF(AND(C131=25,C130=25),D130+2000,D129+2000))</f>
         <v>176000</v>
       </c>
       <c r="E131">
@@ -7475,9 +7483,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="62"/>
+        <v>9021</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="63"/>
+        <v>27</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <f>VLOOKUP(A132,Balance!E:G,3,FALSE)</f>
+        <v>1.8914E+236</v>
+      </c>
+      <c r="G132">
+        <v>1000</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="56"/>
+        <v>28000</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="57"/>
+        <v>26200</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="62"/>
+        <v>25</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="63"/>
+        <v>178000</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <f>VLOOKUP(A133,Balance!E:G,3,FALSE)</f>
+        <v>9.6461400000000006E+237</v>
+      </c>
+      <c r="G133">
+        <v>1000</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="56"/>
+        <v>28200</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="57"/>
+        <v>26400</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="62"/>
+        <v>25</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="63"/>
+        <v>180000</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <f>VLOOKUP(A134,Balance!E:G,3,FALSE)</f>
+        <v>4.9195314000000002E+239</v>
+      </c>
+      <c r="G134">
+        <v>1000</v>
+      </c>
+      <c r="H134">
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="56"/>
+        <v>28400</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="57"/>
+        <v>26600</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M131 A3:C131 E4:E131 G62:K131">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M134 A3:C134 E4:E134 G62:K134">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7489,10 +7647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y138"/>
+  <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7737,7 +7895,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H137" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H140" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -10449,6 +10607,20 @@
         <f t="shared" si="55"/>
         <v>11800</v>
       </c>
+      <c r="M67" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N67" s="16">
+        <v>240</v>
+      </c>
+      <c r="O67" s="17">
+        <f t="shared" ref="O67:O68" si="56">POWER(10,N67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="P67" s="17" t="str">
+        <f t="shared" ref="P67:P68" si="57">RIGHT(O67,N67)</f>
+        <v>1E+240</v>
+      </c>
     </row>
     <row r="68" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E68" s="16">
@@ -10478,6 +10650,20 @@
         <f t="shared" si="55"/>
         <v>12000</v>
       </c>
+      <c r="M68" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N68" s="16">
+        <v>244</v>
+      </c>
+      <c r="O68" s="17">
+        <f t="shared" si="56"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="P68" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>1E+244</v>
+      </c>
     </row>
     <row r="69" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E69" s="16">
@@ -10600,11 +10786,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="56">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="58">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="57">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="59">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -10616,11 +10802,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="58">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="60">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="59">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="61">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -10629,11 +10815,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -10645,11 +10831,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13200</v>
       </c>
     </row>
@@ -10658,11 +10844,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -10674,11 +10860,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13400</v>
       </c>
     </row>
@@ -10687,11 +10873,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -10703,11 +10889,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13600</v>
       </c>
     </row>
@@ -10716,11 +10902,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="60">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="62">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="61">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="63">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -10732,11 +10918,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="62">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="64">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -10745,11 +10931,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -10761,11 +10947,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14000</v>
       </c>
     </row>
@@ -10774,11 +10960,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -10790,11 +10976,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14200</v>
       </c>
     </row>
@@ -10819,11 +11005,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14400</v>
       </c>
     </row>
@@ -10836,7 +11022,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -10848,11 +11034,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>14600</v>
       </c>
     </row>
@@ -10861,11 +11047,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="63">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="65">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="64">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="66">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -10877,11 +11063,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="65">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="67">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -10890,11 +11076,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -10906,11 +11092,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15000</v>
       </c>
     </row>
@@ -10919,11 +11105,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -10935,11 +11121,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15200</v>
       </c>
     </row>
@@ -10948,11 +11134,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -10964,11 +11150,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15400</v>
       </c>
     </row>
@@ -10993,11 +11179,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>15600</v>
       </c>
     </row>
@@ -11006,11 +11192,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="66">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="68">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="67">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="69">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -11022,11 +11208,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="68">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="70">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -11035,11 +11221,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -11051,11 +11237,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>16000</v>
       </c>
     </row>
@@ -11064,11 +11250,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -11080,11 +11266,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>16200</v>
       </c>
     </row>
@@ -11109,11 +11295,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>16400</v>
       </c>
     </row>
@@ -11122,11 +11308,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="69">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="71">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="70">H91*J91</f>
+        <f t="shared" ref="G91" si="72">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -11138,11 +11324,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="71">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="73">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -11167,11 +11353,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>16800</v>
       </c>
     </row>
@@ -11180,11 +11366,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="72">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="74">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="73">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="75">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -11196,11 +11382,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>17000</v>
       </c>
     </row>
@@ -11209,11 +11395,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -11225,11 +11411,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>17200</v>
       </c>
     </row>
@@ -11254,11 +11440,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>17400</v>
       </c>
     </row>
@@ -11267,11 +11453,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="74">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="76">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="75">H96*J96</f>
+        <f t="shared" ref="G96" si="77">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -11283,11 +11469,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="76">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="78">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -11312,11 +11498,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>17800</v>
       </c>
     </row>
@@ -11325,11 +11511,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="77">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="79">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="78">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="80">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -11341,11 +11527,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>18000</v>
       </c>
     </row>
@@ -11354,11 +11540,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -11370,11 +11556,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="79">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="81">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -11383,11 +11569,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="80">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="82">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="81">H100*J100</f>
+        <f t="shared" ref="G100" si="83">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -11399,11 +11585,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>18400</v>
       </c>
     </row>
@@ -11428,11 +11614,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="82">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="84">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>18600</v>
       </c>
     </row>
@@ -11441,11 +11627,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="83">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="85">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="84">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="86">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -11457,11 +11643,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>18800</v>
       </c>
     </row>
@@ -11470,11 +11656,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -11486,11 +11672,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="85">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="87">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -11499,11 +11685,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -11515,11 +11701,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>19200</v>
       </c>
     </row>
@@ -11544,11 +11730,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="86">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="88">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>19400</v>
       </c>
     </row>
@@ -11557,11 +11743,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="87">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="89">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="88">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="90">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -11573,11 +11759,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>19600</v>
       </c>
     </row>
@@ -11586,11 +11772,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -11602,11 +11788,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="89">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="91">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -11615,11 +11801,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -11631,11 +11817,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>20000</v>
       </c>
     </row>
@@ -11660,11 +11846,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>20200</v>
       </c>
     </row>
@@ -11673,11 +11859,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="90">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="92">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="91">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="93">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -11689,11 +11875,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="92">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="94">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>20400</v>
       </c>
     </row>
@@ -11702,11 +11888,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -11718,11 +11904,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="93">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="95">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -11731,11 +11917,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -11747,11 +11933,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>20800</v>
       </c>
     </row>
@@ -11760,11 +11946,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -11776,11 +11962,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>21000</v>
       </c>
     </row>
@@ -11805,11 +11991,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>21200</v>
       </c>
     </row>
@@ -11818,11 +12004,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="94">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="96">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="95">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="97">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -11834,11 +12020,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="96">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="98">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>21400</v>
       </c>
     </row>
@@ -11847,11 +12033,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -11863,11 +12049,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="97">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="99">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -11876,11 +12062,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -11892,11 +12078,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>21800</v>
       </c>
     </row>
@@ -11905,11 +12091,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -11921,11 +12107,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22000</v>
       </c>
     </row>
@@ -11934,11 +12120,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -11950,11 +12136,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>22200</v>
       </c>
     </row>
@@ -11963,11 +12149,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F123" si="98">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="100">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G123" si="99">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="101">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -11979,11 +12165,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J123" si="100">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="102">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K123" si="101">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="103">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -11992,11 +12178,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -12008,11 +12194,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>22600</v>
       </c>
     </row>
@@ -12021,11 +12207,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -12037,11 +12223,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>22800</v>
       </c>
     </row>
@@ -12050,11 +12236,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -12066,11 +12252,11 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>23000</v>
       </c>
     </row>
@@ -12079,11 +12265,11 @@
         <v>116</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" ref="F124:F126" si="102">H124&amp;I124</f>
+        <f t="shared" ref="F124:F126" si="104">H124&amp;I124</f>
         <v>2.3483팽</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" ref="G124:G126" si="103">H124*J124</f>
+        <f t="shared" ref="G124:G126" si="105">H124*J124</f>
         <v>2.3482999999999999E+212</v>
       </c>
       <c r="H124" s="17">
@@ -12095,11 +12281,11 @@
         <v>팽</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" ref="J124:J126" si="104">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <f t="shared" ref="J124:J126" si="106">VLOOKUP(I124,M:P,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" ref="K124:K126" si="105">$B$14*E124</f>
+        <f t="shared" ref="K124:K126" si="107">$B$14*E124</f>
         <v>23200</v>
       </c>
     </row>
@@ -12108,11 +12294,11 @@
         <v>117</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>119.7633팽</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1.1976329999999999E+214</v>
       </c>
       <c r="H125" s="17">
@@ -12124,11 +12310,11 @@
         <v>팽</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+212</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>23400</v>
       </c>
     </row>
@@ -12137,11 +12323,11 @@
         <v>118</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>6107.9283팽</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>6.1079282999999993E+215</v>
       </c>
       <c r="H126" s="17">
@@ -12153,11 +12339,11 @@
         <v>팽</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+212</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>23600</v>
       </c>
     </row>
@@ -12166,11 +12352,11 @@
         <v>119</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" ref="F127:F131" si="106">H127&amp;I127</f>
+        <f t="shared" ref="F127:F131" si="108">H127&amp;I127</f>
         <v>31.1505관</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" ref="G127:G131" si="107">H127*J127</f>
+        <f t="shared" ref="G127:G131" si="109">H127*J127</f>
         <v>3.1150500000000002E+217</v>
       </c>
       <c r="H127" s="17">
@@ -12182,11 +12368,11 @@
         <v>관</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" ref="J127:J131" si="108">VLOOKUP(I127,M:P,4,FALSE)</f>
+        <f t="shared" ref="J127:J131" si="110">VLOOKUP(I127,M:P,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K127" s="11">
-        <f t="shared" ref="K127:K131" si="109">$B$14*E127</f>
+        <f t="shared" ref="K127:K131" si="111">$B$14*E127</f>
         <v>23800</v>
       </c>
     </row>
@@ -12195,11 +12381,11 @@
         <v>120</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1588.6755관</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1.5886754999999999E+219</v>
       </c>
       <c r="H128" s="17">
@@ -12211,11 +12397,11 @@
         <v>관</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+216</v>
       </c>
       <c r="K128" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>24000</v>
       </c>
     </row>
@@ -12224,11 +12410,11 @@
         <v>121</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>8.1023한</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8.1022999999999999E+220</v>
       </c>
       <c r="H129" s="17">
@@ -12240,11 +12426,11 @@
         <v>한</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+220</v>
       </c>
       <c r="K129" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>24200</v>
       </c>
     </row>
@@ -12253,11 +12439,11 @@
         <v>122</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>413.2173한</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4.1321730000000001E+222</v>
       </c>
       <c r="H130" s="17">
@@ -12269,11 +12455,11 @@
         <v>한</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+220</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>24400</v>
       </c>
     </row>
@@ -12282,11 +12468,11 @@
         <v>123</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2.1075혈</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>2.1075000000000004E+224</v>
       </c>
       <c r="H131" s="17">
@@ -12298,11 +12484,11 @@
         <v>혈</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+224</v>
       </c>
       <c r="K131" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>24600</v>
       </c>
     </row>
@@ -12311,11 +12497,11 @@
         <v>124</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" ref="F132:F134" si="110">H132&amp;I132</f>
+        <f t="shared" ref="F132:F134" si="112">H132&amp;I132</f>
         <v>107.4825혈</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" ref="G132:G134" si="111">H132*J132</f>
+        <f t="shared" ref="G132:G134" si="113">H132*J132</f>
         <v>1.074825E+226</v>
       </c>
       <c r="H132" s="17">
@@ -12327,11 +12513,11 @@
         <v>혈</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" ref="J132:J134" si="112">VLOOKUP(I132,M:P,4,FALSE)</f>
+        <f t="shared" ref="J132:J134" si="114">VLOOKUP(I132,M:P,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" ref="K132:K134" si="113">$B$14*E132</f>
+        <f t="shared" ref="K132:K134" si="115">$B$14*E132</f>
         <v>24800</v>
       </c>
     </row>
@@ -12340,11 +12526,11 @@
         <v>125</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>5481.6075혈</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>5.4816074999999995E+227</v>
       </c>
       <c r="H133" s="17">
@@ -12356,11 +12542,11 @@
         <v>혈</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+224</v>
       </c>
       <c r="K133" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>25000</v>
       </c>
     </row>
@@ -12369,11 +12555,11 @@
         <v>126</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>27.9562연</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2.7956199999999998E+229</v>
       </c>
       <c r="H134" s="17">
@@ -12385,11 +12571,11 @@
         <v>연</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+228</v>
       </c>
       <c r="K134" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>25200</v>
       </c>
     </row>
@@ -12398,11 +12584,11 @@
         <v>127</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" ref="F135:F137" si="114">H135&amp;I135</f>
+        <f t="shared" ref="F135:F140" si="116">H135&amp;I135</f>
         <v>1425.7662연</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" ref="G135:G137" si="115">H135*J135</f>
+        <f t="shared" ref="G135:G140" si="117">H135*J135</f>
         <v>1.4257661999999999E+231</v>
       </c>
       <c r="H135" s="17">
@@ -12414,11 +12600,11 @@
         <v>연</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" ref="J135:J137" si="116">VLOOKUP(I135,M:P,4,FALSE)</f>
+        <f t="shared" ref="J135:J140" si="118">VLOOKUP(I135,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K135" s="11">
-        <f t="shared" ref="K135:K137" si="117">$B$14*E135</f>
+        <f t="shared" ref="K135:K140" si="119">$B$14*E135</f>
         <v>25400</v>
       </c>
     </row>
@@ -12427,11 +12613,11 @@
         <v>128</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>7.2715난</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>7.2714999999999999E+232</v>
       </c>
       <c r="H136" s="17">
@@ -12443,11 +12629,11 @@
         <v>난</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1E+232</v>
       </c>
       <c r="K136" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>25600</v>
       </c>
     </row>
@@ -12456,11 +12642,11 @@
         <v>129</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>370.8465난</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>3.7084650000000002E+234</v>
       </c>
       <c r="H137" s="17">
@@ -12472,21 +12658,100 @@
         <v>난</v>
       </c>
       <c r="J137" s="16" t="str">
+        <f t="shared" si="118"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K137" s="11">
+        <f t="shared" si="119"/>
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E138" s="16">
+        <v>130</v>
+      </c>
+      <c r="F138" s="17" t="str">
         <f t="shared" si="116"/>
-        <v>1E+232</v>
-      </c>
-      <c r="K137" s="11">
+        <v>1.8914군</v>
+      </c>
+      <c r="G138" s="17">
         <f t="shared" si="117"/>
-        <v>25800</v>
-      </c>
-    </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E138" s="16"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="16"/>
-      <c r="J138" s="16"/>
+        <v>1.8914E+236</v>
+      </c>
+      <c r="H138" s="17">
+        <f t="shared" si="6"/>
+        <v>1.8914</v>
+      </c>
+      <c r="I138" s="16" t="str" cm="1">
+        <f t="array" ref="I138">IF(AND(H137&gt;100,H138&lt;100),INDEX(M:M,MATCH(I137,M:M,0)+1,0),I137)</f>
+        <v>군</v>
+      </c>
+      <c r="J138" s="16" t="str">
+        <f t="shared" si="118"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K138" s="11">
+        <f t="shared" si="119"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="139" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E139" s="16">
+        <v>131</v>
+      </c>
+      <c r="F139" s="17" t="str">
+        <f t="shared" si="116"/>
+        <v>96.4614군</v>
+      </c>
+      <c r="G139" s="17">
+        <f t="shared" si="117"/>
+        <v>9.6461400000000006E+237</v>
+      </c>
+      <c r="H139" s="17">
+        <f t="shared" si="6"/>
+        <v>96.461399999999998</v>
+      </c>
+      <c r="I139" s="16" t="str" cm="1">
+        <f t="array" ref="I139">IF(AND(H138&gt;100,H139&lt;100),INDEX(M:M,MATCH(I138,M:M,0)+1,0),I138)</f>
+        <v>군</v>
+      </c>
+      <c r="J139" s="16" t="str">
+        <f t="shared" si="118"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K139" s="11">
+        <f t="shared" si="119"/>
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="140" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E140" s="16">
+        <v>132</v>
+      </c>
+      <c r="F140" s="17" t="str">
+        <f t="shared" si="116"/>
+        <v>4919.5314군</v>
+      </c>
+      <c r="G140" s="17">
+        <f t="shared" si="117"/>
+        <v>4.9195314000000002E+239</v>
+      </c>
+      <c r="H140" s="17">
+        <f t="shared" si="6"/>
+        <v>4919.5313999999998</v>
+      </c>
+      <c r="I140" s="16" t="str" cm="1">
+        <f t="array" ref="I140">IF(AND(H139&gt;100,H140&lt;100),INDEX(M:M,MATCH(I139,M:M,0)+1,0),I139)</f>
+        <v>군</v>
+      </c>
+      <c r="J140" s="16" t="str">
+        <f t="shared" si="118"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K140" s="11">
+        <f t="shared" si="119"/>
+        <v>26400</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C6DA1F-EC6A-43D3-BF16-4BE3A0D9C7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC5DF68-A473-4A22-94AA-15D067423C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1125,11 +1125,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4488,7 +4488,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B134" si="24">B71</f>
+        <f t="shared" ref="B72:B135" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4500,7 +4500,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E134" si="25">E71</f>
+        <f t="shared" ref="E72:E135" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4521,7 +4521,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K134" si="26">K71</f>
+        <f t="shared" ref="K72:K135" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4529,7 +4529,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M134" si="27">M71</f>
+        <f t="shared" ref="M72:M135" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J134" si="56">J118+200</f>
+        <f t="shared" ref="J119:J136" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6875,7 +6875,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L134" si="57">L118+200</f>
+        <f t="shared" ref="L119:L136" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7442,11 +7442,11 @@
         <v>1-1</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C134" si="62">IF(MOD(A131,5)=0,9021,25)</f>
+        <f t="shared" ref="C131:C136" si="62">IF(MOD(A131,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D134" si="63">IF(C131=9021,D126+1,IF(AND(C131=25,C130=25),D130+2000,D129+2000))</f>
+        <f t="shared" ref="D131:D136" si="63">IF(C131=9021,D126+1,IF(AND(C131=25,C130=25),D130+2000,D129+2000))</f>
         <v>176000</v>
       </c>
       <c r="E131">
@@ -7633,9 +7633,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="62"/>
+        <v>25</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="63"/>
+        <v>182000</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <f>VLOOKUP(A135,Balance!E:G,3,FALSE)</f>
+        <v>2.50897E+241</v>
+      </c>
+      <c r="G135">
+        <v>1000</v>
+      </c>
+      <c r="H135">
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="56"/>
+        <v>28600</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="57"/>
+        <v>26800</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f t="shared" ref="B136" si="64">B135</f>
+        <v>1-1</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="62"/>
+        <v>25</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="63"/>
+        <v>184000</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ref="E136" si="65">E135</f>
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <f>VLOOKUP(A136,Balance!E:G,3,FALSE)</f>
+        <v>1.2795747E+243</v>
+      </c>
+      <c r="G136">
+        <v>1000</v>
+      </c>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="56"/>
+        <v>28800</v>
+      </c>
+      <c r="K136">
+        <f t="shared" ref="K136" si="66">K135</f>
+        <v>25</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="57"/>
+        <v>27000</v>
+      </c>
+      <c r="M136">
+        <f t="shared" ref="M136" si="67">M135</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M134 A3:C134 E4:E134 G62:K134">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M136 A3:C136 E4:E136 G62:K136">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7647,10 +7747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y140"/>
+  <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7895,7 +7995,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H140" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H142" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -12751,6 +12851,64 @@
       <c r="K140" s="11">
         <f t="shared" si="119"/>
         <v>26400</v>
+      </c>
+    </row>
+    <row r="141" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E141" s="16">
+        <v>133</v>
+      </c>
+      <c r="F141" s="17" t="str">
+        <f t="shared" ref="F141:F142" si="120">H141&amp;I141</f>
+        <v>25.0897결</v>
+      </c>
+      <c r="G141" s="17">
+        <f t="shared" ref="G141:G142" si="121">H141*J141</f>
+        <v>2.50897E+241</v>
+      </c>
+      <c r="H141" s="17">
+        <f t="shared" si="6"/>
+        <v>25.089700000000001</v>
+      </c>
+      <c r="I141" s="16" t="str" cm="1">
+        <f t="array" ref="I141">IF(AND(H140&gt;100,H141&lt;100),INDEX(M:M,MATCH(I140,M:M,0)+1,0),I140)</f>
+        <v>결</v>
+      </c>
+      <c r="J141" s="16" t="str">
+        <f t="shared" ref="J141:J142" si="122">VLOOKUP(I141,M:P,4,FALSE)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="K141" s="11">
+        <f t="shared" ref="K141:K142" si="123">$B$14*E141</f>
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="142" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E142" s="16">
+        <v>134</v>
+      </c>
+      <c r="F142" s="17" t="str">
+        <f t="shared" si="120"/>
+        <v>1279.5747결</v>
+      </c>
+      <c r="G142" s="17">
+        <f t="shared" si="121"/>
+        <v>1.2795747E+243</v>
+      </c>
+      <c r="H142" s="17">
+        <f t="shared" si="6"/>
+        <v>1279.5746999999999</v>
+      </c>
+      <c r="I142" s="16" t="str" cm="1">
+        <f t="array" ref="I142">IF(AND(H141&gt;100,H142&lt;100),INDEX(M:M,MATCH(I141,M:M,0)+1,0),I141)</f>
+        <v>결</v>
+      </c>
+      <c r="J142" s="16" t="str">
+        <f t="shared" si="122"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K142" s="11">
+        <f t="shared" si="123"/>
+        <v>26800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC5DF68-A473-4A22-94AA-15D067423C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C741CB-D9A4-4E5F-80DE-489EA5387D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +527,14 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4488,7 +4496,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B135" si="24">B71</f>
+        <f t="shared" ref="B72:B137" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4500,7 +4508,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E135" si="25">E71</f>
+        <f t="shared" ref="E72:E137" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4521,7 +4529,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K135" si="26">K71</f>
+        <f t="shared" ref="K72:K137" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4529,7 +4537,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M135" si="27">M71</f>
+        <f t="shared" ref="M72:M137" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6867,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J136" si="56">J118+200</f>
+        <f t="shared" ref="J119:J138" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6875,7 +6883,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L136" si="57">L118+200</f>
+        <f t="shared" ref="L119:L138" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7688,7 +7696,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f t="shared" ref="B136" si="64">B135</f>
+        <f t="shared" ref="B136:B138" si="64">B135</f>
         <v>1-1</v>
       </c>
       <c r="C136">
@@ -7700,7 +7708,7 @@
         <v>184000</v>
       </c>
       <c r="E136">
-        <f t="shared" ref="E136" si="65">E135</f>
+        <f t="shared" ref="E136:E138" si="65">E135</f>
         <v>1</v>
       </c>
       <c r="F136">
@@ -7721,7 +7729,7 @@
         <v>28800</v>
       </c>
       <c r="K136">
-        <f t="shared" ref="K136" si="66">K135</f>
+        <f t="shared" ref="K136:K138" si="66">K135</f>
         <v>25</v>
       </c>
       <c r="L136">
@@ -7729,13 +7737,113 @@
         <v>27000</v>
       </c>
       <c r="M136">
-        <f t="shared" ref="M136" si="67">M135</f>
+        <f t="shared" ref="M136:M138" si="67">M135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137:C138" si="68">IF(MOD(A137,5)=0,9021,25)</f>
+        <v>9021</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ref="D137:D138" si="69">IF(C137=9021,D132+1,IF(AND(C137=25,C136=25),D136+2000,D135+2000))</f>
+        <v>28</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <f>VLOOKUP(A137,Balance!E:G,3,FALSE)</f>
+        <v>6.5259000000000008E+244</v>
+      </c>
+      <c r="G137">
+        <v>1000</v>
+      </c>
+      <c r="H137">
+        <v>8</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="56"/>
+        <v>29000</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="57"/>
+        <v>27200</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f t="shared" si="64"/>
+        <v>1-1</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="69"/>
+        <v>186000</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <f>VLOOKUP(A138,Balance!E:G,3,FALSE)</f>
+        <v>3.3282090000000003E+246</v>
+      </c>
+      <c r="G138">
+        <v>1000</v>
+      </c>
+      <c r="H138">
+        <v>8</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="56"/>
+        <v>29200</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="66"/>
+        <v>25</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="57"/>
+        <v>27400</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M136 A3:C136 E4:E136 G62:K136">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M138 A3:C138 E4:E138 G62:K138">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7747,10 +7855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y142"/>
+  <dimension ref="A1:Y144"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView topLeftCell="B113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7995,7 +8103,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H142" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H145" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -10793,6 +10901,20 @@
         <f t="shared" si="55"/>
         <v>12200</v>
       </c>
+      <c r="M69" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N69" s="16">
+        <v>248</v>
+      </c>
+      <c r="O69" s="17">
+        <f t="shared" ref="O69:O70" si="58">POWER(10,N69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="P69" s="17" t="str">
+        <f t="shared" ref="P69:P70" si="59">RIGHT(O69,N69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
@@ -10822,6 +10944,20 @@
         <f t="shared" si="55"/>
         <v>12400</v>
       </c>
+      <c r="M70" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N70" s="16">
+        <v>252</v>
+      </c>
+      <c r="O70" s="17">
+        <f t="shared" si="58"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="P70" s="17" t="str">
+        <f t="shared" si="59"/>
+        <v>1E+252</v>
+      </c>
     </row>
     <row r="71" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E71" s="16">
@@ -10886,11 +11022,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="58">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="60">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="59">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="61">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -10902,11 +11038,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="60">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="62">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="61">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="63">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -10915,11 +11051,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -10931,11 +11067,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>13200</v>
       </c>
     </row>
@@ -10944,11 +11080,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -10960,11 +11096,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>13400</v>
       </c>
     </row>
@@ -10973,11 +11109,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -10989,11 +11125,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>13600</v>
       </c>
     </row>
@@ -11002,11 +11138,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="62">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="64">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="63">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="65">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -11018,11 +11154,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="64">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="66">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -11031,11 +11167,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -11047,11 +11183,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>14000</v>
       </c>
     </row>
@@ -11060,11 +11196,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -11076,11 +11212,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>14200</v>
       </c>
     </row>
@@ -11105,11 +11241,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>14400</v>
       </c>
     </row>
@@ -11122,7 +11258,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -11134,11 +11270,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>14600</v>
       </c>
     </row>
@@ -11147,11 +11283,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="65">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="67">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="66">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="68">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -11163,11 +11299,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="67">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="69">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -11176,11 +11312,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -11192,11 +11328,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>15000</v>
       </c>
     </row>
@@ -11205,11 +11341,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -11221,11 +11357,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>15200</v>
       </c>
     </row>
@@ -11234,11 +11370,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -11250,11 +11386,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>15400</v>
       </c>
     </row>
@@ -11279,11 +11415,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>15600</v>
       </c>
     </row>
@@ -11292,11 +11428,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="68">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="70">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="69">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="71">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -11308,11 +11444,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="70">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="72">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -11321,11 +11457,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -11337,11 +11473,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>16000</v>
       </c>
     </row>
@@ -11350,11 +11486,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -11366,11 +11502,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>16200</v>
       </c>
     </row>
@@ -11395,11 +11531,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>16400</v>
       </c>
     </row>
@@ -11408,11 +11544,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="71">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="73">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="72">H91*J91</f>
+        <f t="shared" ref="G91" si="74">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -11424,11 +11560,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="73">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="75">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -11453,11 +11589,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>16800</v>
       </c>
     </row>
@@ -11466,11 +11602,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="74">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="76">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="75">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="77">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -11482,11 +11618,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>17000</v>
       </c>
     </row>
@@ -11495,11 +11631,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -11511,11 +11647,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>17200</v>
       </c>
     </row>
@@ -11540,11 +11676,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>17400</v>
       </c>
     </row>
@@ -11553,11 +11689,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="76">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="78">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="77">H96*J96</f>
+        <f t="shared" ref="G96" si="79">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -11569,11 +11705,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="78">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="80">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -11598,11 +11734,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>17800</v>
       </c>
     </row>
@@ -11611,11 +11747,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="79">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="81">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="80">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="82">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -11627,11 +11763,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>18000</v>
       </c>
     </row>
@@ -11640,11 +11776,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -11656,11 +11792,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="81">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="83">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -11669,11 +11805,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="82">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="84">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="83">H100*J100</f>
+        <f t="shared" ref="G100" si="85">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -11685,11 +11821,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>18400</v>
       </c>
     </row>
@@ -11714,11 +11850,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="84">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="86">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>18600</v>
       </c>
     </row>
@@ -11727,11 +11863,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="85">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="87">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="86">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="88">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -11743,11 +11879,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>18800</v>
       </c>
     </row>
@@ -11756,11 +11892,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -11772,11 +11908,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="87">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="89">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -11785,11 +11921,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -11801,11 +11937,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>19200</v>
       </c>
     </row>
@@ -11830,11 +11966,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="88">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="90">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>19400</v>
       </c>
     </row>
@@ -11843,11 +11979,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="89">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="91">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="90">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="92">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -11859,11 +11995,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>19600</v>
       </c>
     </row>
@@ -11872,11 +12008,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -11888,11 +12024,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="91">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="93">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -11901,11 +12037,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -11917,11 +12053,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>20000</v>
       </c>
     </row>
@@ -11946,11 +12082,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>20200</v>
       </c>
     </row>
@@ -11959,11 +12095,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="92">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="94">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="93">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="95">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -11975,11 +12111,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="94">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="96">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>20400</v>
       </c>
     </row>
@@ -11988,11 +12124,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -12004,11 +12140,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="95">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="97">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -12017,11 +12153,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -12033,11 +12169,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>20800</v>
       </c>
     </row>
@@ -12046,11 +12182,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -12062,11 +12198,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>21000</v>
       </c>
     </row>
@@ -12091,11 +12227,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>21200</v>
       </c>
     </row>
@@ -12104,11 +12240,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="96">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="98">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="97">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="99">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -12120,11 +12256,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="98">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="100">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>21400</v>
       </c>
     </row>
@@ -12133,11 +12269,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -12149,11 +12285,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="99">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="101">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -12162,11 +12298,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -12178,11 +12314,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21800</v>
       </c>
     </row>
@@ -12191,11 +12327,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -12207,11 +12343,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>22000</v>
       </c>
     </row>
@@ -12220,11 +12356,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -12236,11 +12372,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>22200</v>
       </c>
     </row>
@@ -12249,11 +12385,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F123" si="100">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="102">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G123" si="101">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="103">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -12265,11 +12401,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J123" si="102">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="104">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K123" si="103">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="105">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -12278,11 +12414,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -12294,11 +12430,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>22600</v>
       </c>
     </row>
@@ -12307,11 +12443,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -12323,11 +12459,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>22800</v>
       </c>
     </row>
@@ -12336,11 +12472,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -12352,11 +12488,11 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>23000</v>
       </c>
     </row>
@@ -12365,11 +12501,11 @@
         <v>116</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" ref="F124:F126" si="104">H124&amp;I124</f>
+        <f t="shared" ref="F124:F126" si="106">H124&amp;I124</f>
         <v>2.3483팽</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" ref="G124:G126" si="105">H124*J124</f>
+        <f t="shared" ref="G124:G126" si="107">H124*J124</f>
         <v>2.3482999999999999E+212</v>
       </c>
       <c r="H124" s="17">
@@ -12381,11 +12517,11 @@
         <v>팽</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" ref="J124:J126" si="106">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <f t="shared" ref="J124:J126" si="108">VLOOKUP(I124,M:P,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" ref="K124:K126" si="107">$B$14*E124</f>
+        <f t="shared" ref="K124:K126" si="109">$B$14*E124</f>
         <v>23200</v>
       </c>
     </row>
@@ -12394,11 +12530,11 @@
         <v>117</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>119.7633팽</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1.1976329999999999E+214</v>
       </c>
       <c r="H125" s="17">
@@ -12410,11 +12546,11 @@
         <v>팽</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+212</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>23400</v>
       </c>
     </row>
@@ -12423,11 +12559,11 @@
         <v>118</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>6107.9283팽</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>6.1079282999999993E+215</v>
       </c>
       <c r="H126" s="17">
@@ -12439,11 +12575,11 @@
         <v>팽</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+212</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>23600</v>
       </c>
     </row>
@@ -12452,11 +12588,11 @@
         <v>119</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" ref="F127:F131" si="108">H127&amp;I127</f>
+        <f t="shared" ref="F127:F131" si="110">H127&amp;I127</f>
         <v>31.1505관</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" ref="G127:G131" si="109">H127*J127</f>
+        <f t="shared" ref="G127:G131" si="111">H127*J127</f>
         <v>3.1150500000000002E+217</v>
       </c>
       <c r="H127" s="17">
@@ -12468,11 +12604,11 @@
         <v>관</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" ref="J127:J131" si="110">VLOOKUP(I127,M:P,4,FALSE)</f>
+        <f t="shared" ref="J127:J131" si="112">VLOOKUP(I127,M:P,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K127" s="11">
-        <f t="shared" ref="K127:K131" si="111">$B$14*E127</f>
+        <f t="shared" ref="K127:K131" si="113">$B$14*E127</f>
         <v>23800</v>
       </c>
     </row>
@@ -12481,11 +12617,11 @@
         <v>120</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1588.6755관</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1.5886754999999999E+219</v>
       </c>
       <c r="H128" s="17">
@@ -12497,11 +12633,11 @@
         <v>관</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+216</v>
       </c>
       <c r="K128" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>24000</v>
       </c>
     </row>
@@ -12510,11 +12646,11 @@
         <v>121</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>8.1023한</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>8.1022999999999999E+220</v>
       </c>
       <c r="H129" s="17">
@@ -12526,11 +12662,11 @@
         <v>한</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+220</v>
       </c>
       <c r="K129" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>24200</v>
       </c>
     </row>
@@ -12539,11 +12675,11 @@
         <v>122</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>413.2173한</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>4.1321730000000001E+222</v>
       </c>
       <c r="H130" s="17">
@@ -12555,11 +12691,11 @@
         <v>한</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+220</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>24400</v>
       </c>
     </row>
@@ -12568,11 +12704,11 @@
         <v>123</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>2.1075혈</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>2.1075000000000004E+224</v>
       </c>
       <c r="H131" s="17">
@@ -12584,11 +12720,11 @@
         <v>혈</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+224</v>
       </c>
       <c r="K131" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>24600</v>
       </c>
     </row>
@@ -12597,11 +12733,11 @@
         <v>124</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" ref="F132:F134" si="112">H132&amp;I132</f>
+        <f t="shared" ref="F132:F134" si="114">H132&amp;I132</f>
         <v>107.4825혈</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" ref="G132:G134" si="113">H132*J132</f>
+        <f t="shared" ref="G132:G134" si="115">H132*J132</f>
         <v>1.074825E+226</v>
       </c>
       <c r="H132" s="17">
@@ -12613,11 +12749,11 @@
         <v>혈</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" ref="J132:J134" si="114">VLOOKUP(I132,M:P,4,FALSE)</f>
+        <f t="shared" ref="J132:J134" si="116">VLOOKUP(I132,M:P,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" ref="K132:K134" si="115">$B$14*E132</f>
+        <f t="shared" ref="K132:K134" si="117">$B$14*E132</f>
         <v>24800</v>
       </c>
     </row>
@@ -12626,11 +12762,11 @@
         <v>125</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>5481.6075혈</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>5.4816074999999995E+227</v>
       </c>
       <c r="H133" s="17">
@@ -12642,11 +12778,11 @@
         <v>혈</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+224</v>
       </c>
       <c r="K133" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>25000</v>
       </c>
     </row>
@@ -12655,11 +12791,11 @@
         <v>126</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>27.9562연</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.7956199999999998E+229</v>
       </c>
       <c r="H134" s="17">
@@ -12671,11 +12807,11 @@
         <v>연</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+228</v>
       </c>
       <c r="K134" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>25200</v>
       </c>
     </row>
@@ -12684,11 +12820,11 @@
         <v>127</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" ref="F135:F140" si="116">H135&amp;I135</f>
+        <f t="shared" ref="F135:F140" si="118">H135&amp;I135</f>
         <v>1425.7662연</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" ref="G135:G140" si="117">H135*J135</f>
+        <f t="shared" ref="G135:G140" si="119">H135*J135</f>
         <v>1.4257661999999999E+231</v>
       </c>
       <c r="H135" s="17">
@@ -12700,11 +12836,11 @@
         <v>연</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" ref="J135:J140" si="118">VLOOKUP(I135,M:P,4,FALSE)</f>
+        <f t="shared" ref="J135:J140" si="120">VLOOKUP(I135,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K135" s="11">
-        <f t="shared" ref="K135:K140" si="119">$B$14*E135</f>
+        <f t="shared" ref="K135:K140" si="121">$B$14*E135</f>
         <v>25400</v>
       </c>
     </row>
@@ -12713,11 +12849,11 @@
         <v>128</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>7.2715난</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>7.2714999999999999E+232</v>
       </c>
       <c r="H136" s="17">
@@ -12729,11 +12865,11 @@
         <v>난</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+232</v>
       </c>
       <c r="K136" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>25600</v>
       </c>
     </row>
@@ -12742,11 +12878,11 @@
         <v>129</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>370.8465난</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>3.7084650000000002E+234</v>
       </c>
       <c r="H137" s="17">
@@ -12758,11 +12894,11 @@
         <v>난</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+232</v>
       </c>
       <c r="K137" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>25800</v>
       </c>
     </row>
@@ -12771,11 +12907,11 @@
         <v>130</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1.8914군</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>1.8914E+236</v>
       </c>
       <c r="H138" s="17">
@@ -12787,11 +12923,11 @@
         <v>군</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+236</v>
       </c>
       <c r="K138" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>26000</v>
       </c>
     </row>
@@ -12800,11 +12936,11 @@
         <v>131</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>96.4614군</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>9.6461400000000006E+237</v>
       </c>
       <c r="H139" s="17">
@@ -12816,11 +12952,11 @@
         <v>군</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+236</v>
       </c>
       <c r="K139" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>26200</v>
       </c>
     </row>
@@ -12829,11 +12965,11 @@
         <v>132</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>4919.5314군</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>4.9195314000000002E+239</v>
       </c>
       <c r="H140" s="17">
@@ -12845,11 +12981,11 @@
         <v>군</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+236</v>
       </c>
       <c r="K140" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>26400</v>
       </c>
     </row>
@@ -12858,11 +12994,11 @@
         <v>133</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F142" si="120">H141&amp;I141</f>
+        <f t="shared" ref="F141:F145" si="122">H141&amp;I141</f>
         <v>25.0897결</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G142" si="121">H141*J141</f>
+        <f t="shared" ref="G141:G145" si="123">H141*J141</f>
         <v>2.50897E+241</v>
       </c>
       <c r="H141" s="17">
@@ -12874,11 +13010,11 @@
         <v>결</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J142" si="122">VLOOKUP(I141,M:P,4,FALSE)</f>
+        <f t="shared" ref="J141:J145" si="124">VLOOKUP(I141,M:P,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K141" s="11">
-        <f t="shared" ref="K141:K142" si="123">$B$14*E141</f>
+        <f t="shared" ref="K141:K145" si="125">$B$14*E141</f>
         <v>26600</v>
       </c>
     </row>
@@ -12887,11 +13023,11 @@
         <v>134</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1279.5747결</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1.2795747E+243</v>
       </c>
       <c r="H142" s="17">
@@ -12903,12 +13039,70 @@
         <v>결</v>
       </c>
       <c r="J142" s="16" t="str">
+        <f t="shared" si="124"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K142" s="11">
+        <f t="shared" si="125"/>
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="143" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E143" s="16">
+        <v>135</v>
+      </c>
+      <c r="F143" s="17" t="str">
         <f t="shared" si="122"/>
-        <v>1E+240</v>
-      </c>
-      <c r="K142" s="11">
+        <v>6.5259맥</v>
+      </c>
+      <c r="G143" s="17">
         <f t="shared" si="123"/>
-        <v>26800</v>
+        <v>6.5259000000000008E+244</v>
+      </c>
+      <c r="H143" s="17">
+        <f t="shared" si="6"/>
+        <v>6.5259</v>
+      </c>
+      <c r="I143" s="16" t="str" cm="1">
+        <f t="array" ref="I143">IF(AND(H142&gt;100,H143&lt;100),INDEX(M:M,MATCH(I142,M:M,0)+1,0),I142)</f>
+        <v>맥</v>
+      </c>
+      <c r="J143" s="16" t="str">
+        <f t="shared" si="124"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K143" s="11">
+        <f t="shared" si="125"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="144" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E144" s="16">
+        <v>136</v>
+      </c>
+      <c r="F144" s="17" t="str">
+        <f t="shared" si="122"/>
+        <v>332.8209맥</v>
+      </c>
+      <c r="G144" s="17">
+        <f t="shared" si="123"/>
+        <v>3.3282090000000003E+246</v>
+      </c>
+      <c r="H144" s="17">
+        <f t="shared" si="6"/>
+        <v>332.82089999999999</v>
+      </c>
+      <c r="I144" s="16" t="str" cm="1">
+        <f t="array" ref="I144">IF(AND(H143&gt;100,H144&lt;100),INDEX(M:M,MATCH(I143,M:M,0)+1,0),I143)</f>
+        <v>맥</v>
+      </c>
+      <c r="J144" s="16" t="str">
+        <f t="shared" si="124"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K144" s="11">
+        <f t="shared" si="125"/>
+        <v>27200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C741CB-D9A4-4E5F-80DE-489EA5387D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D542EF-14D2-40FC-B879-65C782E0A59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1133,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomLeft" activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4496,7 +4496,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B137" si="24">B71</f>
+        <f t="shared" ref="B72:B139" si="24">B71</f>
         <v>1-1</v>
       </c>
       <c r="C72">
@@ -4508,7 +4508,7 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:E137" si="25">E71</f>
+        <f t="shared" ref="E72:E139" si="25">E71</f>
         <v>1</v>
       </c>
       <c r="F72">
@@ -4529,7 +4529,7 @@
         <v>16000</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K137" si="26">K71</f>
+        <f t="shared" ref="K72:K139" si="26">K71</f>
         <v>25</v>
       </c>
       <c r="L72">
@@ -4537,7 +4537,7 @@
         <v>14200</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M137" si="27">M71</f>
+        <f t="shared" ref="M72:M139" si="27">M71</f>
         <v>0</v>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J138" si="56">J118+200</f>
+        <f t="shared" ref="J119:J141" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6883,7 +6883,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L138" si="57">L118+200</f>
+        <f t="shared" ref="L119:L141" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7750,11 +7750,11 @@
         <v>1-1</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:C138" si="68">IF(MOD(A137,5)=0,9021,25)</f>
+        <f t="shared" ref="C137:C141" si="68">IF(MOD(A137,5)=0,9021,25)</f>
         <v>9021</v>
       </c>
       <c r="D137">
-        <f t="shared" ref="D137:D138" si="69">IF(C137=9021,D132+1,IF(AND(C137=25,C136=25),D136+2000,D135+2000))</f>
+        <f t="shared" ref="D137:D141" si="69">IF(C137=9021,D132+1,IF(AND(C137=25,C136=25),D136+2000,D135+2000))</f>
         <v>28</v>
       </c>
       <c r="E137">
@@ -7841,9 +7841,159 @@
         <v>0</v>
       </c>
     </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1-1</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="69"/>
+        <v>188000</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <f>VLOOKUP(A139,Balance!E:G,3,FALSE)</f>
+        <v>1.6974000000000001E+248</v>
+      </c>
+      <c r="G139">
+        <v>1000</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="56"/>
+        <v>29400</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="57"/>
+        <v>27600</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f t="shared" ref="B140:B141" si="70">B139</f>
+        <v>1-1</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="69"/>
+        <v>190000</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ref="E140:E141" si="71">E139</f>
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f>VLOOKUP(A140,Balance!E:G,3,FALSE)</f>
+        <v>8.6567400000000005E+249</v>
+      </c>
+      <c r="G140">
+        <v>1000</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="56"/>
+        <v>29600</v>
+      </c>
+      <c r="K140">
+        <f t="shared" ref="K140:K141" si="72">K139</f>
+        <v>25</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="57"/>
+        <v>27800</v>
+      </c>
+      <c r="M140">
+        <f t="shared" ref="M140:M141" si="73">M139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="68"/>
+        <v>25</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="69"/>
+        <v>192000</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <f>VLOOKUP(A141,Balance!E:G,3,FALSE)</f>
+        <v>4.4149373999999999E+251</v>
+      </c>
+      <c r="G141">
+        <v>1000</v>
+      </c>
+      <c r="H141">
+        <v>8</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="56"/>
+        <v>29800</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="57"/>
+        <v>28000</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M138 A3:C138 E4:E138 G62:K138">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M141 A3:C141 E4:E141 G62:K141">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7855,10 +8005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y144"/>
+  <dimension ref="A1:Y147"/>
   <sheetViews>
-    <sheetView topLeftCell="B113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView topLeftCell="B125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8103,7 +8253,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H145" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H147" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -12994,11 +13144,11 @@
         <v>133</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F145" si="122">H141&amp;I141</f>
+        <f t="shared" ref="F141:F146" si="122">H141&amp;I141</f>
         <v>25.0897결</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G145" si="123">H141*J141</f>
+        <f t="shared" ref="G141:G146" si="123">H141*J141</f>
         <v>2.50897E+241</v>
       </c>
       <c r="H141" s="17">
@@ -13010,11 +13160,11 @@
         <v>결</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J145" si="124">VLOOKUP(I141,M:P,4,FALSE)</f>
+        <f t="shared" ref="J141:J146" si="124">VLOOKUP(I141,M:P,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K141" s="11">
-        <f t="shared" ref="K141:K145" si="125">$B$14*E141</f>
+        <f t="shared" ref="K141:K146" si="125">$B$14*E141</f>
         <v>26600</v>
       </c>
     </row>
@@ -13103,6 +13253,93 @@
       <c r="K144" s="11">
         <f t="shared" si="125"/>
         <v>27200</v>
+      </c>
+    </row>
+    <row r="145" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E145" s="16">
+        <v>137</v>
+      </c>
+      <c r="F145" s="17" t="str">
+        <f t="shared" si="122"/>
+        <v>1.6974토</v>
+      </c>
+      <c r="G145" s="17">
+        <f t="shared" si="123"/>
+        <v>1.6974000000000001E+248</v>
+      </c>
+      <c r="H145" s="17">
+        <f t="shared" si="6"/>
+        <v>1.6974</v>
+      </c>
+      <c r="I145" s="16" t="str" cm="1">
+        <f t="array" ref="I145">IF(AND(H144&gt;100,H145&lt;100),INDEX(M:M,MATCH(I144,M:M,0)+1,0),I144)</f>
+        <v>토</v>
+      </c>
+      <c r="J145" s="16" t="str">
+        <f t="shared" si="124"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K145" s="11">
+        <f t="shared" si="125"/>
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="146" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E146" s="16">
+        <v>138</v>
+      </c>
+      <c r="F146" s="17" t="str">
+        <f t="shared" si="122"/>
+        <v>86.5674토</v>
+      </c>
+      <c r="G146" s="17">
+        <f t="shared" si="123"/>
+        <v>8.6567400000000005E+249</v>
+      </c>
+      <c r="H146" s="17">
+        <f t="shared" si="6"/>
+        <v>86.567400000000006</v>
+      </c>
+      <c r="I146" s="16" t="str" cm="1">
+        <f t="array" ref="I146">IF(AND(H145&gt;100,H146&lt;100),INDEX(M:M,MATCH(I145,M:M,0)+1,0),I145)</f>
+        <v>토</v>
+      </c>
+      <c r="J146" s="16" t="str">
+        <f t="shared" si="124"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K146" s="11">
+        <f t="shared" si="125"/>
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="147" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E147" s="16">
+        <v>139</v>
+      </c>
+      <c r="F147" s="17" t="str">
+        <f t="shared" ref="F147" si="126">H147&amp;I147</f>
+        <v>4414.9374토</v>
+      </c>
+      <c r="G147" s="17">
+        <f t="shared" ref="G147" si="127">H147*J147</f>
+        <v>4.4149373999999999E+251</v>
+      </c>
+      <c r="H147" s="17">
+        <f t="shared" si="6"/>
+        <v>4414.9373999999998</v>
+      </c>
+      <c r="I147" s="16" t="str" cm="1">
+        <f t="array" ref="I147">IF(AND(H146&gt;100,H147&lt;100),INDEX(M:M,MATCH(I146,M:M,0)+1,0),I146)</f>
+        <v>토</v>
+      </c>
+      <c r="J147" s="16" t="str">
+        <f t="shared" ref="J147" si="128">VLOOKUP(I147,M:P,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K147" s="11">
+        <f t="shared" ref="K147" si="129">$B$14*E147</f>
+        <v>27800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D542EF-14D2-40FC-B879-65C782E0A59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24043945-F8EB-4A64-9A04-BBBEF3627419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +535,10 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,11 +1137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F139" sqref="F139"/>
+      <selection pane="bottomLeft" activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6875,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J141" si="56">J118+200</f>
+        <f t="shared" ref="J119:J143" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6883,7 +6887,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L141" si="57">L118+200</f>
+        <f t="shared" ref="L119:L143" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7750,11 +7754,11 @@
         <v>1-1</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:C141" si="68">IF(MOD(A137,5)=0,9021,25)</f>
+        <f t="shared" ref="C137:C142" si="68">IF(MOD(A137,5)=0,9021,25)</f>
         <v>9021</v>
       </c>
       <c r="D137">
-        <f t="shared" ref="D137:D141" si="69">IF(C137=9021,D132+1,IF(AND(C137=25,C136=25),D136+2000,D135+2000))</f>
+        <f t="shared" ref="D137:D142" si="69">IF(C137=9021,D132+1,IF(AND(C137=25,C136=25),D136+2000,D135+2000))</f>
         <v>28</v>
       </c>
       <c r="E137">
@@ -7896,7 +7900,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" ref="B140:B141" si="70">B139</f>
+        <f t="shared" ref="B140:B143" si="70">B139</f>
         <v>1-1</v>
       </c>
       <c r="C140">
@@ -7908,7 +7912,7 @@
         <v>190000</v>
       </c>
       <c r="E140">
-        <f t="shared" ref="E140:E141" si="71">E139</f>
+        <f t="shared" ref="E140:E143" si="71">E139</f>
         <v>1</v>
       </c>
       <c r="F140">
@@ -7929,7 +7933,7 @@
         <v>29600</v>
       </c>
       <c r="K140">
-        <f t="shared" ref="K140:K141" si="72">K139</f>
+        <f t="shared" ref="K140:K143" si="72">K139</f>
         <v>25</v>
       </c>
       <c r="L140">
@@ -7937,7 +7941,7 @@
         <v>27800</v>
       </c>
       <c r="M140">
-        <f t="shared" ref="M140:M141" si="73">M139</f>
+        <f t="shared" ref="M140:M143" si="73">M139</f>
         <v>0</v>
       </c>
     </row>
@@ -7991,9 +7995,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="68"/>
+        <v>9021</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="69"/>
+        <v>29</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <f>VLOOKUP(A142,Balance!E:G,3,FALSE)</f>
+        <v>2.2516200000000004E+253</v>
+      </c>
+      <c r="G142">
+        <v>1000</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="56"/>
+        <v>30000</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="57"/>
+        <v>28200</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143" si="74">IF(MOD(A143,5)=0,9021,25)</f>
+        <v>25</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ref="D143" si="75">IF(C143=9021,D138+1,IF(AND(C143=25,C142=25),D142+2000,D141+2000))</f>
+        <v>194000</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <f>VLOOKUP(A143,Balance!E:G,3,FALSE)</f>
+        <v>1.1483262000000001E+255</v>
+      </c>
+      <c r="G143">
+        <v>1000</v>
+      </c>
+      <c r="H143">
+        <v>8</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="56"/>
+        <v>30200</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="57"/>
+        <v>28400</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M141 A3:C141 E4:E141 G62:K141">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M143 A3:C143 E4:E143 G62:K143">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8005,10 +8109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y147"/>
+  <dimension ref="A1:Y149"/>
   <sheetViews>
-    <sheetView topLeftCell="B125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView topLeftCell="B134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8253,7 +8357,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H147" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H150" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -11137,6 +11241,20 @@
         <f t="shared" si="55"/>
         <v>12600</v>
       </c>
+      <c r="M71" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N71" s="16">
+        <v>256</v>
+      </c>
+      <c r="O71" s="17">
+        <f t="shared" ref="O71" si="60">POWER(10,N71)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="P71" s="17" t="str">
+        <f t="shared" ref="P71" si="61">RIGHT(O71,N71)</f>
+        <v>1E+256</v>
+      </c>
     </row>
     <row r="72" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E72" s="16">
@@ -11172,11 +11290,11 @@
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="60">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="62">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="61">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="63">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -11188,11 +11306,11 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="62">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="64">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="63">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="65">$B$14*E73</f>
         <v>13000</v>
       </c>
     </row>
@@ -11201,11 +11319,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -11217,11 +11335,11 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>13200</v>
       </c>
     </row>
@@ -11230,11 +11348,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -11246,11 +11364,11 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>13400</v>
       </c>
     </row>
@@ -11259,11 +11377,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -11275,11 +11393,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>13600</v>
       </c>
     </row>
@@ -11288,11 +11406,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="64">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="66">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="65">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="67">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -11304,11 +11422,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="66">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="68">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -11317,11 +11435,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -11333,11 +11451,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>14000</v>
       </c>
     </row>
@@ -11346,11 +11464,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -11362,11 +11480,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>14200</v>
       </c>
     </row>
@@ -11391,11 +11509,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>14400</v>
       </c>
     </row>
@@ -11408,7 +11526,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -11420,11 +11538,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>14600</v>
       </c>
     </row>
@@ -11433,11 +11551,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="67">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="69">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="68">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="70">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -11449,11 +11567,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="69">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="71">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -11462,11 +11580,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -11478,11 +11596,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>15000</v>
       </c>
     </row>
@@ -11491,11 +11609,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -11507,11 +11625,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>15200</v>
       </c>
     </row>
@@ -11520,11 +11638,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -11536,11 +11654,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>15400</v>
       </c>
     </row>
@@ -11565,11 +11683,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>15600</v>
       </c>
     </row>
@@ -11578,11 +11696,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="70">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="72">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="71">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="73">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -11594,11 +11712,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="72">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="74">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -11607,11 +11725,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -11623,11 +11741,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>16000</v>
       </c>
     </row>
@@ -11636,11 +11754,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -11652,11 +11770,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>16200</v>
       </c>
     </row>
@@ -11681,11 +11799,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>16400</v>
       </c>
     </row>
@@ -11694,11 +11812,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="73">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="75">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="74">H91*J91</f>
+        <f t="shared" ref="G91" si="76">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -11710,11 +11828,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="75">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="77">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -11739,11 +11857,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>16800</v>
       </c>
     </row>
@@ -11752,11 +11870,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="76">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="78">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="77">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="79">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -11768,11 +11886,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>17000</v>
       </c>
     </row>
@@ -11781,11 +11899,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -11797,11 +11915,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>17200</v>
       </c>
     </row>
@@ -11826,11 +11944,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>17400</v>
       </c>
     </row>
@@ -11839,11 +11957,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="78">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="80">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="79">H96*J96</f>
+        <f t="shared" ref="G96" si="81">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -11855,11 +11973,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="80">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="82">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -11884,11 +12002,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>17800</v>
       </c>
     </row>
@@ -11897,11 +12015,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="81">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="83">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="82">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="84">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -11913,11 +12031,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>18000</v>
       </c>
     </row>
@@ -11926,11 +12044,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -11942,11 +12060,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="83">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="85">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -11955,11 +12073,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="84">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="86">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="85">H100*J100</f>
+        <f t="shared" ref="G100" si="87">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -11971,11 +12089,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>18400</v>
       </c>
     </row>
@@ -12000,11 +12118,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="86">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="88">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>18600</v>
       </c>
     </row>
@@ -12013,11 +12131,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="87">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="89">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="88">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="90">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -12029,11 +12147,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>18800</v>
       </c>
     </row>
@@ -12042,11 +12160,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -12058,11 +12176,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="89">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="91">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -12071,11 +12189,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -12087,11 +12205,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>19200</v>
       </c>
     </row>
@@ -12116,11 +12234,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="90">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="92">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>19400</v>
       </c>
     </row>
@@ -12129,11 +12247,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="91">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="93">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="92">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="94">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -12145,11 +12263,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>19600</v>
       </c>
     </row>
@@ -12158,11 +12276,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -12174,11 +12292,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="93">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="95">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -12187,11 +12305,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -12203,11 +12321,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>20000</v>
       </c>
     </row>
@@ -12232,11 +12350,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>20200</v>
       </c>
     </row>
@@ -12245,11 +12363,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="94">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="96">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="95">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="97">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -12261,11 +12379,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="96">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="98">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>20400</v>
       </c>
     </row>
@@ -12274,11 +12392,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -12290,11 +12408,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="97">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="99">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -12303,11 +12421,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -12319,11 +12437,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>20800</v>
       </c>
     </row>
@@ -12332,11 +12450,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -12348,11 +12466,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>21000</v>
       </c>
     </row>
@@ -12377,11 +12495,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>21200</v>
       </c>
     </row>
@@ -12390,11 +12508,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="98">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="100">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="99">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="101">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -12406,11 +12524,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="100">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="102">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>21400</v>
       </c>
     </row>
@@ -12419,11 +12537,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -12435,11 +12553,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="101">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="103">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -12448,11 +12566,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -12464,11 +12582,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>21800</v>
       </c>
     </row>
@@ -12477,11 +12595,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -12493,11 +12611,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>22000</v>
       </c>
     </row>
@@ -12506,11 +12624,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -12522,11 +12640,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>22200</v>
       </c>
     </row>
@@ -12535,11 +12653,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F123" si="102">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="104">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G123" si="103">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="105">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -12551,11 +12669,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J123" si="104">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="106">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K123" si="105">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="107">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -12564,11 +12682,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -12580,11 +12698,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>22600</v>
       </c>
     </row>
@@ -12593,11 +12711,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -12609,11 +12727,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>22800</v>
       </c>
     </row>
@@ -12622,11 +12740,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -12638,11 +12756,11 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>23000</v>
       </c>
     </row>
@@ -12651,11 +12769,11 @@
         <v>116</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" ref="F124:F126" si="106">H124&amp;I124</f>
+        <f t="shared" ref="F124:F126" si="108">H124&amp;I124</f>
         <v>2.3483팽</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" ref="G124:G126" si="107">H124*J124</f>
+        <f t="shared" ref="G124:G126" si="109">H124*J124</f>
         <v>2.3482999999999999E+212</v>
       </c>
       <c r="H124" s="17">
@@ -12667,11 +12785,11 @@
         <v>팽</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" ref="J124:J126" si="108">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <f t="shared" ref="J124:J126" si="110">VLOOKUP(I124,M:P,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" ref="K124:K126" si="109">$B$14*E124</f>
+        <f t="shared" ref="K124:K126" si="111">$B$14*E124</f>
         <v>23200</v>
       </c>
     </row>
@@ -12680,11 +12798,11 @@
         <v>117</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>119.7633팽</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>1.1976329999999999E+214</v>
       </c>
       <c r="H125" s="17">
@@ -12696,11 +12814,11 @@
         <v>팽</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+212</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>23400</v>
       </c>
     </row>
@@ -12709,11 +12827,11 @@
         <v>118</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>6107.9283팽</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>6.1079282999999993E+215</v>
       </c>
       <c r="H126" s="17">
@@ -12725,11 +12843,11 @@
         <v>팽</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1E+212</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>23600</v>
       </c>
     </row>
@@ -12738,11 +12856,11 @@
         <v>119</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" ref="F127:F131" si="110">H127&amp;I127</f>
+        <f t="shared" ref="F127:F131" si="112">H127&amp;I127</f>
         <v>31.1505관</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" ref="G127:G131" si="111">H127*J127</f>
+        <f t="shared" ref="G127:G131" si="113">H127*J127</f>
         <v>3.1150500000000002E+217</v>
       </c>
       <c r="H127" s="17">
@@ -12754,11 +12872,11 @@
         <v>관</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" ref="J127:J131" si="112">VLOOKUP(I127,M:P,4,FALSE)</f>
+        <f t="shared" ref="J127:J131" si="114">VLOOKUP(I127,M:P,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K127" s="11">
-        <f t="shared" ref="K127:K131" si="113">$B$14*E127</f>
+        <f t="shared" ref="K127:K131" si="115">$B$14*E127</f>
         <v>23800</v>
       </c>
     </row>
@@ -12767,11 +12885,11 @@
         <v>120</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1588.6755관</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1.5886754999999999E+219</v>
       </c>
       <c r="H128" s="17">
@@ -12783,11 +12901,11 @@
         <v>관</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+216</v>
       </c>
       <c r="K128" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>24000</v>
       </c>
     </row>
@@ -12796,11 +12914,11 @@
         <v>121</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>8.1023한</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>8.1022999999999999E+220</v>
       </c>
       <c r="H129" s="17">
@@ -12812,11 +12930,11 @@
         <v>한</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+220</v>
       </c>
       <c r="K129" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>24200</v>
       </c>
     </row>
@@ -12825,11 +12943,11 @@
         <v>122</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>413.2173한</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>4.1321730000000001E+222</v>
       </c>
       <c r="H130" s="17">
@@ -12841,11 +12959,11 @@
         <v>한</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+220</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>24400</v>
       </c>
     </row>
@@ -12854,11 +12972,11 @@
         <v>123</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>2.1075혈</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2.1075000000000004E+224</v>
       </c>
       <c r="H131" s="17">
@@ -12870,11 +12988,11 @@
         <v>혈</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1E+224</v>
       </c>
       <c r="K131" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>24600</v>
       </c>
     </row>
@@ -12883,11 +13001,11 @@
         <v>124</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" ref="F132:F134" si="114">H132&amp;I132</f>
+        <f t="shared" ref="F132:F134" si="116">H132&amp;I132</f>
         <v>107.4825혈</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" ref="G132:G134" si="115">H132*J132</f>
+        <f t="shared" ref="G132:G134" si="117">H132*J132</f>
         <v>1.074825E+226</v>
       </c>
       <c r="H132" s="17">
@@ -12899,11 +13017,11 @@
         <v>혈</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" ref="J132:J134" si="116">VLOOKUP(I132,M:P,4,FALSE)</f>
+        <f t="shared" ref="J132:J134" si="118">VLOOKUP(I132,M:P,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" ref="K132:K134" si="117">$B$14*E132</f>
+        <f t="shared" ref="K132:K134" si="119">$B$14*E132</f>
         <v>24800</v>
       </c>
     </row>
@@ -12912,11 +13030,11 @@
         <v>125</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>5481.6075혈</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>5.4816074999999995E+227</v>
       </c>
       <c r="H133" s="17">
@@ -12928,11 +13046,11 @@
         <v>혈</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1E+224</v>
       </c>
       <c r="K133" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>25000</v>
       </c>
     </row>
@@ -12941,11 +13059,11 @@
         <v>126</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>27.9562연</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>2.7956199999999998E+229</v>
       </c>
       <c r="H134" s="17">
@@ -12957,11 +13075,11 @@
         <v>연</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>1E+228</v>
       </c>
       <c r="K134" s="11">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>25200</v>
       </c>
     </row>
@@ -12970,11 +13088,11 @@
         <v>127</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" ref="F135:F140" si="118">H135&amp;I135</f>
+        <f t="shared" ref="F135:F140" si="120">H135&amp;I135</f>
         <v>1425.7662연</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" ref="G135:G140" si="119">H135*J135</f>
+        <f t="shared" ref="G135:G140" si="121">H135*J135</f>
         <v>1.4257661999999999E+231</v>
       </c>
       <c r="H135" s="17">
@@ -12986,11 +13104,11 @@
         <v>연</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" ref="J135:J140" si="120">VLOOKUP(I135,M:P,4,FALSE)</f>
+        <f t="shared" ref="J135:J140" si="122">VLOOKUP(I135,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K135" s="11">
-        <f t="shared" ref="K135:K140" si="121">$B$14*E135</f>
+        <f t="shared" ref="K135:K140" si="123">$B$14*E135</f>
         <v>25400</v>
       </c>
     </row>
@@ -12999,11 +13117,11 @@
         <v>128</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>7.2715난</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>7.2714999999999999E+232</v>
       </c>
       <c r="H136" s="17">
@@ -13015,11 +13133,11 @@
         <v>난</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1E+232</v>
       </c>
       <c r="K136" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>25600</v>
       </c>
     </row>
@@ -13028,11 +13146,11 @@
         <v>129</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>370.8465난</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>3.7084650000000002E+234</v>
       </c>
       <c r="H137" s="17">
@@ -13044,11 +13162,11 @@
         <v>난</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1E+232</v>
       </c>
       <c r="K137" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>25800</v>
       </c>
     </row>
@@ -13057,11 +13175,11 @@
         <v>130</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1.8914군</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>1.8914E+236</v>
       </c>
       <c r="H138" s="17">
@@ -13073,11 +13191,11 @@
         <v>군</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1E+236</v>
       </c>
       <c r="K138" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>26000</v>
       </c>
     </row>
@@ -13086,11 +13204,11 @@
         <v>131</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>96.4614군</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>9.6461400000000006E+237</v>
       </c>
       <c r="H139" s="17">
@@ -13102,11 +13220,11 @@
         <v>군</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1E+236</v>
       </c>
       <c r="K139" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>26200</v>
       </c>
     </row>
@@ -13115,11 +13233,11 @@
         <v>132</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>4919.5314군</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>4.9195314000000002E+239</v>
       </c>
       <c r="H140" s="17">
@@ -13131,11 +13249,11 @@
         <v>군</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1E+236</v>
       </c>
       <c r="K140" s="11">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>26400</v>
       </c>
     </row>
@@ -13144,11 +13262,11 @@
         <v>133</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F146" si="122">H141&amp;I141</f>
+        <f t="shared" ref="F141:F146" si="124">H141&amp;I141</f>
         <v>25.0897결</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G146" si="123">H141*J141</f>
+        <f t="shared" ref="G141:G146" si="125">H141*J141</f>
         <v>2.50897E+241</v>
       </c>
       <c r="H141" s="17">
@@ -13160,11 +13278,11 @@
         <v>결</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J146" si="124">VLOOKUP(I141,M:P,4,FALSE)</f>
+        <f t="shared" ref="J141:J146" si="126">VLOOKUP(I141,M:P,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K141" s="11">
-        <f t="shared" ref="K141:K146" si="125">$B$14*E141</f>
+        <f t="shared" ref="K141:K146" si="127">$B$14*E141</f>
         <v>26600</v>
       </c>
     </row>
@@ -13173,11 +13291,11 @@
         <v>134</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1279.5747결</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.2795747E+243</v>
       </c>
       <c r="H142" s="17">
@@ -13189,11 +13307,11 @@
         <v>결</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+240</v>
       </c>
       <c r="K142" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>26800</v>
       </c>
     </row>
@@ -13202,11 +13320,11 @@
         <v>135</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>6.5259맥</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6.5259000000000008E+244</v>
       </c>
       <c r="H143" s="17">
@@ -13218,11 +13336,11 @@
         <v>맥</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+244</v>
       </c>
       <c r="K143" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>27000</v>
       </c>
     </row>
@@ -13231,11 +13349,11 @@
         <v>136</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>332.8209맥</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>3.3282090000000003E+246</v>
       </c>
       <c r="H144" s="17">
@@ -13247,11 +13365,11 @@
         <v>맥</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+244</v>
       </c>
       <c r="K144" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>27200</v>
       </c>
     </row>
@@ -13260,11 +13378,11 @@
         <v>137</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1.6974토</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.6974000000000001E+248</v>
       </c>
       <c r="H145" s="17">
@@ -13276,11 +13394,11 @@
         <v>토</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+248</v>
       </c>
       <c r="K145" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>27400</v>
       </c>
     </row>
@@ -13289,11 +13407,11 @@
         <v>138</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>86.5674토</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>8.6567400000000005E+249</v>
       </c>
       <c r="H146" s="17">
@@ -13305,11 +13423,11 @@
         <v>토</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1E+248</v>
       </c>
       <c r="K146" s="11">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>27600</v>
       </c>
     </row>
@@ -13318,11 +13436,11 @@
         <v>139</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" ref="F147" si="126">H147&amp;I147</f>
+        <f t="shared" ref="F147:F150" si="128">H147&amp;I147</f>
         <v>4414.9374토</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" ref="G147" si="127">H147*J147</f>
+        <f t="shared" ref="G147:G150" si="129">H147*J147</f>
         <v>4.4149373999999999E+251</v>
       </c>
       <c r="H147" s="17">
@@ -13334,12 +13452,70 @@
         <v>토</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" ref="J147" si="128">VLOOKUP(I147,M:P,4,FALSE)</f>
+        <f t="shared" ref="J147:J150" si="130">VLOOKUP(I147,M:P,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K147" s="11">
-        <f t="shared" ref="K147" si="129">$B$14*E147</f>
+        <f t="shared" ref="K147:K150" si="131">$B$14*E147</f>
         <v>27800</v>
+      </c>
+    </row>
+    <row r="148" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E148" s="16">
+        <v>140</v>
+      </c>
+      <c r="F148" s="17" t="str">
+        <f t="shared" si="128"/>
+        <v>22.5162산</v>
+      </c>
+      <c r="G148" s="17">
+        <f t="shared" si="129"/>
+        <v>2.2516200000000004E+253</v>
+      </c>
+      <c r="H148" s="17">
+        <f t="shared" si="6"/>
+        <v>22.516200000000001</v>
+      </c>
+      <c r="I148" s="16" t="str" cm="1">
+        <f t="array" ref="I148">IF(AND(H147&gt;100,H148&lt;100),INDEX(M:M,MATCH(I147,M:M,0)+1,0),I147)</f>
+        <v>산</v>
+      </c>
+      <c r="J148" s="16" t="str">
+        <f t="shared" si="130"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K148" s="11">
+        <f t="shared" si="131"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="149" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E149" s="16">
+        <v>141</v>
+      </c>
+      <c r="F149" s="17" t="str">
+        <f t="shared" si="128"/>
+        <v>1148.3262산</v>
+      </c>
+      <c r="G149" s="17">
+        <f t="shared" si="129"/>
+        <v>1.1483262000000001E+255</v>
+      </c>
+      <c r="H149" s="17">
+        <f t="shared" si="6"/>
+        <v>1148.3262</v>
+      </c>
+      <c r="I149" s="16" t="str" cm="1">
+        <f t="array" ref="I149">IF(AND(H148&gt;100,H149&lt;100),INDEX(M:M,MATCH(I148,M:M,0)+1,0),I148)</f>
+        <v>산</v>
+      </c>
+      <c r="J149" s="16" t="str">
+        <f t="shared" si="130"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K149" s="11">
+        <f t="shared" si="131"/>
+        <v>28200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/GuildTowerTable.xlsx
+++ b/Assets/06.Table/GuildTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24043945-F8EB-4A64-9A04-BBBEF3627419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7CE7A-6EE0-4A3E-BEB8-47A8335F7825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,22 @@
   </si>
   <si>
     <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K139" sqref="K139"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6879,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J143" si="56">J118+200</f>
+        <f t="shared" ref="J119:J150" si="56">J118+200</f>
         <v>25400</v>
       </c>
       <c r="K119">
@@ -6887,7 +6903,7 @@
         <v>25</v>
       </c>
       <c r="L119">
-        <f t="shared" ref="L119:L143" si="57">L118+200</f>
+        <f t="shared" ref="L119:L150" si="57">L118+200</f>
         <v>23600</v>
       </c>
       <c r="M119">
@@ -7900,7 +7916,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" ref="B140:B143" si="70">B139</f>
+        <f t="shared" ref="B140:B150" si="70">B139</f>
         <v>1-1</v>
       </c>
       <c r="C140">
@@ -7912,7 +7928,7 @@
         <v>190000</v>
       </c>
       <c r="E140">
-        <f t="shared" ref="E140:E143" si="71">E139</f>
+        <f t="shared" ref="E140:E150" si="71">E139</f>
         <v>1</v>
       </c>
       <c r="F140">
@@ -7933,7 +7949,7 @@
         <v>29600</v>
       </c>
       <c r="K140">
-        <f t="shared" ref="K140:K143" si="72">K139</f>
+        <f t="shared" ref="K140:K150" si="72">K139</f>
         <v>25</v>
       </c>
       <c r="L140">
@@ -7941,7 +7957,7 @@
         <v>27800</v>
       </c>
       <c r="M140">
-        <f t="shared" ref="M140:M143" si="73">M139</f>
+        <f t="shared" ref="M140:M150" si="73">M139</f>
         <v>0</v>
       </c>
     </row>
@@ -8054,11 +8070,11 @@
         <v>1-1</v>
       </c>
       <c r="C143">
-        <f t="shared" ref="C143" si="74">IF(MOD(A143,5)=0,9021,25)</f>
+        <f t="shared" ref="C143:C150" si="74">IF(MOD(A143,5)=0,9021,25)</f>
         <v>25</v>
       </c>
       <c r="D143">
-        <f t="shared" ref="D143" si="75">IF(C143=9021,D138+1,IF(AND(C143=25,C142=25),D142+2000,D141+2000))</f>
+        <f t="shared" ref="D143:D150" si="75">IF(C143=9021,D138+1,IF(AND(C143=25,C142=25),D142+2000,D141+2000))</f>
         <v>194000</v>
       </c>
       <c r="E143">
@@ -8095,9 +8111,359 @@
         <v>0</v>
       </c>
     </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="74"/>
+        <v>25</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="75"/>
+        <v>196000</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <f>VLOOKUP(A144,Balance!E:G,3,FALSE)</f>
+        <v>5.8564999999999995E+256</v>
+      </c>
+      <c r="G144">
+        <v>1000</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="56"/>
+        <v>30400</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="57"/>
+        <v>28600</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="74"/>
+        <v>25</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="75"/>
+        <v>198000</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <f>VLOOKUP(A145,Balance!E:G,3,FALSE)</f>
+        <v>2.9868150000000003E+258</v>
+      </c>
+      <c r="G145">
+        <v>1000</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="56"/>
+        <v>30600</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="57"/>
+        <v>28800</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="74"/>
+        <v>25</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="75"/>
+        <v>200000</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f>VLOOKUP(A146,Balance!E:G,3,FALSE)</f>
+        <v>1.5233000000000001E+260</v>
+      </c>
+      <c r="G146">
+        <v>1000</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="56"/>
+        <v>30800</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="57"/>
+        <v>29000</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="74"/>
+        <v>9021</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <f>VLOOKUP(A147,Balance!E:G,3,FALSE)</f>
+        <v>7.7688300000000007E+261</v>
+      </c>
+      <c r="G147">
+        <v>1000</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="56"/>
+        <v>31000</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="57"/>
+        <v>29200</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="74"/>
+        <v>25</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="75"/>
+        <v>202000</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <f>VLOOKUP(A148,Balance!E:G,3,FALSE)</f>
+        <v>3.9621033000000006E+263</v>
+      </c>
+      <c r="G148">
+        <v>1000</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="56"/>
+        <v>31200</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="57"/>
+        <v>29400</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="74"/>
+        <v>25</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="75"/>
+        <v>204000</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <f>VLOOKUP(A149,Balance!E:G,3,FALSE)</f>
+        <v>2.0206800000000002E+265</v>
+      </c>
+      <c r="G149">
+        <v>1000</v>
+      </c>
+      <c r="H149">
+        <v>8</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="56"/>
+        <v>31400</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="57"/>
+        <v>29600</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f t="shared" si="70"/>
+        <v>1-1</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="74"/>
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="75"/>
+        <v>206000</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <f>VLOOKUP(A150,Balance!E:G,3,FALSE)</f>
+        <v>1.0305468000000001E+267</v>
+      </c>
+      <c r="G150">
+        <v>1000</v>
+      </c>
+      <c r="H150">
+        <v>8</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="56"/>
+        <v>31600</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="72"/>
+        <v>25</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="57"/>
+        <v>29800</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M143 A3:C143 E4:E143 G62:K143">
+  <conditionalFormatting sqref="A2:J2 K2:K61 D3:J3 D4:D32 F4:J32 G33:J61 M2:M150 A3:C150 E4:E150 G62:K150">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8109,10 +8475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Y149"/>
+  <dimension ref="A1:Y157"/>
   <sheetViews>
-    <sheetView topLeftCell="B134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView topLeftCell="B133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8357,7 +8723,7 @@
         <v>2.601E+19</v>
       </c>
       <c r="H11" s="17">
-        <f t="shared" ref="H11:H150" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H157" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>2601</v>
       </c>
       <c r="I11" s="16" t="str" cm="1">
@@ -11284,17 +11650,31 @@
         <f t="shared" si="55"/>
         <v>12800</v>
       </c>
+      <c r="M72" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N72" s="16">
+        <v>260</v>
+      </c>
+      <c r="O72" s="17">
+        <f t="shared" ref="O72:O75" si="62">POWER(10,N72)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="P72" s="17" t="str">
+        <f t="shared" ref="P72:P75" si="63">RIGHT(O72,N72)</f>
+        <v>1E+260</v>
+      </c>
     </row>
     <row r="73" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E73" s="16">
         <v>65</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" ref="F73:F76" si="62">H73&amp;I73</f>
+        <f t="shared" ref="F73:F76" si="64">H73&amp;I73</f>
         <v>19.257교</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" ref="G73:G76" si="63">H73*J73</f>
+        <f t="shared" ref="G73:G76" si="65">H73*J73</f>
         <v>1.9257E+125</v>
       </c>
       <c r="H73" s="17">
@@ -11306,12 +11686,26 @@
         <v>교</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J100" si="64">VLOOKUP(I73,M:P,4,FALSE)</f>
+        <f t="shared" ref="J73:J100" si="66">VLOOKUP(I73,M:P,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" ref="K73:K76" si="65">$B$14*E73</f>
+        <f t="shared" ref="K73:K76" si="67">$B$14*E73</f>
         <v>13000</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N73" s="16">
+        <v>264</v>
+      </c>
+      <c r="O73" s="17">
+        <f t="shared" si="62"/>
+        <v>1E+264</v>
+      </c>
+      <c r="P73" s="17" t="str">
+        <f t="shared" si="63"/>
+        <v>1E+264</v>
       </c>
     </row>
     <row r="74" spans="5:16" x14ac:dyDescent="0.3">
@@ -11319,11 +11713,11 @@
         <v>66</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>982.107교</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.8210699999999988E+126</v>
       </c>
       <c r="H74" s="17">
@@ -11335,12 +11729,26 @@
         <v>교</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+124</v>
       </c>
       <c r="K74" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>13200</v>
+      </c>
+      <c r="M74" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N74" s="16">
+        <v>268</v>
+      </c>
+      <c r="O74" s="17">
+        <f t="shared" si="62"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="P74" s="17" t="str">
+        <f t="shared" si="63"/>
+        <v>1E+268</v>
       </c>
     </row>
     <row r="75" spans="5:16" x14ac:dyDescent="0.3">
@@ -11348,11 +11756,11 @@
         <v>67</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>5.0088위</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5.0088000000000005E+128</v>
       </c>
       <c r="H75" s="17">
@@ -11364,12 +11772,26 @@
         <v>위</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+128</v>
       </c>
       <c r="K75" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>13400</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N75" s="16">
+        <v>272</v>
+      </c>
+      <c r="O75" s="17">
+        <f t="shared" si="62"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="P75" s="17" t="str">
+        <f t="shared" si="63"/>
+        <v>1E+272</v>
       </c>
     </row>
     <row r="76" spans="5:16" x14ac:dyDescent="0.3">
@@ -11377,11 +11799,11 @@
         <v>68</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>255.4488위</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>2.5544880000000002E+130</v>
       </c>
       <c r="H76" s="17">
@@ -11393,11 +11815,11 @@
         <v>위</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+128</v>
       </c>
       <c r="K76" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>13600</v>
       </c>
     </row>
@@ -11406,11 +11828,11 @@
         <v>69</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" ref="F77:F79" si="66">H77&amp;I77</f>
+        <f t="shared" ref="F77:F79" si="68">H77&amp;I77</f>
         <v>1.3028설</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" ref="G77:G81" si="67">H77*J77</f>
+        <f t="shared" ref="G77:G81" si="69">H77*J77</f>
         <v>1.3027999999999999E+132</v>
       </c>
       <c r="H77" s="17">
@@ -11422,11 +11844,11 @@
         <v>설</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+132</v>
       </c>
       <c r="K77" s="11">
-        <f t="shared" ref="K77:K81" si="68">$B$14*E77</f>
+        <f t="shared" ref="K77:K81" si="70">$B$14*E77</f>
         <v>13800</v>
       </c>
     </row>
@@ -11435,11 +11857,11 @@
         <v>70</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>66.4428설</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>6.6442800000000007E+133</v>
       </c>
       <c r="H78" s="17">
@@ -11451,11 +11873,11 @@
         <v>설</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+132</v>
       </c>
       <c r="K78" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>14000</v>
       </c>
     </row>
@@ -11464,11 +11886,11 @@
         <v>71</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3388.5828설</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>3.3885828000000001E+135</v>
       </c>
       <c r="H79" s="17">
@@ -11480,11 +11902,11 @@
         <v>설</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+132</v>
       </c>
       <c r="K79" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>14200</v>
       </c>
     </row>
@@ -11509,11 +11931,11 @@
         <v>적</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+136</v>
       </c>
       <c r="K80" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>14400</v>
       </c>
     </row>
@@ -11526,7 +11948,7 @@
         <v>881.3718적</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>8.8137180000000002E+138</v>
       </c>
       <c r="H81" s="17">
@@ -11538,11 +11960,11 @@
         <v>적</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+136</v>
       </c>
       <c r="K81" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>14600</v>
       </c>
     </row>
@@ -11551,11 +11973,11 @@
         <v>74</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" ref="F82:F85" si="69">H82&amp;I82</f>
+        <f t="shared" ref="F82:F85" si="71">H82&amp;I82</f>
         <v>4.495고</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" ref="G82:G85" si="70">H82*J82</f>
+        <f t="shared" ref="G82:G85" si="72">H82*J82</f>
         <v>4.4950000000000001E+140</v>
       </c>
       <c r="H82" s="17">
@@ -11567,11 +11989,11 @@
         <v>고</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+140</v>
       </c>
       <c r="K82" s="11">
-        <f t="shared" ref="K82:K86" si="71">$B$14*E82</f>
+        <f t="shared" ref="K82:K86" si="73">$B$14*E82</f>
         <v>14800</v>
       </c>
     </row>
@@ -11580,11 +12002,11 @@
         <v>75</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>229.245고</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2.2924500000000003E+142</v>
       </c>
       <c r="H83" s="17">
@@ -11596,11 +12018,11 @@
         <v>고</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+140</v>
       </c>
       <c r="K83" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>15000</v>
       </c>
     </row>
@@ -11609,11 +12031,11 @@
         <v>76</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1.1692화</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.1692000000000001E+144</v>
       </c>
       <c r="H84" s="17">
@@ -11625,11 +12047,11 @@
         <v>화</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+144</v>
       </c>
       <c r="K84" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>15200</v>
       </c>
     </row>
@@ -11638,11 +12060,11 @@
         <v>77</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>59.6292화</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5.96292E+145</v>
       </c>
       <c r="H85" s="17">
@@ -11654,11 +12076,11 @@
         <v>화</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+144</v>
       </c>
       <c r="K85" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>15400</v>
       </c>
     </row>
@@ -11683,11 +12105,11 @@
         <v>화</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+144</v>
       </c>
       <c r="K86" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>15600</v>
       </c>
     </row>
@@ -11696,11 +12118,11 @@
         <v>79</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F89" si="72">H87&amp;I87</f>
+        <f t="shared" ref="F87:F89" si="74">H87&amp;I87</f>
         <v>15.5096명</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" ref="G87:G89" si="73">H87*J87</f>
+        <f t="shared" ref="G87:G89" si="75">H87*J87</f>
         <v>1.5509599999999999E+149</v>
       </c>
       <c r="H87" s="17">
@@ -11712,11 +12134,11 @@
         <v>명</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+148</v>
       </c>
       <c r="K87" s="11">
-        <f t="shared" ref="K87:K90" si="74">$B$14*E87</f>
+        <f t="shared" ref="K87:K90" si="76">$B$14*E87</f>
         <v>15800</v>
       </c>
     </row>
@@ -11725,11 +12147,11 @@
         <v>80</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>790.9896명</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7.9098960000000005E+150</v>
       </c>
       <c r="H88" s="17">
@@ -11741,11 +12163,11 @@
         <v>명</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+148</v>
       </c>
       <c r="K88" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>16000</v>
       </c>
     </row>
@@ -11754,11 +12176,11 @@
         <v>81</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>4.0341월</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>4.0340999999999997E+152</v>
       </c>
       <c r="H89" s="17">
@@ -11770,11 +12192,11 @@
         <v>월</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K89" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>16200</v>
       </c>
     </row>
@@ -11799,11 +12221,11 @@
         <v>월</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+152</v>
       </c>
       <c r="K90" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>16400</v>
       </c>
     </row>
@@ -11812,11 +12234,11 @@
         <v>83</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" ref="F91" si="75">H91&amp;I91</f>
+        <f t="shared" ref="F91" si="77">H91&amp;I91</f>
         <v>1.0493후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" ref="G91" si="76">H91*J91</f>
+        <f t="shared" ref="G91" si="78">H91*J91</f>
         <v>1.0492999999999999E+156</v>
       </c>
       <c r="H91" s="17">
@@ -11828,11 +12250,11 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="11">
-        <f t="shared" ref="K91:K95" si="77">$B$14*E91</f>
+        <f t="shared" ref="K91:K95" si="79">$B$14*E91</f>
         <v>16600</v>
       </c>
     </row>
@@ -11857,11 +12279,11 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>16800</v>
       </c>
     </row>
@@ -11870,11 +12292,11 @@
         <v>85</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" ref="F93:F94" si="78">H93&amp;I93</f>
+        <f t="shared" ref="F93:F94" si="80">H93&amp;I93</f>
         <v>2729.2293후</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" ref="G93:G94" si="79">H93*J93</f>
+        <f t="shared" ref="G93:G94" si="81">H93*J93</f>
         <v>2.7292293E+159</v>
       </c>
       <c r="H93" s="17">
@@ -11886,11 +12308,11 @@
         <v>후</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+156</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>17000</v>
       </c>
     </row>
@@ -11899,11 +12321,11 @@
         <v>86</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13.9191단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1.39191E+161</v>
       </c>
       <c r="H94" s="17">
@@ -11915,11 +12337,11 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>17200</v>
       </c>
     </row>
@@ -11944,11 +12366,11 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>17400</v>
       </c>
     </row>
@@ -11957,11 +12379,11 @@
         <v>88</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" ref="F96" si="80">H96&amp;I96</f>
+        <f t="shared" ref="F96" si="82">H96&amp;I96</f>
         <v>3.6204절</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" ref="G96" si="81">H96*J96</f>
+        <f t="shared" ref="G96" si="83">H96*J96</f>
         <v>3.6204E+164</v>
       </c>
       <c r="H96" s="17">
@@ -11973,11 +12395,11 @@
         <v>절</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+164</v>
       </c>
       <c r="K96" s="11">
-        <f t="shared" ref="K96:K98" si="82">$B$14*E96</f>
+        <f t="shared" ref="K96:K98" si="84">$B$14*E96</f>
         <v>17600</v>
       </c>
     </row>
@@ -12002,11 +12424,11 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>17800</v>
       </c>
     </row>
@@ -12015,11 +12437,11 @@
         <v>90</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" ref="F98:F99" si="83">H98&amp;I98</f>
+        <f t="shared" ref="F98:F99" si="85">H98&amp;I98</f>
         <v>9416.6604절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" ref="G98:G99" si="84">H98*J98</f>
+        <f t="shared" ref="G98:G99" si="86">H98*J98</f>
         <v>9.416660400000001E+167</v>
       </c>
       <c r="H98" s="17">
@@ -12031,11 +12453,11 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>18000</v>
       </c>
     </row>
@@ -12044,11 +12466,11 @@
         <v>91</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>48.025격</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>4.8025000000000003E+169</v>
       </c>
       <c r="H99" s="17">
@@ -12060,11 +12482,11 @@
         <v>격</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+168</v>
       </c>
       <c r="K99" s="11">
-        <f t="shared" ref="K99:K102" si="85">$B$14*E99</f>
+        <f t="shared" ref="K99:K102" si="87">$B$14*E99</f>
         <v>18200</v>
       </c>
     </row>
@@ -12073,11 +12495,11 @@
         <v>92</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" ref="F100" si="86">H100&amp;I100</f>
+        <f t="shared" ref="F100" si="88">H100&amp;I100</f>
         <v>2449.275격</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" ref="G100" si="87">H100*J100</f>
+        <f t="shared" ref="G100" si="89">H100*J100</f>
         <v>2.4492750000000001E+171</v>
       </c>
       <c r="H100" s="17">
@@ -12089,11 +12511,11 @@
         <v>격</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+168</v>
       </c>
       <c r="K100" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>18400</v>
       </c>
     </row>
@@ -12118,11 +12540,11 @@
         <v>창</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" ref="J101:J104" si="88">VLOOKUP(I101,M:P,4,FALSE)</f>
+        <f t="shared" ref="J101:J104" si="90">VLOOKUP(I101,M:P,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>18600</v>
       </c>
     </row>
@@ -12131,11 +12553,11 @@
         <v>94</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" ref="F102:F104" si="89">H102&amp;I102</f>
+        <f t="shared" ref="F102:F104" si="91">H102&amp;I102</f>
         <v>637.0614창</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" ref="G102:G104" si="90">H102*J102</f>
+        <f t="shared" ref="G102:G104" si="92">H102*J102</f>
         <v>6.3706140000000007E+174</v>
       </c>
       <c r="H102" s="17">
@@ -12147,11 +12569,11 @@
         <v>창</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+172</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>18800</v>
       </c>
     </row>
@@ -12160,11 +12582,11 @@
         <v>95</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>3.2491공</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>3.2491000000000004E+176</v>
       </c>
       <c r="H103" s="17">
@@ -12176,11 +12598,11 @@
         <v>공</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+176</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" ref="K103:K106" si="91">$B$14*E103</f>
+        <f t="shared" ref="K103:K106" si="93">$B$14*E103</f>
         <v>19000</v>
       </c>
     </row>
@@ -12189,11 +12611,11 @@
         <v>96</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>165.7041공</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.6570410000000001E+178</v>
       </c>
       <c r="H104" s="17">
@@ -12205,11 +12627,11 @@
         <v>공</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+176</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>19200</v>
       </c>
     </row>
@@ -12234,11 +12656,11 @@
         <v>공</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J109" si="92">VLOOKUP(I105,M:P,4,FALSE)</f>
+        <f t="shared" ref="J105:J109" si="94">VLOOKUP(I105,M:P,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>19400</v>
       </c>
     </row>
@@ -12247,11 +12669,11 @@
         <v>98</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" ref="F106:F108" si="93">H106&amp;I106</f>
+        <f t="shared" ref="F106:F108" si="95">H106&amp;I106</f>
         <v>43.0997채</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" ref="G106:G108" si="94">H106*J106</f>
+        <f t="shared" ref="G106:G108" si="96">H106*J106</f>
         <v>4.3099700000000009E+181</v>
       </c>
       <c r="H106" s="17">
@@ -12263,11 +12685,11 @@
         <v>채</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+180</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>19600</v>
       </c>
     </row>
@@ -12276,11 +12698,11 @@
         <v>99</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>2198.0847채</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.1980846999999998E+183</v>
       </c>
       <c r="H107" s="17">
@@ -12292,11 +12714,11 @@
         <v>채</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+180</v>
       </c>
       <c r="K107" s="11">
-        <f t="shared" ref="K107:K110" si="95">$B$14*E107</f>
+        <f t="shared" ref="K107:K110" si="97">$B$14*E107</f>
         <v>19800</v>
       </c>
     </row>
@@ -12305,11 +12727,11 @@
         <v>100</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>11.2103피</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1.1210300000000001E+185</v>
       </c>
       <c r="H108" s="17">
@@ -12321,11 +12743,11 @@
         <v>피</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+184</v>
       </c>
       <c r="K108" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>20000</v>
       </c>
     </row>
@@ -12350,11 +12772,11 @@
         <v>피</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+184</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>20200</v>
       </c>
     </row>
@@ -12363,11 +12785,11 @@
         <v>102</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" ref="F110:F113" si="96">H110&amp;I110</f>
+        <f t="shared" ref="F110:F113" si="98">H110&amp;I110</f>
         <v>2.9158동</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" ref="G110:G113" si="97">H110*J110</f>
+        <f t="shared" ref="G110:G113" si="99">H110*J110</f>
         <v>2.9158000000000006E+188</v>
       </c>
       <c r="H110" s="17">
@@ -12379,11 +12801,11 @@
         <v>동</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" ref="J110:J114" si="98">VLOOKUP(I110,M:P,4,FALSE)</f>
+        <f t="shared" ref="J110:J114" si="100">VLOOKUP(I110,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>20400</v>
       </c>
     </row>
@@ -12392,11 +12814,11 @@
         <v>103</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>148.7058동</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1.4870580000000002E+190</v>
       </c>
       <c r="H111" s="17">
@@ -12408,11 +12830,11 @@
         <v>동</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+188</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" ref="K111:K115" si="99">$B$14*E111</f>
+        <f t="shared" ref="K111:K115" si="101">$B$14*E111</f>
         <v>20600</v>
       </c>
     </row>
@@ -12421,11 +12843,11 @@
         <v>104</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>7583.9958동</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>7.5839958000000002E+191</v>
       </c>
       <c r="H112" s="17">
@@ -12437,11 +12859,11 @@
         <v>동</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+188</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>20800</v>
       </c>
     </row>
@@ -12450,11 +12872,11 @@
         <v>105</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>38.6784멸</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>3.8678400000000007E+193</v>
       </c>
       <c r="H113" s="17">
@@ -12466,11 +12888,11 @@
         <v>멸</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+192</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21000</v>
       </c>
     </row>
@@ -12495,11 +12917,11 @@
         <v>멸</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+192</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21200</v>
       </c>
     </row>
@@ -12508,11 +12930,11 @@
         <v>107</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" ref="F115:F119" si="100">H115&amp;I115</f>
+        <f t="shared" ref="F115:F119" si="102">H115&amp;I115</f>
         <v>10.0603향</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" ref="G115:G119" si="101">H115*J115</f>
+        <f t="shared" ref="G115:G119" si="103">H115*J115</f>
         <v>1.00603E+197</v>
       </c>
       <c r="H115" s="17">
@@ -12524,11 +12946,11 @@
         <v>향</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" ref="J115:J119" si="102">VLOOKUP(I115,M:P,4,FALSE)</f>
+        <f t="shared" ref="J115:J119" si="104">VLOOKUP(I115,M:P,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K115" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>21400</v>
       </c>
     </row>
@@ -12537,11 +12959,11 @@
         <v>108</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>513.0753향</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>5.1307529999999993E+198</v>
       </c>
       <c r="H116" s="17">
@@ -12553,11 +12975,11 @@
         <v>향</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+196</v>
       </c>
       <c r="K116" s="11">
-        <f t="shared" ref="K116:K119" si="103">$B$14*E116</f>
+        <f t="shared" ref="K116:K119" si="105">$B$14*E116</f>
         <v>21600</v>
       </c>
     </row>
@@ -12566,11 +12988,11 @@
         <v>109</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2.6167증</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>2.6167000000000001E+200</v>
       </c>
       <c r="H117" s="17">
@@ -12582,11 +13004,11 @@
         <v>증</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+200</v>
       </c>
       <c r="K117" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>21800</v>
       </c>
     </row>
@@ -12595,11 +13017,11 @@
         <v>110</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>133.4517증</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1.3345169999999999E+202</v>
       </c>
       <c r="H118" s="17">
@@ -12611,11 +13033,11 @@
         <v>증</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+200</v>
       </c>
       <c r="K118" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>22000</v>
       </c>
     </row>
@@ -12624,11 +13046,11 @@
         <v>111</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>6806.0367증</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>6.8060367000000001E+203</v>
       </c>
       <c r="H119" s="17">
@@ -12640,11 +13062,11 @@
         <v>증</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+200</v>
       </c>
       <c r="K119" s="11">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>22200</v>
       </c>
     </row>
@@ -12653,11 +13075,11 @@
         <v>112</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" ref="F120:F123" si="104">H120&amp;I120</f>
+        <f t="shared" ref="F120:F123" si="106">H120&amp;I120</f>
         <v>34.7108쾌</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" ref="G120:G123" si="105">H120*J120</f>
+        <f t="shared" ref="G120:G123" si="107">H120*J120</f>
         <v>3.4710800000000006E+205</v>
       </c>
       <c r="H120" s="17">
@@ -12669,11 +13091,11 @@
         <v>쾌</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" ref="J120:J123" si="106">VLOOKUP(I120,M:P,4,FALSE)</f>
+        <f t="shared" ref="J120:J123" si="108">VLOOKUP(I120,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K120" s="11">
-        <f t="shared" ref="K120:K123" si="107">$B$14*E120</f>
+        <f t="shared" ref="K120:K123" si="109">$B$14*E120</f>
         <v>22400</v>
       </c>
     </row>
@@ -12682,11 +13104,11 @@
         <v>113</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1770.2508쾌</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>1.7702508000000001E+207</v>
       </c>
       <c r="H121" s="17">
@@ -12698,11 +13120,11 @@
         <v>쾌</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+204</v>
       </c>
       <c r="K121" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>22600</v>
       </c>
     </row>
@@ -12711,11 +13133,11 @@
         <v>114</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>9.0283우</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>9.0282999999999995E+208</v>
       </c>
       <c r="H122" s="17">
@@ -12727,11 +13149,11 @@
         <v>우</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+208</v>
       </c>
       <c r="K122" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>22800</v>
       </c>
     </row>
@@ -12740,11 +13162,11 @@
         <v>115</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>460.4433우</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>4.604433E+210</v>
       </c>
       <c r="H123" s="17">
@@ -12756,11 +13178,11 @@
         <v>우</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1E+208</v>
       </c>
       <c r="K123" s="11">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>23000</v>
       </c>
     </row>
@@ -12769,11 +13191,11 @@
         <v>116</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" ref="F124:F126" si="108">H124&amp;I124</f>
+        <f t="shared" ref="F124:F126" si="110">H124&amp;I124</f>
         <v>2.3483팽</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" ref="G124:G126" si="109">H124*J124</f>
+        <f t="shared" ref="G124:G126" si="111">H124*J124</f>
         <v>2.3482999999999999E+212</v>
       </c>
       <c r="H124" s="17">
@@ -12785,11 +13207,11 @@
         <v>팽</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" ref="J124:J126" si="110">VLOOKUP(I124,M:P,4,FALSE)</f>
+        <f t="shared" ref="J124:J126" si="112">VLOOKUP(I124,M:P,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K124" s="11">
-        <f t="shared" ref="K124:K126" si="111">$B$14*E124</f>
+        <f t="shared" ref="K124:K126" si="113">$B$14*E124</f>
         <v>23200</v>
       </c>
     </row>
@@ -12798,11 +13220,11 @@
         <v>117</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>119.7633팽</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>1.1976329999999999E+214</v>
       </c>
       <c r="H125" s="17">
@@ -12814,11 +13236,11 @@
         <v>팽</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+212</v>
       </c>
       <c r="K125" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>23400</v>
       </c>
     </row>
@@ -12827,11 +13249,11 @@
         <v>118</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>6107.9283팽</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>6.1079282999999993E+215</v>
       </c>
       <c r="H126" s="17">
@@ -12843,11 +13265,11 @@
         <v>팽</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>1E+212</v>
       </c>
       <c r="K126" s="11">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>23600</v>
       </c>
     </row>
@@ -12856,11 +13278,11 @@
         <v>119</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" ref="F127:F131" si="112">H127&amp;I127</f>
+        <f t="shared" ref="F127:F131" si="114">H127&amp;I127</f>
         <v>31.1505관</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" ref="G127:G131" si="113">H127*J127</f>
+        <f t="shared" ref="G127:G131" si="115">H127*J127</f>
         <v>3.1150500000000002E+217</v>
       </c>
       <c r="H127" s="17">
@@ -12872,11 +13294,11 @@
         <v>관</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" ref="J127:J131" si="114">VLOOKUP(I127,M:P,4,FALSE)</f>
+        <f t="shared" ref="J127:J131" si="116">VLOOKUP(I127,M:P,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K127" s="11">
-        <f t="shared" ref="K127:K131" si="115">$B$14*E127</f>
+        <f t="shared" ref="K127:K131" si="117">$B$14*E127</f>
         <v>23800</v>
       </c>
     </row>
@@ -12885,11 +13307,11 @@
         <v>120</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1588.6755관</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>1.5886754999999999E+219</v>
       </c>
       <c r="H128" s="17">
@@ -12901,11 +13323,11 @@
         <v>관</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+216</v>
       </c>
       <c r="K128" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>24000</v>
       </c>
     </row>
@@ -12914,11 +13336,11 @@
         <v>121</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8.1023한</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>8.1022999999999999E+220</v>
       </c>
       <c r="H129" s="17">
@@ -12930,11 +13352,11 @@
         <v>한</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+220</v>
       </c>
       <c r="K129" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>24200</v>
       </c>
     </row>
@@ -12943,11 +13365,11 @@
         <v>122</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>413.2173한</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.1321730000000001E+222</v>
       </c>
       <c r="H130" s="17">
@@ -12959,11 +13381,11 @@
         <v>한</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+220</v>
       </c>
       <c r="K130" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>24400</v>
       </c>
     </row>
@@ -12972,11 +13394,11 @@
         <v>123</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2.1075혈</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>2.1075000000000004E+224</v>
       </c>
       <c r="H131" s="17">
@@ -12988,11 +13410,11 @@
         <v>혈</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>1E+224</v>
       </c>
       <c r="K131" s="11">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>24600</v>
       </c>
     </row>
@@ -13001,11 +13423,11 @@
         <v>124</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" ref="F132:F134" si="116">H132&amp;I132</f>
+        <f t="shared" ref="F132:F134" si="118">H132&amp;I132</f>
         <v>107.4825혈</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" ref="G132:G134" si="117">H132*J132</f>
+        <f t="shared" ref="G132:G134" si="119">H132*J132</f>
         <v>1.074825E+226</v>
       </c>
       <c r="H132" s="17">
@@ -13017,11 +13439,11 @@
         <v>혈</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" ref="J132:J134" si="118">VLOOKUP(I132,M:P,4,FALSE)</f>
+        <f t="shared" ref="J132:J134" si="120">VLOOKUP(I132,M:P,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K132" s="11">
-        <f t="shared" ref="K132:K134" si="119">$B$14*E132</f>
+        <f t="shared" ref="K132:K134" si="121">$B$14*E132</f>
         <v>24800</v>
       </c>
     </row>
@@ -13030,11 +13452,11 @@
         <v>125</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>5481.6075혈</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>5.4816074999999995E+227</v>
       </c>
       <c r="H133" s="17">
@@ -13046,11 +13468,11 @@
         <v>혈</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+224</v>
       </c>
       <c r="K133" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>25000</v>
       </c>
     </row>
@@ -13059,11 +13481,11 @@
         <v>126</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>27.9562연</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.7956199999999998E+229</v>
       </c>
       <c r="H134" s="17">
@@ -13075,11 +13497,11 @@
         <v>연</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>1E+228</v>
       </c>
       <c r="K134" s="11">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>25200</v>
       </c>
     </row>
@@ -13088,11 +13510,11 @@
         <v>127</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" ref="F135:F140" si="120">H135&amp;I135</f>
+        <f t="shared" ref="F135:F140" si="122">H135&amp;I135</f>
         <v>1425.7662연</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" ref="G135:G140" si="121">H135*J135</f>
+        <f t="shared" ref="G135:G140" si="123">H135*J135</f>
         <v>1.4257661999999999E+231</v>
       </c>
       <c r="H135" s="17">
@@ -13104,11 +13526,11 @@
         <v>연</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" ref="J135:J140" si="122">VLOOKUP(I135,M:P,4,FALSE)</f>
+        <f t="shared" ref="J135:J140" si="124">VLOOKUP(I135,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K135" s="11">
-        <f t="shared" ref="K135:K140" si="123">$B$14*E135</f>
+        <f t="shared" ref="K135:K140" si="125">$B$14*E135</f>
         <v>25400</v>
       </c>
     </row>
@@ -13117,11 +13539,11 @@
         <v>128</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>7.2715난</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>7.2714999999999999E+232</v>
       </c>
       <c r="H136" s="17">
@@ -13133,11 +13555,11 @@
         <v>난</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+232</v>
       </c>
       <c r="K136" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>25600</v>
       </c>
     </row>
@@ -13146,11 +13568,11 @@
         <v>129</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>370.8465난</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3.7084650000000002E+234</v>
       </c>
       <c r="H137" s="17">
@@ -13162,11 +13584,11 @@
         <v>난</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+232</v>
       </c>
       <c r="K137" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>25800</v>
       </c>
     </row>
@@ -13175,11 +13597,11 @@
         <v>130</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>1.8914군</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>1.8914E+236</v>
       </c>
       <c r="H138" s="17">
@@ -13191,11 +13613,11 @@
         <v>군</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+236</v>
       </c>
       <c r="K138" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>26000</v>
       </c>
     </row>
@@ -13204,11 +13626,11 @@
         <v>131</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>96.4614군</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>9.6461400000000006E+237</v>
       </c>
       <c r="H139" s="17">
@@ -13220,11 +13642,11 @@
         <v>군</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+236</v>
       </c>
       <c r="K139" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>26200</v>
       </c>
     </row>
@@ -13233,11 +13655,11 @@
         <v>132</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>4919.5314군</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>4.9195314000000002E+239</v>
       </c>
       <c r="H140" s="17">
@@ -13249,11 +13671,11 @@
         <v>군</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>1E+236</v>
       </c>
       <c r="K140" s="11">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>26400</v>
       </c>
     </row>
@@ -13262,11 +13684,11 @@
         <v>133</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F146" si="124">H141&amp;I141</f>
+        <f t="shared" ref="F141:F146" si="126">H141&amp;I141</f>
         <v>25.0897결</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G146" si="125">H141*J141</f>
+        <f t="shared" ref="G141:G146" si="127">H141*J141</f>
         <v>2.50897E+241</v>
       </c>
       <c r="H141" s="17">
@@ -13278,11 +13700,11 @@
         <v>결</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J146" si="126">VLOOKUP(I141,M:P,4,FALSE)</f>
+        <f t="shared" ref="J141:J146" si="128">VLOOKUP(I141,M:P,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K141" s="11">
-        <f t="shared" ref="K141:K146" si="127">$B$14*E141</f>
+        <f t="shared" ref="K141:K146" si="129">$B$14*E141</f>
         <v>26600</v>
       </c>
     </row>
@@ -13291,11 +13713,11 @@
         <v>134</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1279.5747결</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1.2795747E+243</v>
       </c>
       <c r="H142" s="17">
@@ -13307,11 +13729,11 @@
         <v>결</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+240</v>
       </c>
       <c r="K142" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>26800</v>
       </c>
     </row>
@@ -13320,11 +13742,11 @@
         <v>135</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>6.5259맥</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>6.5259000000000008E+244</v>
       </c>
       <c r="H143" s="17">
@@ -13336,11 +13758,11 @@
         <v>맥</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+244</v>
       </c>
       <c r="K143" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>27000</v>
       </c>
     </row>
@@ -13349,11 +13771,11 @@
         <v>136</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>332.8209맥</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3.3282090000000003E+246</v>
       </c>
       <c r="H144" s="17">
@@ -13365,11 +13787,11 @@
         <v>맥</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+244</v>
       </c>
       <c r="K144" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>27200</v>
       </c>
     </row>
@@ -13378,11 +13800,11 @@
         <v>137</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>1.6974토</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1.6974000000000001E+248</v>
       </c>
       <c r="H145" s="17">
@@ -13394,11 +13816,11 @@
         <v>토</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+248</v>
       </c>
       <c r="K145" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>27400</v>
       </c>
     </row>
@@ -13407,11 +13829,11 @@
         <v>138</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>86.5674토</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>8.6567400000000005E+249</v>
       </c>
       <c r="H146" s="17">
@@ -13423,11 +13845,11 @@
         <v>토</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1E+248</v>
       </c>
       <c r="K146" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>27600</v>
       </c>
     </row>
@@ -13436,11 +13858,11 @@
         <v>139</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" ref="F147:F150" si="128">H147&amp;I147</f>
+        <f t="shared" ref="F147:F150" si="130">H147&amp;I147</f>
         <v>4414.9374토</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" ref="G147:G150" si="129">H147*J147</f>
+        <f t="shared" ref="G147:G150" si="131">H147*J147</f>
         <v>4.4149373999999999E+251</v>
       </c>
       <c r="H147" s="17">
@@ -13452,11 +13874,11 @@
         <v>토</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" ref="J147:J150" si="130">VLOOKUP(I147,M:P,4,FALSE)</f>
+        <f t="shared" ref="J147:J150" si="132">VLOOKUP(I147,M:P,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K147" s="11">
-        <f t="shared" ref="K147:K150" si="131">$B$14*E147</f>
+        <f t="shared" ref="K147:K150" si="133">$B$14*E147</f>
         <v>27800</v>
       </c>
     </row>
@@ -13465,11 +13887,11 @@
         <v>140</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>22.5162산</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>2.2516200000000004E+253</v>
       </c>
       <c r="H148" s="17">
@@ -13481,11 +13903,11 @@
         <v>산</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>1E+252</v>
       </c>
       <c r="K148" s="11">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>28000</v>
       </c>
     </row>
@@ -13494,11 +13916,11 @@
         <v>141</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>1148.3262산</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1.1483262000000001E+255</v>
       </c>
       <c r="H149" s="17">
@@ -13510,12 +13932,244 @@
         <v>산</v>
       </c>
       <c r="J149" s="16" t="str">
+        <f t="shared" si="132"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K149" s="11">
+        <f t="shared" si="133"/>
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="150" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E150" s="16">
+        <v>142</v>
+      </c>
+      <c r="F150" s="17" t="str">
         <f t="shared" si="130"/>
-        <v>1E+252</v>
-      </c>
-      <c r="K149" s="11">
+        <v>5.8565강</v>
+      </c>
+      <c r="G150" s="17">
         <f t="shared" si="131"/>
-        <v>28200</v>
+        <v>5.8564999999999995E+256</v>
+      </c>
+      <c r="H150" s="17">
+        <f t="shared" si="6"/>
+        <v>5.8564999999999996</v>
+      </c>
+      <c r="I150" s="16" t="str" cm="1">
+        <f t="array" ref="I150">IF(AND(H149&gt;100,H150&lt;100),INDEX(M:M,MATCH(I149,M:M,0)+1,0),I149)</f>
+        <v>강</v>
+      </c>
+      <c r="J150" s="16" t="str">
+        <f t="shared" si="132"/>
+        <v>1E+256</v>
+      </c>
+      <c r="K150" s="11">
+        <f t="shared" si="133"/>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="151" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E151" s="16">
+        <v>143</v>
+      </c>
+      <c r="F151" s="17" t="str">
+        <f t="shared" ref="F151:F157" si="134">H151&amp;I151</f>
+        <v>298.6815강</v>
+      </c>
+      <c r="G151" s="17">
+        <f t="shared" ref="G151:G157" si="135">H151*J151</f>
+        <v>2.9868150000000003E+258</v>
+      </c>
+      <c r="H151" s="17">
+        <f t="shared" si="6"/>
+        <v>298.68150000000003</v>
+      </c>
+      <c r="I151" s="16" t="str" cm="1">
+        <f t="array" ref="I151">IF(AND(H150&gt;100,H151&lt;100),INDEX(M:M,MATCH(I150,M:M,0)+1,0),I150)</f>
+        <v>강</v>
+      </c>
+      <c r="J151" s="16" t="str">
+        <f t="shared" ref="J151:J157" si="136">VLOOKUP(I151,M:P,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K151" s="11">
+        <f t="shared" ref="K151:K157" si="137">$B$14*E151</f>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="152" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E152" s="16">
+        <v>144</v>
+      </c>
+      <c r="F152" s="17" t="str">
+        <f t="shared" si="134"/>
+        <v>1.5233환</v>
+      </c>
+      <c r="G152" s="17">
+        <f t="shared" si="135"/>
+        <v>1.5233000000000001E+260</v>
+      </c>
+      <c r="H152" s="17">
+        <f t="shared" si="6"/>
+        <v>1.5233000000000001</v>
+      </c>
+      <c r="I152" s="16" t="str" cm="1">
+        <f t="array" ref="I152">IF(AND(H151&gt;100,H152&lt;100),INDEX(M:M,MATCH(I151,M:M,0)+1,0),I151)</f>
+        <v>환</v>
+      </c>
+      <c r="J152" s="16" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+260</v>
+      </c>
+      <c r="K152" s="11">
+        <f t="shared" si="137"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="153" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E153" s="16">
+        <v>145</v>
+      </c>
+      <c r="F153" s="17" t="str">
+        <f t="shared" si="134"/>
+        <v>77.6883환</v>
+      </c>
+      <c r="G153" s="17">
+        <f t="shared" si="135"/>
+        <v>7.7688300000000007E+261</v>
+      </c>
+      <c r="H153" s="17">
+        <f t="shared" si="6"/>
+        <v>77.688299999999998</v>
+      </c>
+      <c r="I153" s="16" t="str" cm="1">
+        <f t="array" ref="I153">IF(AND(H152&gt;100,H153&lt;100),INDEX(M:M,MATCH(I152,M:M,0)+1,0),I152)</f>
+        <v>환</v>
+      </c>
+      <c r="J153" s="16" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+260</v>
+      </c>
+      <c r="K153" s="11">
+        <f t="shared" si="137"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="154" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E154" s="16">
+        <v>146</v>
+      </c>
+      <c r="F154" s="17" t="str">
+        <f t="shared" si="134"/>
+        <v>3962.1033환</v>
+      </c>
+      <c r="G154" s="17">
+        <f t="shared" si="135"/>
+        <v>3.9621033000000006E+263</v>
+      </c>
+      <c r="H154" s="17">
+        <f t="shared" si="6"/>
+        <v>3962.1033000000002</v>
+      </c>
+      <c r="I154" s="16" t="str" cm="1">
+        <f t="array" ref="I154">IF(AND(H153&gt;100,H154&lt;100),INDEX(M:M,MATCH(I153,M:M,0)+1,0),I153)</f>
+        <v>환</v>
+      </c>
+      <c r="J154" s="16" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+260</v>
+      </c>
+      <c r="K154" s="11">
+        <f t="shared" si="137"/>
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="155" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E155" s="16">
+        <v>147</v>
+      </c>
+      <c r="F155" s="17" t="str">
+        <f t="shared" si="134"/>
+        <v>20.2068종</v>
+      </c>
+      <c r="G155" s="17">
+        <f t="shared" si="135"/>
+        <v>2.0206800000000002E+265</v>
+      </c>
+      <c r="H155" s="17">
+        <f t="shared" si="6"/>
+        <v>20.206800000000001</v>
+      </c>
+      <c r="I155" s="16" t="str" cm="1">
+        <f t="array" ref="I155">IF(AND(H154&gt;100,H155&lt;100),INDEX(M:M,MATCH(I154,M:M,0)+1,0),I154)</f>
+        <v>종</v>
+      </c>
+      <c r="J155" s="16" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+264</v>
+      </c>
+      <c r="K155" s="11">
+        <f t="shared" si="137"/>
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="156" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E156" s="16">
+        <v>148</v>
+      </c>
+      <c r="F156" s="17" t="str">
+        <f t="shared" si="134"/>
+        <v>1030.5468종</v>
+      </c>
+      <c r="G156" s="17">
+        <f t="shared" si="135"/>
+        <v>1.0305468000000001E+267</v>
+      </c>
+      <c r="H156" s="17">
+        <f t="shared" si="6"/>
+        <v>1030.5468000000001</v>
+      </c>
+      <c r="I156" s="16" t="str" cm="1">
+        <f t="array" ref="I156">IF(AND(H155&gt;100,H156&lt;100),INDEX(M:M,MATCH(I155,M:M,0)+1,0),I155)</f>
+        <v>종</v>
+      </c>
+      <c r="J156" s="16" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+264</v>
+      </c>
+      <c r="K156" s="11">
+        <f t="shared" si="137"/>
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="157" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E157" s="16">
+        <v>149</v>
+      </c>
+      <c r="F157" s="17" t="str">
+        <f t="shared" si="134"/>
+        <v>5.2558덕</v>
+      </c>
+      <c r="G157" s="17">
+        <f t="shared" si="135"/>
+        <v>5.2557999999999998E+268</v>
+      </c>
+      <c r="H157" s="17">
+        <f t="shared" si="6"/>
+        <v>5.2557999999999998</v>
+      </c>
+      <c r="I157" s="16" t="str" cm="1">
+        <f t="array" ref="I157">IF(AND(H156&gt;100,H157&lt;100),INDEX(M:M,MATCH(I156,M:M,0)+1,0),I156)</f>
+        <v>덕</v>
+      </c>
+      <c r="J157" s="16" t="str">
+        <f t="shared" si="136"/>
+        <v>1E+268</v>
+      </c>
+      <c r="K157" s="11">
+        <f t="shared" si="137"/>
+        <v>29800</v>
       </c>
     </row>
   </sheetData>
